--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF370000-4998-49A7-BEDF-8DB73E3A6261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E79824-0BC7-42C4-A739-EE177A3D8907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2625,9 +2625,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC726" totalsRowShown="0">
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="16">
+    <filterColumn colId="13">
       <filters>
-        <filter val="TRIBUTACION INTERNACIONAL II"/>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="28">
+      <filters>
+        <filter val="C"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2988,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D82FCF-C69F-4D33-89B4-4E8EE3C413D9}">
   <dimension ref="A1:AC726"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q530" sqref="Q530"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="L290" sqref="L290:L297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,7 +3010,7 @@
     <col min="9" max="9" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.5703125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" hidden="1" customWidth="1"/>
@@ -3021,7 +3026,7 @@
     <col min="25" max="25" width="16" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="15" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="15" customWidth="1"/>
     <col min="29" max="29" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16161,7 +16166,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>362</v>
       </c>
@@ -20872,7 +20877,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>444</v>
       </c>
@@ -20946,7 +20951,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>445</v>
       </c>
@@ -21029,7 +21034,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>448</v>
       </c>
@@ -21103,7 +21108,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>449</v>
       </c>
@@ -21186,7 +21191,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>450</v>
       </c>
@@ -21269,7 +21274,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>452</v>
       </c>
@@ -21352,7 +21357,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>456</v>
       </c>
@@ -21438,7 +21443,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>42</v>
       </c>
@@ -21512,7 +21517,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>362</v>
       </c>
@@ -21595,7 +21600,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>444</v>
       </c>
@@ -21669,7 +21674,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>445</v>
       </c>
@@ -21752,7 +21757,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>448</v>
       </c>
@@ -21826,7 +21831,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>449</v>
       </c>
@@ -21909,7 +21914,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>450</v>
       </c>
@@ -21992,7 +21997,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>452</v>
       </c>
@@ -22075,7 +22080,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>456</v>
       </c>
@@ -22161,7 +22166,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>362</v>
       </c>
@@ -22244,7 +22249,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>444</v>
       </c>
@@ -22318,7 +22323,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>445</v>
       </c>
@@ -22392,7 +22397,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>448</v>
       </c>
@@ -22466,7 +22471,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>449</v>
       </c>
@@ -22540,7 +22545,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>450</v>
       </c>
@@ -22623,7 +22628,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>452</v>
       </c>
@@ -22706,7 +22711,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>456</v>
       </c>
@@ -22792,7 +22797,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>362</v>
       </c>
@@ -22866,7 +22871,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>444</v>
       </c>
@@ -22940,7 +22945,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>445</v>
       </c>
@@ -23023,7 +23028,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>448</v>
       </c>
@@ -23106,7 +23111,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>449</v>
       </c>
@@ -23189,7 +23194,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>450</v>
       </c>
@@ -23272,7 +23277,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>452</v>
       </c>
@@ -23355,7 +23360,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>456</v>
       </c>
@@ -23432,7 +23437,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>362</v>
       </c>
@@ -23515,7 +23520,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>444</v>
       </c>
@@ -23589,7 +23594,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>445</v>
       </c>
@@ -23663,7 +23668,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>448</v>
       </c>
@@ -23737,7 +23742,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>449</v>
       </c>
@@ -23811,7 +23816,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>450</v>
       </c>
@@ -23894,7 +23899,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>452</v>
       </c>
@@ -23977,7 +23982,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>456</v>
       </c>
@@ -24063,7 +24068,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>362</v>
       </c>
@@ -24137,7 +24142,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>444</v>
       </c>
@@ -24211,7 +24216,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>445</v>
       </c>
@@ -24285,7 +24290,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>448</v>
       </c>
@@ -24368,7 +24373,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>449</v>
       </c>
@@ -24442,7 +24447,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>450</v>
       </c>
@@ -24525,7 +24530,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>452</v>
       </c>
@@ -24608,7 +24613,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>456</v>
       </c>
@@ -24694,7 +24699,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>362</v>
       </c>
@@ -24768,7 +24773,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>444</v>
       </c>
@@ -24842,7 +24847,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>445</v>
       </c>
@@ -24916,7 +24921,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>448</v>
       </c>
@@ -24990,7 +24995,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>449</v>
       </c>
@@ -25064,7 +25069,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>450</v>
       </c>
@@ -25147,7 +25152,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>452</v>
       </c>
@@ -25221,7 +25226,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>456</v>
       </c>
@@ -25298,7 +25303,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>362</v>
       </c>
@@ -25372,7 +25377,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>444</v>
       </c>
@@ -25446,7 +25451,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>445</v>
       </c>
@@ -25520,7 +25525,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>448</v>
       </c>
@@ -25594,7 +25599,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>449</v>
       </c>
@@ -25668,7 +25673,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>450</v>
       </c>
@@ -25742,7 +25747,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>452</v>
       </c>
@@ -25816,7 +25821,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>456</v>
       </c>
@@ -25893,7 +25898,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>362</v>
       </c>
@@ -25967,7 +25972,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>444</v>
       </c>
@@ -26041,7 +26046,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>445</v>
       </c>
@@ -26115,7 +26120,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>448</v>
       </c>
@@ -26189,7 +26194,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>449</v>
       </c>
@@ -26263,7 +26268,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>450</v>
       </c>
@@ -26337,7 +26342,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>452</v>
       </c>
@@ -26411,7 +26416,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>456</v>
       </c>
@@ -26488,7 +26493,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>362</v>
       </c>
@@ -26562,7 +26567,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>444</v>
       </c>
@@ -26636,7 +26641,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>445</v>
       </c>
@@ -26710,7 +26715,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>448</v>
       </c>
@@ -26784,7 +26789,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>449</v>
       </c>
@@ -26858,7 +26863,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>450</v>
       </c>
@@ -26932,7 +26937,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>452</v>
       </c>
@@ -27006,7 +27011,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>456</v>
       </c>
@@ -27083,7 +27088,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>362</v>
       </c>
@@ -27157,7 +27162,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>444</v>
       </c>
@@ -27231,7 +27236,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>445</v>
       </c>
@@ -27305,7 +27310,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>448</v>
       </c>
@@ -27379,7 +27384,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>449</v>
       </c>
@@ -27453,7 +27458,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>450</v>
       </c>
@@ -27527,7 +27532,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>452</v>
       </c>
@@ -27601,7 +27606,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>456</v>
       </c>
@@ -44916,7 +44921,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>112046</v>
       </c>

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E79824-0BC7-42C4-A739-EE177A3D8907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ECEB85-4342-498F-B898-8CC7F63F7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2603,13 +2603,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2625,22 +2630,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC726" totalsRowShown="0">
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="13">
+    <filterColumn colId="16">
       <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="28">
-      <filters>
-        <filter val="C"/>
+        <filter val="POLÍTICA FISCAL  Y TRIBUTARIA"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AC507">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC680">
     <sortCondition ref="A1:A726"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{22044F18-BA93-4166-A5C2-B37D5DC456F1}" name="cod_asignatura"/>
+    <tableColumn id="1" xr3:uid="{22044F18-BA93-4166-A5C2-B37D5DC456F1}" name="cod_asignatura" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{A12BC72A-7882-48E1-9B2A-68CE7B9FE6F3}" name="cod_tipo_acta"/>
     <tableColumn id="3" xr3:uid="{CF243CF5-9E72-443D-9379-DD8774743522}" name="cod_seccion"/>
     <tableColumn id="4" xr3:uid="{761CD65D-DD37-4B46-99FA-A1F892586350}" name="cod_turno"/>
@@ -2993,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D82FCF-C69F-4D33-89B4-4E8EE3C413D9}">
   <dimension ref="A1:AC726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="L290" sqref="L290:L297"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q501" sqref="Q501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,7 +3120,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
@@ -3194,7 +3194,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
@@ -3268,8 +3268,8 @@
       </c>
     </row>
     <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
+      <c r="A4" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -3287,10 +3287,10 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
@@ -3305,7 +3305,7 @@
         <v>34</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -3314,13 +3314,13 @@
         <v>33</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="T4" t="s">
         <v>37</v>
@@ -3338,11 +3338,11 @@
         <v>41</v>
       </c>
       <c r="AC4" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="s">
@@ -3416,7 +3416,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B6" t="s">
@@ -3490,7 +3490,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -3564,7 +3564,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B8" t="s">
@@ -3638,8 +3638,8 @@
       </c>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
+      <c r="A9" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -3657,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -3675,7 +3675,7 @@
         <v>34</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -3708,11 +3708,11 @@
         <v>41</v>
       </c>
       <c r="AC9" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
@@ -3786,7 +3786,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B11" t="s">
@@ -3860,7 +3860,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B12" t="s">
@@ -3934,7 +3934,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B13" t="s">
@@ -4008,8 +4008,8 @@
       </c>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>68</v>
+      <c r="A14" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4027,10 +4027,10 @@
         <v>11</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
@@ -4048,19 +4048,19 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O14" t="s">
         <v>33</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="s">
         <v>69</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="T14" t="s">
         <v>37</v>
@@ -4078,11 +4078,11 @@
         <v>41</v>
       </c>
       <c r="AC14" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B15" t="s">
@@ -4156,7 +4156,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B16" t="s">
@@ -4230,7 +4230,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B17" t="s">
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B18" t="s">
@@ -4387,7 +4387,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B19" t="s">
@@ -4470,7 +4470,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B20" t="s">
@@ -4553,7 +4553,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B21" t="s">
@@ -4636,7 +4636,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B22" t="s">
@@ -4719,7 +4719,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B23" t="s">
@@ -4802,7 +4802,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B24" t="s">
@@ -4876,7 +4876,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B25" t="s">
@@ -4959,7 +4959,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B26" t="s">
@@ -5042,7 +5042,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B27" t="s">
@@ -5125,7 +5125,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B28" t="s">
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B29" t="s">
@@ -5291,7 +5291,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B30" t="s">
@@ -5374,7 +5374,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B31" t="s">
@@ -5457,7 +5457,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B32" t="s">
@@ -5540,7 +5540,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B33" t="s">
@@ -5623,7 +5623,7 @@
       </c>
     </row>
     <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B34" t="s">
@@ -5697,7 +5697,7 @@
       </c>
     </row>
     <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B35" t="s">
@@ -5771,7 +5771,7 @@
       </c>
     </row>
     <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B36" t="s">
@@ -5845,7 +5845,7 @@
       </c>
     </row>
     <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B37" t="s">
@@ -5919,7 +5919,7 @@
       </c>
     </row>
     <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B38" t="s">
@@ -5993,7 +5993,7 @@
       </c>
     </row>
     <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B39" t="s">
@@ -6076,7 +6076,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B40" t="s">
@@ -6150,7 +6150,7 @@
       </c>
     </row>
     <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B41" t="s">
@@ -6233,7 +6233,7 @@
       </c>
     </row>
     <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B42" t="s">
@@ -6307,7 +6307,7 @@
       </c>
     </row>
     <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B43" t="s">
@@ -6393,7 +6393,7 @@
       </c>
     </row>
     <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B44" t="s">
@@ -6467,7 +6467,7 @@
       </c>
     </row>
     <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B45" t="s">
@@ -6541,7 +6541,7 @@
       </c>
     </row>
     <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B46" t="s">
@@ -6624,7 +6624,7 @@
       </c>
     </row>
     <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B47" t="s">
@@ -6707,7 +6707,7 @@
       </c>
     </row>
     <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B48" t="s">
@@ -6781,7 +6781,7 @@
       </c>
     </row>
     <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B49" t="s">
@@ -6864,7 +6864,7 @@
       </c>
     </row>
     <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B50" t="s">
@@ -6938,7 +6938,7 @@
       </c>
     </row>
     <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B51" t="s">
@@ -7024,7 +7024,7 @@
       </c>
     </row>
     <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B52" t="s">
@@ -7098,7 +7098,7 @@
       </c>
     </row>
     <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B53" t="s">
@@ -7172,7 +7172,7 @@
       </c>
     </row>
     <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B54" t="s">
@@ -7246,7 +7246,7 @@
       </c>
     </row>
     <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B55" t="s">
@@ -7320,7 +7320,7 @@
       </c>
     </row>
     <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B56" t="s">
@@ -7403,7 +7403,7 @@
       </c>
     </row>
     <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B57" t="s">
@@ -7486,7 +7486,7 @@
       </c>
     </row>
     <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B58" t="s">
@@ -7560,7 +7560,7 @@
       </c>
     </row>
     <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B59" t="s">
@@ -7637,7 +7637,7 @@
       </c>
     </row>
     <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B60" t="s">
@@ -7711,7 +7711,7 @@
       </c>
     </row>
     <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B61" t="s">
@@ -7785,7 +7785,7 @@
       </c>
     </row>
     <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B62" t="s">
@@ -7859,7 +7859,7 @@
       </c>
     </row>
     <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B63" t="s">
@@ -7933,7 +7933,7 @@
       </c>
     </row>
     <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B64" t="s">
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B65" t="s">
@@ -8081,7 +8081,7 @@
       </c>
     </row>
     <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B66" t="s">
@@ -8155,7 +8155,7 @@
       </c>
     </row>
     <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B67" t="s">
@@ -8232,8 +8232,8 @@
       </c>
     </row>
     <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>174</v>
+      <c r="A68" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="B68" t="s">
         <v>29</v>
@@ -8251,7 +8251,7 @@
         <v>11</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
         <v>124</v>
@@ -8269,7 +8269,7 @@
         <v>34</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -8302,11 +8302,11 @@
         <v>41</v>
       </c>
       <c r="AC68" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B69" t="s">
@@ -8380,7 +8380,7 @@
       </c>
     </row>
     <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B70" t="s">
@@ -8463,7 +8463,7 @@
       </c>
     </row>
     <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B71" t="s">
@@ -8546,7 +8546,7 @@
       </c>
     </row>
     <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B72" t="s">
@@ -8629,7 +8629,7 @@
       </c>
     </row>
     <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B73" t="s">
@@ -8712,7 +8712,7 @@
       </c>
     </row>
     <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B74" t="s">
@@ -8795,7 +8795,7 @@
       </c>
     </row>
     <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B75" t="s">
@@ -8878,7 +8878,7 @@
       </c>
     </row>
     <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B76" t="s">
@@ -8961,7 +8961,7 @@
       </c>
     </row>
     <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B77" t="s">
@@ -9044,7 +9044,7 @@
       </c>
     </row>
     <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B78" t="s">
@@ -9127,7 +9127,7 @@
       </c>
     </row>
     <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B79" t="s">
@@ -9210,7 +9210,7 @@
       </c>
     </row>
     <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B80" t="s">
@@ -9284,7 +9284,7 @@
       </c>
     </row>
     <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B81" t="s">
@@ -9367,7 +9367,7 @@
       </c>
     </row>
     <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B82" t="s">
@@ -9441,7 +9441,7 @@
       </c>
     </row>
     <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B83" t="s">
@@ -9524,7 +9524,7 @@
       </c>
     </row>
     <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B84" t="s">
@@ -9598,7 +9598,7 @@
       </c>
     </row>
     <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B85" t="s">
@@ -9672,7 +9672,7 @@
       </c>
     </row>
     <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B86" t="s">
@@ -9746,7 +9746,7 @@
       </c>
     </row>
     <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B87" t="s">
@@ -9820,7 +9820,7 @@
       </c>
     </row>
     <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B88" t="s">
@@ -9894,7 +9894,7 @@
       </c>
     </row>
     <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B89" t="s">
@@ -9968,7 +9968,7 @@
       </c>
     </row>
     <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B90" t="s">
@@ -10042,7 +10042,7 @@
       </c>
     </row>
     <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B91" t="s">
@@ -10125,7 +10125,7 @@
       </c>
     </row>
     <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B92" t="s">
@@ -10208,7 +10208,7 @@
       </c>
     </row>
     <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B93" t="s">
@@ -10282,7 +10282,7 @@
       </c>
     </row>
     <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B94" t="s">
@@ -10365,7 +10365,7 @@
       </c>
     </row>
     <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B95" t="s">
@@ -10448,7 +10448,7 @@
       </c>
     </row>
     <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B96" t="s">
@@ -10531,7 +10531,7 @@
       </c>
     </row>
     <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B97" t="s">
@@ -10614,7 +10614,7 @@
       </c>
     </row>
     <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B98" t="s">
@@ -10697,7 +10697,7 @@
       </c>
     </row>
     <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B99" t="s">
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B100" t="s">
@@ -10863,7 +10863,7 @@
       </c>
     </row>
     <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B101" t="s">
@@ -10937,7 +10937,7 @@
       </c>
     </row>
     <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B102" t="s">
@@ -11020,7 +11020,7 @@
       </c>
     </row>
     <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B103" t="s">
@@ -11094,7 +11094,7 @@
       </c>
     </row>
     <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B104" t="s">
@@ -11168,7 +11168,7 @@
       </c>
     </row>
     <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B105" t="s">
@@ -11242,7 +11242,7 @@
       </c>
     </row>
     <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B106" t="s">
@@ -11325,7 +11325,7 @@
       </c>
     </row>
     <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B107" t="s">
@@ -11408,7 +11408,7 @@
       </c>
     </row>
     <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B108" t="s">
@@ -11491,7 +11491,7 @@
       </c>
     </row>
     <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B109" t="s">
@@ -11574,7 +11574,7 @@
       </c>
     </row>
     <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B110" t="s">
@@ -11657,7 +11657,7 @@
       </c>
     </row>
     <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B111" t="s">
@@ -11740,7 +11740,7 @@
       </c>
     </row>
     <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B112" t="s">
@@ -11823,7 +11823,7 @@
       </c>
     </row>
     <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B113" t="s">
@@ -11906,7 +11906,7 @@
       </c>
     </row>
     <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B114" t="s">
@@ -11980,7 +11980,7 @@
       </c>
     </row>
     <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B115" t="s">
@@ -12063,7 +12063,7 @@
       </c>
     </row>
     <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B116" t="s">
@@ -12146,7 +12146,7 @@
       </c>
     </row>
     <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B117" t="s">
@@ -12229,7 +12229,7 @@
       </c>
     </row>
     <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B118" t="s">
@@ -12303,7 +12303,7 @@
       </c>
     </row>
     <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B119" t="s">
@@ -12377,7 +12377,7 @@
       </c>
     </row>
     <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B120" t="s">
@@ -12451,7 +12451,7 @@
       </c>
     </row>
     <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B121" t="s">
@@ -12525,7 +12525,7 @@
       </c>
     </row>
     <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B122" t="s">
@@ -12608,7 +12608,7 @@
       </c>
     </row>
     <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B123" t="s">
@@ -12682,7 +12682,7 @@
       </c>
     </row>
     <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B124" t="s">
@@ -12765,7 +12765,7 @@
       </c>
     </row>
     <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B125" t="s">
@@ -12839,7 +12839,7 @@
       </c>
     </row>
     <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B126" t="s">
@@ -12922,7 +12922,7 @@
       </c>
     </row>
     <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B127" t="s">
@@ -13005,7 +13005,7 @@
       </c>
     </row>
     <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B128" t="s">
@@ -13088,7 +13088,7 @@
       </c>
     </row>
     <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B129" t="s">
@@ -13171,7 +13171,7 @@
       </c>
     </row>
     <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B130" t="s">
@@ -13245,7 +13245,7 @@
       </c>
     </row>
     <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B131" t="s">
@@ -13328,7 +13328,7 @@
       </c>
     </row>
     <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B132" t="s">
@@ -13402,7 +13402,7 @@
       </c>
     </row>
     <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B133" t="s">
@@ -13476,7 +13476,7 @@
       </c>
     </row>
     <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B134" t="s">
@@ -13559,7 +13559,7 @@
       </c>
     </row>
     <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B135" t="s">
@@ -13642,7 +13642,7 @@
       </c>
     </row>
     <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B136" t="s">
@@ -13725,7 +13725,7 @@
       </c>
     </row>
     <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B137" t="s">
@@ -13799,7 +13799,7 @@
       </c>
     </row>
     <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B138" t="s">
@@ -13882,8 +13882,8 @@
       </c>
     </row>
     <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>301</v>
+      <c r="A139" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="B139" t="s">
         <v>29</v>
@@ -13901,7 +13901,7 @@
         <v>11</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>124</v>
@@ -13916,10 +13916,10 @@
         <v>33</v>
       </c>
       <c r="L139" t="s">
-        <v>297</v>
+        <v>616</v>
       </c>
       <c r="M139">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N139">
         <v>7</v>
@@ -13943,13 +13943,13 @@
         <v>38</v>
       </c>
       <c r="V139" t="s">
-        <v>302</v>
+        <v>621</v>
       </c>
       <c r="W139" t="s">
-        <v>303</v>
+        <v>622</v>
       </c>
       <c r="X139" t="s">
-        <v>304</v>
+        <v>623</v>
       </c>
       <c r="Y139" t="s">
         <v>39</v>
@@ -13961,11 +13961,11 @@
         <v>41</v>
       </c>
       <c r="AC139" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B140" t="s">
@@ -14048,7 +14048,7 @@
       </c>
     </row>
     <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B141" t="s">
@@ -14131,7 +14131,7 @@
       </c>
     </row>
     <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B142" t="s">
@@ -14205,7 +14205,7 @@
       </c>
     </row>
     <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B143" t="s">
@@ -14288,7 +14288,7 @@
       </c>
     </row>
     <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B144" t="s">
@@ -14365,7 +14365,7 @@
       </c>
     </row>
     <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B145" t="s">
@@ -14448,8 +14448,8 @@
       </c>
     </row>
     <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>301</v>
+      <c r="A146" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="B146" t="s">
         <v>29</v>
@@ -14467,7 +14467,7 @@
         <v>11</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>124</v>
@@ -14482,10 +14482,10 @@
         <v>33</v>
       </c>
       <c r="L146" t="s">
-        <v>324</v>
+        <v>632</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="N146">
         <v>7</v>
@@ -14509,13 +14509,13 @@
         <v>38</v>
       </c>
       <c r="V146" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="W146" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="X146" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="Y146" t="s">
         <v>39</v>
@@ -14527,11 +14527,11 @@
         <v>41</v>
       </c>
       <c r="AC146" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B147" t="s">
@@ -14614,7 +14614,7 @@
       </c>
     </row>
     <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B148" t="s">
@@ -14688,7 +14688,7 @@
       </c>
     </row>
     <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B149" t="s">
@@ -14771,7 +14771,7 @@
       </c>
     </row>
     <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B150" t="s">
@@ -14854,7 +14854,7 @@
       </c>
     </row>
     <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B151" t="s">
@@ -14940,7 +14940,7 @@
       </c>
     </row>
     <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B152" t="s">
@@ -15023,8 +15023,8 @@
       </c>
     </row>
     <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>301</v>
+      <c r="A153" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="B153" t="s">
         <v>29</v>
@@ -15042,7 +15042,7 @@
         <v>11</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>124</v>
@@ -15057,10 +15057,10 @@
         <v>33</v>
       </c>
       <c r="L153" t="s">
-        <v>339</v>
+        <v>640</v>
       </c>
       <c r="M153">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N153">
         <v>7</v>
@@ -15084,13 +15084,13 @@
         <v>38</v>
       </c>
       <c r="V153" t="s">
-        <v>342</v>
+        <v>621</v>
       </c>
       <c r="W153" t="s">
-        <v>343</v>
+        <v>622</v>
       </c>
       <c r="X153" t="s">
-        <v>344</v>
+        <v>623</v>
       </c>
       <c r="Y153" t="s">
         <v>39</v>
@@ -15102,11 +15102,11 @@
         <v>41</v>
       </c>
       <c r="AC153" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B154" t="s">
@@ -15189,7 +15189,7 @@
       </c>
     </row>
     <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B155" t="s">
@@ -15272,7 +15272,7 @@
       </c>
     </row>
     <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B156" t="s">
@@ -15355,7 +15355,7 @@
       </c>
     </row>
     <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B157" t="s">
@@ -15438,7 +15438,7 @@
       </c>
     </row>
     <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B158" t="s">
@@ -15524,7 +15524,7 @@
       </c>
     </row>
     <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B159" t="s">
@@ -15607,7 +15607,7 @@
       </c>
     </row>
     <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B160" t="s">
@@ -15690,7 +15690,7 @@
       </c>
     </row>
     <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B161" t="s">
@@ -15767,7 +15767,7 @@
       </c>
     </row>
     <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B162" t="s">
@@ -15850,7 +15850,7 @@
       </c>
     </row>
     <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B163" t="s">
@@ -15933,7 +15933,7 @@
       </c>
     </row>
     <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B164" t="s">
@@ -16019,7 +16019,7 @@
       </c>
     </row>
     <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B165" t="s">
@@ -16093,7 +16093,7 @@
       </c>
     </row>
     <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B166" t="s">
@@ -16166,8 +16166,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B167" t="s">
@@ -16241,8 +16241,8 @@
       </c>
     </row>
     <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>48</v>
+      <c r="A168" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B168" t="s">
         <v>29</v>
@@ -16260,10 +16260,10 @@
         <v>11</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H168" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="I168" t="s">
         <v>32</v>
@@ -16278,7 +16278,7 @@
         <v>34</v>
       </c>
       <c r="M168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N168">
         <v>2</v>
@@ -16287,13 +16287,13 @@
         <v>33</v>
       </c>
       <c r="P168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q168" t="s">
         <v>49</v>
       </c>
       <c r="S168" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="T168" t="s">
         <v>37</v>
@@ -16311,11 +16311,11 @@
         <v>41</v>
       </c>
       <c r="AC168" t="s">
-        <v>651</v>
+        <v>356</v>
       </c>
     </row>
     <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B169" t="s">
@@ -16389,7 +16389,7 @@
       </c>
     </row>
     <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B170" t="s">
@@ -16463,7 +16463,7 @@
       </c>
     </row>
     <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B171" t="s">
@@ -16537,7 +16537,7 @@
       </c>
     </row>
     <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>111647</v>
       </c>
       <c r="B172" t="s">
@@ -16611,7 +16611,7 @@
       </c>
     </row>
     <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>694</v>
       </c>
       <c r="B173" t="s">
@@ -16685,20 +16685,20 @@
       </c>
     </row>
     <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>370</v>
+      <c r="A174" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="B174" t="s">
         <v>29</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E174">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F174">
         <v>11</v>
@@ -16707,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="I174" t="s">
         <v>32</v>
@@ -16719,10 +16719,10 @@
         <v>33</v>
       </c>
       <c r="L174" t="s">
-        <v>34</v>
+        <v>641</v>
       </c>
       <c r="M174">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N174">
         <v>7</v>
@@ -16737,13 +16737,22 @@
         <v>59</v>
       </c>
       <c r="S174" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="T174" t="s">
         <v>37</v>
       </c>
       <c r="U174" t="s">
         <v>38</v>
+      </c>
+      <c r="V174" t="s">
+        <v>302</v>
+      </c>
+      <c r="W174" t="s">
+        <v>303</v>
+      </c>
+      <c r="X174" t="s">
+        <v>304</v>
       </c>
       <c r="Y174" t="s">
         <v>39</v>
@@ -16759,7 +16768,7 @@
       </c>
     </row>
     <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B175" t="s">
@@ -16833,7 +16842,7 @@
       </c>
     </row>
     <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B176" t="s">
@@ -16907,7 +16916,7 @@
       </c>
     </row>
     <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B177" t="s">
@@ -16981,7 +16990,7 @@
       </c>
     </row>
     <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B178" t="s">
@@ -17055,7 +17064,7 @@
       </c>
     </row>
     <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B179" t="s">
@@ -17129,7 +17138,7 @@
       </c>
     </row>
     <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B180" t="s">
@@ -17203,7 +17212,7 @@
       </c>
     </row>
     <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B181" t="s">
@@ -17277,7 +17286,7 @@
       </c>
     </row>
     <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B182" t="s">
@@ -17351,7 +17360,7 @@
       </c>
     </row>
     <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B183" t="s">
@@ -17425,7 +17434,7 @@
       </c>
     </row>
     <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B184" t="s">
@@ -17502,7 +17511,7 @@
       </c>
     </row>
     <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B185" t="s">
@@ -17585,7 +17594,7 @@
       </c>
     </row>
     <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B186" t="s">
@@ -17668,7 +17677,7 @@
       </c>
     </row>
     <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B187" t="s">
@@ -17751,7 +17760,7 @@
       </c>
     </row>
     <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B188" t="s">
@@ -17834,7 +17843,7 @@
       </c>
     </row>
     <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B189" t="s">
@@ -17917,7 +17926,7 @@
       </c>
     </row>
     <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B190" t="s">
@@ -18000,7 +18009,7 @@
       </c>
     </row>
     <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B191" t="s">
@@ -18083,7 +18092,7 @@
       </c>
     </row>
     <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B192" t="s">
@@ -18166,7 +18175,7 @@
       </c>
     </row>
     <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B193" t="s">
@@ -18249,7 +18258,7 @@
       </c>
     </row>
     <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B194" t="s">
@@ -18332,7 +18341,7 @@
       </c>
     </row>
     <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B195" t="s">
@@ -18415,7 +18424,7 @@
       </c>
     </row>
     <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B196" t="s">
@@ -18498,7 +18507,7 @@
       </c>
     </row>
     <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B197" t="s">
@@ -18581,7 +18590,7 @@
       </c>
     </row>
     <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B198" t="s">
@@ -18664,7 +18673,7 @@
       </c>
     </row>
     <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B199" t="s">
@@ -18747,7 +18756,7 @@
       </c>
     </row>
     <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B200" t="s">
@@ -18830,7 +18839,7 @@
       </c>
     </row>
     <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B201" t="s">
@@ -18913,7 +18922,7 @@
       </c>
     </row>
     <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B202" t="s">
@@ -18996,7 +19005,7 @@
       </c>
     </row>
     <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B203" t="s">
@@ -19079,7 +19088,7 @@
       </c>
     </row>
     <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B204" t="s">
@@ -19162,7 +19171,7 @@
       </c>
     </row>
     <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B205" t="s">
@@ -19245,7 +19254,7 @@
       </c>
     </row>
     <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B206" t="s">
@@ -19328,7 +19337,7 @@
       </c>
     </row>
     <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B207" t="s">
@@ -19411,7 +19420,7 @@
       </c>
     </row>
     <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B208" t="s">
@@ -19494,7 +19503,7 @@
       </c>
     </row>
     <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B209" t="s">
@@ -19577,7 +19586,7 @@
       </c>
     </row>
     <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B210" t="s">
@@ -19660,7 +19669,7 @@
       </c>
     </row>
     <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B211" t="s">
@@ -19743,7 +19752,7 @@
       </c>
     </row>
     <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B212" t="s">
@@ -19826,7 +19835,7 @@
       </c>
     </row>
     <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B213" t="s">
@@ -19909,7 +19918,7 @@
       </c>
     </row>
     <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B214" t="s">
@@ -19992,7 +20001,7 @@
       </c>
     </row>
     <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B215" t="s">
@@ -20075,7 +20084,7 @@
       </c>
     </row>
     <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B216" t="s">
@@ -20158,7 +20167,7 @@
       </c>
     </row>
     <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B217" t="s">
@@ -20241,7 +20250,7 @@
       </c>
     </row>
     <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B218" t="s">
@@ -20324,7 +20333,7 @@
       </c>
     </row>
     <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B219" t="s">
@@ -20407,7 +20416,7 @@
       </c>
     </row>
     <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B220" t="s">
@@ -20490,7 +20499,7 @@
       </c>
     </row>
     <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B221" t="s">
@@ -20573,7 +20582,7 @@
       </c>
     </row>
     <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B222" t="s">
@@ -20656,7 +20665,7 @@
       </c>
     </row>
     <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B223" t="s">
@@ -20730,7 +20739,7 @@
       </c>
     </row>
     <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B224" t="s">
@@ -20804,7 +20813,7 @@
       </c>
     </row>
     <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B225" t="s">
@@ -20877,8 +20886,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B226" t="s">
@@ -20951,8 +20960,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B227" t="s">
@@ -21034,8 +21043,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B228" t="s">
@@ -21108,8 +21117,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B229" t="s">
@@ -21191,8 +21200,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B230" t="s">
@@ -21274,8 +21283,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B231" t="s">
@@ -21357,8 +21366,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B232" t="s">
@@ -21443,8 +21452,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B233" t="s">
@@ -21517,8 +21526,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B234" t="s">
@@ -21600,8 +21609,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B235" t="s">
@@ -21674,8 +21683,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B236" t="s">
@@ -21757,8 +21766,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B237" t="s">
@@ -21831,8 +21840,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B238" t="s">
@@ -21914,8 +21923,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B239" t="s">
@@ -21997,8 +22006,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B240" t="s">
@@ -22080,8 +22089,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B241" t="s">
@@ -22166,8 +22175,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B242" t="s">
@@ -22249,8 +22258,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B243" t="s">
@@ -22323,8 +22332,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B244" t="s">
@@ -22397,8 +22406,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B245" t="s">
@@ -22471,8 +22480,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B246" t="s">
@@ -22545,8 +22554,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B247" t="s">
@@ -22628,8 +22637,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B248" t="s">
@@ -22711,8 +22720,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B249" t="s">
@@ -22797,8 +22806,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B250" t="s">
@@ -22871,8 +22880,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B251" t="s">
@@ -22945,8 +22954,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B252" t="s">
@@ -23028,8 +23037,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B253" t="s">
@@ -23111,8 +23120,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B254" t="s">
@@ -23194,8 +23203,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B255" t="s">
@@ -23277,8 +23286,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B256" t="s">
@@ -23360,8 +23369,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B257" t="s">
@@ -23437,8 +23446,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B258" t="s">
@@ -23520,8 +23529,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B259" t="s">
@@ -23594,8 +23603,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B260" t="s">
@@ -23668,8 +23677,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B261" t="s">
@@ -23742,8 +23751,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B262" t="s">
@@ -23816,8 +23825,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B263" t="s">
@@ -23899,8 +23908,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B264" t="s">
@@ -23982,8 +23991,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B265" t="s">
@@ -24068,8 +24077,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B266" t="s">
@@ -24142,8 +24151,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B267" t="s">
@@ -24216,8 +24225,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B268" t="s">
@@ -24290,8 +24299,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B269" t="s">
@@ -24373,8 +24382,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B270" t="s">
@@ -24447,8 +24456,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B271" t="s">
@@ -24530,8 +24539,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B272" t="s">
@@ -24613,8 +24622,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B273" t="s">
@@ -24699,8 +24708,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B274" t="s">
@@ -24773,8 +24782,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B275" t="s">
@@ -24847,8 +24856,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B276" t="s">
@@ -24921,8 +24930,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B277" t="s">
@@ -24995,8 +25004,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B278" t="s">
@@ -25069,8 +25078,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B279" t="s">
@@ -25152,8 +25161,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B280" t="s">
@@ -25226,8 +25235,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B281" t="s">
@@ -25303,8 +25312,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B282" t="s">
@@ -25377,8 +25386,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B283" t="s">
@@ -25451,8 +25460,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B284" t="s">
@@ -25525,8 +25534,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B285" t="s">
@@ -25599,8 +25608,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B286" t="s">
@@ -25673,8 +25682,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B287" t="s">
@@ -25747,8 +25756,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B288" t="s">
@@ -25821,8 +25830,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B289" t="s">
@@ -25898,8 +25907,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B290" t="s">
@@ -25972,8 +25981,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B291" t="s">
@@ -26046,8 +26055,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B292" t="s">
@@ -26120,8 +26129,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B293" t="s">
@@ -26194,8 +26203,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B294" t="s">
@@ -26268,8 +26277,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B295" t="s">
@@ -26342,8 +26351,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B296" t="s">
@@ -26416,8 +26425,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B297" t="s">
@@ -26493,8 +26502,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B298" t="s">
@@ -26567,8 +26576,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B299" t="s">
@@ -26641,8 +26650,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B300" t="s">
@@ -26715,8 +26724,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B301" t="s">
@@ -26789,8 +26798,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B302" t="s">
@@ -26863,8 +26872,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B303" t="s">
@@ -26937,8 +26946,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B304" t="s">
@@ -27011,8 +27020,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B305" t="s">
@@ -27088,8 +27097,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B306" t="s">
@@ -27162,8 +27171,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B307" t="s">
@@ -27236,8 +27245,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B308" t="s">
@@ -27310,8 +27319,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B309" t="s">
@@ -27384,8 +27393,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B310" t="s">
@@ -27458,8 +27467,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B311" t="s">
@@ -27532,8 +27541,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B312" t="s">
@@ -27606,8 +27615,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B313" t="s">
@@ -27684,8 +27693,8 @@
       </c>
     </row>
     <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>498</v>
+      <c r="A314" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="B314" t="s">
         <v>29</v>
@@ -27703,10 +27712,10 @@
         <v>11</v>
       </c>
       <c r="G314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H314" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="I314" t="s">
         <v>32</v>
@@ -27721,7 +27730,7 @@
         <v>34</v>
       </c>
       <c r="M314">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N314">
         <v>2</v>
@@ -27733,10 +27742,10 @@
         <v>3</v>
       </c>
       <c r="Q314" t="s">
-        <v>49</v>
+        <v>805</v>
       </c>
       <c r="S314" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T314" t="s">
         <v>37</v>
@@ -27748,17 +27757,17 @@
         <v>39</v>
       </c>
       <c r="AA314" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AB314" t="s">
         <v>41</v>
       </c>
       <c r="AC314" t="s">
-        <v>651</v>
+        <v>843</v>
       </c>
     </row>
     <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B315" t="s">
@@ -27832,7 +27841,7 @@
       </c>
     </row>
     <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B316" t="s">
@@ -27915,7 +27924,7 @@
       </c>
     </row>
     <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B317" t="s">
@@ -27998,7 +28007,7 @@
       </c>
     </row>
     <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B318" t="s">
@@ -28081,7 +28090,7 @@
       </c>
     </row>
     <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B319" t="s">
@@ -28155,7 +28164,7 @@
       </c>
     </row>
     <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B320" t="s">
@@ -28238,7 +28247,7 @@
       </c>
     </row>
     <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B321" t="s">
@@ -28321,7 +28330,7 @@
       </c>
     </row>
     <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B322" t="s">
@@ -28404,7 +28413,7 @@
       </c>
     </row>
     <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B323" t="s">
@@ -28487,7 +28496,7 @@
       </c>
     </row>
     <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B324" t="s">
@@ -28561,7 +28570,7 @@
       </c>
     </row>
     <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B325" t="s">
@@ -28644,7 +28653,7 @@
       </c>
     </row>
     <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B326" t="s">
@@ -28727,7 +28736,7 @@
       </c>
     </row>
     <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B327" t="s">
@@ -28810,7 +28819,7 @@
       </c>
     </row>
     <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B328" t="s">
@@ -28884,7 +28893,7 @@
       </c>
     </row>
     <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B329" t="s">
@@ -28958,7 +28967,7 @@
       </c>
     </row>
     <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B330" t="s">
@@ -29041,7 +29050,7 @@
       </c>
     </row>
     <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B331" t="s">
@@ -29124,7 +29133,7 @@
       </c>
     </row>
     <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B332" t="s">
@@ -29207,7 +29216,7 @@
       </c>
     </row>
     <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B333" t="s">
@@ -29290,7 +29299,7 @@
       </c>
     </row>
     <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B334" t="s">
@@ -29364,7 +29373,7 @@
       </c>
     </row>
     <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B335" t="s">
@@ -29447,7 +29456,7 @@
       </c>
     </row>
     <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B336" t="s">
@@ -29530,7 +29539,7 @@
       </c>
     </row>
     <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B337" t="s">
@@ -29613,7 +29622,7 @@
       </c>
     </row>
     <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B338" t="s">
@@ -29687,7 +29696,7 @@
       </c>
     </row>
     <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B339" t="s">
@@ -29770,7 +29779,7 @@
       </c>
     </row>
     <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B340" t="s">
@@ -29853,7 +29862,7 @@
       </c>
     </row>
     <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B341" t="s">
@@ -29936,7 +29945,7 @@
       </c>
     </row>
     <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B342" t="s">
@@ -30010,7 +30019,7 @@
       </c>
     </row>
     <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B343" t="s">
@@ -30093,7 +30102,7 @@
       </c>
     </row>
     <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B344" t="s">
@@ -30176,7 +30185,7 @@
       </c>
     </row>
     <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B345" t="s">
@@ -30259,7 +30268,7 @@
       </c>
     </row>
     <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B346" t="s">
@@ -30333,7 +30342,7 @@
       </c>
     </row>
     <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B347" t="s">
@@ -30416,7 +30425,7 @@
       </c>
     </row>
     <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B348" t="s">
@@ -30499,7 +30508,7 @@
       </c>
     </row>
     <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B349" t="s">
@@ -30582,7 +30591,7 @@
       </c>
     </row>
     <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B350" t="s">
@@ -30665,7 +30674,7 @@
       </c>
     </row>
     <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B351" t="s">
@@ -30748,7 +30757,7 @@
       </c>
     </row>
     <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B352" t="s">
@@ -30831,7 +30840,7 @@
       </c>
     </row>
     <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B353" t="s">
@@ -30914,7 +30923,7 @@
       </c>
     </row>
     <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B354" t="s">
@@ -30997,7 +31006,7 @@
       </c>
     </row>
     <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B355" t="s">
@@ -31080,7 +31089,7 @@
       </c>
     </row>
     <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B356" t="s">
@@ -31163,7 +31172,7 @@
       </c>
     </row>
     <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B357" t="s">
@@ -31246,7 +31255,7 @@
       </c>
     </row>
     <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B358" t="s">
@@ -31320,7 +31329,7 @@
       </c>
     </row>
     <row r="359" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B359" t="s">
@@ -31394,7 +31403,7 @@
       </c>
     </row>
     <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B360" t="s">
@@ -31468,7 +31477,7 @@
       </c>
     </row>
     <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B361" t="s">
@@ -31542,7 +31551,7 @@
       </c>
     </row>
     <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="A362" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B362" t="s">
@@ -31616,7 +31625,7 @@
       </c>
     </row>
     <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="A363" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B363" t="s">
@@ -31690,7 +31699,7 @@
       </c>
     </row>
     <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B364" t="s">
@@ -31764,7 +31773,7 @@
       </c>
     </row>
     <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B365" t="s">
@@ -31847,7 +31856,7 @@
       </c>
     </row>
     <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B366" t="s">
@@ -31930,7 +31939,7 @@
       </c>
     </row>
     <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B367" t="s">
@@ -32004,7 +32013,7 @@
       </c>
     </row>
     <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B368" t="s">
@@ -32087,7 +32096,7 @@
       </c>
     </row>
     <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B369" t="s">
@@ -32170,7 +32179,7 @@
       </c>
     </row>
     <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B370" t="s">
@@ -32253,7 +32262,7 @@
       </c>
     </row>
     <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B371" t="s">
@@ -32336,7 +32345,7 @@
       </c>
     </row>
     <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B372" t="s">
@@ -32419,7 +32428,7 @@
       </c>
     </row>
     <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B373" t="s">
@@ -32493,7 +32502,7 @@
       </c>
     </row>
     <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>751</v>
       </c>
       <c r="B374" t="s">
@@ -32567,7 +32576,7 @@
       </c>
     </row>
     <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>752</v>
       </c>
       <c r="B375" t="s">
@@ -32641,7 +32650,7 @@
       </c>
     </row>
     <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B376" t="s">
@@ -32715,7 +32724,7 @@
       </c>
     </row>
     <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B377" t="s">
@@ -32798,7 +32807,7 @@
       </c>
     </row>
     <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="A378" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B378" t="s">
@@ -32881,7 +32890,7 @@
       </c>
     </row>
     <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B379" t="s">
@@ -32964,7 +32973,7 @@
       </c>
     </row>
     <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B380" t="s">
@@ -33047,7 +33056,7 @@
       </c>
     </row>
     <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B381" t="s">
@@ -33130,7 +33139,7 @@
       </c>
     </row>
     <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="A382" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B382" t="s">
@@ -33213,7 +33222,7 @@
       </c>
     </row>
     <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B383" t="s">
@@ -33287,7 +33296,7 @@
       </c>
     </row>
     <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="A384" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B384" t="s">
@@ -33370,7 +33379,7 @@
       </c>
     </row>
     <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B385" t="s">
@@ -33453,7 +33462,7 @@
       </c>
     </row>
     <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B386" t="s">
@@ -33527,7 +33536,7 @@
       </c>
     </row>
     <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B387" t="s">
@@ -33610,7 +33619,7 @@
       </c>
     </row>
     <row r="388" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B388" t="s">
@@ -33693,7 +33702,7 @@
       </c>
     </row>
     <row r="389" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B389" t="s">
@@ -33776,7 +33785,7 @@
       </c>
     </row>
     <row r="390" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B390" t="s">
@@ -33859,7 +33868,7 @@
       </c>
     </row>
     <row r="391" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="A391" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B391" t="s">
@@ -33942,7 +33951,7 @@
       </c>
     </row>
     <row r="392" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B392" t="s">
@@ -34016,7 +34025,7 @@
       </c>
     </row>
     <row r="393" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B393" t="s">
@@ -34099,7 +34108,7 @@
       </c>
     </row>
     <row r="394" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B394" t="s">
@@ -34182,7 +34191,7 @@
       </c>
     </row>
     <row r="395" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B395" t="s">
@@ -34265,7 +34274,7 @@
       </c>
     </row>
     <row r="396" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B396" t="s">
@@ -34348,7 +34357,7 @@
       </c>
     </row>
     <row r="397" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B397" t="s">
@@ -34422,7 +34431,7 @@
       </c>
     </row>
     <row r="398" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B398" t="s">
@@ -34505,7 +34514,7 @@
       </c>
     </row>
     <row r="399" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B399" t="s">
@@ -34588,7 +34597,7 @@
       </c>
     </row>
     <row r="400" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B400" t="s">
@@ -34671,7 +34680,7 @@
       </c>
     </row>
     <row r="401" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B401" t="s">
@@ -34754,7 +34763,7 @@
       </c>
     </row>
     <row r="402" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B402" t="s">
@@ -34837,7 +34846,7 @@
       </c>
     </row>
     <row r="403" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B403" t="s">
@@ -34911,7 +34920,7 @@
       </c>
     </row>
     <row r="404" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B404" t="s">
@@ -34994,7 +35003,7 @@
       </c>
     </row>
     <row r="405" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B405" t="s">
@@ -35077,7 +35086,7 @@
       </c>
     </row>
     <row r="406" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B406" t="s">
@@ -35160,7 +35169,7 @@
       </c>
     </row>
     <row r="407" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B407" t="s">
@@ -35243,7 +35252,7 @@
       </c>
     </row>
     <row r="408" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B408" t="s">
@@ -35326,7 +35335,7 @@
       </c>
     </row>
     <row r="409" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B409" t="s">
@@ -35409,7 +35418,7 @@
       </c>
     </row>
     <row r="410" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B410" t="s">
@@ -35483,7 +35492,7 @@
       </c>
     </row>
     <row r="411" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B411" t="s">
@@ -35566,7 +35575,7 @@
       </c>
     </row>
     <row r="412" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B412" t="s">
@@ -35640,7 +35649,7 @@
       </c>
     </row>
     <row r="413" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B413" t="s">
@@ -35714,7 +35723,7 @@
       </c>
     </row>
     <row r="414" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B414" t="s">
@@ -35797,7 +35806,7 @@
       </c>
     </row>
     <row r="415" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B415" t="s">
@@ -35880,7 +35889,7 @@
       </c>
     </row>
     <row r="416" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="A416" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B416" t="s">
@@ -35963,7 +35972,7 @@
       </c>
     </row>
     <row r="417" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="A417" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B417" t="s">
@@ -36037,7 +36046,7 @@
       </c>
     </row>
     <row r="418" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B418" t="s">
@@ -36120,7 +36129,7 @@
       </c>
     </row>
     <row r="419" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B419" t="s">
@@ -36203,7 +36212,7 @@
       </c>
     </row>
     <row r="420" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B420" t="s">
@@ -36277,7 +36286,7 @@
       </c>
     </row>
     <row r="421" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="A421" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B421" t="s">
@@ -36360,7 +36369,7 @@
       </c>
     </row>
     <row r="422" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B422" t="s">
@@ -36443,7 +36452,7 @@
       </c>
     </row>
     <row r="423" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B423" t="s">
@@ -36526,7 +36535,7 @@
       </c>
     </row>
     <row r="424" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B424" t="s">
@@ -36600,7 +36609,7 @@
       </c>
     </row>
     <row r="425" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B425" t="s">
@@ -36683,7 +36692,7 @@
       </c>
     </row>
     <row r="426" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B426" t="s">
@@ -36766,7 +36775,7 @@
       </c>
     </row>
     <row r="427" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B427" t="s">
@@ -36849,7 +36858,7 @@
       </c>
     </row>
     <row r="428" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B428" t="s">
@@ -36932,7 +36941,7 @@
       </c>
     </row>
     <row r="429" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B429" t="s">
@@ -37006,7 +37015,7 @@
       </c>
     </row>
     <row r="430" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B430" t="s">
@@ -37089,7 +37098,7 @@
       </c>
     </row>
     <row r="431" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B431" t="s">
@@ -37163,7 +37172,7 @@
       </c>
     </row>
     <row r="432" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="A432" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B432" t="s">
@@ -37246,7 +37255,7 @@
       </c>
     </row>
     <row r="433" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="A433" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B433" t="s">
@@ -37329,7 +37338,7 @@
       </c>
     </row>
     <row r="434" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="A434" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B434" t="s">
@@ -37412,7 +37421,7 @@
       </c>
     </row>
     <row r="435" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B435" t="s">
@@ -37495,8 +37504,8 @@
       </c>
     </row>
     <row r="436" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>614</v>
+      <c r="A436" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="B436" t="s">
         <v>29</v>
@@ -37514,10 +37523,10 @@
         <v>11</v>
       </c>
       <c r="G436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H436" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="I436" t="s">
         <v>32</v>
@@ -37532,22 +37541,22 @@
         <v>34</v>
       </c>
       <c r="M436">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N436">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O436" t="s">
         <v>33</v>
       </c>
       <c r="P436">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q436" t="s">
-        <v>69</v>
+        <v>379</v>
       </c>
       <c r="S436" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="T436" t="s">
         <v>37</v>
@@ -37565,11 +37574,11 @@
         <v>41</v>
       </c>
       <c r="AC436" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="437" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B437" t="s">
@@ -37652,14 +37661,14 @@
       </c>
     </row>
     <row r="438" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B438" t="s">
         <v>29</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D438" t="s">
         <v>75</v>
@@ -37686,10 +37695,10 @@
         <v>33</v>
       </c>
       <c r="L438" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="M438">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N438">
         <v>7</v>
@@ -37713,13 +37722,13 @@
         <v>38</v>
       </c>
       <c r="V438" t="s">
-        <v>621</v>
+        <v>325</v>
       </c>
       <c r="W438" t="s">
-        <v>622</v>
+        <v>106</v>
       </c>
       <c r="X438" t="s">
-        <v>623</v>
+        <v>326</v>
       </c>
       <c r="Y438" t="s">
         <v>39</v>
@@ -37735,7 +37744,7 @@
       </c>
     </row>
     <row r="439" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B439" t="s">
@@ -37818,7 +37827,7 @@
       </c>
     </row>
     <row r="440" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B440" t="s">
@@ -37892,7 +37901,7 @@
       </c>
     </row>
     <row r="441" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B441" t="s">
@@ -37966,7 +37975,7 @@
       </c>
     </row>
     <row r="442" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B442" t="s">
@@ -38040,7 +38049,7 @@
       </c>
     </row>
     <row r="443" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B443" t="s">
@@ -38126,7 +38135,7 @@
       </c>
     </row>
     <row r="444" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B444" t="s">
@@ -38209,14 +38218,14 @@
       </c>
     </row>
     <row r="445" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+      <c r="A445" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B445" t="s">
         <v>29</v>
       </c>
       <c r="C445">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D445" t="s">
         <v>75</v>
@@ -38243,10 +38252,10 @@
         <v>33</v>
       </c>
       <c r="L445" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="M445">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N445">
         <v>7</v>
@@ -38270,13 +38279,13 @@
         <v>38</v>
       </c>
       <c r="V445" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="W445" t="s">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="X445" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="Y445" t="s">
         <v>39</v>
@@ -38292,7 +38301,7 @@
       </c>
     </row>
     <row r="446" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="A446" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B446" t="s">
@@ -38375,7 +38384,7 @@
       </c>
     </row>
     <row r="447" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B447" t="s">
@@ -38449,7 +38458,7 @@
       </c>
     </row>
     <row r="448" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B448" t="s">
@@ -38532,7 +38541,7 @@
       </c>
     </row>
     <row r="449" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+      <c r="A449" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B449" t="s">
@@ -38615,7 +38624,7 @@
       </c>
     </row>
     <row r="450" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+      <c r="A450" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B450" t="s">
@@ -38701,7 +38710,7 @@
       </c>
     </row>
     <row r="451" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+      <c r="A451" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B451" t="s">
@@ -38784,29 +38793,29 @@
       </c>
     </row>
     <row r="452" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>620</v>
+      <c r="A452" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="B452" t="s">
         <v>29</v>
       </c>
       <c r="C452">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D452" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E452">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F452">
         <v>11</v>
       </c>
       <c r="G452">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H452" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="I452" t="s">
         <v>32</v>
@@ -38818,10 +38827,10 @@
         <v>33</v>
       </c>
       <c r="L452" t="s">
-        <v>640</v>
+        <v>34</v>
       </c>
       <c r="M452">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="N452">
         <v>7</v>
@@ -38836,7 +38845,7 @@
         <v>59</v>
       </c>
       <c r="S452" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="T452" t="s">
         <v>37</v>
@@ -38844,15 +38853,6 @@
       <c r="U452" t="s">
         <v>38</v>
       </c>
-      <c r="V452" t="s">
-        <v>621</v>
-      </c>
-      <c r="W452" t="s">
-        <v>622</v>
-      </c>
-      <c r="X452" t="s">
-        <v>623</v>
-      </c>
       <c r="Y452" t="s">
         <v>39</v>
       </c>
@@ -38863,11 +38863,11 @@
         <v>41</v>
       </c>
       <c r="AC452" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="453" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+      <c r="A453" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B453" t="s">
@@ -38950,7 +38950,7 @@
       </c>
     </row>
     <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+      <c r="A454" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B454" t="s">
@@ -39024,7 +39024,7 @@
       </c>
     </row>
     <row r="455" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+      <c r="A455" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B455" t="s">
@@ -39098,7 +39098,7 @@
       </c>
     </row>
     <row r="456" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+      <c r="A456" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B456" t="s">
@@ -39181,7 +39181,7 @@
       </c>
     </row>
     <row r="457" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B457" t="s">
@@ -39267,7 +39267,7 @@
       </c>
     </row>
     <row r="458" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+      <c r="A458" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B458" t="s">
@@ -39350,14 +39350,14 @@
       </c>
     </row>
     <row r="459" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>620</v>
+      <c r="A459" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="B459" t="s">
         <v>29</v>
       </c>
       <c r="C459">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D459" t="s">
         <v>75</v>
@@ -39369,7 +39369,7 @@
         <v>11</v>
       </c>
       <c r="G459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H459" t="s">
         <v>124</v>
@@ -39384,10 +39384,10 @@
         <v>33</v>
       </c>
       <c r="L459" t="s">
-        <v>641</v>
+        <v>773</v>
       </c>
       <c r="M459">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N459">
         <v>7</v>
@@ -39411,13 +39411,13 @@
         <v>38</v>
       </c>
       <c r="V459" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="W459" t="s">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="X459" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="Y459" t="s">
         <v>39</v>
@@ -39429,11 +39429,11 @@
         <v>41</v>
       </c>
       <c r="AC459" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="460" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+      <c r="A460" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B460" t="s">
@@ -39516,7 +39516,7 @@
       </c>
     </row>
     <row r="461" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+      <c r="A461" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B461" t="s">
@@ -39599,7 +39599,7 @@
       </c>
     </row>
     <row r="462" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+      <c r="A462" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B462" t="s">
@@ -39682,7 +39682,7 @@
       </c>
     </row>
     <row r="463" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B463" t="s">
@@ -39765,7 +39765,7 @@
       </c>
     </row>
     <row r="464" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+      <c r="A464" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B464" t="s">
@@ -39851,7 +39851,7 @@
       </c>
     </row>
     <row r="465" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="A465" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B465" t="s">
@@ -39934,14 +39934,14 @@
       </c>
     </row>
     <row r="466" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>620</v>
+      <c r="A466" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="B466" t="s">
         <v>29</v>
       </c>
       <c r="C466">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D466" t="s">
         <v>75</v>
@@ -39953,7 +39953,7 @@
         <v>11</v>
       </c>
       <c r="G466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H466" t="s">
         <v>124</v>
@@ -39968,7 +39968,7 @@
         <v>33</v>
       </c>
       <c r="L466" t="s">
-        <v>642</v>
+        <v>783</v>
       </c>
       <c r="M466">
         <v>25</v>
@@ -39995,13 +39995,13 @@
         <v>38</v>
       </c>
       <c r="V466" t="s">
-        <v>325</v>
+        <v>621</v>
       </c>
       <c r="W466" t="s">
-        <v>106</v>
+        <v>622</v>
       </c>
       <c r="X466" t="s">
-        <v>326</v>
+        <v>623</v>
       </c>
       <c r="Y466" t="s">
         <v>39</v>
@@ -40013,11 +40013,11 @@
         <v>41</v>
       </c>
       <c r="AC466" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="A467" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B467" t="s">
@@ -40100,7 +40100,7 @@
       </c>
     </row>
     <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B468" t="s">
@@ -40174,7 +40174,7 @@
       </c>
     </row>
     <row r="469" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B469" t="s">
@@ -40248,7 +40248,7 @@
       </c>
     </row>
     <row r="470" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B470" t="s">
@@ -40331,7 +40331,7 @@
       </c>
     </row>
     <row r="471" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B471" t="s">
@@ -40417,7 +40417,7 @@
       </c>
     </row>
     <row r="472" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+      <c r="A472" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B472" t="s">
@@ -40500,14 +40500,14 @@
       </c>
     </row>
     <row r="473" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>620</v>
+      <c r="A473" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="B473" t="s">
         <v>29</v>
       </c>
       <c r="C473">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D473" t="s">
         <v>75</v>
@@ -40519,7 +40519,7 @@
         <v>11</v>
       </c>
       <c r="G473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H473" t="s">
         <v>124</v>
@@ -40534,10 +40534,10 @@
         <v>33</v>
       </c>
       <c r="L473" t="s">
-        <v>646</v>
+        <v>784</v>
       </c>
       <c r="M473">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N473">
         <v>7</v>
@@ -40561,13 +40561,13 @@
         <v>38</v>
       </c>
       <c r="V473" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="W473" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="X473" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="Y473" t="s">
         <v>39</v>
@@ -40579,11 +40579,11 @@
         <v>41</v>
       </c>
       <c r="AC473" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="474" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+      <c r="A474" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B474" t="s">
@@ -40666,7 +40666,7 @@
       </c>
     </row>
     <row r="475" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+      <c r="A475" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B475" t="s">
@@ -40740,7 +40740,7 @@
       </c>
     </row>
     <row r="476" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B476" t="s">
@@ -40823,7 +40823,7 @@
       </c>
     </row>
     <row r="477" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B477" t="s">
@@ -40906,7 +40906,7 @@
       </c>
     </row>
     <row r="478" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+      <c r="A478" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B478" t="s">
@@ -40992,7 +40992,7 @@
       </c>
     </row>
     <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+      <c r="A479" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B479" t="s">
@@ -41075,7 +41075,7 @@
       </c>
     </row>
     <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B480" t="s">
@@ -41161,7 +41161,7 @@
       </c>
     </row>
     <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="A481" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B481" t="s">
@@ -41244,7 +41244,7 @@
       </c>
     </row>
     <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B482" t="s">
@@ -41330,7 +41330,7 @@
       </c>
     </row>
     <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B483" t="s">
@@ -41413,7 +41413,7 @@
       </c>
     </row>
     <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B484" t="s">
@@ -41499,7 +41499,7 @@
       </c>
     </row>
     <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B485" t="s">
@@ -41582,7 +41582,7 @@
       </c>
     </row>
     <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B486" t="s">
@@ -41668,7 +41668,7 @@
       </c>
     </row>
     <row r="487" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B487" t="s">
@@ -41742,7 +41742,7 @@
       </c>
     </row>
     <row r="488" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B488" t="s">
@@ -41816,7 +41816,7 @@
       </c>
     </row>
     <row r="489" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B489" t="s">
@@ -41890,7 +41890,7 @@
       </c>
     </row>
     <row r="490" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+      <c r="A490" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B490" t="s">
@@ -41955,7 +41955,7 @@
       </c>
     </row>
     <row r="491" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="A491" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B491" t="s">
@@ -42029,7 +42029,7 @@
       </c>
     </row>
     <row r="492" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="A492" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B492" t="s">
@@ -42103,7 +42103,7 @@
       </c>
     </row>
     <row r="493" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B493" t="s">
@@ -42177,7 +42177,7 @@
       </c>
     </row>
     <row r="494" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+      <c r="A494" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B494" t="s">
@@ -42251,7 +42251,7 @@
       </c>
     </row>
     <row r="495" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+      <c r="A495" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B495" t="s">
@@ -42325,7 +42325,7 @@
       </c>
     </row>
     <row r="496" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="A496" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B496" t="s">
@@ -42390,7 +42390,7 @@
       </c>
     </row>
     <row r="497" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+      <c r="A497" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B497" t="s">
@@ -42464,7 +42464,7 @@
       </c>
     </row>
     <row r="498" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="A498" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B498" t="s">
@@ -42529,7 +42529,7 @@
       </c>
     </row>
     <row r="499" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="A499" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B499" t="s">
@@ -42594,7 +42594,7 @@
       </c>
     </row>
     <row r="500" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B500" t="s">
@@ -42667,8 +42667,8 @@
         <v>686</v>
       </c>
     </row>
-    <row r="501" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
         <v>687</v>
       </c>
       <c r="B501" t="s">
@@ -42742,7 +42742,7 @@
       </c>
     </row>
     <row r="502" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A502">
+      <c r="A502" s="1">
         <v>112936</v>
       </c>
       <c r="B502" t="s">
@@ -42816,7 +42816,7 @@
       </c>
     </row>
     <row r="503" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="A503" s="1" t="s">
         <v>690</v>
       </c>
       <c r="B503" t="s">
@@ -42890,7 +42890,7 @@
       </c>
     </row>
     <row r="504" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="A504" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B504" t="s">
@@ -42909,7 +42909,7 @@
         <v>11</v>
       </c>
       <c r="G504">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H504" t="s">
         <v>43</v>
@@ -42960,11 +42960,11 @@
         <v>41</v>
       </c>
       <c r="AC504" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="505" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B505" t="s">
@@ -43038,7 +43038,7 @@
       </c>
     </row>
     <row r="506" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+      <c r="A506" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B506" t="s">
@@ -43112,7 +43112,7 @@
       </c>
     </row>
     <row r="507" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+      <c r="A507" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B507" t="s">
@@ -43186,8 +43186,8 @@
       </c>
     </row>
     <row r="508" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>695</v>
+      <c r="A508" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B508" t="s">
         <v>29</v>
@@ -43205,7 +43205,7 @@
         <v>11</v>
       </c>
       <c r="G508">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H508" t="s">
         <v>43</v>
@@ -43223,7 +43223,7 @@
         <v>34</v>
       </c>
       <c r="M508">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N508">
         <v>7</v>
@@ -43256,11 +43256,11 @@
         <v>41</v>
       </c>
       <c r="AC508" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="509" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+      <c r="A509" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B509" t="s">
@@ -43334,7 +43334,7 @@
       </c>
     </row>
     <row r="510" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+      <c r="A510" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B510" t="s">
@@ -43408,7 +43408,7 @@
       </c>
     </row>
     <row r="511" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>698</v>
       </c>
       <c r="B511" t="s">
@@ -43482,7 +43482,7 @@
       </c>
     </row>
     <row r="512" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+      <c r="A512" s="1" t="s">
         <v>699</v>
       </c>
       <c r="B512" t="s">
@@ -43556,8 +43556,8 @@
       </c>
     </row>
     <row r="513" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>700</v>
+      <c r="A513" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B513" t="s">
         <v>29</v>
@@ -43575,7 +43575,7 @@
         <v>11</v>
       </c>
       <c r="G513">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H513" t="s">
         <v>43</v>
@@ -43593,7 +43593,7 @@
         <v>34</v>
       </c>
       <c r="M513">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N513">
         <v>8</v>
@@ -43605,7 +43605,7 @@
         <v>3</v>
       </c>
       <c r="Q513" t="s">
-        <v>379</v>
+        <v>69</v>
       </c>
       <c r="S513" t="s">
         <v>46</v>
@@ -43626,11 +43626,11 @@
         <v>41</v>
       </c>
       <c r="AC513" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="514" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>701</v>
       </c>
       <c r="B514" t="s">
@@ -43704,7 +43704,7 @@
       </c>
     </row>
     <row r="515" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+      <c r="A515" s="1" t="s">
         <v>702</v>
       </c>
       <c r="B515" t="s">
@@ -43778,7 +43778,7 @@
       </c>
     </row>
     <row r="516" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B516" t="s">
@@ -43852,7 +43852,7 @@
       </c>
     </row>
     <row r="517" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+      <c r="A517" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B517" t="s">
@@ -43935,7 +43935,7 @@
       </c>
     </row>
     <row r="518" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>709</v>
       </c>
       <c r="B518" t="s">
@@ -44018,7 +44018,7 @@
       </c>
     </row>
     <row r="519" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+      <c r="A519" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B519" t="s">
@@ -44101,7 +44101,7 @@
       </c>
     </row>
     <row r="520" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+      <c r="A520" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B520" t="s">
@@ -44184,7 +44184,7 @@
       </c>
     </row>
     <row r="521" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+      <c r="A521" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B521" t="s">
@@ -44267,7 +44267,7 @@
       </c>
     </row>
     <row r="522" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="A522" s="1" t="s">
         <v>718</v>
       </c>
       <c r="B522" t="s">
@@ -44350,7 +44350,7 @@
       </c>
     </row>
     <row r="523" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+      <c r="A523" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B523" t="s">
@@ -44433,7 +44433,7 @@
       </c>
     </row>
     <row r="524" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+      <c r="A524" s="1" t="s">
         <v>709</v>
       </c>
       <c r="B524" t="s">
@@ -44516,7 +44516,7 @@
       </c>
     </row>
     <row r="525" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
+      <c r="A525" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B525" t="s">
@@ -44599,7 +44599,7 @@
       </c>
     </row>
     <row r="526" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
+      <c r="A526" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B526" t="s">
@@ -44682,7 +44682,7 @@
       </c>
     </row>
     <row r="527" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+      <c r="A527" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B527" t="s">
@@ -44765,7 +44765,7 @@
       </c>
     </row>
     <row r="528" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+      <c r="A528" s="1" t="s">
         <v>718</v>
       </c>
       <c r="B528" t="s">
@@ -44848,7 +44848,7 @@
       </c>
     </row>
     <row r="529" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+      <c r="A529" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B529" t="s">
@@ -44922,7 +44922,7 @@
       </c>
     </row>
     <row r="530" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A530">
+      <c r="A530" s="1">
         <v>112046</v>
       </c>
       <c r="B530" t="s">
@@ -44996,7 +44996,7 @@
       </c>
     </row>
     <row r="531" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+      <c r="A531" s="1" t="s">
         <v>723</v>
       </c>
       <c r="B531" t="s">
@@ -45070,7 +45070,7 @@
       </c>
     </row>
     <row r="532" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+      <c r="A532" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B532" t="s">
@@ -45153,7 +45153,7 @@
       </c>
     </row>
     <row r="533" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+      <c r="A533" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B533" t="s">
@@ -45236,7 +45236,7 @@
       </c>
     </row>
     <row r="534" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+      <c r="A534" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B534" t="s">
@@ -45310,7 +45310,7 @@
       </c>
     </row>
     <row r="535" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+      <c r="A535" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B535" t="s">
@@ -45393,7 +45393,7 @@
       </c>
     </row>
     <row r="536" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+      <c r="A536" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B536" t="s">
@@ -45467,7 +45467,7 @@
       </c>
     </row>
     <row r="537" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+      <c r="A537" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B537" t="s">
@@ -45544,7 +45544,7 @@
       </c>
     </row>
     <row r="538" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+      <c r="A538" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B538" t="s">
@@ -45618,7 +45618,7 @@
       </c>
     </row>
     <row r="539" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+      <c r="A539" s="1" t="s">
         <v>690</v>
       </c>
       <c r="B539" t="s">
@@ -45701,7 +45701,7 @@
       </c>
     </row>
     <row r="540" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
+      <c r="A540" s="1" t="s">
         <v>723</v>
       </c>
       <c r="B540" t="s">
@@ -45775,7 +45775,7 @@
       </c>
     </row>
     <row r="541" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+      <c r="A541" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B541" t="s">
@@ -45858,7 +45858,7 @@
       </c>
     </row>
     <row r="542" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+      <c r="A542" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B542" t="s">
@@ -45941,7 +45941,7 @@
       </c>
     </row>
     <row r="543" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="A543" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B543" t="s">
@@ -46015,7 +46015,7 @@
       </c>
     </row>
     <row r="544" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+      <c r="A544" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B544" t="s">
@@ -46098,7 +46098,7 @@
       </c>
     </row>
     <row r="545" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+      <c r="A545" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B545" t="s">
@@ -46172,7 +46172,7 @@
       </c>
     </row>
     <row r="546" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+      <c r="A546" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B546" t="s">
@@ -46249,7 +46249,7 @@
       </c>
     </row>
     <row r="547" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+      <c r="A547" s="1" t="s">
         <v>690</v>
       </c>
       <c r="B547" t="s">
@@ -46323,7 +46323,7 @@
       </c>
     </row>
     <row r="548" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+      <c r="A548" s="1" t="s">
         <v>723</v>
       </c>
       <c r="B548" t="s">
@@ -46397,7 +46397,7 @@
       </c>
     </row>
     <row r="549" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+      <c r="A549" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B549" t="s">
@@ -46471,7 +46471,7 @@
       </c>
     </row>
     <row r="550" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
+      <c r="A550" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B550" t="s">
@@ -46545,7 +46545,7 @@
       </c>
     </row>
     <row r="551" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+      <c r="A551" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B551" t="s">
@@ -46619,7 +46619,7 @@
       </c>
     </row>
     <row r="552" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+      <c r="A552" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B552" t="s">
@@ -46693,7 +46693,7 @@
       </c>
     </row>
     <row r="553" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+      <c r="A553" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B553" t="s">
@@ -46767,7 +46767,7 @@
       </c>
     </row>
     <row r="554" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
+      <c r="A554" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B554" t="s">
@@ -46853,7 +46853,7 @@
       </c>
     </row>
     <row r="555" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+      <c r="A555" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B555" t="s">
@@ -46927,7 +46927,7 @@
       </c>
     </row>
     <row r="556" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+      <c r="A556" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B556" t="s">
@@ -47010,7 +47010,7 @@
       </c>
     </row>
     <row r="557" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+      <c r="A557" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B557" t="s">
@@ -47084,7 +47084,7 @@
       </c>
     </row>
     <row r="558" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+      <c r="A558" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B558" t="s">
@@ -47167,7 +47167,7 @@
       </c>
     </row>
     <row r="559" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+      <c r="A559" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B559" t="s">
@@ -47241,8 +47241,8 @@
       </c>
     </row>
     <row r="560" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>734</v>
+      <c r="A560" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B560" t="s">
         <v>29</v>
@@ -47260,10 +47260,10 @@
         <v>11</v>
       </c>
       <c r="G560">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H560" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="I560" t="s">
         <v>32</v>
@@ -47278,7 +47278,7 @@
         <v>34</v>
       </c>
       <c r="M560">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N560">
         <v>2</v>
@@ -47287,13 +47287,13 @@
         <v>33</v>
       </c>
       <c r="P560">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q560" t="s">
         <v>49</v>
       </c>
       <c r="S560" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="T560" t="s">
         <v>37</v>
@@ -47311,11 +47311,11 @@
         <v>41</v>
       </c>
       <c r="AC560" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="561" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+      <c r="A561" s="1" t="s">
         <v>735</v>
       </c>
       <c r="B561" t="s">
@@ -47389,7 +47389,7 @@
       </c>
     </row>
     <row r="562" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+      <c r="A562" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B562" t="s">
@@ -47472,7 +47472,7 @@
       </c>
     </row>
     <row r="563" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+      <c r="A563" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B563" t="s">
@@ -47555,7 +47555,7 @@
       </c>
     </row>
     <row r="564" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+      <c r="A564" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B564" t="s">
@@ -47638,7 +47638,7 @@
       </c>
     </row>
     <row r="565" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+      <c r="A565" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B565" t="s">
@@ -47721,7 +47721,7 @@
       </c>
     </row>
     <row r="566" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+      <c r="A566" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B566" t="s">
@@ -47795,7 +47795,7 @@
       </c>
     </row>
     <row r="567" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+      <c r="A567" s="1" t="s">
         <v>742</v>
       </c>
       <c r="B567" t="s">
@@ -47878,7 +47878,7 @@
       </c>
     </row>
     <row r="568" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+      <c r="A568" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B568" t="s">
@@ -47961,7 +47961,7 @@
       </c>
     </row>
     <row r="569" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+      <c r="A569" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B569" t="s">
@@ -48044,7 +48044,7 @@
       </c>
     </row>
     <row r="570" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+      <c r="A570" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B570" t="s">
@@ -48127,7 +48127,7 @@
       </c>
     </row>
     <row r="571" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
+      <c r="A571" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B571" t="s">
@@ -48201,7 +48201,7 @@
       </c>
     </row>
     <row r="572" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+      <c r="A572" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B572" t="s">
@@ -48275,7 +48275,7 @@
       </c>
     </row>
     <row r="573" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+      <c r="A573" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B573" t="s">
@@ -48358,7 +48358,7 @@
       </c>
     </row>
     <row r="574" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+      <c r="A574" s="1" t="s">
         <v>742</v>
       </c>
       <c r="B574" t="s">
@@ -48441,7 +48441,7 @@
       </c>
     </row>
     <row r="575" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+      <c r="A575" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B575" t="s">
@@ -48524,7 +48524,7 @@
       </c>
     </row>
     <row r="576" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+      <c r="A576" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B576" t="s">
@@ -48598,7 +48598,7 @@
       </c>
     </row>
     <row r="577" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+      <c r="A577" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B577" t="s">
@@ -48672,7 +48672,7 @@
       </c>
     </row>
     <row r="578" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+      <c r="A578" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B578" t="s">
@@ -48746,7 +48746,7 @@
       </c>
     </row>
     <row r="579" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+      <c r="A579" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B579" t="s">
@@ -48820,7 +48820,7 @@
       </c>
     </row>
     <row r="580" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+      <c r="A580" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B580" t="s">
@@ -48894,7 +48894,7 @@
       </c>
     </row>
     <row r="581" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
+      <c r="A581" s="1" t="s">
         <v>742</v>
       </c>
       <c r="B581" t="s">
@@ -48968,7 +48968,7 @@
       </c>
     </row>
     <row r="582" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+      <c r="A582" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B582" t="s">
@@ -49042,7 +49042,7 @@
       </c>
     </row>
     <row r="583" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+      <c r="A583" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B583" t="s">
@@ -49125,7 +49125,7 @@
       </c>
     </row>
     <row r="584" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+      <c r="A584" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B584" t="s">
@@ -49208,7 +49208,7 @@
       </c>
     </row>
     <row r="585" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+      <c r="A585" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B585" t="s">
@@ -49291,7 +49291,7 @@
       </c>
     </row>
     <row r="586" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+      <c r="A586" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B586" t="s">
@@ -49374,7 +49374,7 @@
       </c>
     </row>
     <row r="587" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
+      <c r="A587" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B587" t="s">
@@ -49457,7 +49457,7 @@
       </c>
     </row>
     <row r="588" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+      <c r="A588" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B588" t="s">
@@ -49540,7 +49540,7 @@
       </c>
     </row>
     <row r="589" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+      <c r="A589" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B589" t="s">
@@ -49614,7 +49614,7 @@
       </c>
     </row>
     <row r="590" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+      <c r="A590" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B590" t="s">
@@ -49688,7 +49688,7 @@
       </c>
     </row>
     <row r="591" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+      <c r="A591" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B591" t="s">
@@ -49762,7 +49762,7 @@
       </c>
     </row>
     <row r="592" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+      <c r="A592" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B592" t="s">
@@ -49836,7 +49836,7 @@
       </c>
     </row>
     <row r="593" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+      <c r="A593" s="1" t="s">
         <v>753</v>
       </c>
       <c r="B593" t="s">
@@ -49910,7 +49910,7 @@
       </c>
     </row>
     <row r="594" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+      <c r="A594" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B594" t="s">
@@ -49993,7 +49993,7 @@
       </c>
     </row>
     <row r="595" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+      <c r="A595" s="1" t="s">
         <v>756</v>
       </c>
       <c r="B595" t="s">
@@ -50067,7 +50067,7 @@
       </c>
     </row>
     <row r="596" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+      <c r="A596" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B596" t="s">
@@ -50141,7 +50141,7 @@
       </c>
     </row>
     <row r="597" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
+      <c r="A597" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B597" t="s">
@@ -50224,7 +50224,7 @@
       </c>
     </row>
     <row r="598" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+      <c r="A598" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B598" t="s">
@@ -50307,7 +50307,7 @@
       </c>
     </row>
     <row r="599" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+      <c r="A599" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B599" t="s">
@@ -50390,7 +50390,7 @@
       </c>
     </row>
     <row r="600" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+      <c r="A600" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B600" t="s">
@@ -50473,7 +50473,7 @@
       </c>
     </row>
     <row r="601" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+      <c r="A601" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B601" t="s">
@@ -50556,7 +50556,7 @@
       </c>
     </row>
     <row r="602" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+      <c r="A602" s="1" t="s">
         <v>756</v>
       </c>
       <c r="B602" t="s">
@@ -50639,7 +50639,7 @@
       </c>
     </row>
     <row r="603" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+      <c r="A603" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B603" t="s">
@@ -50722,7 +50722,7 @@
       </c>
     </row>
     <row r="604" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+      <c r="A604" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B604" t="s">
@@ -50805,7 +50805,7 @@
       </c>
     </row>
     <row r="605" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
+      <c r="A605" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B605" t="s">
@@ -50888,7 +50888,7 @@
       </c>
     </row>
     <row r="606" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
+      <c r="A606" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B606" t="s">
@@ -50971,7 +50971,7 @@
       </c>
     </row>
     <row r="607" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+      <c r="A607" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B607" t="s">
@@ -51054,7 +51054,7 @@
       </c>
     </row>
     <row r="608" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+      <c r="A608" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B608" t="s">
@@ -51128,7 +51128,7 @@
       </c>
     </row>
     <row r="609" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+      <c r="A609" s="1" t="s">
         <v>756</v>
       </c>
       <c r="B609" t="s">
@@ -51202,7 +51202,7 @@
       </c>
     </row>
     <row r="610" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+      <c r="A610" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B610" t="s">
@@ -51285,7 +51285,7 @@
       </c>
     </row>
     <row r="611" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+      <c r="A611" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B611" t="s">
@@ -51368,7 +51368,7 @@
       </c>
     </row>
     <row r="612" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+      <c r="A612" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B612" t="s">
@@ -51451,7 +51451,7 @@
       </c>
     </row>
     <row r="613" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+      <c r="A613" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B613" t="s">
@@ -51525,7 +51525,7 @@
       </c>
     </row>
     <row r="614" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+      <c r="A614" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B614" t="s">
@@ -51608,7 +51608,7 @@
       </c>
     </row>
     <row r="615" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+      <c r="A615" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B615" t="s">
@@ -51691,7 +51691,7 @@
       </c>
     </row>
     <row r="616" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
+      <c r="A616" s="1" t="s">
         <v>756</v>
       </c>
       <c r="B616" t="s">
@@ -51774,7 +51774,7 @@
       </c>
     </row>
     <row r="617" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+      <c r="A617" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B617" t="s">
@@ -51857,7 +51857,7 @@
       </c>
     </row>
     <row r="618" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+      <c r="A618" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B618" t="s">
@@ -51940,7 +51940,7 @@
       </c>
     </row>
     <row r="619" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+      <c r="A619" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B619" t="s">
@@ -52023,7 +52023,7 @@
       </c>
     </row>
     <row r="620" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+      <c r="A620" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B620" t="s">
@@ -52097,7 +52097,7 @@
       </c>
     </row>
     <row r="621" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+      <c r="A621" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B621" t="s">
@@ -52180,7 +52180,7 @@
       </c>
     </row>
     <row r="622" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+      <c r="A622" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B622" t="s">
@@ -52254,7 +52254,7 @@
       </c>
     </row>
     <row r="623" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
+      <c r="A623" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B623" t="s">
@@ -52337,7 +52337,7 @@
       </c>
     </row>
     <row r="624" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
+      <c r="A624" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B624" t="s">
@@ -52420,7 +52420,7 @@
       </c>
     </row>
     <row r="625" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+      <c r="A625" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B625" t="s">
@@ -52503,7 +52503,7 @@
       </c>
     </row>
     <row r="626" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+      <c r="A626" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B626" t="s">
@@ -52586,7 +52586,7 @@
       </c>
     </row>
     <row r="627" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+      <c r="A627" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B627" t="s">
@@ -52669,7 +52669,7 @@
       </c>
     </row>
     <row r="628" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+      <c r="A628" s="1" t="s">
         <v>772</v>
       </c>
       <c r="B628" t="s">
@@ -52752,8 +52752,8 @@
       </c>
     </row>
     <row r="629" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>774</v>
+      <c r="A629" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B629" t="s">
         <v>29</v>
@@ -52771,7 +52771,7 @@
         <v>11</v>
       </c>
       <c r="G629">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H629" t="s">
         <v>124</v>
@@ -52786,10 +52786,10 @@
         <v>33</v>
       </c>
       <c r="L629" t="s">
-        <v>773</v>
+        <v>297</v>
       </c>
       <c r="M629">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N629">
         <v>7</v>
@@ -52813,13 +52813,13 @@
         <v>38</v>
       </c>
       <c r="V629" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="W629" t="s">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="X629" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="Y629" t="s">
         <v>39</v>
@@ -52831,11 +52831,11 @@
         <v>41</v>
       </c>
       <c r="AC629" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="630" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+      <c r="A630" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B630" t="s">
@@ -52918,7 +52918,7 @@
       </c>
     </row>
     <row r="631" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+      <c r="A631" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B631" t="s">
@@ -52992,7 +52992,7 @@
       </c>
     </row>
     <row r="632" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+      <c r="A632" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B632" t="s">
@@ -53066,7 +53066,7 @@
       </c>
     </row>
     <row r="633" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+      <c r="A633" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B633" t="s">
@@ -53149,7 +53149,7 @@
       </c>
     </row>
     <row r="634" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+      <c r="A634" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B634" t="s">
@@ -53235,7 +53235,7 @@
       </c>
     </row>
     <row r="635" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+      <c r="A635" s="1" t="s">
         <v>772</v>
       </c>
       <c r="B635" t="s">
@@ -53318,8 +53318,8 @@
       </c>
     </row>
     <row r="636" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
-        <v>774</v>
+      <c r="A636" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B636" t="s">
         <v>29</v>
@@ -53337,7 +53337,7 @@
         <v>11</v>
       </c>
       <c r="G636">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H636" t="s">
         <v>124</v>
@@ -53352,10 +53352,10 @@
         <v>33</v>
       </c>
       <c r="L636" t="s">
-        <v>783</v>
+        <v>324</v>
       </c>
       <c r="M636">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="N636">
         <v>7</v>
@@ -53379,13 +53379,13 @@
         <v>38</v>
       </c>
       <c r="V636" t="s">
-        <v>621</v>
+        <v>325</v>
       </c>
       <c r="W636" t="s">
-        <v>622</v>
+        <v>106</v>
       </c>
       <c r="X636" t="s">
-        <v>623</v>
+        <v>326</v>
       </c>
       <c r="Y636" t="s">
         <v>39</v>
@@ -53397,11 +53397,11 @@
         <v>41</v>
       </c>
       <c r="AC636" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="637" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+      <c r="A637" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B637" t="s">
@@ -53484,7 +53484,7 @@
       </c>
     </row>
     <row r="638" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+      <c r="A638" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B638" t="s">
@@ -53558,7 +53558,7 @@
       </c>
     </row>
     <row r="639" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+      <c r="A639" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B639" t="s">
@@ -53641,7 +53641,7 @@
       </c>
     </row>
     <row r="640" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
+      <c r="A640" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B640" t="s">
@@ -53724,7 +53724,7 @@
       </c>
     </row>
     <row r="641" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
+      <c r="A641" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B641" t="s">
@@ -53810,7 +53810,7 @@
       </c>
     </row>
     <row r="642" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+      <c r="A642" s="1" t="s">
         <v>772</v>
       </c>
       <c r="B642" t="s">
@@ -53893,8 +53893,8 @@
       </c>
     </row>
     <row r="643" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
-        <v>774</v>
+      <c r="A643" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B643" t="s">
         <v>29</v>
@@ -53912,7 +53912,7 @@
         <v>11</v>
       </c>
       <c r="G643">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H643" t="s">
         <v>124</v>
@@ -53927,10 +53927,10 @@
         <v>33</v>
       </c>
       <c r="L643" t="s">
-        <v>784</v>
+        <v>339</v>
       </c>
       <c r="M643">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N643">
         <v>7</v>
@@ -53972,11 +53972,11 @@
         <v>41</v>
       </c>
       <c r="AC643" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="644" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+      <c r="A644" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B644" t="s">
@@ -54059,7 +54059,7 @@
       </c>
     </row>
     <row r="645" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+      <c r="A645" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B645" t="s">
@@ -54133,7 +54133,7 @@
       </c>
     </row>
     <row r="646" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+      <c r="A646" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B646" t="s">
@@ -54216,7 +54216,7 @@
       </c>
     </row>
     <row r="647" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+      <c r="A647" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B647" t="s">
@@ -54299,7 +54299,7 @@
       </c>
     </row>
     <row r="648" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+      <c r="A648" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B648" t="s">
@@ -54385,7 +54385,7 @@
       </c>
     </row>
     <row r="649" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
+      <c r="A649" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B649" t="s">
@@ -54468,7 +54468,7 @@
       </c>
     </row>
     <row r="650" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+      <c r="A650" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B650" t="s">
@@ -54551,7 +54551,7 @@
       </c>
     </row>
     <row r="651" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+      <c r="A651" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B651" t="s">
@@ -54637,7 +54637,7 @@
       </c>
     </row>
     <row r="652" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
+      <c r="A652" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B652" t="s">
@@ -54720,7 +54720,7 @@
       </c>
     </row>
     <row r="653" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+      <c r="A653" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B653" t="s">
@@ -54806,7 +54806,7 @@
       </c>
     </row>
     <row r="654" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+      <c r="A654" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B654" t="s">
@@ -54880,7 +54880,7 @@
       </c>
     </row>
     <row r="655" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+      <c r="A655" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B655" t="s">
@@ -54954,7 +54954,7 @@
       </c>
     </row>
     <row r="656" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+      <c r="A656" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B656" t="s">
@@ -55037,7 +55037,7 @@
       </c>
     </row>
     <row r="657" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
+      <c r="A657" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B657" t="s">
@@ -55111,7 +55111,7 @@
       </c>
     </row>
     <row r="658" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
+      <c r="A658" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B658" t="s">
@@ -55185,7 +55185,7 @@
       </c>
     </row>
     <row r="659" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
+      <c r="A659" s="1" t="s">
         <v>795</v>
       </c>
       <c r="B659" t="s">
@@ -55268,7 +55268,7 @@
       </c>
     </row>
     <row r="660" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
+      <c r="A660" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B660" t="s">
@@ -55342,7 +55342,7 @@
       </c>
     </row>
     <row r="661" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
+      <c r="A661" s="1" t="s">
         <v>797</v>
       </c>
       <c r="B661" t="s">
@@ -55416,7 +55416,7 @@
       </c>
     </row>
     <row r="662" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
+      <c r="A662" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B662" t="s">
@@ -55490,7 +55490,7 @@
       </c>
     </row>
     <row r="663" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
+      <c r="A663" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B663" t="s">
@@ -55564,7 +55564,7 @@
       </c>
     </row>
     <row r="664" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
+      <c r="A664" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B664" t="s">
@@ -55647,7 +55647,7 @@
       </c>
     </row>
     <row r="665" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
+      <c r="A665" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B665" t="s">
@@ -55721,7 +55721,7 @@
       </c>
     </row>
     <row r="666" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
+      <c r="A666" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B666" t="s">
@@ -55795,7 +55795,7 @@
       </c>
     </row>
     <row r="667" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
+      <c r="A667" s="1" t="s">
         <v>795</v>
       </c>
       <c r="B667" t="s">
@@ -55878,7 +55878,7 @@
       </c>
     </row>
     <row r="668" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
+      <c r="A668" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B668" t="s">
@@ -55952,7 +55952,7 @@
       </c>
     </row>
     <row r="669" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
+      <c r="A669" s="1" t="s">
         <v>797</v>
       </c>
       <c r="B669" t="s">
@@ -56026,7 +56026,7 @@
       </c>
     </row>
     <row r="670" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
+      <c r="A670" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B670" t="s">
@@ -56100,7 +56100,7 @@
       </c>
     </row>
     <row r="671" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
+      <c r="A671" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B671" t="s">
@@ -56174,7 +56174,7 @@
       </c>
     </row>
     <row r="672" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
+      <c r="A672" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B672" t="s">
@@ -56248,7 +56248,7 @@
       </c>
     </row>
     <row r="673" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
+      <c r="A673" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B673" t="s">
@@ -56322,7 +56322,7 @@
       </c>
     </row>
     <row r="674" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
+      <c r="A674" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B674" t="s">
@@ -56396,7 +56396,7 @@
       </c>
     </row>
     <row r="675" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
+      <c r="A675" s="1" t="s">
         <v>795</v>
       </c>
       <c r="B675" t="s">
@@ -56470,7 +56470,7 @@
       </c>
     </row>
     <row r="676" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
+      <c r="A676" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B676" t="s">
@@ -56544,7 +56544,7 @@
       </c>
     </row>
     <row r="677" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
+      <c r="A677" s="1" t="s">
         <v>797</v>
       </c>
       <c r="B677" t="s">
@@ -56618,7 +56618,7 @@
       </c>
     </row>
     <row r="678" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+      <c r="A678" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B678" t="s">
@@ -56692,7 +56692,7 @@
       </c>
     </row>
     <row r="679" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
+      <c r="A679" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B679" t="s">
@@ -56766,8 +56766,8 @@
       </c>
     </row>
     <row r="680" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
-        <v>804</v>
+      <c r="A680" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B680" t="s">
         <v>29</v>
@@ -56785,10 +56785,10 @@
         <v>11</v>
       </c>
       <c r="G680">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H680" t="s">
-        <v>788</v>
+        <v>43</v>
       </c>
       <c r="I680" t="s">
         <v>32</v>
@@ -56803,7 +56803,7 @@
         <v>34</v>
       </c>
       <c r="M680">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N680">
         <v>2</v>
@@ -56812,13 +56812,13 @@
         <v>33</v>
       </c>
       <c r="P680">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q680" t="s">
-        <v>805</v>
+        <v>49</v>
       </c>
       <c r="S680" t="s">
-        <v>790</v>
+        <v>46</v>
       </c>
       <c r="T680" t="s">
         <v>37</v>
@@ -56830,17 +56830,17 @@
         <v>39</v>
       </c>
       <c r="AA680" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AB680" t="s">
         <v>41</v>
       </c>
       <c r="AC680" t="s">
-        <v>843</v>
+        <v>652</v>
       </c>
     </row>
     <row r="681" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
+      <c r="A681" s="1" t="s">
         <v>806</v>
       </c>
       <c r="B681" t="s">
@@ -56923,7 +56923,7 @@
       </c>
     </row>
     <row r="682" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
+      <c r="A682" s="1" t="s">
         <v>809</v>
       </c>
       <c r="B682" t="s">
@@ -57006,7 +57006,7 @@
       </c>
     </row>
     <row r="683" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
+      <c r="A683" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B683" t="s">
@@ -57089,7 +57089,7 @@
       </c>
     </row>
     <row r="684" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
+      <c r="A684" s="1" t="s">
         <v>813</v>
       </c>
       <c r="B684" t="s">
@@ -57163,7 +57163,7 @@
       </c>
     </row>
     <row r="685" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
+      <c r="A685" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B685" t="s">
@@ -57246,7 +57246,7 @@
       </c>
     </row>
     <row r="686" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
+      <c r="A686" s="1" t="s">
         <v>817</v>
       </c>
       <c r="B686" t="s">
@@ -57329,7 +57329,7 @@
       </c>
     </row>
     <row r="687" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
+      <c r="A687" s="1" t="s">
         <v>819</v>
       </c>
       <c r="B687" t="s">
@@ -57403,7 +57403,7 @@
       </c>
     </row>
     <row r="688" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
+      <c r="A688" s="1" t="s">
         <v>806</v>
       </c>
       <c r="B688" t="s">
@@ -57486,7 +57486,7 @@
       </c>
     </row>
     <row r="689" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
+      <c r="A689" s="1" t="s">
         <v>809</v>
       </c>
       <c r="B689" t="s">
@@ -57560,7 +57560,7 @@
       </c>
     </row>
     <row r="690" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+      <c r="A690" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B690" t="s">
@@ -57634,7 +57634,7 @@
       </c>
     </row>
     <row r="691" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+      <c r="A691" s="1" t="s">
         <v>813</v>
       </c>
       <c r="B691" t="s">
@@ -57708,7 +57708,7 @@
       </c>
     </row>
     <row r="692" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
+      <c r="A692" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B692" t="s">
@@ -57791,7 +57791,7 @@
       </c>
     </row>
     <row r="693" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
+      <c r="A693" s="1" t="s">
         <v>817</v>
       </c>
       <c r="B693" t="s">
@@ -57865,7 +57865,7 @@
       </c>
     </row>
     <row r="694" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
+      <c r="A694" s="1" t="s">
         <v>819</v>
       </c>
       <c r="B694" t="s">
@@ -57948,7 +57948,7 @@
       </c>
     </row>
     <row r="695" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
+      <c r="A695" s="1" t="s">
         <v>806</v>
       </c>
       <c r="B695" t="s">
@@ -58022,7 +58022,7 @@
       </c>
     </row>
     <row r="696" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
+      <c r="A696" s="1" t="s">
         <v>809</v>
       </c>
       <c r="B696" t="s">
@@ -58096,7 +58096,7 @@
       </c>
     </row>
     <row r="697" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
+      <c r="A697" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B697" t="s">
@@ -58170,7 +58170,7 @@
       </c>
     </row>
     <row r="698" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
+      <c r="A698" s="1" t="s">
         <v>813</v>
       </c>
       <c r="B698" t="s">
@@ -58244,7 +58244,7 @@
       </c>
     </row>
     <row r="699" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
+      <c r="A699" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B699" t="s">
@@ -58318,7 +58318,7 @@
       </c>
     </row>
     <row r="700" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
+      <c r="A700" s="1" t="s">
         <v>817</v>
       </c>
       <c r="B700" t="s">
@@ -58392,7 +58392,7 @@
       </c>
     </row>
     <row r="701" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
+      <c r="A701" s="1" t="s">
         <v>819</v>
       </c>
       <c r="B701" t="s">
@@ -58466,7 +58466,7 @@
       </c>
     </row>
     <row r="702" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
+      <c r="A702" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B702" t="s">
@@ -58549,7 +58549,7 @@
       </c>
     </row>
     <row r="703" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
+      <c r="A703" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B703" t="s">
@@ -58623,7 +58623,7 @@
       </c>
     </row>
     <row r="704" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A704">
+      <c r="A704" s="1">
         <v>114402</v>
       </c>
       <c r="B704" t="s">
@@ -58697,7 +58697,7 @@
       </c>
     </row>
     <row r="705" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
+      <c r="A705" s="1" t="s">
         <v>825</v>
       </c>
       <c r="B705" t="s">
@@ -58771,7 +58771,7 @@
       </c>
     </row>
     <row r="706" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
+      <c r="A706" s="1" t="s">
         <v>827</v>
       </c>
       <c r="B706" t="s">
@@ -58845,7 +58845,7 @@
       </c>
     </row>
     <row r="707" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
+      <c r="A707" s="1" t="s">
         <v>830</v>
       </c>
       <c r="B707" t="s">
@@ -58928,7 +58928,7 @@
       </c>
     </row>
     <row r="708" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
+      <c r="A708" s="1" t="s">
         <v>832</v>
       </c>
       <c r="B708" t="s">
@@ -59011,7 +59011,7 @@
       </c>
     </row>
     <row r="709" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
+      <c r="A709" s="1" t="s">
         <v>834</v>
       </c>
       <c r="B709" t="s">
@@ -59094,7 +59094,7 @@
       </c>
     </row>
     <row r="710" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
+      <c r="A710" s="1" t="s">
         <v>836</v>
       </c>
       <c r="B710" t="s">
@@ -59177,7 +59177,7 @@
       </c>
     </row>
     <row r="711" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
+      <c r="A711" s="1" t="s">
         <v>838</v>
       </c>
       <c r="B711" t="s">
@@ -59251,7 +59251,7 @@
       </c>
     </row>
     <row r="712" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
+      <c r="A712" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B712" t="s">
@@ -59334,7 +59334,7 @@
       </c>
     </row>
     <row r="713" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
+      <c r="A713" s="1" t="s">
         <v>827</v>
       </c>
       <c r="B713" t="s">
@@ -59408,7 +59408,7 @@
       </c>
     </row>
     <row r="714" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
+      <c r="A714" s="1" t="s">
         <v>830</v>
       </c>
       <c r="B714" t="s">
@@ -59491,7 +59491,7 @@
       </c>
     </row>
     <row r="715" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+      <c r="A715" s="1" t="s">
         <v>832</v>
       </c>
       <c r="B715" t="s">
@@ -59574,7 +59574,7 @@
       </c>
     </row>
     <row r="716" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
+      <c r="A716" s="1" t="s">
         <v>834</v>
       </c>
       <c r="B716" t="s">
@@ -59657,7 +59657,7 @@
       </c>
     </row>
     <row r="717" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
+      <c r="A717" s="1" t="s">
         <v>836</v>
       </c>
       <c r="B717" t="s">
@@ -59740,7 +59740,7 @@
       </c>
     </row>
     <row r="718" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
+      <c r="A718" s="1" t="s">
         <v>838</v>
       </c>
       <c r="B718" t="s">
@@ -59814,7 +59814,7 @@
       </c>
     </row>
     <row r="719" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
+      <c r="A719" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B719" t="s">
@@ -59897,7 +59897,7 @@
       </c>
     </row>
     <row r="720" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
+      <c r="A720" s="1" t="s">
         <v>827</v>
       </c>
       <c r="B720" t="s">
@@ -59980,7 +59980,7 @@
       </c>
     </row>
     <row r="721" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+      <c r="A721" s="1" t="s">
         <v>830</v>
       </c>
       <c r="B721" t="s">
@@ -60063,7 +60063,7 @@
       </c>
     </row>
     <row r="722" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
+      <c r="A722" s="1" t="s">
         <v>832</v>
       </c>
       <c r="B722" t="s">
@@ -60137,7 +60137,7 @@
       </c>
     </row>
     <row r="723" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
+      <c r="A723" s="1" t="s">
         <v>834</v>
       </c>
       <c r="B723" t="s">
@@ -60220,7 +60220,7 @@
       </c>
     </row>
     <row r="724" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+      <c r="A724" s="1" t="s">
         <v>836</v>
       </c>
       <c r="B724" t="s">
@@ -60294,7 +60294,7 @@
       </c>
     </row>
     <row r="725" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
+      <c r="A725" s="1" t="s">
         <v>838</v>
       </c>
       <c r="B725" t="s">
@@ -60368,7 +60368,7 @@
       </c>
     </row>
     <row r="726" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
+      <c r="A726" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B726" t="s">

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ECEB85-4342-498F-B898-8CC7F63F7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A659AE9-253A-4D58-B563-F371CC831A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2630,13 +2630,25 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC726" totalsRowShown="0">
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="16">
+    <filterColumn colId="11">
       <filters>
-        <filter val="POLÍTICA FISCAL  Y TRIBUTARIA"/>
+        <filter val="300-M"/>
+        <filter val="HUARAL300--M"/>
+        <filter val="HUARAL-300-M"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="28">
+      <filters>
+        <filter val="C"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC680">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A282:AC289">
     <sortCondition ref="A1:A726"/>
   </sortState>
   <tableColumns count="29">
@@ -2994,7 +3006,7 @@
   <dimension ref="A1:AC726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q501" sqref="Q501"/>
+      <selection activeCell="Q227" sqref="Q227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,7 +3725,7 @@
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -3731,7 +3743,7 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -3761,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="S10" t="s">
         <v>46</v>
@@ -3782,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -3861,7 +3873,7 @@
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -3879,7 +3891,7 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -3897,7 +3909,7 @@
         <v>34</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>7</v>
@@ -3909,7 +3921,7 @@
         <v>3</v>
       </c>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>376</v>
       </c>
       <c r="S12" t="s">
         <v>46</v>
@@ -3930,12 +3942,12 @@
         <v>41</v>
       </c>
       <c r="AC12" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -3953,7 +3965,7 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -3971,7 +3983,7 @@
         <v>34</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>7</v>
@@ -4004,7 +4016,7 @@
         <v>41</v>
       </c>
       <c r="AC13" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -8307,7 +8319,7 @@
     </row>
     <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s">
         <v>29</v>
@@ -8325,7 +8337,7 @@
         <v>11</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>124</v>
@@ -8343,7 +8355,7 @@
         <v>34</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -8376,7 +8388,7 @@
         <v>41</v>
       </c>
       <c r="AC69" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -13966,7 +13978,7 @@
     </row>
     <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>305</v>
+        <v>624</v>
       </c>
       <c r="B140" t="s">
         <v>29</v>
@@ -13984,7 +13996,7 @@
         <v>11</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>124</v>
@@ -13999,7 +14011,7 @@
         <v>33</v>
       </c>
       <c r="L140" t="s">
-        <v>297</v>
+        <v>616</v>
       </c>
       <c r="M140">
         <v>50</v>
@@ -14026,13 +14038,13 @@
         <v>38</v>
       </c>
       <c r="V140" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="W140" t="s">
-        <v>307</v>
+        <v>156</v>
       </c>
       <c r="X140" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="Y140" t="s">
         <v>39</v>
@@ -14044,7 +14056,7 @@
         <v>41</v>
       </c>
       <c r="AC140" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -14532,7 +14544,7 @@
     </row>
     <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>305</v>
+        <v>624</v>
       </c>
       <c r="B147" t="s">
         <v>29</v>
@@ -14550,7 +14562,7 @@
         <v>11</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>124</v>
@@ -14565,10 +14577,10 @@
         <v>33</v>
       </c>
       <c r="L147" t="s">
-        <v>324</v>
+        <v>632</v>
       </c>
       <c r="M147">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N147">
         <v>7</v>
@@ -14592,13 +14604,13 @@
         <v>38</v>
       </c>
       <c r="V147" t="s">
-        <v>327</v>
+        <v>633</v>
       </c>
       <c r="W147" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="X147" t="s">
-        <v>329</v>
+        <v>634</v>
       </c>
       <c r="Y147" t="s">
         <v>39</v>
@@ -14610,7 +14622,7 @@
         <v>41</v>
       </c>
       <c r="AC147" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -15107,7 +15119,7 @@
     </row>
     <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>305</v>
+        <v>624</v>
       </c>
       <c r="B154" t="s">
         <v>29</v>
@@ -15125,7 +15137,7 @@
         <v>11</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>124</v>
@@ -15140,7 +15152,7 @@
         <v>33</v>
       </c>
       <c r="L154" t="s">
-        <v>339</v>
+        <v>640</v>
       </c>
       <c r="M154">
         <v>50</v>
@@ -15167,13 +15179,13 @@
         <v>38</v>
       </c>
       <c r="V154" t="s">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="W154" t="s">
-        <v>346</v>
+        <v>86</v>
       </c>
       <c r="X154" t="s">
-        <v>347</v>
+        <v>87</v>
       </c>
       <c r="Y154" t="s">
         <v>39</v>
@@ -15185,7 +15197,7 @@
         <v>41</v>
       </c>
       <c r="AC154" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -15525,7 +15537,7 @@
     </row>
     <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>305</v>
+        <v>624</v>
       </c>
       <c r="B159" t="s">
         <v>29</v>
@@ -15537,13 +15549,13 @@
         <v>75</v>
       </c>
       <c r="E159">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F159">
         <v>11</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>124</v>
@@ -15558,10 +15570,10 @@
         <v>33</v>
       </c>
       <c r="L159" t="s">
-        <v>353</v>
+        <v>641</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N159">
         <v>7</v>
@@ -15585,13 +15597,13 @@
         <v>38</v>
       </c>
       <c r="V159" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="W159" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="X159" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="Y159" t="s">
         <v>39</v>
@@ -15603,7 +15615,7 @@
         <v>41</v>
       </c>
       <c r="AC159" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -15768,7 +15780,7 @@
     </row>
     <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>305</v>
+        <v>624</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
@@ -15780,13 +15792,13 @@
         <v>75</v>
       </c>
       <c r="E162">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F162">
         <v>11</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>124</v>
@@ -15801,10 +15813,10 @@
         <v>33</v>
       </c>
       <c r="L162" t="s">
-        <v>354</v>
+        <v>642</v>
       </c>
       <c r="M162">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="N162">
         <v>7</v>
@@ -15828,13 +15840,13 @@
         <v>38</v>
       </c>
       <c r="V162" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="W162" t="s">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="X162" t="s">
-        <v>347</v>
+        <v>428</v>
       </c>
       <c r="Y162" t="s">
         <v>39</v>
@@ -15846,7 +15858,7 @@
         <v>41</v>
       </c>
       <c r="AC162" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
     </row>
     <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -16166,7 +16178,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>362</v>
       </c>
@@ -16769,19 +16781,19 @@
     </row>
     <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>371</v>
+        <v>624</v>
       </c>
       <c r="B175" t="s">
         <v>29</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E175">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F175">
         <v>11</v>
@@ -16790,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="I175" t="s">
         <v>32</v>
@@ -16802,10 +16814,10 @@
         <v>33</v>
       </c>
       <c r="L175" t="s">
-        <v>34</v>
+        <v>646</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="N175">
         <v>7</v>
@@ -16814,19 +16826,28 @@
         <v>44</v>
       </c>
       <c r="P175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q175" t="s">
-        <v>372</v>
+        <v>61</v>
       </c>
       <c r="S175" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="T175" t="s">
         <v>37</v>
       </c>
       <c r="U175" t="s">
         <v>38</v>
+      </c>
+      <c r="V175" t="s">
+        <v>103</v>
+      </c>
+      <c r="W175" t="s">
+        <v>104</v>
+      </c>
+      <c r="X175" t="s">
+        <v>105</v>
       </c>
       <c r="Y175" t="s">
         <v>39</v>
@@ -16917,7 +16938,7 @@
     </row>
     <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>375</v>
+        <v>698</v>
       </c>
       <c r="B177" t="s">
         <v>29</v>
@@ -16935,7 +16956,7 @@
         <v>11</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
         <v>43</v>
@@ -16953,7 +16974,7 @@
         <v>34</v>
       </c>
       <c r="M177">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N177">
         <v>7</v>
@@ -16986,12 +17007,12 @@
         <v>41</v>
       </c>
       <c r="AC177" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>377</v>
+        <v>699</v>
       </c>
       <c r="B178" t="s">
         <v>29</v>
@@ -17009,7 +17030,7 @@
         <v>11</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
         <v>43</v>
@@ -17027,7 +17048,7 @@
         <v>34</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N178">
         <v>7</v>
@@ -17060,7 +17081,7 @@
         <v>41</v>
       </c>
       <c r="AC178" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -17213,7 +17234,7 @@
     </row>
     <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="B181" t="s">
         <v>29</v>
@@ -17252,7 +17273,7 @@
         <v>2</v>
       </c>
       <c r="N181">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O181" t="s">
         <v>33</v>
@@ -17261,7 +17282,7 @@
         <v>3</v>
       </c>
       <c r="Q181" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="S181" t="s">
         <v>46</v>
@@ -20666,7 +20687,7 @@
     </row>
     <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="B223" t="s">
         <v>29</v>
@@ -20705,7 +20726,7 @@
         <v>2</v>
       </c>
       <c r="N223">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O223" t="s">
         <v>33</v>
@@ -20714,7 +20735,7 @@
         <v>3</v>
       </c>
       <c r="Q223" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="S223" t="s">
         <v>46</v>
@@ -20886,7 +20907,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>444</v>
       </c>
@@ -20960,7 +20981,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>445</v>
       </c>
@@ -21043,7 +21064,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>448</v>
       </c>
@@ -21117,7 +21138,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>449</v>
       </c>
@@ -21200,7 +21221,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>450</v>
       </c>
@@ -21283,7 +21304,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>452</v>
       </c>
@@ -21366,7 +21387,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>456</v>
       </c>
@@ -25312,7 +25333,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>362</v>
       </c>
@@ -25386,7 +25407,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>444</v>
       </c>
@@ -25460,7 +25481,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>445</v>
       </c>
@@ -25534,7 +25555,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>448</v>
       </c>
@@ -25608,7 +25629,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>449</v>
       </c>
@@ -25682,7 +25703,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>450</v>
       </c>
@@ -25756,7 +25777,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>452</v>
       </c>
@@ -25830,7 +25851,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>456</v>
       </c>
@@ -27768,7 +27789,7 @@
     </row>
     <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>499</v>
+        <v>735</v>
       </c>
       <c r="B315" t="s">
         <v>29</v>
@@ -27786,7 +27807,7 @@
         <v>11</v>
       </c>
       <c r="G315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>124</v>
@@ -27804,7 +27825,7 @@
         <v>34</v>
       </c>
       <c r="M315">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N315">
         <v>2</v>
@@ -27837,7 +27858,7 @@
         <v>41</v>
       </c>
       <c r="AC315" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -37751,13 +37772,13 @@
         <v>29</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D439" t="s">
         <v>75</v>
       </c>
       <c r="E439">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F439">
         <v>11</v>
@@ -37778,10 +37799,10 @@
         <v>33</v>
       </c>
       <c r="L439" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="M439">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="N439">
         <v>7</v>
@@ -38308,13 +38329,13 @@
         <v>29</v>
       </c>
       <c r="C446">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D446" t="s">
         <v>75</v>
       </c>
       <c r="E446">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F446">
         <v>11</v>
@@ -38335,10 +38356,10 @@
         <v>33</v>
       </c>
       <c r="L446" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="M446">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="N446">
         <v>7</v>
@@ -38874,13 +38895,13 @@
         <v>29</v>
       </c>
       <c r="C453">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D453" t="s">
         <v>75</v>
       </c>
       <c r="E453">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F453">
         <v>11</v>
@@ -38901,10 +38922,10 @@
         <v>33</v>
       </c>
       <c r="L453" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="M453">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="N453">
         <v>7</v>
@@ -39440,13 +39461,13 @@
         <v>29</v>
       </c>
       <c r="C460">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D460" t="s">
         <v>75</v>
       </c>
       <c r="E460">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F460">
         <v>11</v>
@@ -39467,10 +39488,10 @@
         <v>33</v>
       </c>
       <c r="L460" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="M460">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="N460">
         <v>7</v>
@@ -39494,13 +39515,13 @@
         <v>38</v>
       </c>
       <c r="V460" t="s">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="W460" t="s">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="X460" t="s">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="Y460" t="s">
         <v>39</v>
@@ -40018,28 +40039,28 @@
     </row>
     <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="B467" t="s">
         <v>29</v>
       </c>
       <c r="C467">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D467" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E467">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F467">
         <v>11</v>
       </c>
       <c r="G467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H467" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="I467" t="s">
         <v>32</v>
@@ -40051,10 +40072,10 @@
         <v>33</v>
       </c>
       <c r="L467" t="s">
-        <v>642</v>
+        <v>34</v>
       </c>
       <c r="M467">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N467">
         <v>7</v>
@@ -40063,13 +40084,13 @@
         <v>44</v>
       </c>
       <c r="P467">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q467" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="S467" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="T467" t="s">
         <v>37</v>
@@ -40077,15 +40098,6 @@
       <c r="U467" t="s">
         <v>38</v>
       </c>
-      <c r="V467" t="s">
-        <v>427</v>
-      </c>
-      <c r="W467" t="s">
-        <v>156</v>
-      </c>
-      <c r="X467" t="s">
-        <v>428</v>
-      </c>
       <c r="Y467" t="s">
         <v>39</v>
       </c>
@@ -40096,7 +40108,7 @@
         <v>41</v>
       </c>
       <c r="AC467" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -40584,13 +40596,13 @@
     </row>
     <row r="474" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="B474" t="s">
         <v>29</v>
       </c>
       <c r="C474">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D474" t="s">
         <v>75</v>
@@ -40602,7 +40614,7 @@
         <v>11</v>
       </c>
       <c r="G474">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H474" t="s">
         <v>124</v>
@@ -40617,10 +40629,10 @@
         <v>33</v>
       </c>
       <c r="L474" t="s">
-        <v>646</v>
+        <v>773</v>
       </c>
       <c r="M474">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N474">
         <v>7</v>
@@ -40644,13 +40656,13 @@
         <v>38</v>
       </c>
       <c r="V474" t="s">
-        <v>103</v>
+        <v>633</v>
       </c>
       <c r="W474" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="X474" t="s">
-        <v>105</v>
+        <v>634</v>
       </c>
       <c r="Y474" t="s">
         <v>39</v>
@@ -40662,7 +40674,7 @@
         <v>41</v>
       </c>
       <c r="AC474" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="475" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -40993,25 +41005,25 @@
     </row>
     <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="B479" t="s">
         <v>29</v>
       </c>
       <c r="C479">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D479" t="s">
         <v>75</v>
       </c>
       <c r="E479">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F479">
         <v>11</v>
       </c>
       <c r="G479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H479" t="s">
         <v>124</v>
@@ -41026,10 +41038,10 @@
         <v>33</v>
       </c>
       <c r="L479" t="s">
-        <v>647</v>
+        <v>783</v>
       </c>
       <c r="M479">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="N479">
         <v>7</v>
@@ -41053,13 +41065,13 @@
         <v>38</v>
       </c>
       <c r="V479" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
       <c r="W479" t="s">
-        <v>156</v>
+        <v>328</v>
       </c>
       <c r="X479" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="Y479" t="s">
         <v>39</v>
@@ -41071,7 +41083,7 @@
         <v>41</v>
       </c>
       <c r="AC479" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -41162,25 +41174,25 @@
     </row>
     <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="B481" t="s">
         <v>29</v>
       </c>
       <c r="C481">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D481" t="s">
         <v>75</v>
       </c>
       <c r="E481">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F481">
         <v>11</v>
       </c>
       <c r="G481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481" t="s">
         <v>124</v>
@@ -41195,10 +41207,10 @@
         <v>33</v>
       </c>
       <c r="L481" t="s">
-        <v>648</v>
+        <v>784</v>
       </c>
       <c r="M481">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="N481">
         <v>7</v>
@@ -41222,13 +41234,13 @@
         <v>38</v>
       </c>
       <c r="V481" t="s">
-        <v>633</v>
+        <v>419</v>
       </c>
       <c r="W481" t="s">
-        <v>212</v>
+        <v>420</v>
       </c>
       <c r="X481" t="s">
-        <v>634</v>
+        <v>421</v>
       </c>
       <c r="Y481" t="s">
         <v>39</v>
@@ -41240,7 +41252,7 @@
         <v>41</v>
       </c>
       <c r="AC481" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -41331,25 +41343,25 @@
     </row>
     <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="B483" t="s">
         <v>29</v>
       </c>
       <c r="C483">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D483" t="s">
         <v>75</v>
       </c>
       <c r="E483">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F483">
         <v>11</v>
       </c>
       <c r="G483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H483" t="s">
         <v>124</v>
@@ -41364,10 +41376,10 @@
         <v>33</v>
       </c>
       <c r="L483" t="s">
-        <v>650</v>
+        <v>785</v>
       </c>
       <c r="M483">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N483">
         <v>7</v>
@@ -41391,13 +41403,13 @@
         <v>38</v>
       </c>
       <c r="V483" t="s">
-        <v>85</v>
+        <v>633</v>
       </c>
       <c r="W483" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="X483" t="s">
-        <v>87</v>
+        <v>634</v>
       </c>
       <c r="Y483" t="s">
         <v>39</v>
@@ -41409,7 +41421,7 @@
         <v>41</v>
       </c>
       <c r="AC483" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -41500,13 +41512,13 @@
     </row>
     <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="B485" t="s">
         <v>29</v>
       </c>
       <c r="C485">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D485" t="s">
         <v>75</v>
@@ -41518,7 +41530,7 @@
         <v>11</v>
       </c>
       <c r="G485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H485" t="s">
         <v>124</v>
@@ -41533,10 +41545,10 @@
         <v>33</v>
       </c>
       <c r="L485" t="s">
-        <v>649</v>
+        <v>786</v>
       </c>
       <c r="M485">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N485">
         <v>7</v>
@@ -41560,13 +41572,13 @@
         <v>38</v>
       </c>
       <c r="V485" t="s">
-        <v>103</v>
+        <v>419</v>
       </c>
       <c r="W485" t="s">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="X485" t="s">
-        <v>105</v>
+        <v>421</v>
       </c>
       <c r="Y485" t="s">
         <v>39</v>
@@ -41578,7 +41590,7 @@
         <v>41</v>
       </c>
       <c r="AC485" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -42667,7 +42679,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>687</v>
       </c>
@@ -43261,7 +43273,7 @@
     </row>
     <row r="509" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>696</v>
+        <v>60</v>
       </c>
       <c r="B509" t="s">
         <v>29</v>
@@ -43279,7 +43291,7 @@
         <v>11</v>
       </c>
       <c r="G509">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H509" t="s">
         <v>43</v>
@@ -43297,7 +43309,7 @@
         <v>34</v>
       </c>
       <c r="M509">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N509">
         <v>7</v>
@@ -43309,7 +43321,7 @@
         <v>2</v>
       </c>
       <c r="Q509" t="s">
-        <v>372</v>
+        <v>61</v>
       </c>
       <c r="S509" t="s">
         <v>46</v>
@@ -43330,7 +43342,7 @@
         <v>41</v>
       </c>
       <c r="AC509" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="510" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -43409,7 +43421,7 @@
     </row>
     <row r="511" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>698</v>
+        <v>64</v>
       </c>
       <c r="B511" t="s">
         <v>29</v>
@@ -43427,7 +43439,7 @@
         <v>11</v>
       </c>
       <c r="G511">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H511" t="s">
         <v>43</v>
@@ -43457,7 +43469,7 @@
         <v>3</v>
       </c>
       <c r="Q511" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="S511" t="s">
         <v>46</v>
@@ -43478,12 +43490,12 @@
         <v>41</v>
       </c>
       <c r="AC511" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="512" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>699</v>
+        <v>66</v>
       </c>
       <c r="B512" t="s">
         <v>29</v>
@@ -43501,7 +43513,7 @@
         <v>11</v>
       </c>
       <c r="G512">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H512" t="s">
         <v>43</v>
@@ -43519,7 +43531,7 @@
         <v>34</v>
       </c>
       <c r="M512">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N512">
         <v>7</v>
@@ -43552,7 +43564,7 @@
         <v>41</v>
       </c>
       <c r="AC512" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="513" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -47316,7 +47328,7 @@
     </row>
     <row r="561" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>735</v>
+        <v>175</v>
       </c>
       <c r="B561" t="s">
         <v>29</v>
@@ -47334,7 +47346,7 @@
         <v>11</v>
       </c>
       <c r="G561">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H561" t="s">
         <v>124</v>
@@ -47352,7 +47364,7 @@
         <v>34</v>
       </c>
       <c r="M561">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N561">
         <v>2</v>
@@ -47385,7 +47397,7 @@
         <v>41</v>
       </c>
       <c r="AC561" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="562" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -52836,7 +52848,7 @@
     </row>
     <row r="630" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>775</v>
+        <v>305</v>
       </c>
       <c r="B630" t="s">
         <v>29</v>
@@ -52854,7 +52866,7 @@
         <v>11</v>
       </c>
       <c r="G630">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H630" t="s">
         <v>124</v>
@@ -52869,10 +52881,10 @@
         <v>33</v>
       </c>
       <c r="L630" t="s">
-        <v>773</v>
+        <v>297</v>
       </c>
       <c r="M630">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N630">
         <v>7</v>
@@ -52896,13 +52908,13 @@
         <v>38</v>
       </c>
       <c r="V630" t="s">
-        <v>633</v>
+        <v>306</v>
       </c>
       <c r="W630" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="X630" t="s">
-        <v>634</v>
+        <v>308</v>
       </c>
       <c r="Y630" t="s">
         <v>39</v>
@@ -52914,7 +52926,7 @@
         <v>41</v>
       </c>
       <c r="AC630" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="631" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -53402,7 +53414,7 @@
     </row>
     <row r="637" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>775</v>
+        <v>305</v>
       </c>
       <c r="B637" t="s">
         <v>29</v>
@@ -53420,7 +53432,7 @@
         <v>11</v>
       </c>
       <c r="G637">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H637" t="s">
         <v>124</v>
@@ -53435,10 +53447,10 @@
         <v>33</v>
       </c>
       <c r="L637" t="s">
-        <v>783</v>
+        <v>324</v>
       </c>
       <c r="M637">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N637">
         <v>7</v>
@@ -53480,7 +53492,7 @@
         <v>41</v>
       </c>
       <c r="AC637" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="638" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -53977,7 +53989,7 @@
     </row>
     <row r="644" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>775</v>
+        <v>305</v>
       </c>
       <c r="B644" t="s">
         <v>29</v>
@@ -53995,7 +54007,7 @@
         <v>11</v>
       </c>
       <c r="G644">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H644" t="s">
         <v>124</v>
@@ -54010,7 +54022,7 @@
         <v>33</v>
       </c>
       <c r="L644" t="s">
-        <v>784</v>
+        <v>339</v>
       </c>
       <c r="M644">
         <v>50</v>
@@ -54037,13 +54049,13 @@
         <v>38</v>
       </c>
       <c r="V644" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="W644" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="X644" t="s">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="Y644" t="s">
         <v>39</v>
@@ -54055,7 +54067,7 @@
         <v>41</v>
       </c>
       <c r="AC644" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="645" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -54386,7 +54398,7 @@
     </row>
     <row r="649" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>775</v>
+        <v>305</v>
       </c>
       <c r="B649" t="s">
         <v>29</v>
@@ -54404,7 +54416,7 @@
         <v>11</v>
       </c>
       <c r="G649">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H649" t="s">
         <v>124</v>
@@ -54419,7 +54431,7 @@
         <v>33</v>
       </c>
       <c r="L649" t="s">
-        <v>785</v>
+        <v>353</v>
       </c>
       <c r="M649">
         <v>5</v>
@@ -54446,13 +54458,13 @@
         <v>38</v>
       </c>
       <c r="V649" t="s">
-        <v>633</v>
+        <v>306</v>
       </c>
       <c r="W649" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="X649" t="s">
-        <v>634</v>
+        <v>308</v>
       </c>
       <c r="Y649" t="s">
         <v>39</v>
@@ -54464,7 +54476,7 @@
         <v>41</v>
       </c>
       <c r="AC649" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="650" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -54638,7 +54650,7 @@
     </row>
     <row r="652" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>775</v>
+        <v>305</v>
       </c>
       <c r="B652" t="s">
         <v>29</v>
@@ -54656,7 +54668,7 @@
         <v>11</v>
       </c>
       <c r="G652">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H652" t="s">
         <v>124</v>
@@ -54671,10 +54683,10 @@
         <v>33</v>
       </c>
       <c r="L652" t="s">
-        <v>786</v>
+        <v>354</v>
       </c>
       <c r="M652">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N652">
         <v>7</v>
@@ -54698,13 +54710,13 @@
         <v>38</v>
       </c>
       <c r="V652" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="W652" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="X652" t="s">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="Y652" t="s">
         <v>39</v>
@@ -54716,7 +54728,7 @@
         <v>41</v>
       </c>
       <c r="AC652" t="s">
-        <v>652</v>
+        <v>356</v>
       </c>
     </row>
     <row r="653" spans="1:29" hidden="1" x14ac:dyDescent="0.25">

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A659AE9-253A-4D58-B563-F371CC831A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BC9CE-4573-4FB8-ADEF-B7BA9B1A0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2630,25 +2630,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC726" totalsRowShown="0">
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="11">
+    <filterColumn colId="27">
       <filters>
-        <filter val="300-M"/>
-        <filter val="HUARAL300--M"/>
-        <filter val="HUARAL-300-M"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="28">
-      <filters>
-        <filter val="C"/>
+        <filter val="HUARMEY"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A282:AC289">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A306:AC313">
     <sortCondition ref="A1:A726"/>
   </sortState>
   <tableColumns count="29">
@@ -3006,7 +2994,7 @@
   <dimension ref="A1:AC726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q227" sqref="Q227"/>
+      <selection activeCell="A727" sqref="A727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16178,7 +16166,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>362</v>
       </c>
@@ -20907,7 +20895,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>444</v>
       </c>
@@ -20981,7 +20969,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>445</v>
       </c>
@@ -21064,7 +21052,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>448</v>
       </c>
@@ -21138,7 +21126,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>449</v>
       </c>
@@ -21221,7 +21209,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>450</v>
       </c>
@@ -21304,7 +21292,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>452</v>
       </c>
@@ -21387,7 +21375,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>456</v>
       </c>
@@ -25333,7 +25321,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>362</v>
       </c>
@@ -25407,7 +25395,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>444</v>
       </c>
@@ -25481,7 +25469,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>445</v>
       </c>
@@ -25555,7 +25543,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>448</v>
       </c>
@@ -25629,7 +25617,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>449</v>
       </c>
@@ -25703,7 +25691,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>450</v>
       </c>
@@ -25777,7 +25765,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>452</v>
       </c>
@@ -25851,7 +25839,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>456</v>
       </c>
@@ -31793,7 +31781,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>500</v>
       </c>
@@ -31876,7 +31864,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>505</v>
       </c>
@@ -31959,7 +31947,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>506</v>
       </c>
@@ -32033,7 +32021,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>509</v>
       </c>
@@ -32116,7 +32104,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>510</v>
       </c>
@@ -32199,7 +32187,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>513</v>
       </c>
@@ -32282,7 +32270,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>517</v>
       </c>

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BC9CE-4573-4FB8-ADEF-B7BA9B1A0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF798EF-5366-46E5-826B-17626B11941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2632,7 +2632,7 @@
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
     <filterColumn colId="27">
       <filters>
-        <filter val="HUARMEY"/>
+        <filter val="OYON"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2994,7 +2994,7 @@
   <dimension ref="A1:AC726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A727" sqref="A727"/>
+      <selection activeCell="Q298" sqref="Q298:Q301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26511,7 +26511,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>362</v>
       </c>
@@ -26585,7 +26585,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>444</v>
       </c>
@@ -26659,7 +26659,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>445</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>448</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>449</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>450</v>
       </c>
@@ -26955,7 +26955,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>452</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>456</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>500</v>
       </c>
@@ -31864,7 +31864,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>505</v>
       </c>
@@ -31947,7 +31947,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>506</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>509</v>
       </c>
@@ -32104,7 +32104,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>510</v>
       </c>
@@ -32187,7 +32187,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>513</v>
       </c>
@@ -32270,7 +32270,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>517</v>
       </c>

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF798EF-5366-46E5-826B-17626B11941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C47D0-809E-4682-B000-2E290D7F7C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2632,11 +2632,11 @@
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
     <filterColumn colId="27">
       <filters>
-        <filter val="OYON"/>
+        <filter val="HUARMEY"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A306:AC313">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A365:AC371">
     <sortCondition ref="A1:A726"/>
   </sortState>
   <tableColumns count="29">
@@ -2994,7 +2994,7 @@
   <dimension ref="A1:AC726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q298" sqref="Q298:Q301"/>
+      <selection activeCell="Q730" sqref="Q730:Q731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26511,7 +26511,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>362</v>
       </c>
@@ -26585,7 +26585,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>444</v>
       </c>
@@ -26659,7 +26659,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>445</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>448</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>449</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>450</v>
       </c>
@@ -26955,7 +26955,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>452</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>456</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>500</v>
       </c>
@@ -31864,7 +31864,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>505</v>
       </c>
@@ -31947,7 +31947,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>506</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>509</v>
       </c>
@@ -32104,7 +32104,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>510</v>
       </c>
@@ -32187,7 +32187,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>513</v>
       </c>
@@ -32270,7 +32270,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>517</v>
       </c>

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C47D0-809E-4682-B000-2E290D7F7C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AC1E5-BE52-460C-BF78-00AF955FEF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2630,9 +2630,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC726" totalsRowShown="0">
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="27">
+    <filterColumn colId="11">
       <filters>
-        <filter val="HUARMEY"/>
+        <filter val="402-M"/>
+        <filter val="h-M"/>
+        <filter val="huarmey402-M"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="28">
+      <filters>
+        <filter val="C"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2994,7 +3006,7 @@
   <dimension ref="A1:AC726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q730" sqref="Q730:Q731"/>
+      <selection activeCell="L365" sqref="L365:L727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30110,7 +30122,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>500</v>
       </c>
@@ -30193,7 +30205,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>505</v>
       </c>
@@ -30276,7 +30288,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>506</v>
       </c>
@@ -30350,7 +30362,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>509</v>
       </c>
@@ -30433,7 +30445,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>510</v>
       </c>
@@ -30516,7 +30528,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>513</v>
       </c>
@@ -30599,7 +30611,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>517</v>
       </c>

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AC1E5-BE52-460C-BF78-00AF955FEF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759048FB-9D32-47B7-8E1E-E6E94E023FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2630,21 +2630,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC726" totalsRowShown="0">
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="11">
+    <filterColumn colId="16">
       <filters>
-        <filter val="402-M"/>
-        <filter val="h-M"/>
-        <filter val="huarmey402-M"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="28">
-      <filters>
-        <filter val="C"/>
+        <filter val="GESTION DEL RIESGO FINANCIERO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3006,7 +2994,7 @@
   <dimension ref="A1:AC726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L365" sqref="L365:L727"/>
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17232,7 +17220,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>438</v>
       </c>
@@ -30122,7 +30110,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>500</v>
       </c>
@@ -30205,7 +30193,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>505</v>
       </c>
@@ -30288,7 +30276,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>506</v>
       </c>
@@ -30362,7 +30350,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>509</v>
       </c>
@@ -30445,7 +30433,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>510</v>
       </c>
@@ -30528,7 +30516,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>513</v>
       </c>
@@ -30611,7 +30599,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>517</v>
       </c>
@@ -31793,7 +31781,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>500</v>
       </c>
@@ -31876,7 +31864,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>505</v>
       </c>
@@ -31959,7 +31947,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>506</v>
       </c>
@@ -32033,7 +32021,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>509</v>
       </c>
@@ -32116,7 +32104,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>510</v>
       </c>
@@ -32199,7 +32187,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>513</v>
       </c>
@@ -32282,7 +32270,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>517</v>
       </c>

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759048FB-9D32-47B7-8E1E-E6E94E023FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF90A7C-6C56-423A-A678-2DF3EAD6CB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2583,12 +2583,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2603,9 +2621,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2630,14 +2654,24 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC726" totalsRowShown="0">
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="16">
+    <filterColumn colId="13">
       <filters>
-        <filter val="GESTION DEL RIESGO FINANCIERO"/>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="27">
+      <filters>
+        <filter val="S.J.L"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="28">
+      <filters>
+        <filter val="AUD"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A365:AC371">
-    <sortCondition ref="A1:A726"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:AC676">
+    <sortCondition ref="C1:C726"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{22044F18-BA93-4166-A5C2-B37D5DC456F1}" name="cod_asignatura" dataDxfId="0"/>
@@ -2994,7 +3028,7 @@
   <dimension ref="A1:AC726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7638,16 +7672,16 @@
     </row>
     <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>806</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="E60">
         <v>45</v>
@@ -7656,10 +7690,10 @@
         <v>11</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="I60" t="s">
         <v>32</v>
@@ -7671,25 +7705,25 @@
         <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>172</v>
+        <v>557</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
         <v>44</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="s">
-        <v>126</v>
+        <v>808</v>
       </c>
       <c r="S60" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T60" t="s">
         <v>37</v>
@@ -7707,33 +7741,33 @@
         <v>173</v>
       </c>
       <c r="AC60" t="s">
-        <v>356</v>
+        <v>843</v>
       </c>
     </row>
     <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>809</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
       <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61">
+        <v>48</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61">
-        <v>45</v>
-      </c>
-      <c r="F61">
-        <v>11</v>
-      </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="I61" t="s">
         <v>32</v>
@@ -7745,25 +7779,25 @@
         <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>172</v>
+        <v>557</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O61" t="s">
         <v>44</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="s">
-        <v>129</v>
+        <v>810</v>
       </c>
       <c r="S61" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T61" t="s">
         <v>37</v>
@@ -7781,33 +7815,33 @@
         <v>173</v>
       </c>
       <c r="AC61" t="s">
-        <v>356</v>
+        <v>843</v>
       </c>
     </row>
     <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>130</v>
+        <v>811</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
       </c>
       <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62">
+        <v>48</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62">
         <v>4</v>
       </c>
-      <c r="D62" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62">
-        <v>45</v>
-      </c>
-      <c r="F62">
-        <v>11</v>
-      </c>
-      <c r="G62">
-        <v>3</v>
-      </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -7819,13 +7853,13 @@
         <v>33</v>
       </c>
       <c r="L62" t="s">
-        <v>172</v>
+        <v>557</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62" t="s">
         <v>44</v>
@@ -7834,10 +7868,10 @@
         <v>3</v>
       </c>
       <c r="Q62" t="s">
-        <v>131</v>
+        <v>812</v>
       </c>
       <c r="S62" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T62" t="s">
         <v>37</v>
@@ -7855,33 +7889,33 @@
         <v>173</v>
       </c>
       <c r="AC62" t="s">
-        <v>356</v>
+        <v>843</v>
       </c>
     </row>
     <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>132</v>
+        <v>813</v>
       </c>
       <c r="B63" t="s">
         <v>29</v>
       </c>
       <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63">
+        <v>48</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63">
         <v>4</v>
       </c>
-      <c r="D63" t="s">
-        <v>171</v>
-      </c>
-      <c r="E63">
-        <v>45</v>
-      </c>
-      <c r="F63">
-        <v>11</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
       <c r="H63" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -7893,13 +7927,13 @@
         <v>33</v>
       </c>
       <c r="L63" t="s">
-        <v>172</v>
+        <v>557</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63" t="s">
         <v>44</v>
@@ -7908,10 +7942,10 @@
         <v>3</v>
       </c>
       <c r="Q63" t="s">
-        <v>133</v>
+        <v>814</v>
       </c>
       <c r="S63" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T63" t="s">
         <v>37</v>
@@ -7929,33 +7963,33 @@
         <v>173</v>
       </c>
       <c r="AC63" t="s">
-        <v>356</v>
+        <v>843</v>
       </c>
     </row>
     <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>137</v>
+        <v>815</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
       </c>
       <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64">
         <v>4</v>
       </c>
-      <c r="D64" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64">
-        <v>45</v>
-      </c>
-      <c r="F64">
-        <v>11</v>
-      </c>
-      <c r="G64">
-        <v>3</v>
-      </c>
       <c r="H64" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="I64" t="s">
         <v>32</v>
@@ -7967,13 +8001,13 @@
         <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>172</v>
+        <v>557</v>
       </c>
       <c r="M64">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O64" t="s">
         <v>44</v>
@@ -7982,10 +8016,10 @@
         <v>3</v>
       </c>
       <c r="Q64" t="s">
-        <v>138</v>
+        <v>816</v>
       </c>
       <c r="S64" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T64" t="s">
         <v>37</v>
@@ -8003,33 +8037,33 @@
         <v>173</v>
       </c>
       <c r="AC64" t="s">
-        <v>356</v>
+        <v>843</v>
       </c>
     </row>
     <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>817</v>
       </c>
       <c r="B65" t="s">
         <v>29</v>
       </c>
       <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65">
+        <v>48</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
         <v>4</v>
       </c>
-      <c r="D65" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65">
-        <v>45</v>
-      </c>
-      <c r="F65">
-        <v>11</v>
-      </c>
-      <c r="G65">
-        <v>3</v>
-      </c>
       <c r="H65" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="I65" t="s">
         <v>32</v>
@@ -8041,13 +8075,13 @@
         <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>172</v>
+        <v>557</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
         <v>44</v>
@@ -8056,10 +8090,10 @@
         <v>3</v>
       </c>
       <c r="Q65" t="s">
-        <v>140</v>
+        <v>818</v>
       </c>
       <c r="S65" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T65" t="s">
         <v>37</v>
@@ -8077,33 +8111,33 @@
         <v>173</v>
       </c>
       <c r="AC65" t="s">
-        <v>356</v>
+        <v>843</v>
       </c>
     </row>
     <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>819</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66">
         <v>4</v>
       </c>
-      <c r="D66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66">
-        <v>45</v>
-      </c>
-      <c r="F66">
-        <v>11</v>
-      </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
       <c r="H66" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="I66" t="s">
         <v>32</v>
@@ -8115,13 +8149,13 @@
         <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>172</v>
+        <v>557</v>
       </c>
       <c r="M66">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
         <v>44</v>
@@ -8130,10 +8164,10 @@
         <v>3</v>
       </c>
       <c r="Q66" t="s">
-        <v>144</v>
+        <v>820</v>
       </c>
       <c r="S66" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T66" t="s">
         <v>37</v>
@@ -8151,21 +8185,21 @@
         <v>173</v>
       </c>
       <c r="AC66" t="s">
-        <v>356</v>
+        <v>843</v>
       </c>
     </row>
     <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>145</v>
+        <v>736</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="E67">
         <v>45</v>
@@ -8174,7 +8208,7 @@
         <v>11</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
         <v>124</v>
@@ -8189,25 +8223,22 @@
         <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>172</v>
+        <v>748</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67" t="s">
         <v>44</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="s">
-        <v>146</v>
-      </c>
-      <c r="R67" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="S67" t="s">
         <v>127</v>
@@ -8228,7 +8259,7 @@
         <v>173</v>
       </c>
       <c r="AC67" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -9525,7 +9556,7 @@
     </row>
     <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>177</v>
+        <v>738</v>
       </c>
       <c r="B84" t="s">
         <v>29</v>
@@ -9543,7 +9574,7 @@
         <v>11</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>124</v>
@@ -9558,10 +9589,10 @@
         <v>33</v>
       </c>
       <c r="L84" t="s">
-        <v>220</v>
+        <v>748</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N84">
         <v>3</v>
@@ -9573,7 +9604,7 @@
         <v>4</v>
       </c>
       <c r="Q84" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="S84" t="s">
         <v>127</v>
@@ -9594,12 +9625,12 @@
         <v>173</v>
       </c>
       <c r="AC84" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
     </row>
     <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>182</v>
+        <v>739</v>
       </c>
       <c r="B85" t="s">
         <v>29</v>
@@ -9617,7 +9648,7 @@
         <v>11</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>124</v>
@@ -9632,10 +9663,10 @@
         <v>33</v>
       </c>
       <c r="L85" t="s">
-        <v>220</v>
+        <v>748</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N85">
         <v>3</v>
@@ -9644,10 +9675,10 @@
         <v>44</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q85" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="S85" t="s">
         <v>127</v>
@@ -9668,12 +9699,12 @@
         <v>173</v>
       </c>
       <c r="AC85" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>187</v>
+        <v>740</v>
       </c>
       <c r="B86" t="s">
         <v>29</v>
@@ -9691,7 +9722,7 @@
         <v>11</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>124</v>
@@ -9706,10 +9737,10 @@
         <v>33</v>
       </c>
       <c r="L86" t="s">
-        <v>220</v>
+        <v>748</v>
       </c>
       <c r="M86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N86">
         <v>3</v>
@@ -9721,7 +9752,7 @@
         <v>3</v>
       </c>
       <c r="Q86" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S86" t="s">
         <v>127</v>
@@ -9742,12 +9773,12 @@
         <v>173</v>
       </c>
       <c r="AC86" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>191</v>
+        <v>741</v>
       </c>
       <c r="B87" t="s">
         <v>29</v>
@@ -9765,7 +9796,7 @@
         <v>11</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>124</v>
@@ -9780,7 +9811,7 @@
         <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>221</v>
+        <v>748</v>
       </c>
       <c r="M87">
         <v>6</v>
@@ -9795,7 +9826,7 @@
         <v>3</v>
       </c>
       <c r="Q87" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="S87" t="s">
         <v>127</v>
@@ -9816,12 +9847,12 @@
         <v>173</v>
       </c>
       <c r="AC87" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
     </row>
     <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>196</v>
+        <v>742</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
@@ -9839,7 +9870,7 @@
         <v>11</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
         <v>124</v>
@@ -9854,10 +9885,10 @@
         <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>221</v>
+        <v>748</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N88">
         <v>3</v>
@@ -9869,7 +9900,7 @@
         <v>3</v>
       </c>
       <c r="Q88" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="S88" t="s">
         <v>127</v>
@@ -9890,12 +9921,12 @@
         <v>173</v>
       </c>
       <c r="AC88" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>201</v>
+        <v>743</v>
       </c>
       <c r="B89" t="s">
         <v>29</v>
@@ -9913,7 +9944,7 @@
         <v>11</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>124</v>
@@ -9928,10 +9959,10 @@
         <v>33</v>
       </c>
       <c r="L89" t="s">
-        <v>221</v>
+        <v>748</v>
       </c>
       <c r="M89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N89">
         <v>3</v>
@@ -9943,7 +9974,7 @@
         <v>3</v>
       </c>
       <c r="Q89" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="S89" t="s">
         <v>127</v>
@@ -9964,32 +9995,32 @@
         <v>173</v>
       </c>
       <c r="AC89" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>205</v>
+      <c r="A90" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
       </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>123</v>
+      <c r="C90" s="5">
+        <v>4</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E90">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F90">
         <v>11</v>
       </c>
       <c r="G90">
-        <v>3</v>
-      </c>
-      <c r="H90" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I90" t="s">
@@ -10001,14 +10032,14 @@
       <c r="K90" t="s">
         <v>33</v>
       </c>
-      <c r="L90" t="s">
-        <v>221</v>
+      <c r="L90" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="M90">
-        <v>6</v>
-      </c>
-      <c r="N90">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="N90" s="5">
+        <v>1</v>
       </c>
       <c r="O90" t="s">
         <v>44</v>
@@ -10016,8 +10047,8 @@
       <c r="P90">
         <v>3</v>
       </c>
-      <c r="Q90" t="s">
-        <v>206</v>
+      <c r="Q90" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="S90" t="s">
         <v>127</v>
@@ -10028,17 +10059,20 @@
       <c r="U90" t="s">
         <v>38</v>
       </c>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
       <c r="Y90" t="s">
         <v>39</v>
       </c>
       <c r="AA90" t="s">
         <v>40</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AB90" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC90" t="s">
-        <v>356</v>
+      <c r="AC90" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -17220,7 +17254,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>438</v>
       </c>
@@ -24718,28 +24752,28 @@
       </c>
     </row>
     <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>362</v>
+      <c r="A274" s="4" t="s">
+        <v>723</v>
       </c>
       <c r="B274" t="s">
         <v>29</v>
       </c>
-      <c r="C274">
-        <v>7</v>
-      </c>
-      <c r="D274" t="s">
+      <c r="C274" s="5">
+        <v>4</v>
+      </c>
+      <c r="D274" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E274">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F274">
         <v>11</v>
       </c>
       <c r="G274">
-        <v>1</v>
-      </c>
-      <c r="H274" t="s">
+        <v>2</v>
+      </c>
+      <c r="H274" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I274" t="s">
@@ -24751,13 +24785,13 @@
       <c r="K274" t="s">
         <v>33</v>
       </c>
-      <c r="L274" t="s">
-        <v>485</v>
+      <c r="L274" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="M274">
-        <v>36</v>
-      </c>
-      <c r="N274">
+        <v>29</v>
+      </c>
+      <c r="N274" s="5">
         <v>1</v>
       </c>
       <c r="O274" t="s">
@@ -24766,8 +24800,8 @@
       <c r="P274">
         <v>3</v>
       </c>
-      <c r="Q274" t="s">
-        <v>126</v>
+      <c r="Q274" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="S274" t="s">
         <v>127</v>
@@ -24778,30 +24812,33 @@
       <c r="U274" t="s">
         <v>38</v>
       </c>
+      <c r="V274" s="5"/>
+      <c r="W274" s="5"/>
+      <c r="X274" s="5"/>
       <c r="Y274" t="s">
         <v>39</v>
       </c>
       <c r="AA274" t="s">
         <v>40</v>
       </c>
-      <c r="AB274" t="s">
+      <c r="AB274" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC274" t="s">
-        <v>651</v>
+      <c r="AC274" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>444</v>
+      <c r="A275" s="4" t="s">
+        <v>724</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
       </c>
-      <c r="C275">
-        <v>7</v>
-      </c>
-      <c r="D275" t="s">
+      <c r="C275" s="5">
+        <v>4</v>
+      </c>
+      <c r="D275" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E275">
@@ -24811,9 +24848,9 @@
         <v>11</v>
       </c>
       <c r="G275">
-        <v>1</v>
-      </c>
-      <c r="H275" t="s">
+        <v>2</v>
+      </c>
+      <c r="H275" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I275" t="s">
@@ -24825,13 +24862,13 @@
       <c r="K275" t="s">
         <v>33</v>
       </c>
-      <c r="L275" t="s">
-        <v>485</v>
+      <c r="L275" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="M275">
-        <v>36</v>
-      </c>
-      <c r="N275">
+        <v>28</v>
+      </c>
+      <c r="N275" s="5">
         <v>1</v>
       </c>
       <c r="O275" t="s">
@@ -24840,8 +24877,8 @@
       <c r="P275">
         <v>3</v>
       </c>
-      <c r="Q275" t="s">
-        <v>129</v>
+      <c r="Q275" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="S275" t="s">
         <v>127</v>
@@ -24852,30 +24889,33 @@
       <c r="U275" t="s">
         <v>38</v>
       </c>
+      <c r="V275" s="5"/>
+      <c r="W275" s="5"/>
+      <c r="X275" s="5"/>
       <c r="Y275" t="s">
         <v>39</v>
       </c>
       <c r="AA275" t="s">
         <v>40</v>
       </c>
-      <c r="AB275" t="s">
+      <c r="AB275" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC275" t="s">
-        <v>651</v>
+      <c r="AC275" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>445</v>
+      <c r="A276" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="B276" t="s">
         <v>29</v>
       </c>
-      <c r="C276">
-        <v>7</v>
-      </c>
-      <c r="D276" t="s">
+      <c r="C276" s="5">
+        <v>4</v>
+      </c>
+      <c r="D276" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E276">
@@ -24885,9 +24925,9 @@
         <v>11</v>
       </c>
       <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="H276" t="s">
+        <v>2</v>
+      </c>
+      <c r="H276" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I276" t="s">
@@ -24899,13 +24939,13 @@
       <c r="K276" t="s">
         <v>33</v>
       </c>
-      <c r="L276" t="s">
-        <v>485</v>
+      <c r="L276" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="M276">
-        <v>36</v>
-      </c>
-      <c r="N276">
+        <v>28</v>
+      </c>
+      <c r="N276" s="5">
         <v>1</v>
       </c>
       <c r="O276" t="s">
@@ -24914,8 +24954,8 @@
       <c r="P276">
         <v>3</v>
       </c>
-      <c r="Q276" t="s">
-        <v>131</v>
+      <c r="Q276" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="S276" t="s">
         <v>127</v>
@@ -24926,30 +24966,33 @@
       <c r="U276" t="s">
         <v>38</v>
       </c>
+      <c r="V276" s="5"/>
+      <c r="W276" s="5"/>
+      <c r="X276" s="5"/>
       <c r="Y276" t="s">
         <v>39</v>
       </c>
       <c r="AA276" t="s">
         <v>40</v>
       </c>
-      <c r="AB276" t="s">
+      <c r="AB276" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC276" t="s">
-        <v>651</v>
+      <c r="AC276" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>448</v>
+      <c r="A277" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
       </c>
-      <c r="C277">
-        <v>7</v>
-      </c>
-      <c r="D277" t="s">
+      <c r="C277" s="5">
+        <v>4</v>
+      </c>
+      <c r="D277" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E277">
@@ -24959,9 +25002,9 @@
         <v>11</v>
       </c>
       <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="H277" t="s">
+        <v>2</v>
+      </c>
+      <c r="H277" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I277" t="s">
@@ -24973,13 +25016,13 @@
       <c r="K277" t="s">
         <v>33</v>
       </c>
-      <c r="L277" t="s">
-        <v>485</v>
+      <c r="L277" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="M277">
-        <v>38</v>
-      </c>
-      <c r="N277">
+        <v>31</v>
+      </c>
+      <c r="N277" s="5">
         <v>1</v>
       </c>
       <c r="O277" t="s">
@@ -24988,8 +25031,8 @@
       <c r="P277">
         <v>3</v>
       </c>
-      <c r="Q277" t="s">
-        <v>133</v>
+      <c r="Q277" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="S277" t="s">
         <v>127</v>
@@ -25000,30 +25043,33 @@
       <c r="U277" t="s">
         <v>38</v>
       </c>
+      <c r="V277" s="5"/>
+      <c r="W277" s="5"/>
+      <c r="X277" s="5"/>
       <c r="Y277" t="s">
         <v>39</v>
       </c>
       <c r="AA277" t="s">
         <v>40</v>
       </c>
-      <c r="AB277" t="s">
+      <c r="AB277" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC277" t="s">
-        <v>651</v>
+      <c r="AC277" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>449</v>
+      <c r="A278" s="4" t="s">
+        <v>727</v>
       </c>
       <c r="B278" t="s">
         <v>29</v>
       </c>
-      <c r="C278">
-        <v>7</v>
-      </c>
-      <c r="D278" t="s">
+      <c r="C278" s="5">
+        <v>4</v>
+      </c>
+      <c r="D278" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E278">
@@ -25033,9 +25079,9 @@
         <v>11</v>
       </c>
       <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="H278" t="s">
+        <v>2</v>
+      </c>
+      <c r="H278" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I278" t="s">
@@ -25047,13 +25093,13 @@
       <c r="K278" t="s">
         <v>33</v>
       </c>
-      <c r="L278" t="s">
-        <v>485</v>
+      <c r="L278" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="M278">
-        <v>40</v>
-      </c>
-      <c r="N278">
+        <v>29</v>
+      </c>
+      <c r="N278" s="5">
         <v>1</v>
       </c>
       <c r="O278" t="s">
@@ -25062,8 +25108,8 @@
       <c r="P278">
         <v>3</v>
       </c>
-      <c r="Q278" t="s">
-        <v>138</v>
+      <c r="Q278" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="S278" t="s">
         <v>127</v>
@@ -25074,30 +25120,33 @@
       <c r="U278" t="s">
         <v>38</v>
       </c>
+      <c r="V278" s="5"/>
+      <c r="W278" s="5"/>
+      <c r="X278" s="5"/>
       <c r="Y278" t="s">
         <v>39</v>
       </c>
       <c r="AA278" t="s">
         <v>40</v>
       </c>
-      <c r="AB278" t="s">
+      <c r="AB278" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC278" t="s">
-        <v>651</v>
+      <c r="AC278" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>450</v>
+      <c r="A279" s="4" t="s">
+        <v>728</v>
       </c>
       <c r="B279" t="s">
         <v>29</v>
       </c>
-      <c r="C279">
-        <v>7</v>
-      </c>
-      <c r="D279" t="s">
+      <c r="C279" s="5">
+        <v>4</v>
+      </c>
+      <c r="D279" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E279">
@@ -25107,9 +25156,9 @@
         <v>11</v>
       </c>
       <c r="G279">
-        <v>1</v>
-      </c>
-      <c r="H279" t="s">
+        <v>2</v>
+      </c>
+      <c r="H279" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I279" t="s">
@@ -25121,13 +25170,13 @@
       <c r="K279" t="s">
         <v>33</v>
       </c>
-      <c r="L279" t="s">
-        <v>485</v>
+      <c r="L279" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="M279">
-        <v>43</v>
-      </c>
-      <c r="N279">
+        <v>32</v>
+      </c>
+      <c r="N279" s="5">
         <v>1</v>
       </c>
       <c r="O279" t="s">
@@ -25136,8 +25185,8 @@
       <c r="P279">
         <v>3</v>
       </c>
-      <c r="Q279" t="s">
-        <v>140</v>
+      <c r="Q279" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="S279" t="s">
         <v>127</v>
@@ -25148,51 +25197,45 @@
       <c r="U279" t="s">
         <v>38</v>
       </c>
-      <c r="V279" t="s">
-        <v>263</v>
-      </c>
-      <c r="W279" t="s">
-        <v>291</v>
-      </c>
-      <c r="X279" t="s">
-        <v>486</v>
-      </c>
+      <c r="V279" s="5"/>
+      <c r="W279" s="5"/>
+      <c r="X279" s="5"/>
       <c r="Y279" t="s">
         <v>39</v>
       </c>
       <c r="AA279" t="s">
         <v>40</v>
       </c>
-      <c r="AB279" t="s">
+      <c r="AB279" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC279" t="s">
-        <v>651</v>
+      <c r="AC279" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>452</v>
+      <c r="A280" s="4" t="s">
+        <v>729</v>
       </c>
       <c r="B280" t="s">
         <v>29</v>
       </c>
-      <c r="C280">
-        <v>7</v>
-      </c>
-      <c r="D280" t="s">
+      <c r="C280" s="5">
+        <v>4</v>
+      </c>
+      <c r="D280" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E280">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F280">
         <v>11</v>
       </c>
       <c r="G280">
-        <v>1</v>
-      </c>
-      <c r="H280" t="s">
+        <v>2</v>
+      </c>
+      <c r="H280" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I280" t="s">
@@ -25204,13 +25247,13 @@
       <c r="K280" t="s">
         <v>33</v>
       </c>
-      <c r="L280" t="s">
-        <v>485</v>
+      <c r="L280" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="M280">
-        <v>37</v>
-      </c>
-      <c r="N280">
+        <v>28</v>
+      </c>
+      <c r="N280" s="5">
         <v>1</v>
       </c>
       <c r="O280" t="s">
@@ -25219,8 +25262,11 @@
       <c r="P280">
         <v>3</v>
       </c>
-      <c r="Q280" t="s">
-        <v>144</v>
+      <c r="Q280" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="R280" t="s">
+        <v>147</v>
       </c>
       <c r="S280" t="s">
         <v>127</v>
@@ -25231,40 +25277,49 @@
       <c r="U280" t="s">
         <v>38</v>
       </c>
+      <c r="V280" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="W280" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="X280" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="Y280" t="s">
         <v>39</v>
       </c>
       <c r="AA280" t="s">
         <v>40</v>
       </c>
-      <c r="AB280" t="s">
+      <c r="AB280" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC280" t="s">
-        <v>651</v>
+      <c r="AC280" s="5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>456</v>
+        <v>177</v>
       </c>
       <c r="B281" t="s">
         <v>29</v>
       </c>
       <c r="C281">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="E281">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F281">
         <v>11</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H281" t="s">
         <v>124</v>
@@ -25279,25 +25334,22 @@
         <v>33</v>
       </c>
       <c r="L281" t="s">
-        <v>485</v>
+        <v>220</v>
       </c>
       <c r="M281">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O281" t="s">
         <v>44</v>
       </c>
       <c r="P281">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q281" t="s">
-        <v>146</v>
-      </c>
-      <c r="R281" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="S281" t="s">
         <v>127</v>
@@ -25318,7 +25370,7 @@
         <v>173</v>
       </c>
       <c r="AC281" t="s">
-        <v>651</v>
+        <v>356</v>
       </c>
     </row>
     <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -31265,25 +31317,25 @@
     </row>
     <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>500</v>
+        <v>182</v>
       </c>
       <c r="B358" t="s">
         <v>29</v>
       </c>
       <c r="C358">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D358" t="s">
         <v>123</v>
       </c>
       <c r="E358">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F358">
         <v>11</v>
       </c>
       <c r="G358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H358" t="s">
         <v>124</v>
@@ -31298,10 +31350,10 @@
         <v>33</v>
       </c>
       <c r="L358" t="s">
-        <v>557</v>
+        <v>220</v>
       </c>
       <c r="M358">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N358">
         <v>3</v>
@@ -31313,7 +31365,7 @@
         <v>4</v>
       </c>
       <c r="Q358" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="S358" t="s">
         <v>127</v>
@@ -31334,18 +31386,18 @@
         <v>173</v>
       </c>
       <c r="AC358" t="s">
-        <v>651</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>505</v>
+        <v>187</v>
       </c>
       <c r="B359" t="s">
         <v>29</v>
       </c>
       <c r="C359">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D359" t="s">
         <v>123</v>
@@ -31357,7 +31409,7 @@
         <v>11</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H359" t="s">
         <v>124</v>
@@ -31372,10 +31424,10 @@
         <v>33</v>
       </c>
       <c r="L359" t="s">
-        <v>557</v>
+        <v>220</v>
       </c>
       <c r="M359">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N359">
         <v>3</v>
@@ -31384,10 +31436,10 @@
         <v>44</v>
       </c>
       <c r="P359">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q359" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="S359" t="s">
         <v>127</v>
@@ -31408,18 +31460,18 @@
         <v>173</v>
       </c>
       <c r="AC359" t="s">
-        <v>651</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>506</v>
+        <v>191</v>
       </c>
       <c r="B360" t="s">
         <v>29</v>
       </c>
       <c r="C360">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D360" t="s">
         <v>123</v>
@@ -31431,7 +31483,7 @@
         <v>11</v>
       </c>
       <c r="G360">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H360" t="s">
         <v>124</v>
@@ -31446,10 +31498,10 @@
         <v>33</v>
       </c>
       <c r="L360" t="s">
-        <v>557</v>
+        <v>221</v>
       </c>
       <c r="M360">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N360">
         <v>3</v>
@@ -31461,7 +31513,7 @@
         <v>3</v>
       </c>
       <c r="Q360" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S360" t="s">
         <v>127</v>
@@ -31482,18 +31534,18 @@
         <v>173</v>
       </c>
       <c r="AC360" t="s">
-        <v>651</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>509</v>
+        <v>196</v>
       </c>
       <c r="B361" t="s">
         <v>29</v>
       </c>
       <c r="C361">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D361" t="s">
         <v>123</v>
@@ -31505,7 +31557,7 @@
         <v>11</v>
       </c>
       <c r="G361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H361" t="s">
         <v>124</v>
@@ -31520,10 +31572,10 @@
         <v>33</v>
       </c>
       <c r="L361" t="s">
-        <v>557</v>
+        <v>221</v>
       </c>
       <c r="M361">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N361">
         <v>3</v>
@@ -31535,7 +31587,7 @@
         <v>3</v>
       </c>
       <c r="Q361" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="S361" t="s">
         <v>127</v>
@@ -31556,18 +31608,18 @@
         <v>173</v>
       </c>
       <c r="AC361" t="s">
-        <v>651</v>
+        <v>356</v>
       </c>
     </row>
     <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>510</v>
+        <v>201</v>
       </c>
       <c r="B362" t="s">
         <v>29</v>
       </c>
       <c r="C362">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D362" t="s">
         <v>123</v>
@@ -31579,7 +31631,7 @@
         <v>11</v>
       </c>
       <c r="G362">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H362" t="s">
         <v>124</v>
@@ -31594,10 +31646,10 @@
         <v>33</v>
       </c>
       <c r="L362" t="s">
-        <v>557</v>
+        <v>221</v>
       </c>
       <c r="M362">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N362">
         <v>3</v>
@@ -31609,7 +31661,7 @@
         <v>3</v>
       </c>
       <c r="Q362" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="S362" t="s">
         <v>127</v>
@@ -31630,18 +31682,18 @@
         <v>173</v>
       </c>
       <c r="AC362" t="s">
-        <v>651</v>
+        <v>356</v>
       </c>
     </row>
     <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>513</v>
+        <v>205</v>
       </c>
       <c r="B363" t="s">
         <v>29</v>
       </c>
       <c r="C363">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D363" t="s">
         <v>123</v>
@@ -31653,7 +31705,7 @@
         <v>11</v>
       </c>
       <c r="G363">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H363" t="s">
         <v>124</v>
@@ -31668,10 +31720,10 @@
         <v>33</v>
       </c>
       <c r="L363" t="s">
-        <v>557</v>
+        <v>221</v>
       </c>
       <c r="M363">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N363">
         <v>3</v>
@@ -31683,7 +31735,7 @@
         <v>3</v>
       </c>
       <c r="Q363" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="S363" t="s">
         <v>127</v>
@@ -31704,21 +31756,21 @@
         <v>173</v>
       </c>
       <c r="AC363" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>517</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B364" t="s">
         <v>29</v>
       </c>
-      <c r="C364">
-        <v>7</v>
-      </c>
-      <c r="D364" t="s">
-        <v>123</v>
+      <c r="C364" s="5">
+        <v>4</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E364">
         <v>45</v>
@@ -31727,9 +31779,9 @@
         <v>11</v>
       </c>
       <c r="G364">
-        <v>1</v>
-      </c>
-      <c r="H364" t="s">
+        <v>3</v>
+      </c>
+      <c r="H364" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I364" t="s">
@@ -31741,14 +31793,14 @@
       <c r="K364" t="s">
         <v>33</v>
       </c>
-      <c r="L364" t="s">
-        <v>557</v>
+      <c r="L364" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="M364">
         <v>24</v>
       </c>
-      <c r="N364">
-        <v>3</v>
+      <c r="N364" s="5">
+        <v>1</v>
       </c>
       <c r="O364" t="s">
         <v>44</v>
@@ -31756,8 +31808,8 @@
       <c r="P364">
         <v>3</v>
       </c>
-      <c r="Q364" t="s">
-        <v>206</v>
+      <c r="Q364" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="S364" t="s">
         <v>127</v>
@@ -31768,17 +31820,20 @@
       <c r="U364" t="s">
         <v>38</v>
       </c>
+      <c r="V364" s="5"/>
+      <c r="W364" s="5"/>
+      <c r="X364" s="5"/>
       <c r="Y364" t="s">
         <v>39</v>
       </c>
       <c r="AA364" t="s">
         <v>40</v>
       </c>
-      <c r="AB364" t="s">
+      <c r="AB364" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC364" t="s">
-        <v>651</v>
+      <c r="AC364" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -46248,29 +46303,29 @@
         <v>652</v>
       </c>
     </row>
-    <row r="547" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
-        <v>690</v>
+    <row r="547" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A547" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B547" t="s">
         <v>29</v>
       </c>
-      <c r="C547">
+      <c r="C547" s="5">
         <v>4</v>
       </c>
-      <c r="D547" t="s">
+      <c r="D547" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E547">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F547">
         <v>11</v>
       </c>
       <c r="G547">
-        <v>2</v>
-      </c>
-      <c r="H547" t="s">
+        <v>3</v>
+      </c>
+      <c r="H547" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I547" t="s">
@@ -46282,13 +46337,13 @@
       <c r="K547" t="s">
         <v>33</v>
       </c>
-      <c r="L547" t="s">
-        <v>731</v>
+      <c r="L547" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="M547">
-        <v>30</v>
-      </c>
-      <c r="N547">
+        <v>24</v>
+      </c>
+      <c r="N547" s="5">
         <v>1</v>
       </c>
       <c r="O547" t="s">
@@ -46297,8 +46352,8 @@
       <c r="P547">
         <v>3</v>
       </c>
-      <c r="Q547" t="s">
-        <v>126</v>
+      <c r="Q547" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="S547" t="s">
         <v>127</v>
@@ -46309,42 +46364,45 @@
       <c r="U547" t="s">
         <v>38</v>
       </c>
+      <c r="V547" s="5"/>
+      <c r="W547" s="5"/>
+      <c r="X547" s="5"/>
       <c r="Y547" t="s">
         <v>39</v>
       </c>
       <c r="AA547" t="s">
         <v>40</v>
       </c>
-      <c r="AB547" t="s">
+      <c r="AB547" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC547" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="548" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
-        <v>723</v>
+      <c r="AC547" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="548" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A548" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B548" t="s">
         <v>29</v>
       </c>
-      <c r="C548">
+      <c r="C548" s="5">
         <v>4</v>
       </c>
-      <c r="D548" t="s">
+      <c r="D548" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E548">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F548">
         <v>11</v>
       </c>
       <c r="G548">
-        <v>2</v>
-      </c>
-      <c r="H548" t="s">
+        <v>3</v>
+      </c>
+      <c r="H548" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I548" t="s">
@@ -46356,13 +46414,13 @@
       <c r="K548" t="s">
         <v>33</v>
       </c>
-      <c r="L548" t="s">
-        <v>731</v>
+      <c r="L548" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="M548">
-        <v>29</v>
-      </c>
-      <c r="N548">
+        <v>25</v>
+      </c>
+      <c r="N548" s="5">
         <v>1</v>
       </c>
       <c r="O548" t="s">
@@ -46371,8 +46429,8 @@
       <c r="P548">
         <v>3</v>
       </c>
-      <c r="Q548" t="s">
-        <v>129</v>
+      <c r="Q548" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="S548" t="s">
         <v>127</v>
@@ -46383,30 +46441,33 @@
       <c r="U548" t="s">
         <v>38</v>
       </c>
+      <c r="V548" s="5"/>
+      <c r="W548" s="5"/>
+      <c r="X548" s="5"/>
       <c r="Y548" t="s">
         <v>39</v>
       </c>
       <c r="AA548" t="s">
         <v>40</v>
       </c>
-      <c r="AB548" t="s">
+      <c r="AB548" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC548" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="549" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
-        <v>724</v>
+      <c r="AC548" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="549" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A549" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B549" t="s">
         <v>29</v>
       </c>
-      <c r="C549">
+      <c r="C549" s="5">
         <v>4</v>
       </c>
-      <c r="D549" t="s">
+      <c r="D549" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E549">
@@ -46416,9 +46477,9 @@
         <v>11</v>
       </c>
       <c r="G549">
-        <v>2</v>
-      </c>
-      <c r="H549" t="s">
+        <v>3</v>
+      </c>
+      <c r="H549" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I549" t="s">
@@ -46430,13 +46491,13 @@
       <c r="K549" t="s">
         <v>33</v>
       </c>
-      <c r="L549" t="s">
-        <v>731</v>
+      <c r="L549" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="M549">
-        <v>28</v>
-      </c>
-      <c r="N549">
+        <v>24</v>
+      </c>
+      <c r="N549" s="5">
         <v>1</v>
       </c>
       <c r="O549" t="s">
@@ -46445,8 +46506,8 @@
       <c r="P549">
         <v>3</v>
       </c>
-      <c r="Q549" t="s">
-        <v>131</v>
+      <c r="Q549" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="S549" t="s">
         <v>127</v>
@@ -46457,42 +46518,45 @@
       <c r="U549" t="s">
         <v>38</v>
       </c>
+      <c r="V549" s="5"/>
+      <c r="W549" s="5"/>
+      <c r="X549" s="5"/>
       <c r="Y549" t="s">
         <v>39</v>
       </c>
       <c r="AA549" t="s">
         <v>40</v>
       </c>
-      <c r="AB549" t="s">
+      <c r="AB549" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC549" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="550" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
-        <v>725</v>
+      <c r="AC549" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="550" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A550" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B550" t="s">
         <v>29</v>
       </c>
-      <c r="C550">
+      <c r="C550" s="5">
         <v>4</v>
       </c>
-      <c r="D550" t="s">
+      <c r="D550" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E550">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F550">
         <v>11</v>
       </c>
       <c r="G550">
-        <v>2</v>
-      </c>
-      <c r="H550" t="s">
+        <v>3</v>
+      </c>
+      <c r="H550" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I550" t="s">
@@ -46504,13 +46568,13 @@
       <c r="K550" t="s">
         <v>33</v>
       </c>
-      <c r="L550" t="s">
-        <v>731</v>
+      <c r="L550" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="M550">
-        <v>28</v>
-      </c>
-      <c r="N550">
+        <v>24</v>
+      </c>
+      <c r="N550" s="5">
         <v>1</v>
       </c>
       <c r="O550" t="s">
@@ -46519,8 +46583,8 @@
       <c r="P550">
         <v>3</v>
       </c>
-      <c r="Q550" t="s">
-        <v>133</v>
+      <c r="Q550" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="S550" t="s">
         <v>127</v>
@@ -46531,30 +46595,33 @@
       <c r="U550" t="s">
         <v>38</v>
       </c>
+      <c r="V550" s="5"/>
+      <c r="W550" s="5"/>
+      <c r="X550" s="5"/>
       <c r="Y550" t="s">
         <v>39</v>
       </c>
       <c r="AA550" t="s">
         <v>40</v>
       </c>
-      <c r="AB550" t="s">
+      <c r="AB550" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC550" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="551" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
-        <v>726</v>
+      <c r="AC550" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="551" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A551" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B551" t="s">
         <v>29</v>
       </c>
-      <c r="C551">
+      <c r="C551" s="5">
         <v>4</v>
       </c>
-      <c r="D551" t="s">
+      <c r="D551" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E551">
@@ -46564,9 +46631,9 @@
         <v>11</v>
       </c>
       <c r="G551">
-        <v>2</v>
-      </c>
-      <c r="H551" t="s">
+        <v>3</v>
+      </c>
+      <c r="H551" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I551" t="s">
@@ -46578,13 +46645,13 @@
       <c r="K551" t="s">
         <v>33</v>
       </c>
-      <c r="L551" t="s">
-        <v>731</v>
+      <c r="L551" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="M551">
-        <v>31</v>
-      </c>
-      <c r="N551">
+        <v>24</v>
+      </c>
+      <c r="N551" s="5">
         <v>1</v>
       </c>
       <c r="O551" t="s">
@@ -46593,8 +46660,8 @@
       <c r="P551">
         <v>3</v>
       </c>
-      <c r="Q551" t="s">
-        <v>138</v>
+      <c r="Q551" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="S551" t="s">
         <v>127</v>
@@ -46605,30 +46672,33 @@
       <c r="U551" t="s">
         <v>38</v>
       </c>
+      <c r="V551" s="5"/>
+      <c r="W551" s="5"/>
+      <c r="X551" s="5"/>
       <c r="Y551" t="s">
         <v>39</v>
       </c>
       <c r="AA551" t="s">
         <v>40</v>
       </c>
-      <c r="AB551" t="s">
+      <c r="AB551" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC551" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="552" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
-        <v>727</v>
+      <c r="AC551" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="552" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A552" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B552" t="s">
         <v>29</v>
       </c>
-      <c r="C552">
+      <c r="C552" s="5">
         <v>4</v>
       </c>
-      <c r="D552" t="s">
+      <c r="D552" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E552">
@@ -46638,9 +46708,9 @@
         <v>11</v>
       </c>
       <c r="G552">
-        <v>2</v>
-      </c>
-      <c r="H552" t="s">
+        <v>3</v>
+      </c>
+      <c r="H552" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I552" t="s">
@@ -46652,13 +46722,13 @@
       <c r="K552" t="s">
         <v>33</v>
       </c>
-      <c r="L552" t="s">
-        <v>731</v>
+      <c r="L552" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="M552">
-        <v>29</v>
-      </c>
-      <c r="N552">
+        <v>24</v>
+      </c>
+      <c r="N552" s="5">
         <v>1</v>
       </c>
       <c r="O552" t="s">
@@ -46667,8 +46737,8 @@
       <c r="P552">
         <v>3</v>
       </c>
-      <c r="Q552" t="s">
-        <v>140</v>
+      <c r="Q552" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="S552" t="s">
         <v>127</v>
@@ -46679,30 +46749,33 @@
       <c r="U552" t="s">
         <v>38</v>
       </c>
+      <c r="V552" s="5"/>
+      <c r="W552" s="5"/>
+      <c r="X552" s="5"/>
       <c r="Y552" t="s">
         <v>39</v>
       </c>
       <c r="AA552" t="s">
         <v>40</v>
       </c>
-      <c r="AB552" t="s">
+      <c r="AB552" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC552" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="553" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
-        <v>728</v>
+      <c r="AC552" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="553" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A553" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B553" t="s">
         <v>29</v>
       </c>
-      <c r="C553">
+      <c r="C553" s="5">
         <v>4</v>
       </c>
-      <c r="D553" t="s">
+      <c r="D553" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E553">
@@ -46712,9 +46785,9 @@
         <v>11</v>
       </c>
       <c r="G553">
-        <v>2</v>
-      </c>
-      <c r="H553" t="s">
+        <v>3</v>
+      </c>
+      <c r="H553" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I553" t="s">
@@ -46726,13 +46799,13 @@
       <c r="K553" t="s">
         <v>33</v>
       </c>
-      <c r="L553" t="s">
-        <v>731</v>
+      <c r="L553" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="M553">
-        <v>32</v>
-      </c>
-      <c r="N553">
+        <v>24</v>
+      </c>
+      <c r="N553" s="5">
         <v>1</v>
       </c>
       <c r="O553" t="s">
@@ -46741,8 +46814,11 @@
       <c r="P553">
         <v>3</v>
       </c>
-      <c r="Q553" t="s">
-        <v>144</v>
+      <c r="Q553" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="R553" t="s">
+        <v>147</v>
       </c>
       <c r="S553" t="s">
         <v>127</v>
@@ -46753,31 +46829,34 @@
       <c r="U553" t="s">
         <v>38</v>
       </c>
+      <c r="V553" s="5"/>
+      <c r="W553" s="5"/>
+      <c r="X553" s="5"/>
       <c r="Y553" t="s">
         <v>39</v>
       </c>
       <c r="AA553" t="s">
         <v>40</v>
       </c>
-      <c r="AB553" t="s">
+      <c r="AB553" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC553" t="s">
-        <v>652</v>
+      <c r="AC553" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="554" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
-        <v>729</v>
+      <c r="A554" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="B554" t="s">
         <v>29</v>
       </c>
-      <c r="C554">
-        <v>4</v>
-      </c>
-      <c r="D554" t="s">
-        <v>171</v>
+      <c r="C554" s="7">
+        <v>7</v>
+      </c>
+      <c r="D554" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E554">
         <v>50</v>
@@ -46786,9 +46865,9 @@
         <v>11</v>
       </c>
       <c r="G554">
-        <v>2</v>
-      </c>
-      <c r="H554" t="s">
+        <v>1</v>
+      </c>
+      <c r="H554" s="7" t="s">
         <v>124</v>
       </c>
       <c r="I554" t="s">
@@ -46800,26 +46879,23 @@
       <c r="K554" t="s">
         <v>33</v>
       </c>
-      <c r="L554" t="s">
-        <v>731</v>
+      <c r="L554" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="M554">
-        <v>28</v>
-      </c>
-      <c r="N554">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="N554" s="7">
+        <v>3</v>
       </c>
       <c r="O554" t="s">
         <v>44</v>
       </c>
       <c r="P554">
-        <v>3</v>
-      </c>
-      <c r="Q554" t="s">
-        <v>146</v>
-      </c>
-      <c r="R554" t="s">
-        <v>147</v>
+        <v>4</v>
+      </c>
+      <c r="Q554" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="S554" t="s">
         <v>127</v>
@@ -46830,26 +46906,20 @@
       <c r="U554" t="s">
         <v>38</v>
       </c>
-      <c r="V554" t="s">
-        <v>161</v>
-      </c>
-      <c r="W554" t="s">
-        <v>162</v>
-      </c>
-      <c r="X554" t="s">
-        <v>163</v>
-      </c>
+      <c r="V554" s="7"/>
+      <c r="W554" s="7"/>
+      <c r="X554" s="7"/>
       <c r="Y554" t="s">
         <v>39</v>
       </c>
       <c r="AA554" t="s">
         <v>40</v>
       </c>
-      <c r="AB554" t="s">
+      <c r="AB554" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AC554" t="s">
-        <v>652</v>
+      <c r="AC554" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="555" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -48524,16 +48594,16 @@
       </c>
     </row>
     <row r="576" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
-        <v>736</v>
+      <c r="A576" s="6" t="s">
+        <v>505</v>
       </c>
       <c r="B576" t="s">
         <v>29</v>
       </c>
-      <c r="C576">
-        <v>3</v>
-      </c>
-      <c r="D576" t="s">
+      <c r="C576" s="7">
+        <v>7</v>
+      </c>
+      <c r="D576" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E576">
@@ -48543,9 +48613,9 @@
         <v>11</v>
       </c>
       <c r="G576">
-        <v>2</v>
-      </c>
-      <c r="H576" t="s">
+        <v>1</v>
+      </c>
+      <c r="H576" s="7" t="s">
         <v>124</v>
       </c>
       <c r="I576" t="s">
@@ -48557,13 +48627,13 @@
       <c r="K576" t="s">
         <v>33</v>
       </c>
-      <c r="L576" t="s">
-        <v>748</v>
+      <c r="L576" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="M576">
-        <v>7</v>
-      </c>
-      <c r="N576">
+        <v>16</v>
+      </c>
+      <c r="N576" s="7">
         <v>3</v>
       </c>
       <c r="O576" t="s">
@@ -48572,8 +48642,8 @@
       <c r="P576">
         <v>4</v>
       </c>
-      <c r="Q576" t="s">
-        <v>179</v>
+      <c r="Q576" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="S576" t="s">
         <v>127</v>
@@ -48584,30 +48654,33 @@
       <c r="U576" t="s">
         <v>38</v>
       </c>
+      <c r="V576" s="7"/>
+      <c r="W576" s="7"/>
+      <c r="X576" s="7"/>
       <c r="Y576" t="s">
         <v>39</v>
       </c>
       <c r="AA576" t="s">
         <v>40</v>
       </c>
-      <c r="AB576" t="s">
+      <c r="AB576" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AC576" t="s">
-        <v>652</v>
+      <c r="AC576" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="577" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
-        <v>738</v>
+      <c r="A577" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="B577" t="s">
         <v>29</v>
       </c>
-      <c r="C577">
-        <v>3</v>
-      </c>
-      <c r="D577" t="s">
+      <c r="C577" s="7">
+        <v>7</v>
+      </c>
+      <c r="D577" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E577">
@@ -48617,9 +48690,9 @@
         <v>11</v>
       </c>
       <c r="G577">
-        <v>2</v>
-      </c>
-      <c r="H577" t="s">
+        <v>1</v>
+      </c>
+      <c r="H577" s="7" t="s">
         <v>124</v>
       </c>
       <c r="I577" t="s">
@@ -48631,23 +48704,23 @@
       <c r="K577" t="s">
         <v>33</v>
       </c>
-      <c r="L577" t="s">
-        <v>748</v>
+      <c r="L577" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="M577">
-        <v>4</v>
-      </c>
-      <c r="N577">
+        <v>24</v>
+      </c>
+      <c r="N577" s="7">
         <v>3</v>
       </c>
       <c r="O577" t="s">
         <v>44</v>
       </c>
       <c r="P577">
-        <v>4</v>
-      </c>
-      <c r="Q577" t="s">
-        <v>183</v>
+        <v>3</v>
+      </c>
+      <c r="Q577" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="S577" t="s">
         <v>127</v>
@@ -48658,31 +48731,34 @@
       <c r="U577" t="s">
         <v>38</v>
       </c>
+      <c r="V577" s="7"/>
+      <c r="W577" s="7"/>
+      <c r="X577" s="7"/>
       <c r="Y577" t="s">
         <v>39</v>
       </c>
       <c r="AA577" t="s">
         <v>40</v>
       </c>
-      <c r="AB577" t="s">
+      <c r="AB577" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AC577" t="s">
-        <v>652</v>
+      <c r="AC577" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="578" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
-        <v>739</v>
+      <c r="A578" s="4" t="s">
+        <v>787</v>
       </c>
       <c r="B578" t="s">
         <v>29</v>
       </c>
-      <c r="C578">
-        <v>3</v>
-      </c>
-      <c r="D578" t="s">
-        <v>123</v>
+      <c r="C578" s="5">
+        <v>4</v>
+      </c>
+      <c r="D578" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E578">
         <v>45</v>
@@ -48691,10 +48767,10 @@
         <v>11</v>
       </c>
       <c r="G578">
-        <v>2</v>
-      </c>
-      <c r="H578" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="H578" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="I578" t="s">
         <v>32</v>
@@ -48705,14 +48781,14 @@
       <c r="K578" t="s">
         <v>33</v>
       </c>
-      <c r="L578" t="s">
-        <v>748</v>
+      <c r="L578" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="M578">
-        <v>7</v>
-      </c>
-      <c r="N578">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="N578" s="5">
+        <v>1</v>
       </c>
       <c r="O578" t="s">
         <v>44</v>
@@ -48720,11 +48796,11 @@
       <c r="P578">
         <v>3</v>
       </c>
-      <c r="Q578" t="s">
-        <v>188</v>
+      <c r="Q578" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="S578" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T578" t="s">
         <v>37</v>
@@ -48732,31 +48808,34 @@
       <c r="U578" t="s">
         <v>38</v>
       </c>
+      <c r="V578" s="5"/>
+      <c r="W578" s="5"/>
+      <c r="X578" s="5"/>
       <c r="Y578" t="s">
         <v>39</v>
       </c>
       <c r="AA578" t="s">
         <v>40</v>
       </c>
-      <c r="AB578" t="s">
+      <c r="AB578" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC578" t="s">
-        <v>652</v>
+      <c r="AC578" s="5" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="579" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
-        <v>740</v>
+      <c r="A579" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="B579" t="s">
         <v>29</v>
       </c>
-      <c r="C579">
-        <v>3</v>
-      </c>
-      <c r="D579" t="s">
-        <v>123</v>
+      <c r="C579" s="5">
+        <v>4</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E579">
         <v>45</v>
@@ -48765,10 +48844,10 @@
         <v>11</v>
       </c>
       <c r="G579">
-        <v>2</v>
-      </c>
-      <c r="H579" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="H579" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="I579" t="s">
         <v>32</v>
@@ -48779,14 +48858,14 @@
       <c r="K579" t="s">
         <v>33</v>
       </c>
-      <c r="L579" t="s">
-        <v>748</v>
+      <c r="L579" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="M579">
-        <v>7</v>
-      </c>
-      <c r="N579">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="N579" s="5">
+        <v>1</v>
       </c>
       <c r="O579" t="s">
         <v>44</v>
@@ -48794,11 +48873,11 @@
       <c r="P579">
         <v>3</v>
       </c>
-      <c r="Q579" t="s">
-        <v>192</v>
+      <c r="Q579" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="S579" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T579" t="s">
         <v>37</v>
@@ -48806,31 +48885,34 @@
       <c r="U579" t="s">
         <v>38</v>
       </c>
+      <c r="V579" s="5"/>
+      <c r="W579" s="5"/>
+      <c r="X579" s="5"/>
       <c r="Y579" t="s">
         <v>39</v>
       </c>
       <c r="AA579" t="s">
         <v>40</v>
       </c>
-      <c r="AB579" t="s">
+      <c r="AB579" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC579" t="s">
-        <v>652</v>
+      <c r="AC579" s="5" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="580" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
-        <v>741</v>
+      <c r="A580" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="B580" t="s">
         <v>29</v>
       </c>
-      <c r="C580">
-        <v>3</v>
-      </c>
-      <c r="D580" t="s">
-        <v>123</v>
+      <c r="C580" s="5">
+        <v>4</v>
+      </c>
+      <c r="D580" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E580">
         <v>45</v>
@@ -48839,10 +48921,10 @@
         <v>11</v>
       </c>
       <c r="G580">
-        <v>2</v>
-      </c>
-      <c r="H580" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="H580" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="I580" t="s">
         <v>32</v>
@@ -48853,14 +48935,14 @@
       <c r="K580" t="s">
         <v>33</v>
       </c>
-      <c r="L580" t="s">
-        <v>748</v>
+      <c r="L580" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="M580">
-        <v>6</v>
-      </c>
-      <c r="N580">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="N580" s="5">
+        <v>1</v>
       </c>
       <c r="O580" t="s">
         <v>44</v>
@@ -48868,11 +48950,11 @@
       <c r="P580">
         <v>3</v>
       </c>
-      <c r="Q580" t="s">
-        <v>197</v>
+      <c r="Q580" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="S580" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T580" t="s">
         <v>37</v>
@@ -48880,31 +48962,34 @@
       <c r="U580" t="s">
         <v>38</v>
       </c>
+      <c r="V580" s="5"/>
+      <c r="W580" s="5"/>
+      <c r="X580" s="5"/>
       <c r="Y580" t="s">
         <v>39</v>
       </c>
       <c r="AA580" t="s">
         <v>40</v>
       </c>
-      <c r="AB580" t="s">
+      <c r="AB580" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC580" t="s">
-        <v>652</v>
+      <c r="AC580" s="5" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="581" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
-        <v>742</v>
+      <c r="A581" s="4" t="s">
+        <v>793</v>
       </c>
       <c r="B581" t="s">
         <v>29</v>
       </c>
-      <c r="C581">
-        <v>3</v>
-      </c>
-      <c r="D581" t="s">
-        <v>123</v>
+      <c r="C581" s="5">
+        <v>4</v>
+      </c>
+      <c r="D581" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E581">
         <v>45</v>
@@ -48913,10 +48998,10 @@
         <v>11</v>
       </c>
       <c r="G581">
-        <v>2</v>
-      </c>
-      <c r="H581" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="H581" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="I581" t="s">
         <v>32</v>
@@ -48927,14 +49012,14 @@
       <c r="K581" t="s">
         <v>33</v>
       </c>
-      <c r="L581" t="s">
-        <v>748</v>
+      <c r="L581" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="M581">
-        <v>7</v>
-      </c>
-      <c r="N581">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="N581" s="5">
+        <v>1</v>
       </c>
       <c r="O581" t="s">
         <v>44</v>
@@ -48942,11 +49027,11 @@
       <c r="P581">
         <v>3</v>
       </c>
-      <c r="Q581" t="s">
-        <v>202</v>
+      <c r="Q581" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="S581" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T581" t="s">
         <v>37</v>
@@ -48954,31 +49039,34 @@
       <c r="U581" t="s">
         <v>38</v>
       </c>
+      <c r="V581" s="5"/>
+      <c r="W581" s="5"/>
+      <c r="X581" s="5"/>
       <c r="Y581" t="s">
         <v>39</v>
       </c>
       <c r="AA581" t="s">
         <v>40</v>
       </c>
-      <c r="AB581" t="s">
+      <c r="AB581" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC581" t="s">
-        <v>652</v>
+      <c r="AC581" s="5" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="582" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
-        <v>743</v>
+      <c r="A582" s="4" t="s">
+        <v>794</v>
       </c>
       <c r="B582" t="s">
         <v>29</v>
       </c>
-      <c r="C582">
-        <v>3</v>
-      </c>
-      <c r="D582" t="s">
-        <v>123</v>
+      <c r="C582" s="5">
+        <v>4</v>
+      </c>
+      <c r="D582" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E582">
         <v>45</v>
@@ -48987,10 +49075,10 @@
         <v>11</v>
       </c>
       <c r="G582">
-        <v>2</v>
-      </c>
-      <c r="H582" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="H582" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="I582" t="s">
         <v>32</v>
@@ -49001,14 +49089,14 @@
       <c r="K582" t="s">
         <v>33</v>
       </c>
-      <c r="L582" t="s">
-        <v>748</v>
+      <c r="L582" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="M582">
-        <v>7</v>
-      </c>
-      <c r="N582">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="N582" s="5">
+        <v>1</v>
       </c>
       <c r="O582" t="s">
         <v>44</v>
@@ -49016,11 +49104,11 @@
       <c r="P582">
         <v>3</v>
       </c>
-      <c r="Q582" t="s">
-        <v>206</v>
+      <c r="Q582" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="S582" t="s">
-        <v>127</v>
+        <v>790</v>
       </c>
       <c r="T582" t="s">
         <v>37</v>
@@ -49028,17 +49116,20 @@
       <c r="U582" t="s">
         <v>38</v>
       </c>
+      <c r="V582" s="5"/>
+      <c r="W582" s="5"/>
+      <c r="X582" s="5"/>
       <c r="Y582" t="s">
         <v>39</v>
       </c>
       <c r="AA582" t="s">
         <v>40</v>
       </c>
-      <c r="AB582" t="s">
+      <c r="AB582" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC582" t="s">
-        <v>652</v>
+      <c r="AC582" s="5" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="583" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -56026,16 +56117,16 @@
       </c>
     </row>
     <row r="670" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="1" t="s">
-        <v>787</v>
+      <c r="A670" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="B670" t="s">
         <v>29</v>
       </c>
-      <c r="C670">
+      <c r="C670" s="5">
         <v>4</v>
       </c>
-      <c r="D670" t="s">
+      <c r="D670" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E670">
@@ -56047,7 +56138,7 @@
       <c r="G670">
         <v>4</v>
       </c>
-      <c r="H670" t="s">
+      <c r="H670" s="5" t="s">
         <v>788</v>
       </c>
       <c r="I670" t="s">
@@ -56059,13 +56150,13 @@
       <c r="K670" t="s">
         <v>33</v>
       </c>
-      <c r="L670" t="s">
+      <c r="L670" s="5" t="s">
         <v>801</v>
       </c>
       <c r="M670">
         <v>26</v>
       </c>
-      <c r="N670">
+      <c r="N670" s="5">
         <v>1</v>
       </c>
       <c r="O670" t="s">
@@ -56074,8 +56165,8 @@
       <c r="P670">
         <v>3</v>
       </c>
-      <c r="Q670" t="s">
-        <v>126</v>
+      <c r="Q670" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="S670" t="s">
         <v>790</v>
@@ -56086,30 +56177,33 @@
       <c r="U670" t="s">
         <v>38</v>
       </c>
+      <c r="V670" s="5"/>
+      <c r="W670" s="5"/>
+      <c r="X670" s="5"/>
       <c r="Y670" t="s">
         <v>39</v>
       </c>
       <c r="AA670" t="s">
         <v>40</v>
       </c>
-      <c r="AB670" t="s">
+      <c r="AB670" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC670" t="s">
+      <c r="AC670" s="5" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="671" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="1" t="s">
-        <v>791</v>
+      <c r="A671" s="4" t="s">
+        <v>796</v>
       </c>
       <c r="B671" t="s">
         <v>29</v>
       </c>
-      <c r="C671">
+      <c r="C671" s="5">
         <v>4</v>
       </c>
-      <c r="D671" t="s">
+      <c r="D671" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E671">
@@ -56121,7 +56215,7 @@
       <c r="G671">
         <v>4</v>
       </c>
-      <c r="H671" t="s">
+      <c r="H671" s="5" t="s">
         <v>788</v>
       </c>
       <c r="I671" t="s">
@@ -56133,13 +56227,13 @@
       <c r="K671" t="s">
         <v>33</v>
       </c>
-      <c r="L671" t="s">
+      <c r="L671" s="5" t="s">
         <v>801</v>
       </c>
       <c r="M671">
-        <v>28</v>
-      </c>
-      <c r="N671">
+        <v>27</v>
+      </c>
+      <c r="N671" s="5">
         <v>1</v>
       </c>
       <c r="O671" t="s">
@@ -56148,8 +56242,8 @@
       <c r="P671">
         <v>3</v>
       </c>
-      <c r="Q671" t="s">
-        <v>129</v>
+      <c r="Q671" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="S671" t="s">
         <v>790</v>
@@ -56160,30 +56254,33 @@
       <c r="U671" t="s">
         <v>38</v>
       </c>
+      <c r="V671" s="5"/>
+      <c r="W671" s="5"/>
+      <c r="X671" s="5"/>
       <c r="Y671" t="s">
         <v>39</v>
       </c>
       <c r="AA671" t="s">
         <v>40</v>
       </c>
-      <c r="AB671" t="s">
+      <c r="AB671" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC671" t="s">
+      <c r="AC671" s="5" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="672" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="1" t="s">
-        <v>792</v>
+      <c r="A672" s="4" t="s">
+        <v>797</v>
       </c>
       <c r="B672" t="s">
         <v>29</v>
       </c>
-      <c r="C672">
+      <c r="C672" s="5">
         <v>4</v>
       </c>
-      <c r="D672" t="s">
+      <c r="D672" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E672">
@@ -56195,7 +56292,7 @@
       <c r="G672">
         <v>4</v>
       </c>
-      <c r="H672" t="s">
+      <c r="H672" s="5" t="s">
         <v>788</v>
       </c>
       <c r="I672" t="s">
@@ -56207,23 +56304,23 @@
       <c r="K672" t="s">
         <v>33</v>
       </c>
-      <c r="L672" t="s">
+      <c r="L672" s="5" t="s">
         <v>801</v>
       </c>
       <c r="M672">
         <v>26</v>
       </c>
-      <c r="N672">
-        <v>1</v>
-      </c>
-      <c r="O672" t="s">
-        <v>44</v>
+      <c r="N672" s="5">
+        <v>1</v>
       </c>
       <c r="P672">
         <v>3</v>
       </c>
-      <c r="Q672" t="s">
-        <v>131</v>
+      <c r="Q672" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="R672" t="s">
+        <v>799</v>
       </c>
       <c r="S672" t="s">
         <v>790</v>
@@ -56234,31 +56331,34 @@
       <c r="U672" t="s">
         <v>38</v>
       </c>
+      <c r="V672" s="5"/>
+      <c r="W672" s="5"/>
+      <c r="X672" s="5"/>
       <c r="Y672" t="s">
         <v>39</v>
       </c>
       <c r="AA672" t="s">
         <v>40</v>
       </c>
-      <c r="AB672" t="s">
+      <c r="AB672" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AC672" t="s">
+      <c r="AC672" s="5" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="673" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="1" t="s">
-        <v>793</v>
+      <c r="A673" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="B673" t="s">
         <v>29</v>
       </c>
-      <c r="C673">
-        <v>4</v>
-      </c>
-      <c r="D673" t="s">
-        <v>171</v>
+      <c r="C673" s="7">
+        <v>7</v>
+      </c>
+      <c r="D673" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E673">
         <v>45</v>
@@ -56267,10 +56367,10 @@
         <v>11</v>
       </c>
       <c r="G673">
-        <v>4</v>
-      </c>
-      <c r="H673" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H673" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="I673" t="s">
         <v>32</v>
@@ -56281,14 +56381,14 @@
       <c r="K673" t="s">
         <v>33</v>
       </c>
-      <c r="L673" t="s">
-        <v>801</v>
+      <c r="L673" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="M673">
-        <v>26</v>
-      </c>
-      <c r="N673">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="N673" s="7">
+        <v>3</v>
       </c>
       <c r="O673" t="s">
         <v>44</v>
@@ -56296,11 +56396,11 @@
       <c r="P673">
         <v>3</v>
       </c>
-      <c r="Q673" t="s">
-        <v>133</v>
+      <c r="Q673" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="S673" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T673" t="s">
         <v>37</v>
@@ -56308,31 +56408,34 @@
       <c r="U673" t="s">
         <v>38</v>
       </c>
+      <c r="V673" s="7"/>
+      <c r="W673" s="7"/>
+      <c r="X673" s="7"/>
       <c r="Y673" t="s">
         <v>39</v>
       </c>
       <c r="AA673" t="s">
         <v>40</v>
       </c>
-      <c r="AB673" t="s">
+      <c r="AB673" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AC673" t="s">
-        <v>843</v>
+      <c r="AC673" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="674" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="1" t="s">
-        <v>794</v>
+      <c r="A674" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="B674" t="s">
         <v>29</v>
       </c>
-      <c r="C674">
-        <v>4</v>
-      </c>
-      <c r="D674" t="s">
-        <v>171</v>
+      <c r="C674" s="7">
+        <v>7</v>
+      </c>
+      <c r="D674" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E674">
         <v>45</v>
@@ -56341,10 +56444,10 @@
         <v>11</v>
       </c>
       <c r="G674">
-        <v>4</v>
-      </c>
-      <c r="H674" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H674" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="I674" t="s">
         <v>32</v>
@@ -56355,14 +56458,14 @@
       <c r="K674" t="s">
         <v>33</v>
       </c>
-      <c r="L674" t="s">
-        <v>801</v>
+      <c r="L674" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="M674">
-        <v>27</v>
-      </c>
-      <c r="N674">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="N674" s="7">
+        <v>3</v>
       </c>
       <c r="O674" t="s">
         <v>44</v>
@@ -56370,11 +56473,11 @@
       <c r="P674">
         <v>3</v>
       </c>
-      <c r="Q674" t="s">
-        <v>138</v>
+      <c r="Q674" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="S674" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T674" t="s">
         <v>37</v>
@@ -56382,31 +56485,34 @@
       <c r="U674" t="s">
         <v>38</v>
       </c>
+      <c r="V674" s="7"/>
+      <c r="W674" s="7"/>
+      <c r="X674" s="7"/>
       <c r="Y674" t="s">
         <v>39</v>
       </c>
       <c r="AA674" t="s">
         <v>40</v>
       </c>
-      <c r="AB674" t="s">
+      <c r="AB674" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AC674" t="s">
-        <v>843</v>
+      <c r="AC674" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="675" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="1" t="s">
-        <v>795</v>
+      <c r="A675" s="6" t="s">
+        <v>513</v>
       </c>
       <c r="B675" t="s">
         <v>29</v>
       </c>
-      <c r="C675">
-        <v>4</v>
-      </c>
-      <c r="D675" t="s">
-        <v>171</v>
+      <c r="C675" s="7">
+        <v>7</v>
+      </c>
+      <c r="D675" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E675">
         <v>45</v>
@@ -56415,10 +56521,10 @@
         <v>11</v>
       </c>
       <c r="G675">
-        <v>4</v>
-      </c>
-      <c r="H675" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H675" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="I675" t="s">
         <v>32</v>
@@ -56429,14 +56535,14 @@
       <c r="K675" t="s">
         <v>33</v>
       </c>
-      <c r="L675" t="s">
-        <v>801</v>
+      <c r="L675" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="M675">
-        <v>26</v>
-      </c>
-      <c r="N675">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="N675" s="7">
+        <v>3</v>
       </c>
       <c r="O675" t="s">
         <v>44</v>
@@ -56444,11 +56550,11 @@
       <c r="P675">
         <v>3</v>
       </c>
-      <c r="Q675" t="s">
-        <v>140</v>
+      <c r="Q675" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="S675" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T675" t="s">
         <v>37</v>
@@ -56456,31 +56562,34 @@
       <c r="U675" t="s">
         <v>38</v>
       </c>
+      <c r="V675" s="7"/>
+      <c r="W675" s="7"/>
+      <c r="X675" s="7"/>
       <c r="Y675" t="s">
         <v>39</v>
       </c>
       <c r="AA675" t="s">
         <v>40</v>
       </c>
-      <c r="AB675" t="s">
+      <c r="AB675" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AC675" t="s">
-        <v>843</v>
+      <c r="AC675" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="676" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="1" t="s">
-        <v>796</v>
+      <c r="A676" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="B676" t="s">
         <v>29</v>
       </c>
-      <c r="C676">
-        <v>4</v>
-      </c>
-      <c r="D676" t="s">
-        <v>171</v>
+      <c r="C676" s="7">
+        <v>7</v>
+      </c>
+      <c r="D676" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E676">
         <v>45</v>
@@ -56489,10 +56598,10 @@
         <v>11</v>
       </c>
       <c r="G676">
-        <v>4</v>
-      </c>
-      <c r="H676" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H676" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="I676" t="s">
         <v>32</v>
@@ -56503,14 +56612,14 @@
       <c r="K676" t="s">
         <v>33</v>
       </c>
-      <c r="L676" t="s">
-        <v>801</v>
+      <c r="L676" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="M676">
-        <v>27</v>
-      </c>
-      <c r="N676">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="N676" s="7">
+        <v>3</v>
       </c>
       <c r="O676" t="s">
         <v>44</v>
@@ -56518,11 +56627,11 @@
       <c r="P676">
         <v>3</v>
       </c>
-      <c r="Q676" t="s">
-        <v>144</v>
+      <c r="Q676" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="S676" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T676" t="s">
         <v>37</v>
@@ -56530,30 +56639,33 @@
       <c r="U676" t="s">
         <v>38</v>
       </c>
+      <c r="V676" s="7"/>
+      <c r="W676" s="7"/>
+      <c r="X676" s="7"/>
       <c r="Y676" t="s">
         <v>39</v>
       </c>
       <c r="AA676" t="s">
         <v>40</v>
       </c>
-      <c r="AB676" t="s">
+      <c r="AB676" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AC676" t="s">
-        <v>843</v>
+      <c r="AC676" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="677" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="1" t="s">
-        <v>797</v>
+      <c r="A677" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="B677" t="s">
         <v>29</v>
       </c>
-      <c r="C677">
-        <v>4</v>
-      </c>
-      <c r="D677" t="s">
+      <c r="C677" s="3">
+        <v>7</v>
+      </c>
+      <c r="D677" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E677">
@@ -56563,10 +56675,10 @@
         <v>11</v>
       </c>
       <c r="G677">
-        <v>4</v>
-      </c>
-      <c r="H677" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H677" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I677" t="s">
         <v>32</v>
@@ -56577,26 +56689,26 @@
       <c r="K677" t="s">
         <v>33</v>
       </c>
-      <c r="L677" t="s">
-        <v>801</v>
+      <c r="L677" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="M677">
-        <v>26</v>
-      </c>
-      <c r="N677">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="N677" s="3">
+        <v>1</v>
+      </c>
+      <c r="O677" t="s">
+        <v>44</v>
       </c>
       <c r="P677">
         <v>3</v>
       </c>
-      <c r="Q677" t="s">
-        <v>798</v>
-      </c>
-      <c r="R677" t="s">
-        <v>799</v>
+      <c r="Q677" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="S677" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T677" t="s">
         <v>37</v>
@@ -56604,17 +56716,20 @@
       <c r="U677" t="s">
         <v>38</v>
       </c>
+      <c r="V677" s="3"/>
+      <c r="W677" s="3"/>
+      <c r="X677" s="3"/>
       <c r="Y677" t="s">
         <v>39</v>
       </c>
       <c r="AA677" t="s">
         <v>40</v>
       </c>
-      <c r="AB677" t="s">
+      <c r="AB677" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC677" t="s">
-        <v>843</v>
+      <c r="AC677" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="678" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -57948,17 +58063,17 @@
       </c>
     </row>
     <row r="695" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="1" t="s">
-        <v>806</v>
+      <c r="A695" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="B695" t="s">
         <v>29</v>
       </c>
-      <c r="C695">
-        <v>3</v>
-      </c>
-      <c r="D695" t="s">
-        <v>123</v>
+      <c r="C695" s="3">
+        <v>7</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E695">
         <v>45</v>
@@ -57967,10 +58082,10 @@
         <v>11</v>
       </c>
       <c r="G695">
-        <v>4</v>
-      </c>
-      <c r="H695" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H695" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I695" t="s">
         <v>32</v>
@@ -57981,26 +58096,26 @@
       <c r="K695" t="s">
         <v>33</v>
       </c>
-      <c r="L695" t="s">
-        <v>557</v>
+      <c r="L695" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="M695">
-        <v>5</v>
-      </c>
-      <c r="N695">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="N695" s="3">
+        <v>1</v>
       </c>
       <c r="O695" t="s">
         <v>44</v>
       </c>
       <c r="P695">
-        <v>4</v>
-      </c>
-      <c r="Q695" t="s">
-        <v>808</v>
+        <v>3</v>
+      </c>
+      <c r="Q695" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="S695" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T695" t="s">
         <v>37</v>
@@ -58008,43 +58123,46 @@
       <c r="U695" t="s">
         <v>38</v>
       </c>
+      <c r="V695" s="3"/>
+      <c r="W695" s="3"/>
+      <c r="X695" s="3"/>
       <c r="Y695" t="s">
         <v>39</v>
       </c>
       <c r="AA695" t="s">
         <v>40</v>
       </c>
-      <c r="AB695" t="s">
+      <c r="AB695" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC695" t="s">
-        <v>843</v>
+      <c r="AC695" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="696" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="1" t="s">
-        <v>809</v>
+      <c r="A696" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="B696" t="s">
         <v>29</v>
       </c>
-      <c r="C696">
-        <v>3</v>
-      </c>
-      <c r="D696" t="s">
-        <v>123</v>
+      <c r="C696" s="3">
+        <v>7</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E696">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F696">
         <v>11</v>
       </c>
       <c r="G696">
-        <v>4</v>
-      </c>
-      <c r="H696" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H696" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I696" t="s">
         <v>32</v>
@@ -58055,26 +58173,26 @@
       <c r="K696" t="s">
         <v>33</v>
       </c>
-      <c r="L696" t="s">
-        <v>557</v>
+      <c r="L696" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="M696">
-        <v>4</v>
-      </c>
-      <c r="N696">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="N696" s="3">
+        <v>1</v>
       </c>
       <c r="O696" t="s">
         <v>44</v>
       </c>
       <c r="P696">
-        <v>4</v>
-      </c>
-      <c r="Q696" t="s">
-        <v>810</v>
+        <v>3</v>
+      </c>
+      <c r="Q696" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="S696" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T696" t="s">
         <v>37</v>
@@ -58082,43 +58200,46 @@
       <c r="U696" t="s">
         <v>38</v>
       </c>
+      <c r="V696" s="3"/>
+      <c r="W696" s="3"/>
+      <c r="X696" s="3"/>
       <c r="Y696" t="s">
         <v>39</v>
       </c>
       <c r="AA696" t="s">
         <v>40</v>
       </c>
-      <c r="AB696" t="s">
+      <c r="AB696" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC696" t="s">
-        <v>843</v>
+      <c r="AC696" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="697" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="1" t="s">
-        <v>811</v>
+      <c r="A697" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="B697" t="s">
         <v>29</v>
       </c>
-      <c r="C697">
-        <v>3</v>
-      </c>
-      <c r="D697" t="s">
-        <v>123</v>
+      <c r="C697" s="3">
+        <v>7</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E697">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F697">
         <v>11</v>
       </c>
       <c r="G697">
-        <v>4</v>
-      </c>
-      <c r="H697" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H697" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I697" t="s">
         <v>32</v>
@@ -58129,14 +58250,14 @@
       <c r="K697" t="s">
         <v>33</v>
       </c>
-      <c r="L697" t="s">
-        <v>557</v>
+      <c r="L697" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="M697">
-        <v>5</v>
-      </c>
-      <c r="N697">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="N697" s="3">
+        <v>1</v>
       </c>
       <c r="O697" t="s">
         <v>44</v>
@@ -58144,11 +58265,11 @@
       <c r="P697">
         <v>3</v>
       </c>
-      <c r="Q697" t="s">
-        <v>812</v>
+      <c r="Q697" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="S697" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T697" t="s">
         <v>37</v>
@@ -58156,43 +58277,46 @@
       <c r="U697" t="s">
         <v>38</v>
       </c>
+      <c r="V697" s="3"/>
+      <c r="W697" s="3"/>
+      <c r="X697" s="3"/>
       <c r="Y697" t="s">
         <v>39</v>
       </c>
       <c r="AA697" t="s">
         <v>40</v>
       </c>
-      <c r="AB697" t="s">
+      <c r="AB697" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC697" t="s">
-        <v>843</v>
+      <c r="AC697" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="698" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A698" s="1" t="s">
-        <v>813</v>
+      <c r="A698" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="B698" t="s">
         <v>29</v>
       </c>
-      <c r="C698">
-        <v>3</v>
-      </c>
-      <c r="D698" t="s">
-        <v>123</v>
+      <c r="C698" s="3">
+        <v>7</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E698">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F698">
         <v>11</v>
       </c>
       <c r="G698">
-        <v>4</v>
-      </c>
-      <c r="H698" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H698" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I698" t="s">
         <v>32</v>
@@ -58203,14 +58327,14 @@
       <c r="K698" t="s">
         <v>33</v>
       </c>
-      <c r="L698" t="s">
-        <v>557</v>
+      <c r="L698" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="M698">
-        <v>5</v>
-      </c>
-      <c r="N698">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="N698" s="3">
+        <v>1</v>
       </c>
       <c r="O698" t="s">
         <v>44</v>
@@ -58218,11 +58342,11 @@
       <c r="P698">
         <v>3</v>
       </c>
-      <c r="Q698" t="s">
-        <v>814</v>
+      <c r="Q698" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="S698" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T698" t="s">
         <v>37</v>
@@ -58230,43 +58354,46 @@
       <c r="U698" t="s">
         <v>38</v>
       </c>
+      <c r="V698" s="3"/>
+      <c r="W698" s="3"/>
+      <c r="X698" s="3"/>
       <c r="Y698" t="s">
         <v>39</v>
       </c>
       <c r="AA698" t="s">
         <v>40</v>
       </c>
-      <c r="AB698" t="s">
+      <c r="AB698" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC698" t="s">
-        <v>843</v>
+      <c r="AC698" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="699" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="1" t="s">
-        <v>815</v>
+      <c r="A699" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="B699" t="s">
         <v>29</v>
       </c>
-      <c r="C699">
-        <v>3</v>
-      </c>
-      <c r="D699" t="s">
-        <v>123</v>
+      <c r="C699" s="3">
+        <v>7</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E699">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F699">
         <v>11</v>
       </c>
       <c r="G699">
-        <v>4</v>
-      </c>
-      <c r="H699" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H699" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I699" t="s">
         <v>32</v>
@@ -58277,14 +58404,14 @@
       <c r="K699" t="s">
         <v>33</v>
       </c>
-      <c r="L699" t="s">
-        <v>557</v>
+      <c r="L699" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="M699">
-        <v>3</v>
-      </c>
-      <c r="N699">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="N699" s="3">
+        <v>1</v>
       </c>
       <c r="O699" t="s">
         <v>44</v>
@@ -58292,11 +58419,11 @@
       <c r="P699">
         <v>3</v>
       </c>
-      <c r="Q699" t="s">
-        <v>816</v>
+      <c r="Q699" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="S699" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T699" t="s">
         <v>37</v>
@@ -58304,43 +58431,52 @@
       <c r="U699" t="s">
         <v>38</v>
       </c>
+      <c r="V699" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="W699" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="X699" s="3" t="s">
+        <v>486</v>
+      </c>
       <c r="Y699" t="s">
         <v>39</v>
       </c>
       <c r="AA699" t="s">
         <v>40</v>
       </c>
-      <c r="AB699" t="s">
+      <c r="AB699" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC699" t="s">
-        <v>843</v>
+      <c r="AC699" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="700" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="1" t="s">
-        <v>817</v>
+      <c r="A700" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="B700" t="s">
         <v>29</v>
       </c>
-      <c r="C700">
-        <v>3</v>
-      </c>
-      <c r="D700" t="s">
-        <v>123</v>
+      <c r="C700" s="3">
+        <v>7</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E700">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F700">
         <v>11</v>
       </c>
       <c r="G700">
-        <v>4</v>
-      </c>
-      <c r="H700" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H700" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I700" t="s">
         <v>32</v>
@@ -58351,14 +58487,14 @@
       <c r="K700" t="s">
         <v>33</v>
       </c>
-      <c r="L700" t="s">
-        <v>557</v>
+      <c r="L700" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="M700">
-        <v>5</v>
-      </c>
-      <c r="N700">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="N700" s="3">
+        <v>1</v>
       </c>
       <c r="O700" t="s">
         <v>44</v>
@@ -58366,11 +58502,11 @@
       <c r="P700">
         <v>3</v>
       </c>
-      <c r="Q700" t="s">
-        <v>818</v>
+      <c r="Q700" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="S700" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T700" t="s">
         <v>37</v>
@@ -58378,31 +58514,34 @@
       <c r="U700" t="s">
         <v>38</v>
       </c>
+      <c r="V700" s="3"/>
+      <c r="W700" s="3"/>
+      <c r="X700" s="3"/>
       <c r="Y700" t="s">
         <v>39</v>
       </c>
       <c r="AA700" t="s">
         <v>40</v>
       </c>
-      <c r="AB700" t="s">
+      <c r="AB700" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC700" t="s">
-        <v>843</v>
+      <c r="AC700" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="701" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="1" t="s">
-        <v>819</v>
+      <c r="A701" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="B701" t="s">
         <v>29</v>
       </c>
-      <c r="C701">
-        <v>3</v>
-      </c>
-      <c r="D701" t="s">
-        <v>123</v>
+      <c r="C701" s="3">
+        <v>7</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E701">
         <v>50</v>
@@ -58411,10 +58550,10 @@
         <v>11</v>
       </c>
       <c r="G701">
-        <v>4</v>
-      </c>
-      <c r="H701" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="H701" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I701" t="s">
         <v>32</v>
@@ -58425,14 +58564,14 @@
       <c r="K701" t="s">
         <v>33</v>
       </c>
-      <c r="L701" t="s">
-        <v>557</v>
+      <c r="L701" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="M701">
-        <v>5</v>
-      </c>
-      <c r="N701">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="N701" s="3">
+        <v>1</v>
       </c>
       <c r="O701" t="s">
         <v>44</v>
@@ -58440,11 +58579,14 @@
       <c r="P701">
         <v>3</v>
       </c>
-      <c r="Q701" t="s">
-        <v>820</v>
+      <c r="Q701" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R701" t="s">
+        <v>147</v>
       </c>
       <c r="S701" t="s">
-        <v>790</v>
+        <v>127</v>
       </c>
       <c r="T701" t="s">
         <v>37</v>
@@ -58452,17 +58594,20 @@
       <c r="U701" t="s">
         <v>38</v>
       </c>
+      <c r="V701" s="3"/>
+      <c r="W701" s="3"/>
+      <c r="X701" s="3"/>
       <c r="Y701" t="s">
         <v>39</v>
       </c>
       <c r="AA701" t="s">
         <v>40</v>
       </c>
-      <c r="AB701" t="s">
+      <c r="AB701" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC701" t="s">
-        <v>843</v>
+      <c r="AC701" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="702" spans="1:29" hidden="1" x14ac:dyDescent="0.25">

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF90A7C-6C56-423A-A678-2DF3EAD6CB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F61F3A-7EA3-45D9-BCB6-8ECD79D754D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2654,19 +2654,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC726" totalsRowShown="0">
   <autoFilter ref="A1:AC726" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="27">
       <filters>
-        <filter val="S.J.L"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="28">
-      <filters>
-        <filter val="AUD"/>
+        <filter val="OYON"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3028,7 +3018,7 @@
   <dimension ref="A1:AC726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+      <selection activeCell="C299" sqref="C299:C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26563,7 +26553,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>362</v>
       </c>
@@ -26637,7 +26627,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>444</v>
       </c>
@@ -26711,7 +26701,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>445</v>
       </c>
@@ -26785,7 +26775,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>448</v>
       </c>
@@ -26859,7 +26849,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>449</v>
       </c>
@@ -26933,7 +26923,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>450</v>
       </c>
@@ -27007,7 +26997,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>452</v>
       </c>
@@ -27081,7 +27071,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>456</v>
       </c>
@@ -31759,7 +31749,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>122</v>
       </c>
@@ -46303,7 +46293,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
         <v>128</v>
       </c>
@@ -46380,7 +46370,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
         <v>130</v>
       </c>
@@ -46457,7 +46447,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4" t="s">
         <v>132</v>
       </c>
@@ -46534,7 +46524,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="550" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4" t="s">
         <v>137</v>
       </c>
@@ -46611,7 +46601,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="551" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4" t="s">
         <v>139</v>
       </c>
@@ -46688,7 +46678,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="552" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
         <v>143</v>
       </c>
@@ -46765,7 +46755,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="553" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
         <v>145</v>
       </c>

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5590EC-E9D0-48CD-814E-F8AD808B182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7DF4B1-4291-47C4-BF1E-8C6CABD83A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2727,12 +2727,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2747,9 +2771,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2774,17 +2806,25 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC780" totalsRowShown="0">
   <autoFilter ref="A1:AC780" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="SJL-71-T"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="27">
       <filters>
         <filter val="S.J.L"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="28">
-      <filters>
-        <filter val="AUD"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:AC272">
+    <sortCondition ref="A1:A780"/>
+  </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{22044F18-BA93-4166-A5C2-B37D5DC456F1}" name="cod_asignatura" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{A12BC72A-7882-48E1-9B2A-68CE7B9FE6F3}" name="cod_tipo_acta"/>
@@ -3140,7 +3180,7 @@
   <dimension ref="A1:AC780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+      <selection activeCell="D781" sqref="D781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,16 +6009,16 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>119</v>
+      <c r="A35" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="3">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E35">
@@ -5988,9 +6028,9 @@
         <v>11</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I35" t="s">
@@ -6002,13 +6042,13 @@
       <c r="K35" t="s">
         <v>33</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="3" t="s">
         <v>837</v>
       </c>
       <c r="M35">
-        <v>7</v>
-      </c>
-      <c r="N35">
+        <v>13</v>
+      </c>
+      <c r="N35" s="3">
         <v>1</v>
       </c>
       <c r="O35" t="s">
@@ -6017,7 +6057,7 @@
       <c r="P35">
         <v>3</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="3" t="s">
         <v>123</v>
       </c>
       <c r="S35" t="s">
@@ -6029,42 +6069,45 @@
       <c r="U35" t="s">
         <v>38</v>
       </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
       <c r="Y35" t="s">
         <v>39</v>
       </c>
       <c r="AA35" t="s">
         <v>40</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AB35" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AC35" t="s">
-        <v>350</v>
+      <c r="AC35" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>119</v>
+      <c r="A36" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="3">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F36">
         <v>11</v>
       </c>
       <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I36" t="s">
@@ -6076,13 +6119,13 @@
       <c r="K36" t="s">
         <v>33</v>
       </c>
-      <c r="L36" t="s">
-        <v>838</v>
+      <c r="L36" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="M36">
-        <v>10</v>
-      </c>
-      <c r="N36">
+        <v>13</v>
+      </c>
+      <c r="N36" s="3">
         <v>1</v>
       </c>
       <c r="O36" t="s">
@@ -6091,8 +6134,8 @@
       <c r="P36">
         <v>3</v>
       </c>
-      <c r="Q36" t="s">
-        <v>123</v>
+      <c r="Q36" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="S36" t="s">
         <v>124</v>
@@ -6103,30 +6146,39 @@
       <c r="U36" t="s">
         <v>38</v>
       </c>
+      <c r="V36" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>841</v>
+      </c>
       <c r="Y36" t="s">
         <v>39</v>
       </c>
       <c r="AA36" t="s">
         <v>40</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AB36" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AC36" t="s">
-        <v>350</v>
+      <c r="AC36" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>119</v>
+      <c r="A37" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="3">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E37">
@@ -6136,9 +6188,9 @@
         <v>11</v>
       </c>
       <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I37" t="s">
@@ -6150,13 +6202,13 @@
       <c r="K37" t="s">
         <v>33</v>
       </c>
-      <c r="L37" t="s">
-        <v>839</v>
+      <c r="L37" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
+        <v>13</v>
+      </c>
+      <c r="N37" s="3">
         <v>1</v>
       </c>
       <c r="O37" t="s">
@@ -6165,8 +6217,8 @@
       <c r="P37">
         <v>3</v>
       </c>
-      <c r="Q37" t="s">
-        <v>123</v>
+      <c r="Q37" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="S37" t="s">
         <v>124</v>
@@ -6177,26 +6229,20 @@
       <c r="U37" t="s">
         <v>38</v>
       </c>
-      <c r="V37" t="s">
-        <v>463</v>
-      </c>
-      <c r="W37" t="s">
-        <v>464</v>
-      </c>
-      <c r="X37" t="s">
-        <v>465</v>
-      </c>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
       <c r="Y37" t="s">
         <v>39</v>
       </c>
       <c r="AA37" t="s">
         <v>40</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AB37" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AC37" t="s">
-        <v>350</v>
+      <c r="AC37" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -6431,16 +6477,16 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>125</v>
+      <c r="A41" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="3">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E41">
@@ -6450,9 +6496,9 @@
         <v>11</v>
       </c>
       <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I41" t="s">
@@ -6464,13 +6510,13 @@
       <c r="K41" t="s">
         <v>33</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="3" t="s">
         <v>837</v>
       </c>
       <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
+        <v>15</v>
+      </c>
+      <c r="N41" s="3">
         <v>1</v>
       </c>
       <c r="O41" t="s">
@@ -6479,8 +6525,8 @@
       <c r="P41">
         <v>3</v>
       </c>
-      <c r="Q41" t="s">
-        <v>126</v>
+      <c r="Q41" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="S41" t="s">
         <v>124</v>
@@ -6491,14 +6537,14 @@
       <c r="U41" t="s">
         <v>38</v>
       </c>
-      <c r="V41" t="s">
-        <v>840</v>
-      </c>
-      <c r="W41" t="s">
-        <v>413</v>
-      </c>
-      <c r="X41" t="s">
-        <v>841</v>
+      <c r="V41" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>844</v>
       </c>
       <c r="Y41" t="s">
         <v>39</v>
@@ -6506,36 +6552,36 @@
       <c r="AA41" t="s">
         <v>40</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AB41" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AC41" t="s">
-        <v>350</v>
+      <c r="AC41" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>125</v>
+      <c r="A42" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="3">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <v>11</v>
       </c>
       <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I42" t="s">
@@ -6547,13 +6593,13 @@
       <c r="K42" t="s">
         <v>33</v>
       </c>
-      <c r="L42" t="s">
-        <v>838</v>
+      <c r="L42" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="M42">
-        <v>10</v>
-      </c>
-      <c r="N42">
+        <v>17</v>
+      </c>
+      <c r="N42" s="3">
         <v>1</v>
       </c>
       <c r="O42" t="s">
@@ -6562,8 +6608,8 @@
       <c r="P42">
         <v>3</v>
       </c>
-      <c r="Q42" t="s">
-        <v>126</v>
+      <c r="Q42" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="S42" t="s">
         <v>124</v>
@@ -6574,42 +6620,45 @@
       <c r="U42" t="s">
         <v>38</v>
       </c>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
       <c r="Y42" t="s">
         <v>39</v>
       </c>
       <c r="AA42" t="s">
         <v>40</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AB42" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AC42" t="s">
-        <v>350</v>
+      <c r="AC42" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>125</v>
+      <c r="A43" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="3">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F43">
         <v>11</v>
       </c>
       <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I43" t="s">
@@ -6621,13 +6670,13 @@
       <c r="K43" t="s">
         <v>33</v>
       </c>
-      <c r="L43" t="s">
-        <v>839</v>
+      <c r="L43" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="M43">
-        <v>7</v>
-      </c>
-      <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="N43" s="3">
         <v>1</v>
       </c>
       <c r="O43" t="s">
@@ -6636,8 +6685,8 @@
       <c r="P43">
         <v>3</v>
       </c>
-      <c r="Q43" t="s">
-        <v>126</v>
+      <c r="Q43" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="S43" t="s">
         <v>124</v>
@@ -6648,17 +6697,26 @@
       <c r="U43" t="s">
         <v>38</v>
       </c>
+      <c r="V43" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="Y43" t="s">
         <v>39</v>
       </c>
       <c r="AA43" t="s">
         <v>40</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AB43" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AC43" t="s">
-        <v>350</v>
+      <c r="AC43" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -6902,16 +6960,16 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>127</v>
+      <c r="A47" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" s="3">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E47">
@@ -6921,9 +6979,9 @@
         <v>11</v>
       </c>
       <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I47" t="s">
@@ -6935,13 +6993,13 @@
       <c r="K47" t="s">
         <v>33</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="3" t="s">
         <v>837</v>
       </c>
       <c r="M47">
-        <v>8</v>
-      </c>
-      <c r="N47">
+        <v>14</v>
+      </c>
+      <c r="N47" s="3">
         <v>1</v>
       </c>
       <c r="O47" t="s">
@@ -6950,8 +7008,8 @@
       <c r="P47">
         <v>3</v>
       </c>
-      <c r="Q47" t="s">
-        <v>128</v>
+      <c r="Q47" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="S47" t="s">
         <v>124</v>
@@ -6962,30 +7020,33 @@
       <c r="U47" t="s">
         <v>38</v>
       </c>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
       <c r="Y47" t="s">
         <v>39</v>
       </c>
       <c r="AA47" t="s">
         <v>40</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AC47" t="s">
-        <v>350</v>
+      <c r="AC47" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>127</v>
+      <c r="A48" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
       </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" s="3">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E48">
@@ -6995,9 +7056,9 @@
         <v>11</v>
       </c>
       <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I48" t="s">
@@ -7009,13 +7070,13 @@
       <c r="K48" t="s">
         <v>33</v>
       </c>
-      <c r="L48" t="s">
-        <v>838</v>
+      <c r="L48" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="M48">
-        <v>10</v>
-      </c>
-      <c r="N48">
+        <v>13</v>
+      </c>
+      <c r="N48" s="3">
         <v>1</v>
       </c>
       <c r="O48" t="s">
@@ -7024,8 +7085,11 @@
       <c r="P48">
         <v>3</v>
       </c>
-      <c r="Q48" t="s">
-        <v>128</v>
+      <c r="Q48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R48" t="s">
+        <v>144</v>
       </c>
       <c r="S48" t="s">
         <v>124</v>
@@ -7036,30 +7100,33 @@
       <c r="U48" t="s">
         <v>38</v>
       </c>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
       <c r="Y48" t="s">
         <v>39</v>
       </c>
       <c r="AA48" t="s">
         <v>40</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AB48" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AC48" t="s">
-        <v>350</v>
+      <c r="AC48" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>127</v>
+      <c r="A49" s="4" t="s">
+        <v>679</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
       </c>
-      <c r="C49">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E49">
@@ -7069,9 +7136,9 @@
         <v>11</v>
       </c>
       <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I49" t="s">
@@ -7083,13 +7150,13 @@
       <c r="K49" t="s">
         <v>33</v>
       </c>
-      <c r="L49" t="s">
-        <v>839</v>
+      <c r="L49" s="5" t="s">
+        <v>837</v>
       </c>
       <c r="M49">
-        <v>7</v>
-      </c>
-      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="N49" s="5">
         <v>1</v>
       </c>
       <c r="O49" t="s">
@@ -7098,8 +7165,8 @@
       <c r="P49">
         <v>3</v>
       </c>
-      <c r="Q49" t="s">
-        <v>128</v>
+      <c r="Q49" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="S49" t="s">
         <v>124</v>
@@ -7110,17 +7177,20 @@
       <c r="U49" t="s">
         <v>38</v>
       </c>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
       <c r="Y49" t="s">
         <v>39</v>
       </c>
       <c r="AA49" t="s">
         <v>40</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AB49" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AC49" t="s">
-        <v>350</v>
+      <c r="AC49" s="5" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -7364,28 +7434,28 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>129</v>
+      <c r="A53" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E53">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <v>11</v>
       </c>
       <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I53" t="s">
@@ -7397,13 +7467,13 @@
       <c r="K53" t="s">
         <v>33</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="5" t="s">
         <v>837</v>
       </c>
       <c r="M53">
-        <v>7</v>
-      </c>
-      <c r="N53">
+        <v>11</v>
+      </c>
+      <c r="N53" s="5">
         <v>1</v>
       </c>
       <c r="O53" t="s">
@@ -7412,8 +7482,8 @@
       <c r="P53">
         <v>3</v>
       </c>
-      <c r="Q53" t="s">
-        <v>130</v>
+      <c r="Q53" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="S53" t="s">
         <v>124</v>
@@ -7424,14 +7494,14 @@
       <c r="U53" t="s">
         <v>38</v>
       </c>
-      <c r="V53" t="s">
-        <v>842</v>
-      </c>
-      <c r="W53" t="s">
-        <v>843</v>
-      </c>
-      <c r="X53" t="s">
-        <v>844</v>
+      <c r="V53" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>841</v>
       </c>
       <c r="Y53" t="s">
         <v>39</v>
@@ -7439,36 +7509,36 @@
       <c r="AA53" t="s">
         <v>40</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AB53" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AC53" t="s">
-        <v>350</v>
+      <c r="AC53" s="5" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>129</v>
+      <c r="A54" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" s="5">
+        <v>4</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F54">
         <v>11</v>
       </c>
       <c r="G54">
-        <v>3</v>
-      </c>
-      <c r="H54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I54" t="s">
@@ -7480,13 +7550,13 @@
       <c r="K54" t="s">
         <v>33</v>
       </c>
-      <c r="L54" t="s">
-        <v>838</v>
+      <c r="L54" s="5" t="s">
+        <v>837</v>
       </c>
       <c r="M54">
         <v>10</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="5">
         <v>1</v>
       </c>
       <c r="O54" t="s">
@@ -7495,8 +7565,8 @@
       <c r="P54">
         <v>3</v>
       </c>
-      <c r="Q54" t="s">
-        <v>130</v>
+      <c r="Q54" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="S54" t="s">
         <v>124</v>
@@ -7507,39 +7577,33 @@
       <c r="U54" t="s">
         <v>38</v>
       </c>
-      <c r="V54" t="s">
-        <v>842</v>
-      </c>
-      <c r="W54" t="s">
-        <v>843</v>
-      </c>
-      <c r="X54" t="s">
-        <v>844</v>
-      </c>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
       <c r="Y54" t="s">
         <v>39</v>
       </c>
       <c r="AA54" t="s">
         <v>40</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AB54" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AC54" t="s">
-        <v>350</v>
+      <c r="AC54" s="5" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>129</v>
+      <c r="A55" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="5">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E55">
@@ -7549,9 +7613,9 @@
         <v>11</v>
       </c>
       <c r="G55">
-        <v>3</v>
-      </c>
-      <c r="H55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I55" t="s">
@@ -7563,13 +7627,13 @@
       <c r="K55" t="s">
         <v>33</v>
       </c>
-      <c r="L55" t="s">
-        <v>839</v>
+      <c r="L55" s="5" t="s">
+        <v>837</v>
       </c>
       <c r="M55">
-        <v>7</v>
-      </c>
-      <c r="N55">
+        <v>10</v>
+      </c>
+      <c r="N55" s="5">
         <v>1</v>
       </c>
       <c r="O55" t="s">
@@ -7578,7 +7642,7 @@
       <c r="P55">
         <v>3</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="5" t="s">
         <v>130</v>
       </c>
       <c r="S55" t="s">
@@ -7590,13 +7654,13 @@
       <c r="U55" t="s">
         <v>38</v>
       </c>
-      <c r="V55" t="s">
+      <c r="V55" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="X55" t="s">
+      <c r="X55" s="5" t="s">
         <v>844</v>
       </c>
       <c r="Y55" t="s">
@@ -7605,11 +7669,11 @@
       <c r="AA55" t="s">
         <v>40</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AB55" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AC55" t="s">
-        <v>350</v>
+      <c r="AC55" s="5" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -7853,16 +7917,16 @@
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>134</v>
+      <c r="A59" s="4" t="s">
+        <v>715</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>4</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E59">
@@ -7872,9 +7936,9 @@
         <v>11</v>
       </c>
       <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I59" t="s">
@@ -7886,13 +7950,13 @@
       <c r="K59" t="s">
         <v>33</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="5" t="s">
         <v>837</v>
       </c>
       <c r="M59">
-        <v>7</v>
-      </c>
-      <c r="N59">
+        <v>13</v>
+      </c>
+      <c r="N59" s="5">
         <v>1</v>
       </c>
       <c r="O59" t="s">
@@ -7901,7 +7965,7 @@
       <c r="P59">
         <v>3</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="5" t="s">
         <v>135</v>
       </c>
       <c r="S59" t="s">
@@ -7913,42 +7977,45 @@
       <c r="U59" t="s">
         <v>38</v>
       </c>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
       <c r="Y59" t="s">
         <v>39</v>
       </c>
       <c r="AA59" t="s">
         <v>40</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AB59" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AC59" t="s">
-        <v>350</v>
+      <c r="AC59" s="5" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>134</v>
+      <c r="A60" s="4" t="s">
+        <v>716</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
       </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="5">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F60">
         <v>11</v>
       </c>
       <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="H60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I60" t="s">
@@ -7960,13 +8027,13 @@
       <c r="K60" t="s">
         <v>33</v>
       </c>
-      <c r="L60" t="s">
-        <v>838</v>
+      <c r="L60" s="5" t="s">
+        <v>837</v>
       </c>
       <c r="M60">
-        <v>10</v>
-      </c>
-      <c r="N60">
+        <v>11</v>
+      </c>
+      <c r="N60" s="5">
         <v>1</v>
       </c>
       <c r="O60" t="s">
@@ -7975,8 +8042,8 @@
       <c r="P60">
         <v>3</v>
       </c>
-      <c r="Q60" t="s">
-        <v>135</v>
+      <c r="Q60" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="S60" t="s">
         <v>124</v>
@@ -7987,42 +8054,51 @@
       <c r="U60" t="s">
         <v>38</v>
       </c>
+      <c r="V60" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="Y60" t="s">
         <v>39</v>
       </c>
       <c r="AA60" t="s">
         <v>40</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AB60" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AC60" t="s">
-        <v>350</v>
+      <c r="AC60" s="5" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>134</v>
+      <c r="A61" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="5">
+        <v>4</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F61">
         <v>11</v>
       </c>
       <c r="G61">
-        <v>3</v>
-      </c>
-      <c r="H61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I61" t="s">
@@ -8034,13 +8110,13 @@
       <c r="K61" t="s">
         <v>33</v>
       </c>
-      <c r="L61" t="s">
-        <v>839</v>
+      <c r="L61" s="5" t="s">
+        <v>837</v>
       </c>
       <c r="M61">
-        <v>7</v>
-      </c>
-      <c r="N61">
+        <v>14</v>
+      </c>
+      <c r="N61" s="5">
         <v>1</v>
       </c>
       <c r="O61" t="s">
@@ -8049,8 +8125,8 @@
       <c r="P61">
         <v>3</v>
       </c>
-      <c r="Q61" t="s">
-        <v>135</v>
+      <c r="Q61" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="S61" t="s">
         <v>124</v>
@@ -8061,26 +8137,20 @@
       <c r="U61" t="s">
         <v>38</v>
       </c>
-      <c r="V61" t="s">
-        <v>280</v>
-      </c>
-      <c r="W61" t="s">
-        <v>845</v>
-      </c>
-      <c r="X61" t="s">
-        <v>846</v>
-      </c>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
       <c r="Y61" t="s">
         <v>39</v>
       </c>
       <c r="AA61" t="s">
         <v>40</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AB61" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AC61" t="s">
-        <v>350</v>
+      <c r="AC61" s="5" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -8333,28 +8403,28 @@
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>136</v>
+      <c r="A65" s="4" t="s">
+        <v>718</v>
       </c>
       <c r="B65" t="s">
         <v>29</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>4</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E65">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F65">
         <v>11</v>
       </c>
       <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="H65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I65" t="s">
@@ -8366,13 +8436,13 @@
       <c r="K65" t="s">
         <v>33</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="5" t="s">
         <v>837</v>
       </c>
       <c r="M65">
-        <v>7</v>
-      </c>
-      <c r="N65">
+        <v>10</v>
+      </c>
+      <c r="N65" s="5">
         <v>1</v>
       </c>
       <c r="O65" t="s">
@@ -8381,8 +8451,11 @@
       <c r="P65">
         <v>3</v>
       </c>
-      <c r="Q65" t="s">
-        <v>137</v>
+      <c r="Q65" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="R65" t="s">
+        <v>144</v>
       </c>
       <c r="S65" t="s">
         <v>124</v>
@@ -8393,43 +8466,37 @@
       <c r="U65" t="s">
         <v>38</v>
       </c>
-      <c r="V65" t="s">
-        <v>258</v>
-      </c>
-      <c r="W65" t="s">
-        <v>286</v>
-      </c>
-      <c r="X65" t="s">
-        <v>477</v>
-      </c>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
       <c r="Y65" t="s">
         <v>39</v>
       </c>
       <c r="AA65" t="s">
         <v>40</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AB65" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AC65" t="s">
-        <v>350</v>
+      <c r="AC65" s="5" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>136</v>
+      <c r="A66" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" s="7">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F66">
         <v>11</v>
@@ -8437,7 +8504,7 @@
       <c r="G66">
         <v>3</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I66" t="s">
@@ -8449,13 +8516,13 @@
       <c r="K66" t="s">
         <v>33</v>
       </c>
-      <c r="L66" t="s">
-        <v>838</v>
+      <c r="L66" s="7" t="s">
+        <v>837</v>
       </c>
       <c r="M66">
-        <v>10</v>
-      </c>
-      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="N66" s="7">
         <v>1</v>
       </c>
       <c r="O66" t="s">
@@ -8464,8 +8531,8 @@
       <c r="P66">
         <v>3</v>
       </c>
-      <c r="Q66" t="s">
-        <v>137</v>
+      <c r="Q66" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="S66" t="s">
         <v>124</v>
@@ -8476,43 +8543,37 @@
       <c r="U66" t="s">
         <v>38</v>
       </c>
-      <c r="V66" t="s">
-        <v>258</v>
-      </c>
-      <c r="W66" t="s">
-        <v>286</v>
-      </c>
-      <c r="X66" t="s">
-        <v>477</v>
-      </c>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
       <c r="Y66" t="s">
         <v>39</v>
       </c>
       <c r="AA66" t="s">
         <v>40</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AB66" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AC66" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>136</v>
+      <c r="A67" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
       </c>
-      <c r="C67">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" s="7">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F67">
         <v>11</v>
@@ -8520,7 +8581,7 @@
       <c r="G67">
         <v>3</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I67" t="s">
@@ -8532,13 +8593,13 @@
       <c r="K67" t="s">
         <v>33</v>
       </c>
-      <c r="L67" t="s">
-        <v>839</v>
+      <c r="L67" s="7" t="s">
+        <v>837</v>
       </c>
       <c r="M67">
         <v>7</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="7">
         <v>1</v>
       </c>
       <c r="O67" t="s">
@@ -8547,8 +8608,8 @@
       <c r="P67">
         <v>3</v>
       </c>
-      <c r="Q67" t="s">
-        <v>137</v>
+      <c r="Q67" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="S67" t="s">
         <v>124</v>
@@ -8559,14 +8620,14 @@
       <c r="U67" t="s">
         <v>38</v>
       </c>
-      <c r="V67" t="s">
-        <v>258</v>
-      </c>
-      <c r="W67" t="s">
-        <v>286</v>
-      </c>
-      <c r="X67" t="s">
-        <v>477</v>
+      <c r="V67" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="W67" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="X67" s="7" t="s">
+        <v>841</v>
       </c>
       <c r="Y67" t="s">
         <v>39</v>
@@ -8574,10 +8635,10 @@
       <c r="AA67" t="s">
         <v>40</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AB67" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AC67" s="7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8831,16 +8892,16 @@
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>140</v>
+      <c r="A71" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="7">
         <v>4</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E71">
@@ -8852,7 +8913,7 @@
       <c r="G71">
         <v>3</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I71" t="s">
@@ -8864,13 +8925,13 @@
       <c r="K71" t="s">
         <v>33</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="7" t="s">
         <v>837</v>
       </c>
       <c r="M71">
-        <v>7</v>
-      </c>
-      <c r="N71">
+        <v>8</v>
+      </c>
+      <c r="N71" s="7">
         <v>1</v>
       </c>
       <c r="O71" t="s">
@@ -8879,8 +8940,8 @@
       <c r="P71">
         <v>3</v>
       </c>
-      <c r="Q71" t="s">
-        <v>141</v>
+      <c r="Q71" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="S71" t="s">
         <v>124</v>
@@ -8891,34 +8952,37 @@
       <c r="U71" t="s">
         <v>38</v>
       </c>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
       <c r="Y71" t="s">
         <v>39</v>
       </c>
       <c r="AA71" t="s">
         <v>40</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AB71" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AC71" t="s">
+      <c r="AC71" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>140</v>
+      <c r="A72" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" s="7">
+        <v>4</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F72">
         <v>11</v>
@@ -8926,7 +8990,7 @@
       <c r="G72">
         <v>3</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I72" t="s">
@@ -8938,13 +9002,13 @@
       <c r="K72" t="s">
         <v>33</v>
       </c>
-      <c r="L72" t="s">
-        <v>838</v>
+      <c r="L72" s="7" t="s">
+        <v>837</v>
       </c>
       <c r="M72">
-        <v>10</v>
-      </c>
-      <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="N72" s="7">
         <v>1</v>
       </c>
       <c r="O72" t="s">
@@ -8953,8 +9017,8 @@
       <c r="P72">
         <v>3</v>
       </c>
-      <c r="Q72" t="s">
-        <v>141</v>
+      <c r="Q72" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="S72" t="s">
         <v>124</v>
@@ -8965,34 +9029,43 @@
       <c r="U72" t="s">
         <v>38</v>
       </c>
+      <c r="V72" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W72" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="X72" s="7" t="s">
+        <v>844</v>
+      </c>
       <c r="Y72" t="s">
         <v>39</v>
       </c>
       <c r="AA72" t="s">
         <v>40</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AB72" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="AC72" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>140</v>
+      <c r="A73" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B73" t="s">
         <v>29</v>
       </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73" s="7">
+        <v>4</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F73">
         <v>11</v>
@@ -9000,7 +9073,7 @@
       <c r="G73">
         <v>3</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I73" t="s">
@@ -9012,13 +9085,13 @@
       <c r="K73" t="s">
         <v>33</v>
       </c>
-      <c r="L73" t="s">
-        <v>839</v>
+      <c r="L73" s="7" t="s">
+        <v>837</v>
       </c>
       <c r="M73">
         <v>7</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="7">
         <v>1</v>
       </c>
       <c r="O73" t="s">
@@ -9027,8 +9100,8 @@
       <c r="P73">
         <v>3</v>
       </c>
-      <c r="Q73" t="s">
-        <v>141</v>
+      <c r="Q73" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="S73" t="s">
         <v>124</v>
@@ -9039,16 +9112,19 @@
       <c r="U73" t="s">
         <v>38</v>
       </c>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
       <c r="Y73" t="s">
         <v>39</v>
       </c>
       <c r="AA73" t="s">
         <v>40</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AB73" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AC73" s="7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9302,16 +9378,16 @@
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>142</v>
+      <c r="A77" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B77" t="s">
         <v>29</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="7">
         <v>4</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E77">
@@ -9323,7 +9399,7 @@
       <c r="G77">
         <v>3</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I77" t="s">
@@ -9335,13 +9411,13 @@
       <c r="K77" t="s">
         <v>33</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="7" t="s">
         <v>837</v>
       </c>
       <c r="M77">
         <v>7</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="7">
         <v>1</v>
       </c>
       <c r="O77" t="s">
@@ -9350,11 +9426,8 @@
       <c r="P77">
         <v>3</v>
       </c>
-      <c r="Q77" t="s">
-        <v>143</v>
-      </c>
-      <c r="R77" t="s">
-        <v>144</v>
+      <c r="Q77" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="S77" t="s">
         <v>124</v>
@@ -9365,34 +9438,43 @@
       <c r="U77" t="s">
         <v>38</v>
       </c>
+      <c r="V77" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="W77" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="X77" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="Y77" t="s">
         <v>39</v>
       </c>
       <c r="AA77" t="s">
         <v>40</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AB77" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AC77" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>142</v>
+      <c r="A78" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
       </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78" s="7">
+        <v>4</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F78">
         <v>11</v>
@@ -9400,7 +9482,7 @@
       <c r="G78">
         <v>3</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I78" t="s">
@@ -9412,13 +9494,13 @@
       <c r="K78" t="s">
         <v>33</v>
       </c>
-      <c r="L78" t="s">
-        <v>838</v>
+      <c r="L78" s="7" t="s">
+        <v>837</v>
       </c>
       <c r="M78">
-        <v>10</v>
-      </c>
-      <c r="N78">
+        <v>7</v>
+      </c>
+      <c r="N78" s="7">
         <v>1</v>
       </c>
       <c r="O78" t="s">
@@ -9427,11 +9509,8 @@
       <c r="P78">
         <v>3</v>
       </c>
-      <c r="Q78" t="s">
-        <v>143</v>
-      </c>
-      <c r="R78" t="s">
-        <v>144</v>
+      <c r="Q78" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="S78" t="s">
         <v>124</v>
@@ -9442,43 +9521,37 @@
       <c r="U78" t="s">
         <v>38</v>
       </c>
-      <c r="V78" t="s">
-        <v>158</v>
-      </c>
-      <c r="W78" t="s">
-        <v>159</v>
-      </c>
-      <c r="X78" t="s">
-        <v>160</v>
-      </c>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
       <c r="Y78" t="s">
         <v>39</v>
       </c>
       <c r="AA78" t="s">
         <v>40</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AB78" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AC78" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B79" t="s">
         <v>29</v>
       </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" s="7">
+        <v>4</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F79">
         <v>11</v>
@@ -9486,7 +9559,7 @@
       <c r="G79">
         <v>3</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I79" t="s">
@@ -9498,13 +9571,13 @@
       <c r="K79" t="s">
         <v>33</v>
       </c>
-      <c r="L79" t="s">
-        <v>839</v>
+      <c r="L79" s="7" t="s">
+        <v>837</v>
       </c>
       <c r="M79">
         <v>7</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="7">
         <v>1</v>
       </c>
       <c r="O79" t="s">
@@ -9513,7 +9586,7 @@
       <c r="P79">
         <v>3</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="Q79" s="7" t="s">
         <v>143</v>
       </c>
       <c r="R79" t="s">
@@ -9528,16 +9601,19 @@
       <c r="U79" t="s">
         <v>38</v>
       </c>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
       <c r="Y79" t="s">
         <v>39</v>
       </c>
       <c r="AA79" t="s">
         <v>40</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AB79" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AC79" s="7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9873,7 +9949,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>173</v>
       </c>
@@ -10288,7 +10364,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>178</v>
       </c>
@@ -10694,7 +10770,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>183</v>
       </c>
@@ -11091,7 +11167,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>187</v>
       </c>
@@ -11488,7 +11564,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>192</v>
       </c>
@@ -11728,7 +11804,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>197</v>
       </c>
@@ -12051,7 +12127,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>201</v>
       </c>
@@ -22703,17 +22779,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>356</v>
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>774</v>
       </c>
       <c r="B241" t="s">
         <v>29</v>
       </c>
-      <c r="C241">
-        <v>7</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="C241" s="9">
+        <v>4</v>
+      </c>
+      <c r="D241" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E241">
@@ -22723,10 +22799,10 @@
         <v>11</v>
       </c>
       <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="H241" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="H241" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="I241" t="s">
         <v>32</v>
@@ -22737,13 +22813,13 @@
       <c r="K241" t="s">
         <v>33</v>
       </c>
-      <c r="L241" t="s">
+      <c r="L241" s="9" t="s">
         <v>837</v>
       </c>
       <c r="M241">
-        <v>13</v>
-      </c>
-      <c r="N241">
+        <v>11</v>
+      </c>
+      <c r="N241" s="9">
         <v>1</v>
       </c>
       <c r="O241" t="s">
@@ -22752,11 +22828,11 @@
       <c r="P241">
         <v>3</v>
       </c>
-      <c r="Q241" t="s">
+      <c r="Q241" s="9" t="s">
         <v>123</v>
       </c>
       <c r="S241" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T241" t="s">
         <v>37</v>
@@ -22764,17 +22840,20 @@
       <c r="U241" t="s">
         <v>38</v>
       </c>
+      <c r="V241" s="9"/>
+      <c r="W241" s="9"/>
+      <c r="X241" s="9"/>
       <c r="Y241" t="s">
         <v>39</v>
       </c>
       <c r="AA241" t="s">
         <v>40</v>
       </c>
-      <c r="AB241" t="s">
+      <c r="AB241" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AC241" t="s">
-        <v>641</v>
+      <c r="AC241" s="9" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -23073,30 +23152,30 @@
         <v>641</v>
       </c>
     </row>
-    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>356</v>
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
+        <v>778</v>
       </c>
       <c r="B246" t="s">
         <v>29</v>
       </c>
-      <c r="C246">
-        <v>12</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="C246" s="9">
+        <v>4</v>
+      </c>
+      <c r="D246" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E246">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F246">
         <v>11</v>
       </c>
       <c r="G246">
-        <v>1</v>
-      </c>
-      <c r="H246" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="H246" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="I246" t="s">
         <v>32</v>
@@ -23107,13 +23186,13 @@
       <c r="K246" t="s">
         <v>33</v>
       </c>
-      <c r="L246" t="s">
-        <v>838</v>
+      <c r="L246" s="9" t="s">
+        <v>837</v>
       </c>
       <c r="M246">
-        <v>12</v>
-      </c>
-      <c r="N246">
+        <v>13</v>
+      </c>
+      <c r="N246" s="9">
         <v>1</v>
       </c>
       <c r="O246" t="s">
@@ -23122,11 +23201,11 @@
       <c r="P246">
         <v>3</v>
       </c>
-      <c r="Q246" t="s">
-        <v>123</v>
+      <c r="Q246" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="S246" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T246" t="s">
         <v>37</v>
@@ -23134,43 +23213,52 @@
       <c r="U246" t="s">
         <v>38</v>
       </c>
+      <c r="V246" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="W246" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="X246" s="9" t="s">
+        <v>841</v>
+      </c>
       <c r="Y246" t="s">
         <v>39</v>
       </c>
       <c r="AA246" t="s">
         <v>40</v>
       </c>
-      <c r="AB246" t="s">
+      <c r="AB246" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AC246" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>356</v>
+      <c r="AC246" s="9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="B247" t="s">
         <v>29</v>
       </c>
-      <c r="C247">
-        <v>13</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="C247" s="9">
+        <v>4</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E247">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F247">
         <v>11</v>
       </c>
       <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="H247" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="H247" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="I247" t="s">
         <v>32</v>
@@ -23181,13 +23269,13 @@
       <c r="K247" t="s">
         <v>33</v>
       </c>
-      <c r="L247" t="s">
-        <v>839</v>
+      <c r="L247" s="9" t="s">
+        <v>837</v>
       </c>
       <c r="M247">
         <v>11</v>
       </c>
-      <c r="N247">
+      <c r="N247" s="9">
         <v>1</v>
       </c>
       <c r="O247" t="s">
@@ -23196,11 +23284,11 @@
       <c r="P247">
         <v>3</v>
       </c>
-      <c r="Q247" t="s">
-        <v>123</v>
+      <c r="Q247" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="S247" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T247" t="s">
         <v>37</v>
@@ -23208,17 +23296,20 @@
       <c r="U247" t="s">
         <v>38</v>
       </c>
+      <c r="V247" s="9"/>
+      <c r="W247" s="9"/>
+      <c r="X247" s="9"/>
       <c r="Y247" t="s">
         <v>39</v>
       </c>
       <c r="AA247" t="s">
         <v>40</v>
       </c>
-      <c r="AB247" t="s">
+      <c r="AB247" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AC247" t="s">
-        <v>641</v>
+      <c r="AC247" s="9" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -23692,17 +23783,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>436</v>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
+        <v>780</v>
       </c>
       <c r="B254" t="s">
         <v>29</v>
       </c>
-      <c r="C254">
-        <v>7</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="C254" s="9">
+        <v>4</v>
+      </c>
+      <c r="D254" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E254">
@@ -23712,10 +23803,10 @@
         <v>11</v>
       </c>
       <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="H254" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="H254" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="I254" t="s">
         <v>32</v>
@@ -23726,13 +23817,13 @@
       <c r="K254" t="s">
         <v>33</v>
       </c>
-      <c r="L254" t="s">
+      <c r="L254" s="9" t="s">
         <v>837</v>
       </c>
       <c r="M254">
-        <v>13</v>
-      </c>
-      <c r="N254">
+        <v>11</v>
+      </c>
+      <c r="N254" s="9">
         <v>1</v>
       </c>
       <c r="O254" t="s">
@@ -23741,11 +23832,11 @@
       <c r="P254">
         <v>3</v>
       </c>
-      <c r="Q254" t="s">
-        <v>126</v>
+      <c r="Q254" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="S254" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T254" t="s">
         <v>37</v>
@@ -23753,14 +23844,14 @@
       <c r="U254" t="s">
         <v>38</v>
       </c>
-      <c r="V254" t="s">
-        <v>840</v>
-      </c>
-      <c r="W254" t="s">
-        <v>413</v>
-      </c>
-      <c r="X254" t="s">
-        <v>841</v>
+      <c r="V254" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="W254" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="X254" s="9" t="s">
+        <v>844</v>
       </c>
       <c r="Y254" t="s">
         <v>39</v>
@@ -23768,11 +23859,11 @@
       <c r="AA254" t="s">
         <v>40</v>
       </c>
-      <c r="AB254" t="s">
+      <c r="AB254" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AC254" t="s">
-        <v>641</v>
+      <c r="AC254" s="9" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -24071,30 +24162,30 @@
         <v>641</v>
       </c>
     </row>
-    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>436</v>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A259" s="8" t="s">
+        <v>781</v>
       </c>
       <c r="B259" t="s">
         <v>29</v>
       </c>
-      <c r="C259">
-        <v>12</v>
-      </c>
-      <c r="D259" t="s">
+      <c r="C259" s="9">
+        <v>4</v>
+      </c>
+      <c r="D259" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E259">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F259">
         <v>11</v>
       </c>
       <c r="G259">
-        <v>1</v>
-      </c>
-      <c r="H259" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="H259" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="I259" t="s">
         <v>32</v>
@@ -24105,13 +24196,13 @@
       <c r="K259" t="s">
         <v>33</v>
       </c>
-      <c r="L259" t="s">
-        <v>838</v>
+      <c r="L259" s="9" t="s">
+        <v>837</v>
       </c>
       <c r="M259">
         <v>12</v>
       </c>
-      <c r="N259">
+      <c r="N259" s="9">
         <v>1</v>
       </c>
       <c r="O259" t="s">
@@ -24120,11 +24211,11 @@
       <c r="P259">
         <v>3</v>
       </c>
-      <c r="Q259" t="s">
-        <v>126</v>
+      <c r="Q259" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="S259" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T259" t="s">
         <v>37</v>
@@ -24132,43 +24223,46 @@
       <c r="U259" t="s">
         <v>38</v>
       </c>
+      <c r="V259" s="9"/>
+      <c r="W259" s="9"/>
+      <c r="X259" s="9"/>
       <c r="Y259" t="s">
         <v>39</v>
       </c>
       <c r="AA259" t="s">
         <v>40</v>
       </c>
-      <c r="AB259" t="s">
+      <c r="AB259" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AC259" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>436</v>
+      <c r="AC259" s="9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
+        <v>782</v>
       </c>
       <c r="B260" t="s">
         <v>29</v>
       </c>
-      <c r="C260">
-        <v>13</v>
-      </c>
-      <c r="D260" t="s">
+      <c r="C260" s="9">
+        <v>4</v>
+      </c>
+      <c r="D260" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E260">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F260">
         <v>11</v>
       </c>
       <c r="G260">
-        <v>1</v>
-      </c>
-      <c r="H260" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="H260" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="I260" t="s">
         <v>32</v>
@@ -24179,13 +24273,13 @@
       <c r="K260" t="s">
         <v>33</v>
       </c>
-      <c r="L260" t="s">
-        <v>839</v>
+      <c r="L260" s="9" t="s">
+        <v>837</v>
       </c>
       <c r="M260">
         <v>11</v>
       </c>
-      <c r="N260">
+      <c r="N260" s="9">
         <v>1</v>
       </c>
       <c r="O260" t="s">
@@ -24194,11 +24288,11 @@
       <c r="P260">
         <v>3</v>
       </c>
-      <c r="Q260" t="s">
-        <v>126</v>
+      <c r="Q260" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="S260" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T260" t="s">
         <v>37</v>
@@ -24206,17 +24300,26 @@
       <c r="U260" t="s">
         <v>38</v>
       </c>
+      <c r="V260" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="W260" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="X260" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="Y260" t="s">
         <v>39</v>
       </c>
       <c r="AA260" t="s">
         <v>40</v>
       </c>
-      <c r="AB260" t="s">
+      <c r="AB260" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AC260" t="s">
-        <v>641</v>
+      <c r="AC260" s="9" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -24690,30 +24793,30 @@
         <v>641</v>
       </c>
     </row>
-    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>437</v>
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A267" s="8" t="s">
+        <v>783</v>
       </c>
       <c r="B267" t="s">
         <v>29</v>
       </c>
-      <c r="C267">
-        <v>7</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="C267" s="9">
+        <v>4</v>
+      </c>
+      <c r="D267" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E267">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F267">
         <v>11</v>
       </c>
       <c r="G267">
-        <v>1</v>
-      </c>
-      <c r="H267" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="H267" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="I267" t="s">
         <v>32</v>
@@ -24724,13 +24827,13 @@
       <c r="K267" t="s">
         <v>33</v>
       </c>
-      <c r="L267" t="s">
+      <c r="L267" s="9" t="s">
         <v>837</v>
       </c>
       <c r="M267">
-        <v>13</v>
-      </c>
-      <c r="N267">
+        <v>12</v>
+      </c>
+      <c r="N267" s="9">
         <v>1</v>
       </c>
       <c r="O267" t="s">
@@ -24739,11 +24842,11 @@
       <c r="P267">
         <v>3</v>
       </c>
-      <c r="Q267" t="s">
-        <v>128</v>
+      <c r="Q267" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="S267" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T267" t="s">
         <v>37</v>
@@ -24751,17 +24854,20 @@
       <c r="U267" t="s">
         <v>38</v>
       </c>
+      <c r="V267" s="9"/>
+      <c r="W267" s="9"/>
+      <c r="X267" s="9"/>
       <c r="Y267" t="s">
         <v>39</v>
       </c>
       <c r="AA267" t="s">
         <v>40</v>
       </c>
-      <c r="AB267" t="s">
+      <c r="AB267" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AC267" t="s">
-        <v>641</v>
+      <c r="AC267" s="9" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -25060,30 +25166,30 @@
         <v>641</v>
       </c>
     </row>
-    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>437</v>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
+        <v>784</v>
       </c>
       <c r="B272" t="s">
         <v>29</v>
       </c>
-      <c r="C272">
-        <v>12</v>
-      </c>
-      <c r="D272" t="s">
+      <c r="C272" s="9">
+        <v>4</v>
+      </c>
+      <c r="D272" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E272">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F272">
         <v>11</v>
       </c>
       <c r="G272">
-        <v>1</v>
-      </c>
-      <c r="H272" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="H272" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="I272" t="s">
         <v>32</v>
@@ -25094,26 +25200,26 @@
       <c r="K272" t="s">
         <v>33</v>
       </c>
-      <c r="L272" t="s">
-        <v>838</v>
+      <c r="L272" s="9" t="s">
+        <v>837</v>
       </c>
       <c r="M272">
-        <v>12</v>
-      </c>
-      <c r="N272">
-        <v>1</v>
-      </c>
-      <c r="O272" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="N272" s="9">
+        <v>1</v>
       </c>
       <c r="P272">
         <v>3</v>
       </c>
-      <c r="Q272" t="s">
-        <v>128</v>
+      <c r="Q272" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="R272" t="s">
+        <v>786</v>
       </c>
       <c r="S272" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T272" t="s">
         <v>37</v>
@@ -25121,28 +25227,31 @@
       <c r="U272" t="s">
         <v>38</v>
       </c>
+      <c r="V272" s="9"/>
+      <c r="W272" s="9"/>
+      <c r="X272" s="9"/>
       <c r="Y272" t="s">
         <v>39</v>
       </c>
       <c r="AA272" t="s">
         <v>40</v>
       </c>
-      <c r="AB272" t="s">
+      <c r="AB272" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AC272" t="s">
-        <v>641</v>
+      <c r="AC272" s="9" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>437</v>
+        <v>119</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
       </c>
       <c r="C273">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D273" t="s">
         <v>168</v>
@@ -25154,7 +25263,7 @@
         <v>11</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H273" t="s">
         <v>121</v>
@@ -25169,10 +25278,10 @@
         <v>33</v>
       </c>
       <c r="L273" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M273">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N273">
         <v>1</v>
@@ -25184,7 +25293,7 @@
         <v>3</v>
       </c>
       <c r="Q273" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="S273" t="s">
         <v>124</v>
@@ -25205,7 +25314,7 @@
         <v>169</v>
       </c>
       <c r="AC273" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
     </row>
     <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -25699,25 +25808,25 @@
     </row>
     <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>440</v>
+        <v>125</v>
       </c>
       <c r="B280" t="s">
         <v>29</v>
       </c>
       <c r="C280">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D280" t="s">
         <v>168</v>
       </c>
       <c r="E280">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F280">
         <v>11</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H280" t="s">
         <v>121</v>
@@ -25732,10 +25841,10 @@
         <v>33</v>
       </c>
       <c r="L280" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M280">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N280">
         <v>1</v>
@@ -25747,7 +25856,7 @@
         <v>3</v>
       </c>
       <c r="Q280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S280" t="s">
         <v>124</v>
@@ -25758,15 +25867,6 @@
       <c r="U280" t="s">
         <v>38</v>
       </c>
-      <c r="V280" t="s">
-        <v>842</v>
-      </c>
-      <c r="W280" t="s">
-        <v>843</v>
-      </c>
-      <c r="X280" t="s">
-        <v>844</v>
-      </c>
       <c r="Y280" t="s">
         <v>39</v>
       </c>
@@ -25777,7 +25877,7 @@
         <v>169</v>
       </c>
       <c r="AC280" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
     </row>
     <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -26078,13 +26178,13 @@
     </row>
     <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="B285" t="s">
         <v>29</v>
       </c>
       <c r="C285">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D285" t="s">
         <v>168</v>
@@ -26096,7 +26196,7 @@
         <v>11</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H285" t="s">
         <v>121</v>
@@ -26114,7 +26214,7 @@
         <v>838</v>
       </c>
       <c r="M285">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N285">
         <v>1</v>
@@ -26126,7 +26226,7 @@
         <v>3</v>
       </c>
       <c r="Q285" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S285" t="s">
         <v>124</v>
@@ -26137,15 +26237,6 @@
       <c r="U285" t="s">
         <v>38</v>
       </c>
-      <c r="V285" t="s">
-        <v>842</v>
-      </c>
-      <c r="W285" t="s">
-        <v>843</v>
-      </c>
-      <c r="X285" t="s">
-        <v>844</v>
-      </c>
       <c r="Y285" t="s">
         <v>39</v>
       </c>
@@ -26156,18 +26247,18 @@
         <v>169</v>
       </c>
       <c r="AC285" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
     </row>
     <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>440</v>
+        <v>129</v>
       </c>
       <c r="B286" t="s">
         <v>29</v>
       </c>
       <c r="C286">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D286" t="s">
         <v>168</v>
@@ -26179,7 +26270,7 @@
         <v>11</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H286" t="s">
         <v>121</v>
@@ -26194,10 +26285,10 @@
         <v>33</v>
       </c>
       <c r="L286" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M286">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N286">
         <v>1</v>
@@ -26220,6 +26311,15 @@
       <c r="U286" t="s">
         <v>38</v>
       </c>
+      <c r="V286" t="s">
+        <v>842</v>
+      </c>
+      <c r="W286" t="s">
+        <v>843</v>
+      </c>
+      <c r="X286" t="s">
+        <v>844</v>
+      </c>
       <c r="Y286" t="s">
         <v>39</v>
       </c>
@@ -26230,7 +26330,7 @@
         <v>169</v>
       </c>
       <c r="AC286" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -26733,25 +26833,25 @@
     </row>
     <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>441</v>
+        <v>134</v>
       </c>
       <c r="B293" t="s">
         <v>29</v>
       </c>
       <c r="C293">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D293" t="s">
         <v>168</v>
       </c>
       <c r="E293">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F293">
         <v>11</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>121</v>
@@ -26766,10 +26866,10 @@
         <v>33</v>
       </c>
       <c r="L293" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M293">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N293">
         <v>1</v>
@@ -26802,7 +26902,7 @@
         <v>169</v>
       </c>
       <c r="AC293" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
     </row>
     <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -27121,13 +27221,13 @@
     </row>
     <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>441</v>
+        <v>136</v>
       </c>
       <c r="B298" t="s">
         <v>29</v>
       </c>
       <c r="C298">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D298" t="s">
         <v>168</v>
@@ -27139,7 +27239,7 @@
         <v>11</v>
       </c>
       <c r="G298">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>121</v>
@@ -27157,7 +27257,7 @@
         <v>838</v>
       </c>
       <c r="M298">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N298">
         <v>1</v>
@@ -27169,7 +27269,7 @@
         <v>3</v>
       </c>
       <c r="Q298" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S298" t="s">
         <v>124</v>
@@ -27180,6 +27280,15 @@
       <c r="U298" t="s">
         <v>38</v>
       </c>
+      <c r="V298" t="s">
+        <v>258</v>
+      </c>
+      <c r="W298" t="s">
+        <v>286</v>
+      </c>
+      <c r="X298" t="s">
+        <v>477</v>
+      </c>
       <c r="Y298" t="s">
         <v>39</v>
       </c>
@@ -27190,18 +27299,18 @@
         <v>169</v>
       </c>
       <c r="AC298" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
     </row>
     <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>441</v>
+        <v>140</v>
       </c>
       <c r="B299" t="s">
         <v>29</v>
       </c>
       <c r="C299">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D299" t="s">
         <v>168</v>
@@ -27213,7 +27322,7 @@
         <v>11</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H299" t="s">
         <v>121</v>
@@ -27228,10 +27337,10 @@
         <v>33</v>
       </c>
       <c r="L299" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M299">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N299">
         <v>1</v>
@@ -27243,7 +27352,7 @@
         <v>3</v>
       </c>
       <c r="Q299" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="S299" t="s">
         <v>124</v>
@@ -27264,7 +27373,7 @@
         <v>169</v>
       </c>
       <c r="AC299" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
     </row>
     <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -27767,25 +27876,25 @@
     </row>
     <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>442</v>
+        <v>142</v>
       </c>
       <c r="B306" t="s">
         <v>29</v>
       </c>
       <c r="C306">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D306" t="s">
         <v>168</v>
       </c>
       <c r="E306">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F306">
         <v>11</v>
       </c>
       <c r="G306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H306" t="s">
         <v>121</v>
@@ -27800,10 +27909,10 @@
         <v>33</v>
       </c>
       <c r="L306" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M306">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N306">
         <v>1</v>
@@ -27815,7 +27924,10 @@
         <v>3</v>
       </c>
       <c r="Q306" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="R306" t="s">
+        <v>144</v>
       </c>
       <c r="S306" t="s">
         <v>124</v>
@@ -27827,13 +27939,13 @@
         <v>38</v>
       </c>
       <c r="V306" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="W306" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="X306" t="s">
-        <v>477</v>
+        <v>160</v>
       </c>
       <c r="Y306" t="s">
         <v>39</v>
@@ -27845,7 +27957,7 @@
         <v>169</v>
       </c>
       <c r="AC306" t="s">
-        <v>641</v>
+        <v>350</v>
       </c>
     </row>
     <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -28146,7 +28258,7 @@
     </row>
     <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="B311" t="s">
         <v>29</v>
@@ -28194,7 +28306,7 @@
         <v>3</v>
       </c>
       <c r="Q311" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S311" t="s">
         <v>124</v>
@@ -28205,15 +28317,6 @@
       <c r="U311" t="s">
         <v>38</v>
       </c>
-      <c r="V311" t="s">
-        <v>258</v>
-      </c>
-      <c r="W311" t="s">
-        <v>286</v>
-      </c>
-      <c r="X311" t="s">
-        <v>477</v>
-      </c>
       <c r="Y311" t="s">
         <v>39</v>
       </c>
@@ -28229,13 +28332,13 @@
     </row>
     <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B312" t="s">
         <v>29</v>
       </c>
       <c r="C312">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D312" t="s">
         <v>168</v>
@@ -28262,10 +28365,10 @@
         <v>33</v>
       </c>
       <c r="L312" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M312">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N312">
         <v>1</v>
@@ -28277,7 +28380,7 @@
         <v>3</v>
       </c>
       <c r="Q312" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="S312" t="s">
         <v>124</v>
@@ -28801,19 +28904,19 @@
     </row>
     <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B319" t="s">
         <v>29</v>
       </c>
       <c r="C319">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D319" t="s">
         <v>168</v>
       </c>
       <c r="E319">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F319">
         <v>11</v>
@@ -28834,10 +28937,10 @@
         <v>33</v>
       </c>
       <c r="L319" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M319">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N319">
         <v>1</v>
@@ -28849,7 +28952,7 @@
         <v>3</v>
       </c>
       <c r="Q319" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="S319" t="s">
         <v>124</v>
@@ -29171,7 +29274,7 @@
     </row>
     <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B324" t="s">
         <v>29</v>
@@ -29219,7 +29322,7 @@
         <v>3</v>
       </c>
       <c r="Q324" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="S324" t="s">
         <v>124</v>
@@ -29230,6 +29333,15 @@
       <c r="U324" t="s">
         <v>38</v>
       </c>
+      <c r="V324" t="s">
+        <v>842</v>
+      </c>
+      <c r="W324" t="s">
+        <v>843</v>
+      </c>
+      <c r="X324" t="s">
+        <v>844</v>
+      </c>
       <c r="Y324" t="s">
         <v>39</v>
       </c>
@@ -29245,13 +29357,13 @@
     </row>
     <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B325" t="s">
         <v>29</v>
       </c>
       <c r="C325">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D325" t="s">
         <v>168</v>
@@ -29278,10 +29390,10 @@
         <v>33</v>
       </c>
       <c r="L325" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M325">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N325">
         <v>1</v>
@@ -29293,7 +29405,7 @@
         <v>3</v>
       </c>
       <c r="Q325" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="S325" t="s">
         <v>124</v>
@@ -29826,13 +29938,13 @@
     </row>
     <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B332" t="s">
         <v>29</v>
       </c>
       <c r="C332">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D332" t="s">
         <v>168</v>
@@ -29859,10 +29971,10 @@
         <v>33</v>
       </c>
       <c r="L332" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M332">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N332">
         <v>1</v>
@@ -29874,10 +29986,7 @@
         <v>3</v>
       </c>
       <c r="Q332" t="s">
-        <v>143</v>
-      </c>
-      <c r="R332" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S332" t="s">
         <v>124</v>
@@ -29887,6 +29996,15 @@
       </c>
       <c r="U332" t="s">
         <v>38</v>
+      </c>
+      <c r="V332" t="s">
+        <v>258</v>
+      </c>
+      <c r="W332" t="s">
+        <v>286</v>
+      </c>
+      <c r="X332" t="s">
+        <v>477</v>
       </c>
       <c r="Y332" t="s">
         <v>39</v>
@@ -30211,7 +30329,7 @@
     </row>
     <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B337" t="s">
         <v>29</v>
@@ -30259,10 +30377,7 @@
         <v>3</v>
       </c>
       <c r="Q337" t="s">
-        <v>143</v>
-      </c>
-      <c r="R337" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S337" t="s">
         <v>124</v>
@@ -30272,15 +30387,6 @@
       </c>
       <c r="U337" t="s">
         <v>38</v>
-      </c>
-      <c r="V337" t="s">
-        <v>158</v>
-      </c>
-      <c r="W337" t="s">
-        <v>159</v>
-      </c>
-      <c r="X337" t="s">
-        <v>160</v>
       </c>
       <c r="Y337" t="s">
         <v>39</v>
@@ -30303,7 +30409,7 @@
         <v>29</v>
       </c>
       <c r="C338">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D338" t="s">
         <v>168</v>
@@ -30330,10 +30436,10 @@
         <v>33</v>
       </c>
       <c r="L338" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M338">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N338">
         <v>1</v>
@@ -30358,6 +30464,15 @@
       </c>
       <c r="U338" t="s">
         <v>38</v>
+      </c>
+      <c r="V338" t="s">
+        <v>158</v>
+      </c>
+      <c r="W338" t="s">
+        <v>159</v>
+      </c>
+      <c r="X338" t="s">
+        <v>160</v>
       </c>
       <c r="Y338" t="s">
         <v>39</v>
@@ -48355,7 +48470,7 @@
         <v>29</v>
       </c>
       <c r="C559">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D559" t="s">
         <v>168</v>
@@ -48382,7 +48497,7 @@
         <v>33</v>
       </c>
       <c r="L559" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M559">
         <v>12</v>
@@ -48423,7 +48538,7 @@
     </row>
     <row r="560" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="B560" t="s">
         <v>29</v>
@@ -48471,7 +48586,7 @@
         <v>3</v>
       </c>
       <c r="Q560" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S560" t="s">
         <v>124</v>
@@ -48497,13 +48612,13 @@
     </row>
     <row r="561" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="B561" t="s">
         <v>29</v>
       </c>
       <c r="C561">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D561" t="s">
         <v>168</v>
@@ -48530,10 +48645,10 @@
         <v>33</v>
       </c>
       <c r="L561" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M561">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N561">
         <v>1</v>
@@ -48545,7 +48660,7 @@
         <v>3</v>
       </c>
       <c r="Q561" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="S561" t="s">
         <v>124</v>
@@ -48555,15 +48670,6 @@
       </c>
       <c r="U561" t="s">
         <v>38</v>
-      </c>
-      <c r="V561" t="s">
-        <v>463</v>
-      </c>
-      <c r="W561" t="s">
-        <v>464</v>
-      </c>
-      <c r="X561" t="s">
-        <v>465</v>
       </c>
       <c r="Y561" t="s">
         <v>39</v>
@@ -48728,13 +48834,13 @@
     </row>
     <row r="564" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B564" t="s">
         <v>29</v>
       </c>
       <c r="C564">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D564" t="s">
         <v>168</v>
@@ -48761,10 +48867,10 @@
         <v>33</v>
       </c>
       <c r="L564" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M564">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N564">
         <v>1</v>
@@ -48776,7 +48882,7 @@
         <v>3</v>
       </c>
       <c r="Q564" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="S564" t="s">
         <v>124</v>
@@ -48788,13 +48894,13 @@
         <v>38</v>
       </c>
       <c r="V564" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="W564" t="s">
-        <v>413</v>
+        <v>843</v>
       </c>
       <c r="X564" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="Y564" t="s">
         <v>39</v>
@@ -48811,13 +48917,13 @@
     </row>
     <row r="565" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B565" t="s">
         <v>29</v>
       </c>
       <c r="C565">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D565" t="s">
         <v>168</v>
@@ -48859,7 +48965,7 @@
         <v>3</v>
       </c>
       <c r="Q565" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S565" t="s">
         <v>124</v>
@@ -48885,13 +48991,13 @@
     </row>
     <row r="566" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B566" t="s">
         <v>29</v>
       </c>
       <c r="C566">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D566" t="s">
         <v>168</v>
@@ -48918,10 +49024,10 @@
         <v>33</v>
       </c>
       <c r="L566" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M566">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N566">
         <v>1</v>
@@ -48933,7 +49039,7 @@
         <v>3</v>
       </c>
       <c r="Q566" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="S566" t="s">
         <v>124</v>
@@ -48943,6 +49049,15 @@
       </c>
       <c r="U566" t="s">
         <v>38</v>
+      </c>
+      <c r="V566" t="s">
+        <v>258</v>
+      </c>
+      <c r="W566" t="s">
+        <v>286</v>
+      </c>
+      <c r="X566" t="s">
+        <v>477</v>
       </c>
       <c r="Y566" t="s">
         <v>39</v>
@@ -49125,19 +49240,19 @@
     </row>
     <row r="569" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B569" t="s">
         <v>29</v>
       </c>
       <c r="C569">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D569" t="s">
         <v>168</v>
       </c>
       <c r="E569">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F569">
         <v>11</v>
@@ -49158,10 +49273,10 @@
         <v>33</v>
       </c>
       <c r="L569" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M569">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N569">
         <v>1</v>
@@ -49173,7 +49288,7 @@
         <v>3</v>
       </c>
       <c r="Q569" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="S569" t="s">
         <v>124</v>
@@ -49199,7 +49314,7 @@
     </row>
     <row r="570" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B570" t="s">
         <v>29</v>
@@ -49247,7 +49362,10 @@
         <v>3</v>
       </c>
       <c r="Q570" t="s">
-        <v>128</v>
+        <v>143</v>
+      </c>
+      <c r="R570" t="s">
+        <v>144</v>
       </c>
       <c r="S570" t="s">
         <v>124</v>
@@ -49258,6 +49376,15 @@
       <c r="U570" t="s">
         <v>38</v>
       </c>
+      <c r="V570" t="s">
+        <v>158</v>
+      </c>
+      <c r="W570" t="s">
+        <v>159</v>
+      </c>
+      <c r="X570" t="s">
+        <v>160</v>
+      </c>
       <c r="Y570" t="s">
         <v>39</v>
       </c>
@@ -49273,13 +49400,13 @@
     </row>
     <row r="571" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>713</v>
+        <v>774</v>
       </c>
       <c r="B571" t="s">
         <v>29</v>
       </c>
       <c r="C571">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D571" t="s">
         <v>168</v>
@@ -49291,10 +49418,10 @@
         <v>11</v>
       </c>
       <c r="G571">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H571" t="s">
-        <v>121</v>
+        <v>775</v>
       </c>
       <c r="I571" t="s">
         <v>32</v>
@@ -49306,7 +49433,7 @@
         <v>33</v>
       </c>
       <c r="L571" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M571">
         <v>8</v>
@@ -49321,10 +49448,10 @@
         <v>3</v>
       </c>
       <c r="Q571" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="S571" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T571" t="s">
         <v>37</v>
@@ -49342,7 +49469,7 @@
         <v>169</v>
       </c>
       <c r="AC571" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
     </row>
     <row r="572" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -49513,13 +49640,13 @@
     </row>
     <row r="574" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>714</v>
+        <v>778</v>
       </c>
       <c r="B574" t="s">
         <v>29</v>
       </c>
       <c r="C574">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D574" t="s">
         <v>168</v>
@@ -49531,10 +49658,10 @@
         <v>11</v>
       </c>
       <c r="G574">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H574" t="s">
-        <v>121</v>
+        <v>775</v>
       </c>
       <c r="I574" t="s">
         <v>32</v>
@@ -49546,10 +49673,10 @@
         <v>33</v>
       </c>
       <c r="L574" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M574">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N574">
         <v>1</v>
@@ -49561,10 +49688,10 @@
         <v>3</v>
       </c>
       <c r="Q574" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S574" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T574" t="s">
         <v>37</v>
@@ -49572,31 +49699,22 @@
       <c r="U574" t="s">
         <v>38</v>
       </c>
-      <c r="V574" t="s">
-        <v>842</v>
-      </c>
-      <c r="W574" t="s">
-        <v>843</v>
-      </c>
-      <c r="X574" t="s">
-        <v>844</v>
-      </c>
       <c r="Y574" t="s">
         <v>39</v>
       </c>
       <c r="AA574" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AB574" t="s">
         <v>169</v>
       </c>
       <c r="AC574" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
     </row>
     <row r="575" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>714</v>
+        <v>779</v>
       </c>
       <c r="B575" t="s">
         <v>29</v>
@@ -49614,10 +49732,10 @@
         <v>11</v>
       </c>
       <c r="G575">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H575" t="s">
-        <v>121</v>
+        <v>775</v>
       </c>
       <c r="I575" t="s">
         <v>32</v>
@@ -49632,7 +49750,7 @@
         <v>838</v>
       </c>
       <c r="M575">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N575">
         <v>1</v>
@@ -49644,25 +49762,16 @@
         <v>3</v>
       </c>
       <c r="Q575" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S575" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T575" t="s">
         <v>37</v>
       </c>
       <c r="U575" t="s">
         <v>38</v>
-      </c>
-      <c r="V575" t="s">
-        <v>842</v>
-      </c>
-      <c r="W575" t="s">
-        <v>843</v>
-      </c>
-      <c r="X575" t="s">
-        <v>844</v>
       </c>
       <c r="Y575" t="s">
         <v>39</v>
@@ -49674,18 +49783,18 @@
         <v>169</v>
       </c>
       <c r="AC575" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
     </row>
     <row r="576" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>714</v>
+        <v>780</v>
       </c>
       <c r="B576" t="s">
         <v>29</v>
       </c>
       <c r="C576">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D576" t="s">
         <v>168</v>
@@ -49697,10 +49806,10 @@
         <v>11</v>
       </c>
       <c r="G576">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H576" t="s">
-        <v>121</v>
+        <v>775</v>
       </c>
       <c r="I576" t="s">
         <v>32</v>
@@ -49712,7 +49821,7 @@
         <v>33</v>
       </c>
       <c r="L576" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M576">
         <v>8</v>
@@ -49730,7 +49839,7 @@
         <v>130</v>
       </c>
       <c r="S576" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T576" t="s">
         <v>37</v>
@@ -49757,7 +49866,7 @@
         <v>169</v>
       </c>
       <c r="AC576" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
     </row>
     <row r="577" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -49910,28 +50019,28 @@
     </row>
     <row r="579" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>715</v>
+        <v>781</v>
       </c>
       <c r="B579" t="s">
         <v>29</v>
       </c>
       <c r="C579">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D579" t="s">
         <v>168</v>
       </c>
       <c r="E579">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F579">
         <v>11</v>
       </c>
       <c r="G579">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H579" t="s">
-        <v>121</v>
+        <v>775</v>
       </c>
       <c r="I579" t="s">
         <v>32</v>
@@ -49943,10 +50052,10 @@
         <v>33</v>
       </c>
       <c r="L579" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M579">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N579">
         <v>1</v>
@@ -49961,7 +50070,7 @@
         <v>135</v>
       </c>
       <c r="S579" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T579" t="s">
         <v>37</v>
@@ -49979,7 +50088,7 @@
         <v>169</v>
       </c>
       <c r="AC579" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
     </row>
     <row r="580" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -50058,13 +50167,13 @@
     </row>
     <row r="581" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>715</v>
+        <v>782</v>
       </c>
       <c r="B581" t="s">
         <v>29</v>
       </c>
       <c r="C581">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D581" t="s">
         <v>168</v>
@@ -50076,10 +50185,10 @@
         <v>11</v>
       </c>
       <c r="G581">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H581" t="s">
-        <v>121</v>
+        <v>775</v>
       </c>
       <c r="I581" t="s">
         <v>32</v>
@@ -50094,7 +50203,7 @@
         <v>838</v>
       </c>
       <c r="M581">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N581">
         <v>1</v>
@@ -50106,16 +50215,25 @@
         <v>3</v>
       </c>
       <c r="Q581" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S581" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T581" t="s">
         <v>37</v>
       </c>
       <c r="U581" t="s">
         <v>38</v>
+      </c>
+      <c r="V581" t="s">
+        <v>258</v>
+      </c>
+      <c r="W581" t="s">
+        <v>286</v>
+      </c>
+      <c r="X581" t="s">
+        <v>477</v>
       </c>
       <c r="Y581" t="s">
         <v>39</v>
@@ -50127,18 +50245,18 @@
         <v>169</v>
       </c>
       <c r="AC581" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
     </row>
     <row r="582" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="B582" t="s">
         <v>29</v>
       </c>
       <c r="C582">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D582" t="s">
         <v>168</v>
@@ -50150,10 +50268,10 @@
         <v>11</v>
       </c>
       <c r="G582">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H582" t="s">
-        <v>121</v>
+        <v>775</v>
       </c>
       <c r="I582" t="s">
         <v>32</v>
@@ -50165,7 +50283,7 @@
         <v>33</v>
       </c>
       <c r="L582" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M582">
         <v>8</v>
@@ -50180,25 +50298,16 @@
         <v>3</v>
       </c>
       <c r="Q582" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="S582" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T582" t="s">
         <v>37</v>
       </c>
       <c r="U582" t="s">
         <v>38</v>
-      </c>
-      <c r="V582" t="s">
-        <v>280</v>
-      </c>
-      <c r="W582" t="s">
-        <v>845</v>
-      </c>
-      <c r="X582" t="s">
-        <v>846</v>
       </c>
       <c r="Y582" t="s">
         <v>39</v>
@@ -50210,7 +50319,7 @@
         <v>169</v>
       </c>
       <c r="AC582" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
     </row>
     <row r="583" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -50381,28 +50490,28 @@
     </row>
     <row r="585" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>716</v>
+        <v>784</v>
       </c>
       <c r="B585" t="s">
         <v>29</v>
       </c>
       <c r="C585">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D585" t="s">
         <v>168</v>
       </c>
       <c r="E585">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F585">
         <v>11</v>
       </c>
       <c r="G585">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H585" t="s">
-        <v>121</v>
+        <v>775</v>
       </c>
       <c r="I585" t="s">
         <v>32</v>
@@ -50414,25 +50523,25 @@
         <v>33</v>
       </c>
       <c r="L585" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M585">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N585">
         <v>1</v>
       </c>
-      <c r="O585" t="s">
-        <v>44</v>
-      </c>
       <c r="P585">
         <v>3</v>
       </c>
       <c r="Q585" t="s">
-        <v>137</v>
+        <v>785</v>
+      </c>
+      <c r="R585" t="s">
+        <v>786</v>
       </c>
       <c r="S585" t="s">
-        <v>124</v>
+        <v>777</v>
       </c>
       <c r="T585" t="s">
         <v>37</v>
@@ -50441,13 +50550,13 @@
         <v>38</v>
       </c>
       <c r="V585" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="W585" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="X585" t="s">
-        <v>477</v>
+        <v>160</v>
       </c>
       <c r="Y585" t="s">
         <v>39</v>
@@ -50459,7 +50568,7 @@
         <v>169</v>
       </c>
       <c r="AC585" t="s">
-        <v>890</v>
+        <v>826</v>
       </c>
     </row>
     <row r="586" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -50630,13 +50739,13 @@
     </row>
     <row r="588" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>716</v>
+        <v>119</v>
       </c>
       <c r="B588" t="s">
         <v>29</v>
       </c>
       <c r="C588">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D588" t="s">
         <v>168</v>
@@ -50648,7 +50757,7 @@
         <v>11</v>
       </c>
       <c r="G588">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H588" t="s">
         <v>121</v>
@@ -50663,10 +50772,10 @@
         <v>33</v>
       </c>
       <c r="L588" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M588">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N588">
         <v>1</v>
@@ -50678,7 +50787,7 @@
         <v>3</v>
       </c>
       <c r="Q588" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S588" t="s">
         <v>124</v>
@@ -50690,13 +50799,13 @@
         <v>38</v>
       </c>
       <c r="V588" t="s">
-        <v>258</v>
+        <v>463</v>
       </c>
       <c r="W588" t="s">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="X588" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="Y588" t="s">
         <v>39</v>
@@ -50708,18 +50817,18 @@
         <v>169</v>
       </c>
       <c r="AC588" t="s">
-        <v>890</v>
+        <v>350</v>
       </c>
     </row>
     <row r="589" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>716</v>
+        <v>125</v>
       </c>
       <c r="B589" t="s">
         <v>29</v>
       </c>
       <c r="C589">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D589" t="s">
         <v>168</v>
@@ -50731,7 +50840,7 @@
         <v>11</v>
       </c>
       <c r="G589">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H589" t="s">
         <v>121</v>
@@ -50749,7 +50858,7 @@
         <v>839</v>
       </c>
       <c r="M589">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N589">
         <v>1</v>
@@ -50761,7 +50870,7 @@
         <v>3</v>
       </c>
       <c r="Q589" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="S589" t="s">
         <v>124</v>
@@ -50772,15 +50881,6 @@
       <c r="U589" t="s">
         <v>38</v>
       </c>
-      <c r="V589" t="s">
-        <v>258</v>
-      </c>
-      <c r="W589" t="s">
-        <v>286</v>
-      </c>
-      <c r="X589" t="s">
-        <v>477</v>
-      </c>
       <c r="Y589" t="s">
         <v>39</v>
       </c>
@@ -50791,7 +50891,7 @@
         <v>169</v>
       </c>
       <c r="AC589" t="s">
-        <v>890</v>
+        <v>350</v>
       </c>
     </row>
     <row r="590" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -50944,25 +51044,25 @@
     </row>
     <row r="592" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>717</v>
+        <v>127</v>
       </c>
       <c r="B592" t="s">
         <v>29</v>
       </c>
       <c r="C592">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D592" t="s">
         <v>168</v>
       </c>
       <c r="E592">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F592">
         <v>11</v>
       </c>
       <c r="G592">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H592" t="s">
         <v>121</v>
@@ -50977,10 +51077,10 @@
         <v>33</v>
       </c>
       <c r="L592" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M592">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N592">
         <v>1</v>
@@ -50992,7 +51092,7 @@
         <v>3</v>
       </c>
       <c r="Q592" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="S592" t="s">
         <v>124</v>
@@ -51013,7 +51113,7 @@
         <v>169</v>
       </c>
       <c r="AC592" t="s">
-        <v>890</v>
+        <v>350</v>
       </c>
     </row>
     <row r="593" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -51166,13 +51266,13 @@
     </row>
     <row r="595" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>717</v>
+        <v>129</v>
       </c>
       <c r="B595" t="s">
         <v>29</v>
       </c>
       <c r="C595">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D595" t="s">
         <v>168</v>
@@ -51184,7 +51284,7 @@
         <v>11</v>
       </c>
       <c r="G595">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H595" t="s">
         <v>121</v>
@@ -51199,10 +51299,10 @@
         <v>33</v>
       </c>
       <c r="L595" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M595">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N595">
         <v>1</v>
@@ -51214,7 +51314,7 @@
         <v>3</v>
       </c>
       <c r="Q595" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="S595" t="s">
         <v>124</v>
@@ -51225,6 +51325,15 @@
       <c r="U595" t="s">
         <v>38</v>
       </c>
+      <c r="V595" t="s">
+        <v>842</v>
+      </c>
+      <c r="W595" t="s">
+        <v>843</v>
+      </c>
+      <c r="X595" t="s">
+        <v>844</v>
+      </c>
       <c r="Y595" t="s">
         <v>39</v>
       </c>
@@ -51235,18 +51344,18 @@
         <v>169</v>
       </c>
       <c r="AC595" t="s">
-        <v>890</v>
+        <v>350</v>
       </c>
     </row>
     <row r="596" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>717</v>
+        <v>134</v>
       </c>
       <c r="B596" t="s">
         <v>29</v>
       </c>
       <c r="C596">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D596" t="s">
         <v>168</v>
@@ -51258,7 +51367,7 @@
         <v>11</v>
       </c>
       <c r="G596">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H596" t="s">
         <v>121</v>
@@ -51276,7 +51385,7 @@
         <v>839</v>
       </c>
       <c r="M596">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N596">
         <v>1</v>
@@ -51288,7 +51397,7 @@
         <v>3</v>
       </c>
       <c r="Q596" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="S596" t="s">
         <v>124</v>
@@ -51299,6 +51408,15 @@
       <c r="U596" t="s">
         <v>38</v>
       </c>
+      <c r="V596" t="s">
+        <v>280</v>
+      </c>
+      <c r="W596" t="s">
+        <v>845</v>
+      </c>
+      <c r="X596" t="s">
+        <v>846</v>
+      </c>
       <c r="Y596" t="s">
         <v>39</v>
       </c>
@@ -51309,7 +51427,7 @@
         <v>169</v>
       </c>
       <c r="AC596" t="s">
-        <v>890</v>
+        <v>350</v>
       </c>
     </row>
     <row r="597" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -51468,13 +51586,13 @@
     </row>
     <row r="599" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>718</v>
+        <v>136</v>
       </c>
       <c r="B599" t="s">
         <v>29</v>
       </c>
       <c r="C599">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D599" t="s">
         <v>168</v>
@@ -51486,7 +51604,7 @@
         <v>11</v>
       </c>
       <c r="G599">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H599" t="s">
         <v>121</v>
@@ -51501,10 +51619,10 @@
         <v>33</v>
       </c>
       <c r="L599" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M599">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N599">
         <v>1</v>
@@ -51516,10 +51634,7 @@
         <v>3</v>
       </c>
       <c r="Q599" t="s">
-        <v>143</v>
-      </c>
-      <c r="R599" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S599" t="s">
         <v>124</v>
@@ -51530,6 +51645,15 @@
       <c r="U599" t="s">
         <v>38</v>
       </c>
+      <c r="V599" t="s">
+        <v>258</v>
+      </c>
+      <c r="W599" t="s">
+        <v>286</v>
+      </c>
+      <c r="X599" t="s">
+        <v>477</v>
+      </c>
       <c r="Y599" t="s">
         <v>39</v>
       </c>
@@ -51540,18 +51664,18 @@
         <v>169</v>
       </c>
       <c r="AC599" t="s">
-        <v>890</v>
+        <v>350</v>
       </c>
     </row>
     <row r="600" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>718</v>
+        <v>140</v>
       </c>
       <c r="B600" t="s">
         <v>29</v>
       </c>
       <c r="C600">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D600" t="s">
         <v>168</v>
@@ -51563,7 +51687,7 @@
         <v>11</v>
       </c>
       <c r="G600">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H600" t="s">
         <v>121</v>
@@ -51578,10 +51702,10 @@
         <v>33</v>
       </c>
       <c r="L600" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M600">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N600">
         <v>1</v>
@@ -51593,10 +51717,7 @@
         <v>3</v>
       </c>
       <c r="Q600" t="s">
-        <v>143</v>
-      </c>
-      <c r="R600" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S600" t="s">
         <v>124</v>
@@ -51607,15 +51728,6 @@
       <c r="U600" t="s">
         <v>38</v>
       </c>
-      <c r="V600" t="s">
-        <v>158</v>
-      </c>
-      <c r="W600" t="s">
-        <v>159</v>
-      </c>
-      <c r="X600" t="s">
-        <v>160</v>
-      </c>
       <c r="Y600" t="s">
         <v>39</v>
       </c>
@@ -51626,12 +51738,12 @@
         <v>169</v>
       </c>
       <c r="AC600" t="s">
-        <v>890</v>
+        <v>350</v>
       </c>
     </row>
     <row r="601" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>718</v>
+        <v>142</v>
       </c>
       <c r="B601" t="s">
         <v>29</v>
@@ -51649,7 +51761,7 @@
         <v>11</v>
       </c>
       <c r="G601">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H601" t="s">
         <v>121</v>
@@ -51667,7 +51779,7 @@
         <v>839</v>
       </c>
       <c r="M601">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N601">
         <v>1</v>
@@ -51703,7 +51815,7 @@
         <v>169</v>
       </c>
       <c r="AC601" t="s">
-        <v>890</v>
+        <v>350</v>
       </c>
     </row>
     <row r="602" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -59262,28 +59374,28 @@
     </row>
     <row r="695" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>774</v>
+        <v>356</v>
       </c>
       <c r="B695" t="s">
         <v>29</v>
       </c>
       <c r="C695">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D695" t="s">
         <v>168</v>
       </c>
       <c r="E695">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F695">
         <v>11</v>
       </c>
       <c r="G695">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H695" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I695" t="s">
         <v>32</v>
@@ -59295,7 +59407,7 @@
         <v>33</v>
       </c>
       <c r="L695" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M695">
         <v>11</v>
@@ -59313,7 +59425,7 @@
         <v>123</v>
       </c>
       <c r="S695" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T695" t="s">
         <v>37</v>
@@ -59331,18 +59443,18 @@
         <v>169</v>
       </c>
       <c r="AC695" t="s">
-        <v>826</v>
+        <v>641</v>
       </c>
     </row>
     <row r="696" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>774</v>
+        <v>436</v>
       </c>
       <c r="B696" t="s">
         <v>29</v>
       </c>
       <c r="C696">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D696" t="s">
         <v>168</v>
@@ -59354,10 +59466,10 @@
         <v>11</v>
       </c>
       <c r="G696">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H696" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I696" t="s">
         <v>32</v>
@@ -59369,10 +59481,10 @@
         <v>33</v>
       </c>
       <c r="L696" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M696">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N696">
         <v>1</v>
@@ -59384,10 +59496,10 @@
         <v>3</v>
       </c>
       <c r="Q696" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S696" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T696" t="s">
         <v>37</v>
@@ -59405,18 +59517,18 @@
         <v>169</v>
       </c>
       <c r="AC696" t="s">
-        <v>826</v>
+        <v>641</v>
       </c>
     </row>
     <row r="697" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>774</v>
+        <v>437</v>
       </c>
       <c r="B697" t="s">
         <v>29</v>
       </c>
       <c r="C697">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D697" t="s">
         <v>168</v>
@@ -59428,10 +59540,10 @@
         <v>11</v>
       </c>
       <c r="G697">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H697" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I697" t="s">
         <v>32</v>
@@ -59446,7 +59558,7 @@
         <v>839</v>
       </c>
       <c r="M697">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N697">
         <v>1</v>
@@ -59458,25 +59570,16 @@
         <v>3</v>
       </c>
       <c r="Q697" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="S697" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T697" t="s">
         <v>37</v>
       </c>
       <c r="U697" t="s">
         <v>38</v>
-      </c>
-      <c r="V697" t="s">
-        <v>463</v>
-      </c>
-      <c r="W697" t="s">
-        <v>464</v>
-      </c>
-      <c r="X697" t="s">
-        <v>465</v>
       </c>
       <c r="Y697" t="s">
         <v>39</v>
@@ -59488,7 +59591,7 @@
         <v>169</v>
       </c>
       <c r="AC697" t="s">
-        <v>826</v>
+        <v>641</v>
       </c>
     </row>
     <row r="698" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -59641,28 +59744,28 @@
     </row>
     <row r="700" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>778</v>
+        <v>440</v>
       </c>
       <c r="B700" t="s">
         <v>29</v>
       </c>
       <c r="C700">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D700" t="s">
         <v>168</v>
       </c>
       <c r="E700">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F700">
         <v>11</v>
       </c>
       <c r="G700">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H700" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I700" t="s">
         <v>32</v>
@@ -59674,10 +59777,10 @@
         <v>33</v>
       </c>
       <c r="L700" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M700">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N700">
         <v>1</v>
@@ -59689,25 +59792,16 @@
         <v>3</v>
       </c>
       <c r="Q700" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="S700" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T700" t="s">
         <v>37</v>
       </c>
       <c r="U700" t="s">
         <v>38</v>
-      </c>
-      <c r="V700" t="s">
-        <v>840</v>
-      </c>
-      <c r="W700" t="s">
-        <v>413</v>
-      </c>
-      <c r="X700" t="s">
-        <v>841</v>
       </c>
       <c r="Y700" t="s">
         <v>39</v>
@@ -59719,7 +59813,7 @@
         <v>169</v>
       </c>
       <c r="AC700" t="s">
-        <v>826</v>
+        <v>641</v>
       </c>
     </row>
     <row r="701" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -59798,13 +59892,13 @@
     </row>
     <row r="702" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>778</v>
+        <v>441</v>
       </c>
       <c r="B702" t="s">
         <v>29</v>
       </c>
       <c r="C702">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D702" t="s">
         <v>168</v>
@@ -59816,10 +59910,10 @@
         <v>11</v>
       </c>
       <c r="G702">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H702" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I702" t="s">
         <v>32</v>
@@ -59831,10 +59925,10 @@
         <v>33</v>
       </c>
       <c r="L702" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M702">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N702">
         <v>1</v>
@@ -59846,10 +59940,10 @@
         <v>3</v>
       </c>
       <c r="Q702" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S702" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T702" t="s">
         <v>37</v>
@@ -59861,24 +59955,24 @@
         <v>39</v>
       </c>
       <c r="AA702" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AB702" t="s">
         <v>169</v>
       </c>
       <c r="AC702" t="s">
-        <v>826</v>
+        <v>641</v>
       </c>
     </row>
     <row r="703" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>778</v>
+        <v>442</v>
       </c>
       <c r="B703" t="s">
         <v>29</v>
       </c>
       <c r="C703">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D703" t="s">
         <v>168</v>
@@ -59890,10 +59984,10 @@
         <v>11</v>
       </c>
       <c r="G703">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H703" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I703" t="s">
         <v>32</v>
@@ -59908,7 +60002,7 @@
         <v>839</v>
       </c>
       <c r="M703">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N703">
         <v>1</v>
@@ -59920,10 +60014,10 @@
         <v>3</v>
       </c>
       <c r="Q703" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="S703" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T703" t="s">
         <v>37</v>
@@ -59935,13 +60029,13 @@
         <v>39</v>
       </c>
       <c r="AA703" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AB703" t="s">
         <v>169</v>
       </c>
       <c r="AC703" t="s">
-        <v>826</v>
+        <v>641</v>
       </c>
     </row>
     <row r="704" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -60112,28 +60206,28 @@
     </row>
     <row r="706" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>779</v>
+        <v>444</v>
       </c>
       <c r="B706" t="s">
         <v>29</v>
       </c>
       <c r="C706">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D706" t="s">
         <v>168</v>
       </c>
       <c r="E706">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F706">
         <v>11</v>
       </c>
       <c r="G706">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H706" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I706" t="s">
         <v>32</v>
@@ -60145,7 +60239,7 @@
         <v>33</v>
       </c>
       <c r="L706" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M706">
         <v>11</v>
@@ -60160,10 +60254,10 @@
         <v>3</v>
       </c>
       <c r="Q706" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="S706" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T706" t="s">
         <v>37</v>
@@ -60181,18 +60275,18 @@
         <v>169</v>
       </c>
       <c r="AC706" t="s">
-        <v>826</v>
+        <v>641</v>
       </c>
     </row>
     <row r="707" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>779</v>
+        <v>448</v>
       </c>
       <c r="B707" t="s">
         <v>29</v>
       </c>
       <c r="C707">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D707" t="s">
         <v>168</v>
@@ -60204,10 +60298,10 @@
         <v>11</v>
       </c>
       <c r="G707">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H707" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I707" t="s">
         <v>32</v>
@@ -60219,10 +60313,10 @@
         <v>33</v>
       </c>
       <c r="L707" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M707">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N707">
         <v>1</v>
@@ -60234,10 +60328,13 @@
         <v>3</v>
       </c>
       <c r="Q707" t="s">
-        <v>128</v>
+        <v>143</v>
+      </c>
+      <c r="R707" t="s">
+        <v>144</v>
       </c>
       <c r="S707" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T707" t="s">
         <v>37</v>
@@ -60255,12 +60352,12 @@
         <v>169</v>
       </c>
       <c r="AC707" t="s">
-        <v>826</v>
+        <v>641</v>
       </c>
     </row>
     <row r="708" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>779</v>
+        <v>679</v>
       </c>
       <c r="B708" t="s">
         <v>29</v>
@@ -60278,10 +60375,10 @@
         <v>11</v>
       </c>
       <c r="G708">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H708" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I708" t="s">
         <v>32</v>
@@ -60308,16 +60405,25 @@
         <v>3</v>
       </c>
       <c r="Q708" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="S708" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T708" t="s">
         <v>37</v>
       </c>
       <c r="U708" t="s">
         <v>38</v>
+      </c>
+      <c r="V708" t="s">
+        <v>463</v>
+      </c>
+      <c r="W708" t="s">
+        <v>464</v>
+      </c>
+      <c r="X708" t="s">
+        <v>465</v>
       </c>
       <c r="Y708" t="s">
         <v>39</v>
@@ -60329,7 +60435,7 @@
         <v>169</v>
       </c>
       <c r="AC708" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
     </row>
     <row r="709" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -60491,28 +60597,28 @@
     </row>
     <row r="711" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>780</v>
+        <v>712</v>
       </c>
       <c r="B711" t="s">
         <v>29</v>
       </c>
       <c r="C711">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D711" t="s">
         <v>168</v>
       </c>
       <c r="E711">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F711">
         <v>11</v>
       </c>
       <c r="G711">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H711" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I711" t="s">
         <v>32</v>
@@ -60524,10 +60630,10 @@
         <v>33</v>
       </c>
       <c r="L711" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M711">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N711">
         <v>1</v>
@@ -60539,25 +60645,16 @@
         <v>3</v>
       </c>
       <c r="Q711" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S711" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T711" t="s">
         <v>37</v>
       </c>
       <c r="U711" t="s">
         <v>38</v>
-      </c>
-      <c r="V711" t="s">
-        <v>842</v>
-      </c>
-      <c r="W711" t="s">
-        <v>843</v>
-      </c>
-      <c r="X711" t="s">
-        <v>844</v>
       </c>
       <c r="Y711" t="s">
         <v>39</v>
@@ -60569,18 +60666,18 @@
         <v>169</v>
       </c>
       <c r="AC711" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
     </row>
     <row r="712" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="B712" t="s">
         <v>29</v>
       </c>
       <c r="C712">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D712" t="s">
         <v>168</v>
@@ -60592,10 +60689,10 @@
         <v>11</v>
       </c>
       <c r="G712">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H712" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I712" t="s">
         <v>32</v>
@@ -60607,7 +60704,7 @@
         <v>33</v>
       </c>
       <c r="L712" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M712">
         <v>8</v>
@@ -60622,25 +60719,16 @@
         <v>3</v>
       </c>
       <c r="Q712" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S712" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T712" t="s">
         <v>37</v>
       </c>
       <c r="U712" t="s">
         <v>38</v>
-      </c>
-      <c r="V712" t="s">
-        <v>842</v>
-      </c>
-      <c r="W712" t="s">
-        <v>843</v>
-      </c>
-      <c r="X712" t="s">
-        <v>844</v>
       </c>
       <c r="Y712" t="s">
         <v>39</v>
@@ -60652,12 +60740,12 @@
         <v>169</v>
       </c>
       <c r="AC712" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
     </row>
     <row r="713" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>780</v>
+        <v>714</v>
       </c>
       <c r="B713" t="s">
         <v>29</v>
@@ -60675,10 +60763,10 @@
         <v>11</v>
       </c>
       <c r="G713">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H713" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I713" t="s">
         <v>32</v>
@@ -60708,7 +60796,7 @@
         <v>130</v>
       </c>
       <c r="S713" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T713" t="s">
         <v>37</v>
@@ -60735,7 +60823,7 @@
         <v>169</v>
       </c>
       <c r="AC713" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
     </row>
     <row r="714" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -60906,28 +60994,28 @@
     </row>
     <row r="716" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>781</v>
+        <v>715</v>
       </c>
       <c r="B716" t="s">
         <v>29</v>
       </c>
       <c r="C716">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D716" t="s">
         <v>168</v>
       </c>
       <c r="E716">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F716">
         <v>11</v>
       </c>
       <c r="G716">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H716" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I716" t="s">
         <v>32</v>
@@ -60939,10 +61027,10 @@
         <v>33</v>
       </c>
       <c r="L716" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M716">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N716">
         <v>1</v>
@@ -60957,13 +61045,22 @@
         <v>135</v>
       </c>
       <c r="S716" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T716" t="s">
         <v>37</v>
       </c>
       <c r="U716" t="s">
         <v>38</v>
+      </c>
+      <c r="V716" t="s">
+        <v>280</v>
+      </c>
+      <c r="W716" t="s">
+        <v>845</v>
+      </c>
+      <c r="X716" t="s">
+        <v>846</v>
       </c>
       <c r="Y716" t="s">
         <v>39</v>
@@ -60975,18 +61072,18 @@
         <v>169</v>
       </c>
       <c r="AC716" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
     </row>
     <row r="717" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>781</v>
+        <v>716</v>
       </c>
       <c r="B717" t="s">
         <v>29</v>
       </c>
       <c r="C717">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D717" t="s">
         <v>168</v>
@@ -60998,10 +61095,10 @@
         <v>11</v>
       </c>
       <c r="G717">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H717" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I717" t="s">
         <v>32</v>
@@ -61013,7 +61110,7 @@
         <v>33</v>
       </c>
       <c r="L717" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M717">
         <v>8</v>
@@ -61028,16 +61125,25 @@
         <v>3</v>
       </c>
       <c r="Q717" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S717" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T717" t="s">
         <v>37</v>
       </c>
       <c r="U717" t="s">
         <v>38</v>
+      </c>
+      <c r="V717" t="s">
+        <v>258</v>
+      </c>
+      <c r="W717" t="s">
+        <v>286</v>
+      </c>
+      <c r="X717" t="s">
+        <v>477</v>
       </c>
       <c r="Y717" t="s">
         <v>39</v>
@@ -61049,18 +61155,18 @@
         <v>169</v>
       </c>
       <c r="AC717" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
     </row>
     <row r="718" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
       <c r="B718" t="s">
         <v>29</v>
       </c>
       <c r="C718">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D718" t="s">
         <v>168</v>
@@ -61072,10 +61178,10 @@
         <v>11</v>
       </c>
       <c r="G718">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H718" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I718" t="s">
         <v>32</v>
@@ -61102,10 +61208,10 @@
         <v>3</v>
       </c>
       <c r="Q718" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="S718" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T718" t="s">
         <v>37</v>
@@ -61123,7 +61229,7 @@
         <v>169</v>
       </c>
       <c r="AC718" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
     </row>
     <row r="719" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -61294,28 +61400,28 @@
     </row>
     <row r="721" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>782</v>
+        <v>718</v>
       </c>
       <c r="B721" t="s">
         <v>29</v>
       </c>
       <c r="C721">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D721" t="s">
         <v>168</v>
       </c>
       <c r="E721">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F721">
         <v>11</v>
       </c>
       <c r="G721">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H721" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I721" t="s">
         <v>32</v>
@@ -61327,10 +61433,10 @@
         <v>33</v>
       </c>
       <c r="L721" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M721">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N721">
         <v>1</v>
@@ -61342,25 +61448,19 @@
         <v>3</v>
       </c>
       <c r="Q721" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="R721" t="s">
+        <v>144</v>
       </c>
       <c r="S721" t="s">
-        <v>777</v>
+        <v>124</v>
       </c>
       <c r="T721" t="s">
         <v>37</v>
       </c>
       <c r="U721" t="s">
         <v>38</v>
-      </c>
-      <c r="V721" t="s">
-        <v>258</v>
-      </c>
-      <c r="W721" t="s">
-        <v>286</v>
-      </c>
-      <c r="X721" t="s">
-        <v>477</v>
       </c>
       <c r="Y721" t="s">
         <v>39</v>
@@ -61372,18 +61472,18 @@
         <v>169</v>
       </c>
       <c r="AC721" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
     </row>
     <row r="722" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B722" t="s">
         <v>29</v>
       </c>
       <c r="C722">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D722" t="s">
         <v>168</v>
@@ -61410,7 +61510,7 @@
         <v>33</v>
       </c>
       <c r="L722" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M722">
         <v>8</v>
@@ -61425,7 +61525,7 @@
         <v>3</v>
       </c>
       <c r="Q722" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S722" t="s">
         <v>777</v>
@@ -61437,13 +61537,13 @@
         <v>38</v>
       </c>
       <c r="V722" t="s">
-        <v>258</v>
+        <v>463</v>
       </c>
       <c r="W722" t="s">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="X722" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="Y722" t="s">
         <v>39</v>
@@ -61460,13 +61560,13 @@
     </row>
     <row r="723" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B723" t="s">
         <v>29</v>
       </c>
       <c r="C723">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D723" t="s">
         <v>168</v>
@@ -61508,7 +61608,7 @@
         <v>3</v>
       </c>
       <c r="Q723" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="S723" t="s">
         <v>777</v>
@@ -61519,20 +61619,11 @@
       <c r="U723" t="s">
         <v>38</v>
       </c>
-      <c r="V723" t="s">
-        <v>258</v>
-      </c>
-      <c r="W723" t="s">
-        <v>286</v>
-      </c>
-      <c r="X723" t="s">
-        <v>477</v>
-      </c>
       <c r="Y723" t="s">
         <v>39</v>
       </c>
       <c r="AA723" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AB723" t="s">
         <v>169</v>
@@ -61709,19 +61800,19 @@
     </row>
     <row r="726" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B726" t="s">
         <v>29</v>
       </c>
       <c r="C726">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D726" t="s">
         <v>168</v>
       </c>
       <c r="E726">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F726">
         <v>11</v>
@@ -61742,10 +61833,10 @@
         <v>33</v>
       </c>
       <c r="L726" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M726">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N726">
         <v>1</v>
@@ -61757,7 +61848,7 @@
         <v>3</v>
       </c>
       <c r="Q726" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="S726" t="s">
         <v>777</v>
@@ -61866,7 +61957,7 @@
     </row>
     <row r="728" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B728" t="s">
         <v>29</v>
@@ -61899,7 +61990,7 @@
         <v>33</v>
       </c>
       <c r="L728" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M728">
         <v>8</v>
@@ -61914,7 +62005,7 @@
         <v>3</v>
       </c>
       <c r="Q728" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="S728" t="s">
         <v>777</v>
@@ -61925,6 +62016,15 @@
       <c r="U728" t="s">
         <v>38</v>
       </c>
+      <c r="V728" t="s">
+        <v>842</v>
+      </c>
+      <c r="W728" t="s">
+        <v>843</v>
+      </c>
+      <c r="X728" t="s">
+        <v>844</v>
+      </c>
       <c r="Y728" t="s">
         <v>39</v>
       </c>
@@ -61940,13 +62040,13 @@
     </row>
     <row r="729" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B729" t="s">
         <v>29</v>
       </c>
       <c r="C729">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D729" t="s">
         <v>168</v>
@@ -61988,7 +62088,7 @@
         <v>3</v>
       </c>
       <c r="Q729" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="S729" t="s">
         <v>777</v>
@@ -62180,19 +62280,19 @@
     </row>
     <row r="732" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B732" t="s">
         <v>29</v>
       </c>
       <c r="C732">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D732" t="s">
         <v>168</v>
       </c>
       <c r="E732">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F732">
         <v>11</v>
@@ -62213,22 +62313,22 @@
         <v>33</v>
       </c>
       <c r="L732" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M732">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N732">
         <v>1</v>
       </c>
+      <c r="O732" t="s">
+        <v>44</v>
+      </c>
       <c r="P732">
         <v>3</v>
       </c>
       <c r="Q732" t="s">
-        <v>785</v>
-      </c>
-      <c r="R732" t="s">
-        <v>786</v>
+        <v>137</v>
       </c>
       <c r="S732" t="s">
         <v>777</v>
@@ -62239,6 +62339,15 @@
       <c r="U732" t="s">
         <v>38</v>
       </c>
+      <c r="V732" t="s">
+        <v>258</v>
+      </c>
+      <c r="W732" t="s">
+        <v>286</v>
+      </c>
+      <c r="X732" t="s">
+        <v>477</v>
+      </c>
       <c r="Y732" t="s">
         <v>39</v>
       </c>
@@ -62254,13 +62363,13 @@
     </row>
     <row r="733" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B733" t="s">
         <v>29</v>
       </c>
       <c r="C733">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D733" t="s">
         <v>168</v>
@@ -62287,7 +62396,7 @@
         <v>33</v>
       </c>
       <c r="L733" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M733">
         <v>8</v>
@@ -62295,14 +62404,14 @@
       <c r="N733">
         <v>1</v>
       </c>
+      <c r="O733" t="s">
+        <v>44</v>
+      </c>
       <c r="P733">
         <v>3</v>
       </c>
       <c r="Q733" t="s">
-        <v>785</v>
-      </c>
-      <c r="R733" t="s">
-        <v>786</v>
+        <v>141</v>
       </c>
       <c r="S733" t="s">
         <v>777</v>
@@ -62312,15 +62421,6 @@
       </c>
       <c r="U733" t="s">
         <v>38</v>
-      </c>
-      <c r="V733" t="s">
-        <v>158</v>
-      </c>
-      <c r="W733" t="s">
-        <v>159</v>
-      </c>
-      <c r="X733" t="s">
-        <v>160</v>
       </c>
       <c r="Y733" t="s">
         <v>39</v>

--- a/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
+++ b/data/sum/asignaturas programadas xlsx/todo-en-uno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\sum\asignaturas programadas xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7DF4B1-4291-47C4-BF1E-8C6CABD83A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05730569-3F8A-45FE-9F12-E92919BE0DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D60BBF6E-17AC-4730-8091-379669949CB3}"/>
   </bookViews>
@@ -2718,7 +2718,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2726,8 +2726,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2758,6 +2765,78 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2771,7 +2850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2782,6 +2861,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2806,14 +2909,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}" name="Table1" displayName="Table1" ref="A1:AC780" totalsRowShown="0">
   <autoFilter ref="A1:AC780" xr:uid="{52D9EF12-1ACA-495A-A434-301B1E30628B}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="SJL-71-T"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="13">
       <filters>
-        <filter val="1"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="27">
@@ -2822,8 +2920,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:AC272">
-    <sortCondition ref="A1:A780"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A588:AC734">
+    <sortCondition ref="N1:N780"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{22044F18-BA93-4166-A5C2-B37D5DC456F1}" name="cod_asignatura" dataDxfId="0"/>
@@ -3180,7 +3278,7 @@
   <dimension ref="A1:AC780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D781" sqref="D781"/>
+      <selection activeCell="L396" sqref="L396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,7 +6106,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>356</v>
       </c>
@@ -6085,7 +6183,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>436</v>
       </c>
@@ -6168,7 +6266,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>437</v>
       </c>
@@ -6476,7 +6574,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>440</v>
       </c>
@@ -6559,7 +6657,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>441</v>
       </c>
@@ -6636,7 +6734,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>442</v>
       </c>
@@ -6959,7 +7057,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>444</v>
       </c>
@@ -7036,7 +7134,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>448</v>
       </c>
@@ -7116,7 +7214,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>679</v>
       </c>
@@ -7433,7 +7531,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>712</v>
       </c>
@@ -7516,7 +7614,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>713</v>
       </c>
@@ -7593,7 +7691,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>714</v>
       </c>
@@ -7916,7 +8014,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>715</v>
       </c>
@@ -7993,7 +8091,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>716</v>
       </c>
@@ -8076,7 +8174,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>717</v>
       </c>
@@ -8402,7 +8500,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>718</v>
       </c>
@@ -8482,7 +8580,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>119</v>
       </c>
@@ -8559,7 +8657,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>125</v>
       </c>
@@ -8891,7 +8989,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>127</v>
       </c>
@@ -8968,7 +9066,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>129</v>
       </c>
@@ -9051,7 +9149,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>134</v>
       </c>
@@ -9377,7 +9475,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>136</v>
       </c>
@@ -9460,7 +9558,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>140</v>
       </c>
@@ -9537,7 +9635,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>142</v>
       </c>
@@ -9949,17 +10047,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
         <v>173</v>
       </c>
       <c r="B84" t="s">
         <v>29</v>
       </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C84" s="29">
+        <v>3</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E84">
@@ -9971,7 +10069,7 @@
       <c r="G84">
         <v>3</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I84" t="s">
@@ -9983,13 +10081,13 @@
       <c r="K84" t="s">
         <v>33</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="29" t="s">
         <v>216</v>
       </c>
       <c r="M84">
         <v>6</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="29">
         <v>3</v>
       </c>
       <c r="O84" t="s">
@@ -9998,7 +10096,7 @@
       <c r="P84">
         <v>4</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="Q84" s="29" t="s">
         <v>175</v>
       </c>
       <c r="S84" t="s">
@@ -10010,13 +10108,13 @@
       <c r="U84" t="s">
         <v>38</v>
       </c>
-      <c r="V84" t="s">
+      <c r="V84" s="29" t="s">
         <v>827</v>
       </c>
-      <c r="W84" t="s">
+      <c r="W84" s="29" t="s">
         <v>828</v>
       </c>
-      <c r="X84" t="s">
+      <c r="X84" s="29" t="s">
         <v>829</v>
       </c>
       <c r="Y84" t="s">
@@ -10025,10 +10123,10 @@
       <c r="AA84" t="s">
         <v>40</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AB84" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AC84" s="29" t="s">
         <v>350</v>
       </c>
     </row>
@@ -10364,17 +10462,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B89" t="s">
         <v>29</v>
       </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" s="29">
+        <v>3</v>
+      </c>
+      <c r="D89" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E89">
@@ -10386,7 +10484,7 @@
       <c r="G89">
         <v>3</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I89" t="s">
@@ -10398,13 +10496,13 @@
       <c r="K89" t="s">
         <v>33</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="29" t="s">
         <v>216</v>
       </c>
       <c r="M89">
         <v>6</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="29">
         <v>3</v>
       </c>
       <c r="O89" t="s">
@@ -10413,7 +10511,7 @@
       <c r="P89">
         <v>4</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="Q89" s="29" t="s">
         <v>179</v>
       </c>
       <c r="S89" t="s">
@@ -10425,16 +10523,19 @@
       <c r="U89" t="s">
         <v>38</v>
       </c>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
       <c r="Y89" t="s">
         <v>39</v>
       </c>
       <c r="AA89" t="s">
         <v>40</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AB89" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AC89" s="29" t="s">
         <v>350</v>
       </c>
     </row>
@@ -10770,17 +10871,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
         <v>183</v>
       </c>
       <c r="B94" t="s">
         <v>29</v>
       </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C94" s="29">
+        <v>3</v>
+      </c>
+      <c r="D94" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E94">
@@ -10792,7 +10893,7 @@
       <c r="G94">
         <v>3</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I94" t="s">
@@ -10804,13 +10905,13 @@
       <c r="K94" t="s">
         <v>33</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="29" t="s">
         <v>216</v>
       </c>
       <c r="M94">
         <v>6</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="29">
         <v>3</v>
       </c>
       <c r="O94" t="s">
@@ -10819,7 +10920,7 @@
       <c r="P94">
         <v>3</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="Q94" s="29" t="s">
         <v>184</v>
       </c>
       <c r="S94" t="s">
@@ -10831,16 +10932,19 @@
       <c r="U94" t="s">
         <v>38</v>
       </c>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
       <c r="Y94" t="s">
         <v>39</v>
       </c>
       <c r="AA94" t="s">
         <v>40</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AB94" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AC94" t="s">
+      <c r="AC94" s="29" t="s">
         <v>350</v>
       </c>
     </row>
@@ -11167,17 +11271,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A99" s="28" t="s">
         <v>187</v>
       </c>
       <c r="B99" t="s">
         <v>29</v>
       </c>
-      <c r="C99">
-        <v>3</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C99" s="29">
+        <v>3</v>
+      </c>
+      <c r="D99" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E99">
@@ -11189,7 +11293,7 @@
       <c r="G99">
         <v>3</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I99" t="s">
@@ -11201,13 +11305,13 @@
       <c r="K99" t="s">
         <v>33</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="29" t="s">
         <v>217</v>
       </c>
       <c r="M99">
         <v>6</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="29">
         <v>3</v>
       </c>
       <c r="O99" t="s">
@@ -11216,7 +11320,7 @@
       <c r="P99">
         <v>3</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="Q99" s="29" t="s">
         <v>188</v>
       </c>
       <c r="S99" t="s">
@@ -11228,16 +11332,19 @@
       <c r="U99" t="s">
         <v>38</v>
       </c>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
       <c r="Y99" t="s">
         <v>39</v>
       </c>
       <c r="AA99" t="s">
         <v>40</v>
       </c>
-      <c r="AB99" t="s">
+      <c r="AB99" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AC99" t="s">
+      <c r="AC99" s="29" t="s">
         <v>350</v>
       </c>
     </row>
@@ -11564,17 +11671,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A104" s="28" t="s">
         <v>192</v>
       </c>
       <c r="B104" t="s">
         <v>29</v>
       </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C104" s="29">
+        <v>3</v>
+      </c>
+      <c r="D104" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E104">
@@ -11586,7 +11693,7 @@
       <c r="G104">
         <v>3</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I104" t="s">
@@ -11598,13 +11705,13 @@
       <c r="K104" t="s">
         <v>33</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L104" s="29" t="s">
         <v>217</v>
       </c>
       <c r="M104">
         <v>6</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="29">
         <v>3</v>
       </c>
       <c r="O104" t="s">
@@ -11613,7 +11720,7 @@
       <c r="P104">
         <v>3</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="Q104" s="29" t="s">
         <v>193</v>
       </c>
       <c r="S104" t="s">
@@ -11625,16 +11732,19 @@
       <c r="U104" t="s">
         <v>38</v>
       </c>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="X104" s="29"/>
       <c r="Y104" t="s">
         <v>39</v>
       </c>
       <c r="AA104" t="s">
         <v>40</v>
       </c>
-      <c r="AB104" t="s">
+      <c r="AB104" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AC104" t="s">
+      <c r="AC104" s="29" t="s">
         <v>350</v>
       </c>
     </row>
@@ -11804,17 +11914,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A107" s="28" t="s">
         <v>197</v>
       </c>
       <c r="B107" t="s">
         <v>29</v>
       </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C107" s="29">
+        <v>3</v>
+      </c>
+      <c r="D107" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E107">
@@ -11826,7 +11936,7 @@
       <c r="G107">
         <v>3</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I107" t="s">
@@ -11838,13 +11948,13 @@
       <c r="K107" t="s">
         <v>33</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="29" t="s">
         <v>217</v>
       </c>
       <c r="M107">
         <v>6</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="29">
         <v>3</v>
       </c>
       <c r="O107" t="s">
@@ -11853,7 +11963,7 @@
       <c r="P107">
         <v>3</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="Q107" s="29" t="s">
         <v>198</v>
       </c>
       <c r="S107" t="s">
@@ -11865,16 +11975,19 @@
       <c r="U107" t="s">
         <v>38</v>
       </c>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
       <c r="Y107" t="s">
         <v>39</v>
       </c>
       <c r="AA107" t="s">
         <v>40</v>
       </c>
-      <c r="AB107" t="s">
+      <c r="AB107" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AC107" t="s">
+      <c r="AC107" s="29" t="s">
         <v>350</v>
       </c>
     </row>
@@ -12127,17 +12240,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
         <v>201</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
       </c>
-      <c r="C111">
-        <v>3</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C111" s="29">
+        <v>3</v>
+      </c>
+      <c r="D111" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E111">
@@ -12149,7 +12262,7 @@
       <c r="G111">
         <v>3</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I111" t="s">
@@ -12161,13 +12274,13 @@
       <c r="K111" t="s">
         <v>33</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L111" s="29" t="s">
         <v>217</v>
       </c>
       <c r="M111">
         <v>6</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="29">
         <v>3</v>
       </c>
       <c r="O111" t="s">
@@ -12176,7 +12289,7 @@
       <c r="P111">
         <v>3</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="Q111" s="29" t="s">
         <v>202</v>
       </c>
       <c r="S111" t="s">
@@ -12188,16 +12301,19 @@
       <c r="U111" t="s">
         <v>38</v>
       </c>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
       <c r="Y111" t="s">
         <v>39</v>
       </c>
       <c r="AA111" t="s">
         <v>40</v>
       </c>
-      <c r="AB111" t="s">
+      <c r="AB111" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AC111" t="s">
+      <c r="AC111" s="29" t="s">
         <v>350</v>
       </c>
     </row>
@@ -22779,7 +22895,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>774</v>
       </c>
@@ -23152,7 +23268,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>778</v>
       </c>
@@ -23235,7 +23351,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>779</v>
       </c>
@@ -23783,7 +23899,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>780</v>
       </c>
@@ -24162,7 +24278,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>781</v>
       </c>
@@ -24239,7 +24355,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>782</v>
       </c>
@@ -24793,7 +24909,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>783</v>
       </c>
@@ -25166,7 +25282,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
         <v>784</v>
       </c>
@@ -25244,16 +25360,16 @@
       </c>
     </row>
     <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="13">
         <v>5</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E273">
@@ -25265,7 +25381,7 @@
       <c r="G273">
         <v>3</v>
       </c>
-      <c r="H273" t="s">
+      <c r="H273" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I273" t="s">
@@ -25277,13 +25393,13 @@
       <c r="K273" t="s">
         <v>33</v>
       </c>
-      <c r="L273" t="s">
+      <c r="L273" s="13" t="s">
         <v>838</v>
       </c>
       <c r="M273">
         <v>10</v>
       </c>
-      <c r="N273">
+      <c r="N273" s="13">
         <v>1</v>
       </c>
       <c r="O273" t="s">
@@ -25292,7 +25408,7 @@
       <c r="P273">
         <v>3</v>
       </c>
-      <c r="Q273" t="s">
+      <c r="Q273" s="13" t="s">
         <v>123</v>
       </c>
       <c r="S273" t="s">
@@ -25304,16 +25420,19 @@
       <c r="U273" t="s">
         <v>38</v>
       </c>
+      <c r="V273" s="13"/>
+      <c r="W273" s="13"/>
+      <c r="X273" s="13"/>
       <c r="Y273" t="s">
         <v>39</v>
       </c>
       <c r="AA273" t="s">
         <v>40</v>
       </c>
-      <c r="AB273" t="s">
+      <c r="AB273" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AC273" t="s">
+      <c r="AC273" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -25807,16 +25926,16 @@
       </c>
     </row>
     <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="12" t="s">
         <v>125</v>
       </c>
       <c r="B280" t="s">
         <v>29</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="13">
         <v>5</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E280">
@@ -25828,7 +25947,7 @@
       <c r="G280">
         <v>3</v>
       </c>
-      <c r="H280" t="s">
+      <c r="H280" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I280" t="s">
@@ -25840,13 +25959,13 @@
       <c r="K280" t="s">
         <v>33</v>
       </c>
-      <c r="L280" t="s">
+      <c r="L280" s="13" t="s">
         <v>838</v>
       </c>
       <c r="M280">
         <v>10</v>
       </c>
-      <c r="N280">
+      <c r="N280" s="13">
         <v>1</v>
       </c>
       <c r="O280" t="s">
@@ -25855,7 +25974,7 @@
       <c r="P280">
         <v>3</v>
       </c>
-      <c r="Q280" t="s">
+      <c r="Q280" s="13" t="s">
         <v>126</v>
       </c>
       <c r="S280" t="s">
@@ -25867,16 +25986,19 @@
       <c r="U280" t="s">
         <v>38</v>
       </c>
+      <c r="V280" s="13"/>
+      <c r="W280" s="13"/>
+      <c r="X280" s="13"/>
       <c r="Y280" t="s">
         <v>39</v>
       </c>
       <c r="AA280" t="s">
         <v>40</v>
       </c>
-      <c r="AB280" t="s">
+      <c r="AB280" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AC280" t="s">
+      <c r="AC280" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -26177,16 +26299,16 @@
       </c>
     </row>
     <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B285" t="s">
         <v>29</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="13">
         <v>5</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E285">
@@ -26198,7 +26320,7 @@
       <c r="G285">
         <v>3</v>
       </c>
-      <c r="H285" t="s">
+      <c r="H285" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I285" t="s">
@@ -26210,13 +26332,13 @@
       <c r="K285" t="s">
         <v>33</v>
       </c>
-      <c r="L285" t="s">
+      <c r="L285" s="13" t="s">
         <v>838</v>
       </c>
       <c r="M285">
         <v>10</v>
       </c>
-      <c r="N285">
+      <c r="N285" s="13">
         <v>1</v>
       </c>
       <c r="O285" t="s">
@@ -26225,7 +26347,7 @@
       <c r="P285">
         <v>3</v>
       </c>
-      <c r="Q285" t="s">
+      <c r="Q285" s="13" t="s">
         <v>128</v>
       </c>
       <c r="S285" t="s">
@@ -26237,30 +26359,33 @@
       <c r="U285" t="s">
         <v>38</v>
       </c>
+      <c r="V285" s="13"/>
+      <c r="W285" s="13"/>
+      <c r="X285" s="13"/>
       <c r="Y285" t="s">
         <v>39</v>
       </c>
       <c r="AA285" t="s">
         <v>40</v>
       </c>
-      <c r="AB285" t="s">
+      <c r="AB285" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AC285" t="s">
+      <c r="AC285" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B286" t="s">
         <v>29</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="13">
         <v>5</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E286">
@@ -26272,7 +26397,7 @@
       <c r="G286">
         <v>3</v>
       </c>
-      <c r="H286" t="s">
+      <c r="H286" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I286" t="s">
@@ -26284,13 +26409,13 @@
       <c r="K286" t="s">
         <v>33</v>
       </c>
-      <c r="L286" t="s">
+      <c r="L286" s="13" t="s">
         <v>838</v>
       </c>
       <c r="M286">
         <v>10</v>
       </c>
-      <c r="N286">
+      <c r="N286" s="13">
         <v>1</v>
       </c>
       <c r="O286" t="s">
@@ -26299,7 +26424,7 @@
       <c r="P286">
         <v>3</v>
       </c>
-      <c r="Q286" t="s">
+      <c r="Q286" s="13" t="s">
         <v>130</v>
       </c>
       <c r="S286" t="s">
@@ -26311,13 +26436,13 @@
       <c r="U286" t="s">
         <v>38</v>
       </c>
-      <c r="V286" t="s">
+      <c r="V286" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="W286" t="s">
+      <c r="W286" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="X286" t="s">
+      <c r="X286" s="13" t="s">
         <v>844</v>
       </c>
       <c r="Y286" t="s">
@@ -26326,10 +26451,10 @@
       <c r="AA286" t="s">
         <v>40</v>
       </c>
-      <c r="AB286" t="s">
+      <c r="AB286" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AC286" t="s">
+      <c r="AC286" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -26832,16 +26957,16 @@
       </c>
     </row>
     <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B293" t="s">
         <v>29</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="13">
         <v>5</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E293">
@@ -26853,7 +26978,7 @@
       <c r="G293">
         <v>3</v>
       </c>
-      <c r="H293" t="s">
+      <c r="H293" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I293" t="s">
@@ -26865,13 +26990,13 @@
       <c r="K293" t="s">
         <v>33</v>
       </c>
-      <c r="L293" t="s">
+      <c r="L293" s="13" t="s">
         <v>838</v>
       </c>
       <c r="M293">
         <v>10</v>
       </c>
-      <c r="N293">
+      <c r="N293" s="13">
         <v>1</v>
       </c>
       <c r="O293" t="s">
@@ -26880,7 +27005,7 @@
       <c r="P293">
         <v>3</v>
       </c>
-      <c r="Q293" t="s">
+      <c r="Q293" s="13" t="s">
         <v>135</v>
       </c>
       <c r="S293" t="s">
@@ -26892,16 +27017,19 @@
       <c r="U293" t="s">
         <v>38</v>
       </c>
+      <c r="V293" s="13"/>
+      <c r="W293" s="13"/>
+      <c r="X293" s="13"/>
       <c r="Y293" t="s">
         <v>39</v>
       </c>
       <c r="AA293" t="s">
         <v>40</v>
       </c>
-      <c r="AB293" t="s">
+      <c r="AB293" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AC293" t="s">
+      <c r="AC293" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -27220,16 +27348,16 @@
       </c>
     </row>
     <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B298" t="s">
         <v>29</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="13">
         <v>5</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E298">
@@ -27241,7 +27369,7 @@
       <c r="G298">
         <v>3</v>
       </c>
-      <c r="H298" t="s">
+      <c r="H298" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I298" t="s">
@@ -27253,13 +27381,13 @@
       <c r="K298" t="s">
         <v>33</v>
       </c>
-      <c r="L298" t="s">
+      <c r="L298" s="13" t="s">
         <v>838</v>
       </c>
       <c r="M298">
         <v>10</v>
       </c>
-      <c r="N298">
+      <c r="N298" s="13">
         <v>1</v>
       </c>
       <c r="O298" t="s">
@@ -27268,7 +27396,7 @@
       <c r="P298">
         <v>3</v>
       </c>
-      <c r="Q298" t="s">
+      <c r="Q298" s="13" t="s">
         <v>137</v>
       </c>
       <c r="S298" t="s">
@@ -27280,13 +27408,13 @@
       <c r="U298" t="s">
         <v>38</v>
       </c>
-      <c r="V298" t="s">
+      <c r="V298" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="W298" t="s">
+      <c r="W298" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="X298" t="s">
+      <c r="X298" s="13" t="s">
         <v>477</v>
       </c>
       <c r="Y298" t="s">
@@ -27295,24 +27423,24 @@
       <c r="AA298" t="s">
         <v>40</v>
       </c>
-      <c r="AB298" t="s">
+      <c r="AB298" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AC298" t="s">
+      <c r="AC298" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B299" t="s">
         <v>29</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="13">
         <v>5</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E299">
@@ -27324,7 +27452,7 @@
       <c r="G299">
         <v>3</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H299" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I299" t="s">
@@ -27336,13 +27464,13 @@
       <c r="K299" t="s">
         <v>33</v>
       </c>
-      <c r="L299" t="s">
+      <c r="L299" s="13" t="s">
         <v>838</v>
       </c>
       <c r="M299">
         <v>10</v>
       </c>
-      <c r="N299">
+      <c r="N299" s="13">
         <v>1</v>
       </c>
       <c r="O299" t="s">
@@ -27351,7 +27479,7 @@
       <c r="P299">
         <v>3</v>
       </c>
-      <c r="Q299" t="s">
+      <c r="Q299" s="13" t="s">
         <v>141</v>
       </c>
       <c r="S299" t="s">
@@ -27363,16 +27491,19 @@
       <c r="U299" t="s">
         <v>38</v>
       </c>
+      <c r="V299" s="13"/>
+      <c r="W299" s="13"/>
+      <c r="X299" s="13"/>
       <c r="Y299" t="s">
         <v>39</v>
       </c>
       <c r="AA299" t="s">
         <v>40</v>
       </c>
-      <c r="AB299" t="s">
+      <c r="AB299" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AC299" t="s">
+      <c r="AC299" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -27875,16 +28006,16 @@
       </c>
     </row>
     <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="12" t="s">
         <v>142</v>
       </c>
       <c r="B306" t="s">
         <v>29</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="13">
         <v>5</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E306">
@@ -27896,7 +28027,7 @@
       <c r="G306">
         <v>3</v>
       </c>
-      <c r="H306" t="s">
+      <c r="H306" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I306" t="s">
@@ -27908,13 +28039,13 @@
       <c r="K306" t="s">
         <v>33</v>
       </c>
-      <c r="L306" t="s">
+      <c r="L306" s="13" t="s">
         <v>838</v>
       </c>
       <c r="M306">
         <v>10</v>
       </c>
-      <c r="N306">
+      <c r="N306" s="13">
         <v>1</v>
       </c>
       <c r="O306" t="s">
@@ -27923,7 +28054,7 @@
       <c r="P306">
         <v>3</v>
       </c>
-      <c r="Q306" t="s">
+      <c r="Q306" s="13" t="s">
         <v>143</v>
       </c>
       <c r="R306" t="s">
@@ -27938,13 +28069,13 @@
       <c r="U306" t="s">
         <v>38</v>
       </c>
-      <c r="V306" t="s">
+      <c r="V306" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="W306" t="s">
+      <c r="W306" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="X306" t="s">
+      <c r="X306" s="13" t="s">
         <v>160</v>
       </c>
       <c r="Y306" t="s">
@@ -27953,10 +28084,10 @@
       <c r="AA306" t="s">
         <v>40</v>
       </c>
-      <c r="AB306" t="s">
+      <c r="AB306" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AC306" t="s">
+      <c r="AC306" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -28257,16 +28388,16 @@
       </c>
     </row>
     <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="16" t="s">
         <v>356</v>
       </c>
       <c r="B311" t="s">
         <v>29</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="17">
         <v>12</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E311">
@@ -28278,7 +28409,7 @@
       <c r="G311">
         <v>1</v>
       </c>
-      <c r="H311" t="s">
+      <c r="H311" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I311" t="s">
@@ -28290,13 +28421,13 @@
       <c r="K311" t="s">
         <v>33</v>
       </c>
-      <c r="L311" t="s">
+      <c r="L311" s="17" t="s">
         <v>838</v>
       </c>
       <c r="M311">
         <v>12</v>
       </c>
-      <c r="N311">
+      <c r="N311" s="17">
         <v>1</v>
       </c>
       <c r="O311" t="s">
@@ -28305,7 +28436,7 @@
       <c r="P311">
         <v>3</v>
       </c>
-      <c r="Q311" t="s">
+      <c r="Q311" s="17" t="s">
         <v>123</v>
       </c>
       <c r="S311" t="s">
@@ -28317,30 +28448,33 @@
       <c r="U311" t="s">
         <v>38</v>
       </c>
+      <c r="V311" s="17"/>
+      <c r="W311" s="17"/>
+      <c r="X311" s="17"/>
       <c r="Y311" t="s">
         <v>39</v>
       </c>
       <c r="AA311" t="s">
         <v>40</v>
       </c>
-      <c r="AB311" t="s">
+      <c r="AB311" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AC311" t="s">
+      <c r="AC311" s="17" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="16" t="s">
         <v>436</v>
       </c>
       <c r="B312" t="s">
         <v>29</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="17">
         <v>12</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E312">
@@ -28352,7 +28486,7 @@
       <c r="G312">
         <v>1</v>
       </c>
-      <c r="H312" t="s">
+      <c r="H312" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I312" t="s">
@@ -28364,13 +28498,13 @@
       <c r="K312" t="s">
         <v>33</v>
       </c>
-      <c r="L312" t="s">
+      <c r="L312" s="17" t="s">
         <v>838</v>
       </c>
       <c r="M312">
         <v>12</v>
       </c>
-      <c r="N312">
+      <c r="N312" s="17">
         <v>1</v>
       </c>
       <c r="O312" t="s">
@@ -28379,7 +28513,7 @@
       <c r="P312">
         <v>3</v>
       </c>
-      <c r="Q312" t="s">
+      <c r="Q312" s="17" t="s">
         <v>126</v>
       </c>
       <c r="S312" t="s">
@@ -28391,16 +28525,19 @@
       <c r="U312" t="s">
         <v>38</v>
       </c>
+      <c r="V312" s="17"/>
+      <c r="W312" s="17"/>
+      <c r="X312" s="17"/>
       <c r="Y312" t="s">
         <v>39</v>
       </c>
       <c r="AA312" t="s">
         <v>40</v>
       </c>
-      <c r="AB312" t="s">
+      <c r="AB312" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AC312" t="s">
+      <c r="AC312" s="17" t="s">
         <v>641</v>
       </c>
     </row>
@@ -28903,16 +29040,16 @@
       </c>
     </row>
     <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="16" t="s">
         <v>437</v>
       </c>
       <c r="B319" t="s">
         <v>29</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="17">
         <v>12</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E319">
@@ -28924,7 +29061,7 @@
       <c r="G319">
         <v>1</v>
       </c>
-      <c r="H319" t="s">
+      <c r="H319" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I319" t="s">
@@ -28936,13 +29073,13 @@
       <c r="K319" t="s">
         <v>33</v>
       </c>
-      <c r="L319" t="s">
+      <c r="L319" s="17" t="s">
         <v>838</v>
       </c>
       <c r="M319">
         <v>12</v>
       </c>
-      <c r="N319">
+      <c r="N319" s="17">
         <v>1</v>
       </c>
       <c r="O319" t="s">
@@ -28951,7 +29088,7 @@
       <c r="P319">
         <v>3</v>
       </c>
-      <c r="Q319" t="s">
+      <c r="Q319" s="17" t="s">
         <v>128</v>
       </c>
       <c r="S319" t="s">
@@ -28963,16 +29100,19 @@
       <c r="U319" t="s">
         <v>38</v>
       </c>
+      <c r="V319" s="17"/>
+      <c r="W319" s="17"/>
+      <c r="X319" s="17"/>
       <c r="Y319" t="s">
         <v>39</v>
       </c>
       <c r="AA319" t="s">
         <v>40</v>
       </c>
-      <c r="AB319" t="s">
+      <c r="AB319" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AC319" t="s">
+      <c r="AC319" s="17" t="s">
         <v>641</v>
       </c>
     </row>
@@ -29273,16 +29413,16 @@
       </c>
     </row>
     <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="16" t="s">
         <v>440</v>
       </c>
       <c r="B324" t="s">
         <v>29</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="17">
         <v>12</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E324">
@@ -29294,7 +29434,7 @@
       <c r="G324">
         <v>1</v>
       </c>
-      <c r="H324" t="s">
+      <c r="H324" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I324" t="s">
@@ -29306,13 +29446,13 @@
       <c r="K324" t="s">
         <v>33</v>
       </c>
-      <c r="L324" t="s">
+      <c r="L324" s="17" t="s">
         <v>838</v>
       </c>
       <c r="M324">
         <v>12</v>
       </c>
-      <c r="N324">
+      <c r="N324" s="17">
         <v>1</v>
       </c>
       <c r="O324" t="s">
@@ -29321,7 +29461,7 @@
       <c r="P324">
         <v>3</v>
       </c>
-      <c r="Q324" t="s">
+      <c r="Q324" s="17" t="s">
         <v>130</v>
       </c>
       <c r="S324" t="s">
@@ -29333,13 +29473,13 @@
       <c r="U324" t="s">
         <v>38</v>
       </c>
-      <c r="V324" t="s">
+      <c r="V324" s="17" t="s">
         <v>842</v>
       </c>
-      <c r="W324" t="s">
+      <c r="W324" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="X324" t="s">
+      <c r="X324" s="17" t="s">
         <v>844</v>
       </c>
       <c r="Y324" t="s">
@@ -29348,24 +29488,24 @@
       <c r="AA324" t="s">
         <v>40</v>
       </c>
-      <c r="AB324" t="s">
+      <c r="AB324" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AC324" t="s">
+      <c r="AC324" s="17" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="16" t="s">
         <v>441</v>
       </c>
       <c r="B325" t="s">
         <v>29</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="17">
         <v>12</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E325">
@@ -29377,7 +29517,7 @@
       <c r="G325">
         <v>1</v>
       </c>
-      <c r="H325" t="s">
+      <c r="H325" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I325" t="s">
@@ -29389,13 +29529,13 @@
       <c r="K325" t="s">
         <v>33</v>
       </c>
-      <c r="L325" t="s">
+      <c r="L325" s="17" t="s">
         <v>838</v>
       </c>
       <c r="M325">
         <v>12</v>
       </c>
-      <c r="N325">
+      <c r="N325" s="17">
         <v>1</v>
       </c>
       <c r="O325" t="s">
@@ -29404,7 +29544,7 @@
       <c r="P325">
         <v>3</v>
       </c>
-      <c r="Q325" t="s">
+      <c r="Q325" s="17" t="s">
         <v>135</v>
       </c>
       <c r="S325" t="s">
@@ -29416,16 +29556,19 @@
       <c r="U325" t="s">
         <v>38</v>
       </c>
+      <c r="V325" s="17"/>
+      <c r="W325" s="17"/>
+      <c r="X325" s="17"/>
       <c r="Y325" t="s">
         <v>39</v>
       </c>
       <c r="AA325" t="s">
         <v>40</v>
       </c>
-      <c r="AB325" t="s">
+      <c r="AB325" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AC325" t="s">
+      <c r="AC325" s="17" t="s">
         <v>641</v>
       </c>
     </row>
@@ -29937,16 +30080,16 @@
       </c>
     </row>
     <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="16" t="s">
         <v>442</v>
       </c>
       <c r="B332" t="s">
         <v>29</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="17">
         <v>12</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E332">
@@ -29958,7 +30101,7 @@
       <c r="G332">
         <v>1</v>
       </c>
-      <c r="H332" t="s">
+      <c r="H332" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I332" t="s">
@@ -29970,13 +30113,13 @@
       <c r="K332" t="s">
         <v>33</v>
       </c>
-      <c r="L332" t="s">
+      <c r="L332" s="17" t="s">
         <v>838</v>
       </c>
       <c r="M332">
         <v>12</v>
       </c>
-      <c r="N332">
+      <c r="N332" s="17">
         <v>1</v>
       </c>
       <c r="O332" t="s">
@@ -29985,7 +30128,7 @@
       <c r="P332">
         <v>3</v>
       </c>
-      <c r="Q332" t="s">
+      <c r="Q332" s="17" t="s">
         <v>137</v>
       </c>
       <c r="S332" t="s">
@@ -29997,13 +30140,13 @@
       <c r="U332" t="s">
         <v>38</v>
       </c>
-      <c r="V332" t="s">
+      <c r="V332" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="W332" t="s">
+      <c r="W332" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="X332" t="s">
+      <c r="X332" s="17" t="s">
         <v>477</v>
       </c>
       <c r="Y332" t="s">
@@ -30012,10 +30155,10 @@
       <c r="AA332" t="s">
         <v>40</v>
       </c>
-      <c r="AB332" t="s">
+      <c r="AB332" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AC332" t="s">
+      <c r="AC332" s="17" t="s">
         <v>641</v>
       </c>
     </row>
@@ -30328,16 +30471,16 @@
       </c>
     </row>
     <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="16" t="s">
         <v>444</v>
       </c>
       <c r="B337" t="s">
         <v>29</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="17">
         <v>12</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E337">
@@ -30349,7 +30492,7 @@
       <c r="G337">
         <v>1</v>
       </c>
-      <c r="H337" t="s">
+      <c r="H337" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I337" t="s">
@@ -30361,13 +30504,13 @@
       <c r="K337" t="s">
         <v>33</v>
       </c>
-      <c r="L337" t="s">
+      <c r="L337" s="17" t="s">
         <v>838</v>
       </c>
       <c r="M337">
         <v>12</v>
       </c>
-      <c r="N337">
+      <c r="N337" s="17">
         <v>1</v>
       </c>
       <c r="O337" t="s">
@@ -30376,7 +30519,7 @@
       <c r="P337">
         <v>3</v>
       </c>
-      <c r="Q337" t="s">
+      <c r="Q337" s="17" t="s">
         <v>141</v>
       </c>
       <c r="S337" t="s">
@@ -30388,30 +30531,33 @@
       <c r="U337" t="s">
         <v>38</v>
       </c>
+      <c r="V337" s="17"/>
+      <c r="W337" s="17"/>
+      <c r="X337" s="17"/>
       <c r="Y337" t="s">
         <v>39</v>
       </c>
       <c r="AA337" t="s">
         <v>40</v>
       </c>
-      <c r="AB337" t="s">
+      <c r="AB337" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AC337" t="s">
+      <c r="AC337" s="17" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="16" t="s">
         <v>448</v>
       </c>
       <c r="B338" t="s">
         <v>29</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="17">
         <v>12</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E338">
@@ -30423,7 +30569,7 @@
       <c r="G338">
         <v>1</v>
       </c>
-      <c r="H338" t="s">
+      <c r="H338" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I338" t="s">
@@ -30435,13 +30581,13 @@
       <c r="K338" t="s">
         <v>33</v>
       </c>
-      <c r="L338" t="s">
+      <c r="L338" s="17" t="s">
         <v>838</v>
       </c>
       <c r="M338">
         <v>12</v>
       </c>
-      <c r="N338">
+      <c r="N338" s="17">
         <v>1</v>
       </c>
       <c r="O338" t="s">
@@ -30450,7 +30596,7 @@
       <c r="P338">
         <v>3</v>
       </c>
-      <c r="Q338" t="s">
+      <c r="Q338" s="17" t="s">
         <v>143</v>
       </c>
       <c r="R338" t="s">
@@ -30465,13 +30611,13 @@
       <c r="U338" t="s">
         <v>38</v>
       </c>
-      <c r="V338" t="s">
+      <c r="V338" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="W338" t="s">
+      <c r="W338" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="X338" t="s">
+      <c r="X338" s="17" t="s">
         <v>160</v>
       </c>
       <c r="Y338" t="s">
@@ -30480,10 +30626,10 @@
       <c r="AA338" t="s">
         <v>40</v>
       </c>
-      <c r="AB338" t="s">
+      <c r="AB338" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AC338" t="s">
+      <c r="AC338" s="17" t="s">
         <v>641</v>
       </c>
     </row>
@@ -31151,17 +31297,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A347" s="26" t="s">
         <v>491</v>
       </c>
       <c r="B347" t="s">
         <v>29</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="27">
         <v>7</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E347">
@@ -31173,7 +31319,7 @@
       <c r="G347">
         <v>1</v>
       </c>
-      <c r="H347" t="s">
+      <c r="H347" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I347" t="s">
@@ -31185,13 +31331,13 @@
       <c r="K347" t="s">
         <v>33</v>
       </c>
-      <c r="L347" t="s">
+      <c r="L347" s="27" t="s">
         <v>868</v>
       </c>
       <c r="M347">
         <v>16</v>
       </c>
-      <c r="N347">
+      <c r="N347" s="27">
         <v>3</v>
       </c>
       <c r="O347" t="s">
@@ -31200,7 +31346,7 @@
       <c r="P347">
         <v>4</v>
       </c>
-      <c r="Q347" t="s">
+      <c r="Q347" s="27" t="s">
         <v>175</v>
       </c>
       <c r="S347" t="s">
@@ -31212,13 +31358,13 @@
       <c r="U347" t="s">
         <v>38</v>
       </c>
-      <c r="V347" t="s">
+      <c r="V347" s="27" t="s">
         <v>827</v>
       </c>
-      <c r="W347" t="s">
+      <c r="W347" s="27" t="s">
         <v>828</v>
       </c>
-      <c r="X347" t="s">
+      <c r="X347" s="27" t="s">
         <v>829</v>
       </c>
       <c r="Y347" t="s">
@@ -31227,10 +31373,10 @@
       <c r="AA347" t="s">
         <v>40</v>
       </c>
-      <c r="AB347" t="s">
+      <c r="AB347" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AC347" t="s">
+      <c r="AC347" s="27" t="s">
         <v>641</v>
       </c>
     </row>
@@ -31797,17 +31943,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A355" s="26" t="s">
         <v>496</v>
       </c>
       <c r="B355" t="s">
         <v>29</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="27">
         <v>7</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E355">
@@ -31819,7 +31965,7 @@
       <c r="G355">
         <v>1</v>
       </c>
-      <c r="H355" t="s">
+      <c r="H355" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I355" t="s">
@@ -31831,13 +31977,13 @@
       <c r="K355" t="s">
         <v>33</v>
       </c>
-      <c r="L355" t="s">
+      <c r="L355" s="27" t="s">
         <v>548</v>
       </c>
       <c r="M355">
         <v>16</v>
       </c>
-      <c r="N355">
+      <c r="N355" s="27">
         <v>3</v>
       </c>
       <c r="O355" t="s">
@@ -31846,7 +31992,7 @@
       <c r="P355">
         <v>4</v>
       </c>
-      <c r="Q355" t="s">
+      <c r="Q355" s="27" t="s">
         <v>179</v>
       </c>
       <c r="S355" t="s">
@@ -31858,16 +32004,19 @@
       <c r="U355" t="s">
         <v>38</v>
       </c>
+      <c r="V355" s="27"/>
+      <c r="W355" s="27"/>
+      <c r="X355" s="27"/>
       <c r="Y355" t="s">
         <v>39</v>
       </c>
       <c r="AA355" t="s">
         <v>40</v>
       </c>
-      <c r="AB355" t="s">
+      <c r="AB355" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AC355" t="s">
+      <c r="AC355" s="27" t="s">
         <v>641</v>
       </c>
     </row>
@@ -32452,17 +32601,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A363" s="26" t="s">
         <v>497</v>
       </c>
       <c r="B363" t="s">
         <v>29</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="27">
         <v>7</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E363">
@@ -32474,7 +32623,7 @@
       <c r="G363">
         <v>1</v>
       </c>
-      <c r="H363" t="s">
+      <c r="H363" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I363" t="s">
@@ -32486,13 +32635,13 @@
       <c r="K363" t="s">
         <v>33</v>
       </c>
-      <c r="L363" t="s">
+      <c r="L363" s="27" t="s">
         <v>548</v>
       </c>
       <c r="M363">
         <v>24</v>
       </c>
-      <c r="N363">
+      <c r="N363" s="27">
         <v>3</v>
       </c>
       <c r="O363" t="s">
@@ -32501,7 +32650,7 @@
       <c r="P363">
         <v>3</v>
       </c>
-      <c r="Q363" t="s">
+      <c r="Q363" s="27" t="s">
         <v>184</v>
       </c>
       <c r="S363" t="s">
@@ -32513,13 +32662,13 @@
       <c r="U363" t="s">
         <v>38</v>
       </c>
-      <c r="V363" t="s">
+      <c r="V363" s="27" t="s">
         <v>869</v>
       </c>
-      <c r="W363" t="s">
+      <c r="W363" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="X363" t="s">
+      <c r="X363" s="27" t="s">
         <v>870</v>
       </c>
       <c r="Y363" t="s">
@@ -32528,10 +32677,10 @@
       <c r="AA363" t="s">
         <v>40</v>
       </c>
-      <c r="AB363" t="s">
+      <c r="AB363" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AC363" t="s">
+      <c r="AC363" s="27" t="s">
         <v>641</v>
       </c>
     </row>
@@ -33107,17 +33256,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>500</v>
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A371" s="26" t="s">
+        <v>504</v>
       </c>
       <c r="B371" t="s">
         <v>29</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="27">
         <v>7</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E371">
@@ -33129,7 +33278,7 @@
       <c r="G371">
         <v>1</v>
       </c>
-      <c r="H371" t="s">
+      <c r="H371" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I371" t="s">
@@ -33141,13 +33290,13 @@
       <c r="K371" t="s">
         <v>33</v>
       </c>
-      <c r="L371" t="s">
-        <v>873</v>
+      <c r="L371" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="M371">
         <v>24</v>
       </c>
-      <c r="N371">
+      <c r="N371" s="27">
         <v>3</v>
       </c>
       <c r="O371" t="s">
@@ -33156,8 +33305,8 @@
       <c r="P371">
         <v>3</v>
       </c>
-      <c r="Q371" t="s">
-        <v>188</v>
+      <c r="Q371" s="27" t="s">
+        <v>198</v>
       </c>
       <c r="S371" t="s">
         <v>124</v>
@@ -33168,16 +33317,19 @@
       <c r="U371" t="s">
         <v>38</v>
       </c>
+      <c r="V371" s="27"/>
+      <c r="W371" s="27"/>
+      <c r="X371" s="27"/>
       <c r="Y371" t="s">
         <v>39</v>
       </c>
       <c r="AA371" t="s">
         <v>40</v>
       </c>
-      <c r="AB371" t="s">
+      <c r="AB371" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AC371" t="s">
+      <c r="AC371" s="27" t="s">
         <v>641</v>
       </c>
     </row>
@@ -33845,17 +33997,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>501</v>
+    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A380" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="B380" t="s">
         <v>29</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="27">
         <v>7</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E380">
@@ -33867,7 +34019,7 @@
       <c r="G380">
         <v>1</v>
       </c>
-      <c r="H380" t="s">
+      <c r="H380" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I380" t="s">
@@ -33879,13 +34031,13 @@
       <c r="K380" t="s">
         <v>33</v>
       </c>
-      <c r="L380" t="s">
-        <v>873</v>
+      <c r="L380" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="M380">
         <v>24</v>
       </c>
-      <c r="N380">
+      <c r="N380" s="27">
         <v>3</v>
       </c>
       <c r="O380" t="s">
@@ -33894,8 +34046,8 @@
       <c r="P380">
         <v>3</v>
       </c>
-      <c r="Q380" t="s">
-        <v>193</v>
+      <c r="Q380" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="S380" t="s">
         <v>124</v>
@@ -33906,16 +34058,19 @@
       <c r="U380" t="s">
         <v>38</v>
       </c>
+      <c r="V380" s="27"/>
+      <c r="W380" s="27"/>
+      <c r="X380" s="27"/>
       <c r="Y380" t="s">
         <v>39</v>
       </c>
       <c r="AA380" t="s">
         <v>40</v>
       </c>
-      <c r="AB380" t="s">
+      <c r="AB380" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AC380" t="s">
+      <c r="AC380" s="27" t="s">
         <v>641</v>
       </c>
     </row>
@@ -34500,17 +34655,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="388" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>504</v>
+    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A388" s="26" t="s">
+        <v>500</v>
       </c>
       <c r="B388" t="s">
         <v>29</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="27">
         <v>7</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E388">
@@ -34522,7 +34677,7 @@
       <c r="G388">
         <v>1</v>
       </c>
-      <c r="H388" t="s">
+      <c r="H388" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I388" t="s">
@@ -34534,13 +34689,13 @@
       <c r="K388" t="s">
         <v>33</v>
       </c>
-      <c r="L388" t="s">
-        <v>548</v>
+      <c r="L388" s="27" t="s">
+        <v>873</v>
       </c>
       <c r="M388">
         <v>24</v>
       </c>
-      <c r="N388">
+      <c r="N388" s="27">
         <v>3</v>
       </c>
       <c r="O388" t="s">
@@ -34549,8 +34704,8 @@
       <c r="P388">
         <v>3</v>
       </c>
-      <c r="Q388" t="s">
-        <v>198</v>
+      <c r="Q388" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="S388" t="s">
         <v>124</v>
@@ -34561,16 +34716,19 @@
       <c r="U388" t="s">
         <v>38</v>
       </c>
+      <c r="V388" s="27"/>
+      <c r="W388" s="27"/>
+      <c r="X388" s="27"/>
       <c r="Y388" t="s">
         <v>39</v>
       </c>
       <c r="AA388" t="s">
         <v>40</v>
       </c>
-      <c r="AB388" t="s">
+      <c r="AB388" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AC388" t="s">
+      <c r="AC388" s="27" t="s">
         <v>641</v>
       </c>
     </row>
@@ -35155,17 +35313,17 @@
         <v>641</v>
       </c>
     </row>
-    <row r="396" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
-        <v>508</v>
+    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A396" s="26" t="s">
+        <v>501</v>
       </c>
       <c r="B396" t="s">
         <v>29</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="27">
         <v>7</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E396">
@@ -35177,7 +35335,7 @@
       <c r="G396">
         <v>1</v>
       </c>
-      <c r="H396" t="s">
+      <c r="H396" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I396" t="s">
@@ -35189,13 +35347,13 @@
       <c r="K396" t="s">
         <v>33</v>
       </c>
-      <c r="L396" t="s">
-        <v>548</v>
+      <c r="L396" s="27" t="s">
+        <v>873</v>
       </c>
       <c r="M396">
         <v>24</v>
       </c>
-      <c r="N396">
+      <c r="N396" s="27">
         <v>3</v>
       </c>
       <c r="O396" t="s">
@@ -35204,8 +35362,8 @@
       <c r="P396">
         <v>3</v>
       </c>
-      <c r="Q396" t="s">
-        <v>202</v>
+      <c r="Q396" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="S396" t="s">
         <v>124</v>
@@ -35216,16 +35374,19 @@
       <c r="U396" t="s">
         <v>38</v>
       </c>
+      <c r="V396" s="27"/>
+      <c r="W396" s="27"/>
+      <c r="X396" s="27"/>
       <c r="Y396" t="s">
         <v>39</v>
       </c>
       <c r="AA396" t="s">
         <v>40</v>
       </c>
-      <c r="AB396" t="s">
+      <c r="AB396" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AC396" t="s">
+      <c r="AC396" s="27" t="s">
         <v>641</v>
       </c>
     </row>
@@ -48463,16 +48624,16 @@
       </c>
     </row>
     <row r="559" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="14" t="s">
         <v>679</v>
       </c>
       <c r="B559" t="s">
         <v>29</v>
       </c>
-      <c r="C559">
+      <c r="C559" s="15">
         <v>5</v>
       </c>
-      <c r="D559" t="s">
+      <c r="D559" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E559">
@@ -48484,7 +48645,7 @@
       <c r="G559">
         <v>2</v>
       </c>
-      <c r="H559" t="s">
+      <c r="H559" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I559" t="s">
@@ -48496,13 +48657,13 @@
       <c r="K559" t="s">
         <v>33</v>
       </c>
-      <c r="L559" t="s">
+      <c r="L559" s="15" t="s">
         <v>838</v>
       </c>
       <c r="M559">
         <v>12</v>
       </c>
-      <c r="N559">
+      <c r="N559" s="15">
         <v>1</v>
       </c>
       <c r="O559" t="s">
@@ -48511,7 +48672,7 @@
       <c r="P559">
         <v>3</v>
       </c>
-      <c r="Q559" t="s">
+      <c r="Q559" s="15" t="s">
         <v>123</v>
       </c>
       <c r="S559" t="s">
@@ -48523,30 +48684,33 @@
       <c r="U559" t="s">
         <v>38</v>
       </c>
+      <c r="V559" s="15"/>
+      <c r="W559" s="15"/>
+      <c r="X559" s="15"/>
       <c r="Y559" t="s">
         <v>39</v>
       </c>
       <c r="AA559" t="s">
         <v>40</v>
       </c>
-      <c r="AB559" t="s">
+      <c r="AB559" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AC559" t="s">
+      <c r="AC559" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="560" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="14" t="s">
         <v>712</v>
       </c>
       <c r="B560" t="s">
         <v>29</v>
       </c>
-      <c r="C560">
+      <c r="C560" s="15">
         <v>5</v>
       </c>
-      <c r="D560" t="s">
+      <c r="D560" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E560">
@@ -48558,7 +48722,7 @@
       <c r="G560">
         <v>2</v>
       </c>
-      <c r="H560" t="s">
+      <c r="H560" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I560" t="s">
@@ -48570,13 +48734,13 @@
       <c r="K560" t="s">
         <v>33</v>
       </c>
-      <c r="L560" t="s">
+      <c r="L560" s="15" t="s">
         <v>838</v>
       </c>
       <c r="M560">
         <v>12</v>
       </c>
-      <c r="N560">
+      <c r="N560" s="15">
         <v>1</v>
       </c>
       <c r="O560" t="s">
@@ -48585,7 +48749,7 @@
       <c r="P560">
         <v>3</v>
       </c>
-      <c r="Q560" t="s">
+      <c r="Q560" s="15" t="s">
         <v>126</v>
       </c>
       <c r="S560" t="s">
@@ -48597,30 +48761,33 @@
       <c r="U560" t="s">
         <v>38</v>
       </c>
+      <c r="V560" s="15"/>
+      <c r="W560" s="15"/>
+      <c r="X560" s="15"/>
       <c r="Y560" t="s">
         <v>39</v>
       </c>
       <c r="AA560" t="s">
         <v>40</v>
       </c>
-      <c r="AB560" t="s">
+      <c r="AB560" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AC560" t="s">
+      <c r="AC560" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="561" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="14" t="s">
         <v>713</v>
       </c>
       <c r="B561" t="s">
         <v>29</v>
       </c>
-      <c r="C561">
+      <c r="C561" s="15">
         <v>5</v>
       </c>
-      <c r="D561" t="s">
+      <c r="D561" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E561">
@@ -48632,7 +48799,7 @@
       <c r="G561">
         <v>2</v>
       </c>
-      <c r="H561" t="s">
+      <c r="H561" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I561" t="s">
@@ -48644,13 +48811,13 @@
       <c r="K561" t="s">
         <v>33</v>
       </c>
-      <c r="L561" t="s">
+      <c r="L561" s="15" t="s">
         <v>838</v>
       </c>
       <c r="M561">
         <v>12</v>
       </c>
-      <c r="N561">
+      <c r="N561" s="15">
         <v>1</v>
       </c>
       <c r="O561" t="s">
@@ -48659,7 +48826,7 @@
       <c r="P561">
         <v>3</v>
       </c>
-      <c r="Q561" t="s">
+      <c r="Q561" s="15" t="s">
         <v>128</v>
       </c>
       <c r="S561" t="s">
@@ -48671,16 +48838,19 @@
       <c r="U561" t="s">
         <v>38</v>
       </c>
+      <c r="V561" s="15"/>
+      <c r="W561" s="15"/>
+      <c r="X561" s="15"/>
       <c r="Y561" t="s">
         <v>39</v>
       </c>
       <c r="AA561" t="s">
         <v>40</v>
       </c>
-      <c r="AB561" t="s">
+      <c r="AB561" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AC561" t="s">
+      <c r="AC561" s="15" t="s">
         <v>890</v>
       </c>
     </row>
@@ -48833,16 +49003,16 @@
       </c>
     </row>
     <row r="564" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="14" t="s">
         <v>714</v>
       </c>
       <c r="B564" t="s">
         <v>29</v>
       </c>
-      <c r="C564">
+      <c r="C564" s="15">
         <v>5</v>
       </c>
-      <c r="D564" t="s">
+      <c r="D564" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E564">
@@ -48854,7 +49024,7 @@
       <c r="G564">
         <v>2</v>
       </c>
-      <c r="H564" t="s">
+      <c r="H564" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I564" t="s">
@@ -48866,13 +49036,13 @@
       <c r="K564" t="s">
         <v>33</v>
       </c>
-      <c r="L564" t="s">
+      <c r="L564" s="15" t="s">
         <v>838</v>
       </c>
       <c r="M564">
         <v>12</v>
       </c>
-      <c r="N564">
+      <c r="N564" s="15">
         <v>1</v>
       </c>
       <c r="O564" t="s">
@@ -48881,7 +49051,7 @@
       <c r="P564">
         <v>3</v>
       </c>
-      <c r="Q564" t="s">
+      <c r="Q564" s="15" t="s">
         <v>130</v>
       </c>
       <c r="S564" t="s">
@@ -48893,13 +49063,13 @@
       <c r="U564" t="s">
         <v>38</v>
       </c>
-      <c r="V564" t="s">
+      <c r="V564" s="15" t="s">
         <v>842</v>
       </c>
-      <c r="W564" t="s">
+      <c r="W564" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="X564" t="s">
+      <c r="X564" s="15" t="s">
         <v>844</v>
       </c>
       <c r="Y564" t="s">
@@ -48908,24 +49078,24 @@
       <c r="AA564" t="s">
         <v>40</v>
       </c>
-      <c r="AB564" t="s">
+      <c r="AB564" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AC564" t="s">
+      <c r="AC564" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="565" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="14" t="s">
         <v>715</v>
       </c>
       <c r="B565" t="s">
         <v>29</v>
       </c>
-      <c r="C565">
+      <c r="C565" s="15">
         <v>6</v>
       </c>
-      <c r="D565" t="s">
+      <c r="D565" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E565">
@@ -48937,7 +49107,7 @@
       <c r="G565">
         <v>2</v>
       </c>
-      <c r="H565" t="s">
+      <c r="H565" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I565" t="s">
@@ -48949,13 +49119,13 @@
       <c r="K565" t="s">
         <v>33</v>
       </c>
-      <c r="L565" t="s">
+      <c r="L565" s="15" t="s">
         <v>838</v>
       </c>
       <c r="M565">
         <v>12</v>
       </c>
-      <c r="N565">
+      <c r="N565" s="15">
         <v>1</v>
       </c>
       <c r="O565" t="s">
@@ -48964,7 +49134,7 @@
       <c r="P565">
         <v>3</v>
       </c>
-      <c r="Q565" t="s">
+      <c r="Q565" s="15" t="s">
         <v>135</v>
       </c>
       <c r="S565" t="s">
@@ -48976,30 +49146,33 @@
       <c r="U565" t="s">
         <v>38</v>
       </c>
+      <c r="V565" s="15"/>
+      <c r="W565" s="15"/>
+      <c r="X565" s="15"/>
       <c r="Y565" t="s">
         <v>39</v>
       </c>
       <c r="AA565" t="s">
         <v>40</v>
       </c>
-      <c r="AB565" t="s">
+      <c r="AB565" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AC565" t="s">
+      <c r="AC565" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="566" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="14" t="s">
         <v>716</v>
       </c>
       <c r="B566" t="s">
         <v>29</v>
       </c>
-      <c r="C566">
+      <c r="C566" s="15">
         <v>7</v>
       </c>
-      <c r="D566" t="s">
+      <c r="D566" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E566">
@@ -49011,7 +49184,7 @@
       <c r="G566">
         <v>2</v>
       </c>
-      <c r="H566" t="s">
+      <c r="H566" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I566" t="s">
@@ -49023,13 +49196,13 @@
       <c r="K566" t="s">
         <v>33</v>
       </c>
-      <c r="L566" t="s">
+      <c r="L566" s="15" t="s">
         <v>838</v>
       </c>
       <c r="M566">
         <v>12</v>
       </c>
-      <c r="N566">
+      <c r="N566" s="15">
         <v>1</v>
       </c>
       <c r="O566" t="s">
@@ -49038,7 +49211,7 @@
       <c r="P566">
         <v>3</v>
       </c>
-      <c r="Q566" t="s">
+      <c r="Q566" s="15" t="s">
         <v>137</v>
       </c>
       <c r="S566" t="s">
@@ -49050,13 +49223,13 @@
       <c r="U566" t="s">
         <v>38</v>
       </c>
-      <c r="V566" t="s">
+      <c r="V566" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="W566" t="s">
+      <c r="W566" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="X566" t="s">
+      <c r="X566" s="15" t="s">
         <v>477</v>
       </c>
       <c r="Y566" t="s">
@@ -49065,10 +49238,10 @@
       <c r="AA566" t="s">
         <v>40</v>
       </c>
-      <c r="AB566" t="s">
+      <c r="AB566" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AC566" t="s">
+      <c r="AC566" s="15" t="s">
         <v>890</v>
       </c>
     </row>
@@ -49239,16 +49412,16 @@
       </c>
     </row>
     <row r="569" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="14" t="s">
         <v>717</v>
       </c>
       <c r="B569" t="s">
         <v>29</v>
       </c>
-      <c r="C569">
+      <c r="C569" s="15">
         <v>7</v>
       </c>
-      <c r="D569" t="s">
+      <c r="D569" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E569">
@@ -49260,7 +49433,7 @@
       <c r="G569">
         <v>2</v>
       </c>
-      <c r="H569" t="s">
+      <c r="H569" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I569" t="s">
@@ -49272,13 +49445,13 @@
       <c r="K569" t="s">
         <v>33</v>
       </c>
-      <c r="L569" t="s">
+      <c r="L569" s="15" t="s">
         <v>838</v>
       </c>
       <c r="M569">
         <v>12</v>
       </c>
-      <c r="N569">
+      <c r="N569" s="15">
         <v>1</v>
       </c>
       <c r="O569" t="s">
@@ -49287,7 +49460,7 @@
       <c r="P569">
         <v>3</v>
       </c>
-      <c r="Q569" t="s">
+      <c r="Q569" s="15" t="s">
         <v>141</v>
       </c>
       <c r="S569" t="s">
@@ -49299,30 +49472,33 @@
       <c r="U569" t="s">
         <v>38</v>
       </c>
+      <c r="V569" s="15"/>
+      <c r="W569" s="15"/>
+      <c r="X569" s="15"/>
       <c r="Y569" t="s">
         <v>39</v>
       </c>
       <c r="AA569" t="s">
         <v>40</v>
       </c>
-      <c r="AB569" t="s">
+      <c r="AB569" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AC569" t="s">
+      <c r="AC569" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="570" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="14" t="s">
         <v>718</v>
       </c>
       <c r="B570" t="s">
         <v>29</v>
       </c>
-      <c r="C570">
+      <c r="C570" s="15">
         <v>5</v>
       </c>
-      <c r="D570" t="s">
+      <c r="D570" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E570">
@@ -49334,7 +49510,7 @@
       <c r="G570">
         <v>2</v>
       </c>
-      <c r="H570" t="s">
+      <c r="H570" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I570" t="s">
@@ -49346,13 +49522,13 @@
       <c r="K570" t="s">
         <v>33</v>
       </c>
-      <c r="L570" t="s">
+      <c r="L570" s="15" t="s">
         <v>838</v>
       </c>
       <c r="M570">
         <v>12</v>
       </c>
-      <c r="N570">
+      <c r="N570" s="15">
         <v>1</v>
       </c>
       <c r="O570" t="s">
@@ -49361,7 +49537,7 @@
       <c r="P570">
         <v>3</v>
       </c>
-      <c r="Q570" t="s">
+      <c r="Q570" s="15" t="s">
         <v>143</v>
       </c>
       <c r="R570" t="s">
@@ -49376,13 +49552,13 @@
       <c r="U570" t="s">
         <v>38</v>
       </c>
-      <c r="V570" t="s">
+      <c r="V570" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="W570" t="s">
+      <c r="W570" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="X570" t="s">
+      <c r="X570" s="15" t="s">
         <v>160</v>
       </c>
       <c r="Y570" t="s">
@@ -49391,24 +49567,24 @@
       <c r="AA570" t="s">
         <v>40</v>
       </c>
-      <c r="AB570" t="s">
+      <c r="AB570" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AC570" t="s">
+      <c r="AC570" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="571" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="18" t="s">
         <v>774</v>
       </c>
       <c r="B571" t="s">
         <v>29</v>
       </c>
-      <c r="C571">
+      <c r="C571" s="19">
         <v>5</v>
       </c>
-      <c r="D571" t="s">
+      <c r="D571" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E571">
@@ -49420,7 +49596,7 @@
       <c r="G571">
         <v>4</v>
       </c>
-      <c r="H571" t="s">
+      <c r="H571" s="19" t="s">
         <v>775</v>
       </c>
       <c r="I571" t="s">
@@ -49432,13 +49608,13 @@
       <c r="K571" t="s">
         <v>33</v>
       </c>
-      <c r="L571" t="s">
+      <c r="L571" s="19" t="s">
         <v>838</v>
       </c>
       <c r="M571">
         <v>8</v>
       </c>
-      <c r="N571">
+      <c r="N571" s="19">
         <v>1</v>
       </c>
       <c r="O571" t="s">
@@ -49447,7 +49623,7 @@
       <c r="P571">
         <v>3</v>
       </c>
-      <c r="Q571" t="s">
+      <c r="Q571" s="19" t="s">
         <v>123</v>
       </c>
       <c r="S571" t="s">
@@ -49459,16 +49635,19 @@
       <c r="U571" t="s">
         <v>38</v>
       </c>
+      <c r="V571" s="19"/>
+      <c r="W571" s="19"/>
+      <c r="X571" s="19"/>
       <c r="Y571" t="s">
         <v>39</v>
       </c>
       <c r="AA571" t="s">
         <v>40</v>
       </c>
-      <c r="AB571" t="s">
+      <c r="AB571" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC571" t="s">
+      <c r="AC571" s="19" t="s">
         <v>826</v>
       </c>
     </row>
@@ -49639,16 +49818,16 @@
       </c>
     </row>
     <row r="574" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="18" t="s">
         <v>778</v>
       </c>
       <c r="B574" t="s">
         <v>29</v>
       </c>
-      <c r="C574">
+      <c r="C574" s="19">
         <v>6</v>
       </c>
-      <c r="D574" t="s">
+      <c r="D574" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E574">
@@ -49660,7 +49839,7 @@
       <c r="G574">
         <v>4</v>
       </c>
-      <c r="H574" t="s">
+      <c r="H574" s="19" t="s">
         <v>775</v>
       </c>
       <c r="I574" t="s">
@@ -49672,13 +49851,13 @@
       <c r="K574" t="s">
         <v>33</v>
       </c>
-      <c r="L574" t="s">
+      <c r="L574" s="19" t="s">
         <v>838</v>
       </c>
       <c r="M574">
         <v>8</v>
       </c>
-      <c r="N574">
+      <c r="N574" s="19">
         <v>1</v>
       </c>
       <c r="O574" t="s">
@@ -49687,7 +49866,7 @@
       <c r="P574">
         <v>3</v>
       </c>
-      <c r="Q574" t="s">
+      <c r="Q574" s="19" t="s">
         <v>126</v>
       </c>
       <c r="S574" t="s">
@@ -49699,30 +49878,33 @@
       <c r="U574" t="s">
         <v>38</v>
       </c>
+      <c r="V574" s="19"/>
+      <c r="W574" s="19"/>
+      <c r="X574" s="19"/>
       <c r="Y574" t="s">
         <v>39</v>
       </c>
       <c r="AA574" t="s">
         <v>47</v>
       </c>
-      <c r="AB574" t="s">
+      <c r="AB574" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC574" t="s">
+      <c r="AC574" s="19" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="575" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="18" t="s">
         <v>779</v>
       </c>
       <c r="B575" t="s">
         <v>29</v>
       </c>
-      <c r="C575">
+      <c r="C575" s="19">
         <v>5</v>
       </c>
-      <c r="D575" t="s">
+      <c r="D575" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E575">
@@ -49734,7 +49916,7 @@
       <c r="G575">
         <v>4</v>
       </c>
-      <c r="H575" t="s">
+      <c r="H575" s="19" t="s">
         <v>775</v>
       </c>
       <c r="I575" t="s">
@@ -49746,13 +49928,13 @@
       <c r="K575" t="s">
         <v>33</v>
       </c>
-      <c r="L575" t="s">
+      <c r="L575" s="19" t="s">
         <v>838</v>
       </c>
       <c r="M575">
         <v>8</v>
       </c>
-      <c r="N575">
+      <c r="N575" s="19">
         <v>1</v>
       </c>
       <c r="O575" t="s">
@@ -49761,7 +49943,7 @@
       <c r="P575">
         <v>3</v>
       </c>
-      <c r="Q575" t="s">
+      <c r="Q575" s="19" t="s">
         <v>128</v>
       </c>
       <c r="S575" t="s">
@@ -49773,30 +49955,33 @@
       <c r="U575" t="s">
         <v>38</v>
       </c>
+      <c r="V575" s="19"/>
+      <c r="W575" s="19"/>
+      <c r="X575" s="19"/>
       <c r="Y575" t="s">
         <v>39</v>
       </c>
       <c r="AA575" t="s">
         <v>40</v>
       </c>
-      <c r="AB575" t="s">
+      <c r="AB575" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC575" t="s">
+      <c r="AC575" s="19" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="576" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="18" t="s">
         <v>780</v>
       </c>
       <c r="B576" t="s">
         <v>29</v>
       </c>
-      <c r="C576">
+      <c r="C576" s="19">
         <v>5</v>
       </c>
-      <c r="D576" t="s">
+      <c r="D576" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E576">
@@ -49808,7 +49993,7 @@
       <c r="G576">
         <v>4</v>
       </c>
-      <c r="H576" t="s">
+      <c r="H576" s="19" t="s">
         <v>775</v>
       </c>
       <c r="I576" t="s">
@@ -49820,13 +50005,13 @@
       <c r="K576" t="s">
         <v>33</v>
       </c>
-      <c r="L576" t="s">
+      <c r="L576" s="19" t="s">
         <v>838</v>
       </c>
       <c r="M576">
         <v>8</v>
       </c>
-      <c r="N576">
+      <c r="N576" s="19">
         <v>1</v>
       </c>
       <c r="O576" t="s">
@@ -49835,7 +50020,7 @@
       <c r="P576">
         <v>3</v>
       </c>
-      <c r="Q576" t="s">
+      <c r="Q576" s="19" t="s">
         <v>130</v>
       </c>
       <c r="S576" t="s">
@@ -49847,13 +50032,13 @@
       <c r="U576" t="s">
         <v>38</v>
       </c>
-      <c r="V576" t="s">
+      <c r="V576" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="W576" t="s">
+      <c r="W576" s="19" t="s">
         <v>843</v>
       </c>
-      <c r="X576" t="s">
+      <c r="X576" s="19" t="s">
         <v>844</v>
       </c>
       <c r="Y576" t="s">
@@ -49862,10 +50047,10 @@
       <c r="AA576" t="s">
         <v>40</v>
       </c>
-      <c r="AB576" t="s">
+      <c r="AB576" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC576" t="s">
+      <c r="AC576" s="19" t="s">
         <v>826</v>
       </c>
     </row>
@@ -50018,16 +50203,16 @@
       </c>
     </row>
     <row r="579" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="18" t="s">
         <v>781</v>
       </c>
       <c r="B579" t="s">
         <v>29</v>
       </c>
-      <c r="C579">
+      <c r="C579" s="19">
         <v>5</v>
       </c>
-      <c r="D579" t="s">
+      <c r="D579" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E579">
@@ -50039,7 +50224,7 @@
       <c r="G579">
         <v>4</v>
       </c>
-      <c r="H579" t="s">
+      <c r="H579" s="19" t="s">
         <v>775</v>
       </c>
       <c r="I579" t="s">
@@ -50051,13 +50236,13 @@
       <c r="K579" t="s">
         <v>33</v>
       </c>
-      <c r="L579" t="s">
+      <c r="L579" s="19" t="s">
         <v>838</v>
       </c>
       <c r="M579">
         <v>8</v>
       </c>
-      <c r="N579">
+      <c r="N579" s="19">
         <v>1</v>
       </c>
       <c r="O579" t="s">
@@ -50066,7 +50251,7 @@
       <c r="P579">
         <v>3</v>
       </c>
-      <c r="Q579" t="s">
+      <c r="Q579" s="19" t="s">
         <v>135</v>
       </c>
       <c r="S579" t="s">
@@ -50078,16 +50263,19 @@
       <c r="U579" t="s">
         <v>38</v>
       </c>
+      <c r="V579" s="19"/>
+      <c r="W579" s="19"/>
+      <c r="X579" s="19"/>
       <c r="Y579" t="s">
         <v>39</v>
       </c>
       <c r="AA579" t="s">
         <v>40</v>
       </c>
-      <c r="AB579" t="s">
+      <c r="AB579" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC579" t="s">
+      <c r="AC579" s="19" t="s">
         <v>826</v>
       </c>
     </row>
@@ -50166,16 +50354,16 @@
       </c>
     </row>
     <row r="581" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="18" t="s">
         <v>782</v>
       </c>
       <c r="B581" t="s">
         <v>29</v>
       </c>
-      <c r="C581">
+      <c r="C581" s="19">
         <v>5</v>
       </c>
-      <c r="D581" t="s">
+      <c r="D581" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E581">
@@ -50187,7 +50375,7 @@
       <c r="G581">
         <v>4</v>
       </c>
-      <c r="H581" t="s">
+      <c r="H581" s="19" t="s">
         <v>775</v>
       </c>
       <c r="I581" t="s">
@@ -50199,13 +50387,13 @@
       <c r="K581" t="s">
         <v>33</v>
       </c>
-      <c r="L581" t="s">
+      <c r="L581" s="19" t="s">
         <v>838</v>
       </c>
       <c r="M581">
         <v>8</v>
       </c>
-      <c r="N581">
+      <c r="N581" s="19">
         <v>1</v>
       </c>
       <c r="O581" t="s">
@@ -50214,7 +50402,7 @@
       <c r="P581">
         <v>3</v>
       </c>
-      <c r="Q581" t="s">
+      <c r="Q581" s="19" t="s">
         <v>137</v>
       </c>
       <c r="S581" t="s">
@@ -50226,13 +50414,13 @@
       <c r="U581" t="s">
         <v>38</v>
       </c>
-      <c r="V581" t="s">
+      <c r="V581" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="W581" t="s">
+      <c r="W581" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="X581" t="s">
+      <c r="X581" s="19" t="s">
         <v>477</v>
       </c>
       <c r="Y581" t="s">
@@ -50241,24 +50429,24 @@
       <c r="AA581" t="s">
         <v>40</v>
       </c>
-      <c r="AB581" t="s">
+      <c r="AB581" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC581" t="s">
+      <c r="AC581" s="19" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="582" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="18" t="s">
         <v>783</v>
       </c>
       <c r="B582" t="s">
         <v>29</v>
       </c>
-      <c r="C582">
+      <c r="C582" s="19">
         <v>6</v>
       </c>
-      <c r="D582" t="s">
+      <c r="D582" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E582">
@@ -50270,7 +50458,7 @@
       <c r="G582">
         <v>4</v>
       </c>
-      <c r="H582" t="s">
+      <c r="H582" s="19" t="s">
         <v>775</v>
       </c>
       <c r="I582" t="s">
@@ -50282,13 +50470,13 @@
       <c r="K582" t="s">
         <v>33</v>
       </c>
-      <c r="L582" t="s">
+      <c r="L582" s="19" t="s">
         <v>838</v>
       </c>
       <c r="M582">
         <v>8</v>
       </c>
-      <c r="N582">
+      <c r="N582" s="19">
         <v>1</v>
       </c>
       <c r="O582" t="s">
@@ -50297,7 +50485,7 @@
       <c r="P582">
         <v>3</v>
       </c>
-      <c r="Q582" t="s">
+      <c r="Q582" s="19" t="s">
         <v>141</v>
       </c>
       <c r="S582" t="s">
@@ -50309,16 +50497,19 @@
       <c r="U582" t="s">
         <v>38</v>
       </c>
+      <c r="V582" s="19"/>
+      <c r="W582" s="19"/>
+      <c r="X582" s="19"/>
       <c r="Y582" t="s">
         <v>39</v>
       </c>
       <c r="AA582" t="s">
         <v>40</v>
       </c>
-      <c r="AB582" t="s">
+      <c r="AB582" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC582" t="s">
+      <c r="AC582" s="19" t="s">
         <v>826</v>
       </c>
     </row>
@@ -50489,16 +50680,16 @@
       </c>
     </row>
     <row r="585" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="18" t="s">
         <v>784</v>
       </c>
       <c r="B585" t="s">
         <v>29</v>
       </c>
-      <c r="C585">
+      <c r="C585" s="19">
         <v>5</v>
       </c>
-      <c r="D585" t="s">
+      <c r="D585" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E585">
@@ -50510,7 +50701,7 @@
       <c r="G585">
         <v>4</v>
       </c>
-      <c r="H585" t="s">
+      <c r="H585" s="19" t="s">
         <v>775</v>
       </c>
       <c r="I585" t="s">
@@ -50522,19 +50713,19 @@
       <c r="K585" t="s">
         <v>33</v>
       </c>
-      <c r="L585" t="s">
+      <c r="L585" s="19" t="s">
         <v>838</v>
       </c>
       <c r="M585">
         <v>8</v>
       </c>
-      <c r="N585">
+      <c r="N585" s="19">
         <v>1</v>
       </c>
       <c r="P585">
         <v>3</v>
       </c>
-      <c r="Q585" t="s">
+      <c r="Q585" s="19" t="s">
         <v>785</v>
       </c>
       <c r="R585" t="s">
@@ -50549,13 +50740,13 @@
       <c r="U585" t="s">
         <v>38</v>
       </c>
-      <c r="V585" t="s">
+      <c r="V585" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="W585" t="s">
+      <c r="W585" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="X585" t="s">
+      <c r="X585" s="19" t="s">
         <v>160</v>
       </c>
       <c r="Y585" t="s">
@@ -50564,10 +50755,10 @@
       <c r="AA585" t="s">
         <v>40</v>
       </c>
-      <c r="AB585" t="s">
+      <c r="AB585" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC585" t="s">
+      <c r="AC585" s="19" t="s">
         <v>826</v>
       </c>
     </row>
@@ -50738,16 +50929,16 @@
       </c>
     </row>
     <row r="588" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B588" t="s">
         <v>29</v>
       </c>
-      <c r="C588">
+      <c r="C588" s="11">
         <v>6</v>
       </c>
-      <c r="D588" t="s">
+      <c r="D588" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E588">
@@ -50759,7 +50950,7 @@
       <c r="G588">
         <v>3</v>
       </c>
-      <c r="H588" t="s">
+      <c r="H588" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I588" t="s">
@@ -50771,13 +50962,13 @@
       <c r="K588" t="s">
         <v>33</v>
       </c>
-      <c r="L588" t="s">
+      <c r="L588" s="11" t="s">
         <v>839</v>
       </c>
       <c r="M588">
         <v>7</v>
       </c>
-      <c r="N588">
+      <c r="N588" s="11">
         <v>1</v>
       </c>
       <c r="O588" t="s">
@@ -50786,7 +50977,7 @@
       <c r="P588">
         <v>3</v>
       </c>
-      <c r="Q588" t="s">
+      <c r="Q588" s="11" t="s">
         <v>123</v>
       </c>
       <c r="S588" t="s">
@@ -50798,13 +50989,13 @@
       <c r="U588" t="s">
         <v>38</v>
       </c>
-      <c r="V588" t="s">
+      <c r="V588" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="W588" t="s">
+      <c r="W588" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="X588" t="s">
+      <c r="X588" s="11" t="s">
         <v>465</v>
       </c>
       <c r="Y588" t="s">
@@ -50813,24 +51004,24 @@
       <c r="AA588" t="s">
         <v>40</v>
       </c>
-      <c r="AB588" t="s">
+      <c r="AB588" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC588" t="s">
+      <c r="AC588" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="589" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B589" t="s">
         <v>29</v>
       </c>
-      <c r="C589">
+      <c r="C589" s="11">
         <v>6</v>
       </c>
-      <c r="D589" t="s">
+      <c r="D589" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E589">
@@ -50842,7 +51033,7 @@
       <c r="G589">
         <v>3</v>
       </c>
-      <c r="H589" t="s">
+      <c r="H589" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I589" t="s">
@@ -50854,13 +51045,13 @@
       <c r="K589" t="s">
         <v>33</v>
       </c>
-      <c r="L589" t="s">
+      <c r="L589" s="11" t="s">
         <v>839</v>
       </c>
       <c r="M589">
         <v>7</v>
       </c>
-      <c r="N589">
+      <c r="N589" s="11">
         <v>1</v>
       </c>
       <c r="O589" t="s">
@@ -50869,7 +51060,7 @@
       <c r="P589">
         <v>3</v>
       </c>
-      <c r="Q589" t="s">
+      <c r="Q589" s="11" t="s">
         <v>126</v>
       </c>
       <c r="S589" t="s">
@@ -50881,16 +51072,19 @@
       <c r="U589" t="s">
         <v>38</v>
       </c>
+      <c r="V589" s="11"/>
+      <c r="W589" s="11"/>
+      <c r="X589" s="11"/>
       <c r="Y589" t="s">
         <v>39</v>
       </c>
       <c r="AA589" t="s">
         <v>40</v>
       </c>
-      <c r="AB589" t="s">
+      <c r="AB589" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC589" t="s">
+      <c r="AC589" s="11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -51043,16 +51237,16 @@
       </c>
     </row>
     <row r="592" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B592" t="s">
         <v>29</v>
       </c>
-      <c r="C592">
+      <c r="C592" s="11">
         <v>6</v>
       </c>
-      <c r="D592" t="s">
+      <c r="D592" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E592">
@@ -51064,7 +51258,7 @@
       <c r="G592">
         <v>3</v>
       </c>
-      <c r="H592" t="s">
+      <c r="H592" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I592" t="s">
@@ -51076,13 +51270,13 @@
       <c r="K592" t="s">
         <v>33</v>
       </c>
-      <c r="L592" t="s">
+      <c r="L592" s="11" t="s">
         <v>839</v>
       </c>
       <c r="M592">
         <v>7</v>
       </c>
-      <c r="N592">
+      <c r="N592" s="11">
         <v>1</v>
       </c>
       <c r="O592" t="s">
@@ -51091,7 +51285,7 @@
       <c r="P592">
         <v>3</v>
       </c>
-      <c r="Q592" t="s">
+      <c r="Q592" s="11" t="s">
         <v>128</v>
       </c>
       <c r="S592" t="s">
@@ -51103,16 +51297,19 @@
       <c r="U592" t="s">
         <v>38</v>
       </c>
+      <c r="V592" s="11"/>
+      <c r="W592" s="11"/>
+      <c r="X592" s="11"/>
       <c r="Y592" t="s">
         <v>39</v>
       </c>
       <c r="AA592" t="s">
         <v>40</v>
       </c>
-      <c r="AB592" t="s">
+      <c r="AB592" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC592" t="s">
+      <c r="AC592" s="11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -51265,16 +51462,16 @@
       </c>
     </row>
     <row r="595" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B595" t="s">
         <v>29</v>
       </c>
-      <c r="C595">
+      <c r="C595" s="11">
         <v>6</v>
       </c>
-      <c r="D595" t="s">
+      <c r="D595" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E595">
@@ -51286,7 +51483,7 @@
       <c r="G595">
         <v>3</v>
       </c>
-      <c r="H595" t="s">
+      <c r="H595" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I595" t="s">
@@ -51298,13 +51495,13 @@
       <c r="K595" t="s">
         <v>33</v>
       </c>
-      <c r="L595" t="s">
+      <c r="L595" s="11" t="s">
         <v>839</v>
       </c>
       <c r="M595">
         <v>7</v>
       </c>
-      <c r="N595">
+      <c r="N595" s="11">
         <v>1</v>
       </c>
       <c r="O595" t="s">
@@ -51313,7 +51510,7 @@
       <c r="P595">
         <v>3</v>
       </c>
-      <c r="Q595" t="s">
+      <c r="Q595" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S595" t="s">
@@ -51325,13 +51522,13 @@
       <c r="U595" t="s">
         <v>38</v>
       </c>
-      <c r="V595" t="s">
+      <c r="V595" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="W595" t="s">
+      <c r="W595" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="X595" t="s">
+      <c r="X595" s="11" t="s">
         <v>844</v>
       </c>
       <c r="Y595" t="s">
@@ -51340,24 +51537,24 @@
       <c r="AA595" t="s">
         <v>40</v>
       </c>
-      <c r="AB595" t="s">
+      <c r="AB595" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC595" t="s">
+      <c r="AC595" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="596" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B596" t="s">
         <v>29</v>
       </c>
-      <c r="C596">
+      <c r="C596" s="11">
         <v>6</v>
       </c>
-      <c r="D596" t="s">
+      <c r="D596" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E596">
@@ -51369,7 +51566,7 @@
       <c r="G596">
         <v>3</v>
       </c>
-      <c r="H596" t="s">
+      <c r="H596" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I596" t="s">
@@ -51381,13 +51578,13 @@
       <c r="K596" t="s">
         <v>33</v>
       </c>
-      <c r="L596" t="s">
+      <c r="L596" s="11" t="s">
         <v>839</v>
       </c>
       <c r="M596">
         <v>7</v>
       </c>
-      <c r="N596">
+      <c r="N596" s="11">
         <v>1</v>
       </c>
       <c r="O596" t="s">
@@ -51396,7 +51593,7 @@
       <c r="P596">
         <v>3</v>
       </c>
-      <c r="Q596" t="s">
+      <c r="Q596" s="11" t="s">
         <v>135</v>
       </c>
       <c r="S596" t="s">
@@ -51408,13 +51605,13 @@
       <c r="U596" t="s">
         <v>38</v>
       </c>
-      <c r="V596" t="s">
+      <c r="V596" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="W596" t="s">
+      <c r="W596" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="X596" t="s">
+      <c r="X596" s="11" t="s">
         <v>846</v>
       </c>
       <c r="Y596" t="s">
@@ -51423,10 +51620,10 @@
       <c r="AA596" t="s">
         <v>40</v>
       </c>
-      <c r="AB596" t="s">
+      <c r="AB596" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC596" t="s">
+      <c r="AC596" s="11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -51585,16 +51782,16 @@
       </c>
     </row>
     <row r="599" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
+      <c r="A599" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B599" t="s">
         <v>29</v>
       </c>
-      <c r="C599">
+      <c r="C599" s="11">
         <v>6</v>
       </c>
-      <c r="D599" t="s">
+      <c r="D599" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E599">
@@ -51606,7 +51803,7 @@
       <c r="G599">
         <v>3</v>
       </c>
-      <c r="H599" t="s">
+      <c r="H599" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I599" t="s">
@@ -51618,13 +51815,13 @@
       <c r="K599" t="s">
         <v>33</v>
       </c>
-      <c r="L599" t="s">
+      <c r="L599" s="11" t="s">
         <v>839</v>
       </c>
       <c r="M599">
         <v>7</v>
       </c>
-      <c r="N599">
+      <c r="N599" s="11">
         <v>1</v>
       </c>
       <c r="O599" t="s">
@@ -51633,7 +51830,7 @@
       <c r="P599">
         <v>3</v>
       </c>
-      <c r="Q599" t="s">
+      <c r="Q599" s="11" t="s">
         <v>137</v>
       </c>
       <c r="S599" t="s">
@@ -51645,13 +51842,13 @@
       <c r="U599" t="s">
         <v>38</v>
       </c>
-      <c r="V599" t="s">
+      <c r="V599" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="W599" t="s">
+      <c r="W599" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="X599" t="s">
+      <c r="X599" s="11" t="s">
         <v>477</v>
       </c>
       <c r="Y599" t="s">
@@ -51660,24 +51857,24 @@
       <c r="AA599" t="s">
         <v>40</v>
       </c>
-      <c r="AB599" t="s">
+      <c r="AB599" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC599" t="s">
+      <c r="AC599" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="600" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B600" t="s">
         <v>29</v>
       </c>
-      <c r="C600">
+      <c r="C600" s="11">
         <v>6</v>
       </c>
-      <c r="D600" t="s">
+      <c r="D600" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E600">
@@ -51689,7 +51886,7 @@
       <c r="G600">
         <v>3</v>
       </c>
-      <c r="H600" t="s">
+      <c r="H600" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I600" t="s">
@@ -51701,13 +51898,13 @@
       <c r="K600" t="s">
         <v>33</v>
       </c>
-      <c r="L600" t="s">
+      <c r="L600" s="11" t="s">
         <v>839</v>
       </c>
       <c r="M600">
         <v>7</v>
       </c>
-      <c r="N600">
+      <c r="N600" s="11">
         <v>1</v>
       </c>
       <c r="O600" t="s">
@@ -51716,7 +51913,7 @@
       <c r="P600">
         <v>3</v>
       </c>
-      <c r="Q600" t="s">
+      <c r="Q600" s="11" t="s">
         <v>141</v>
       </c>
       <c r="S600" t="s">
@@ -51728,30 +51925,33 @@
       <c r="U600" t="s">
         <v>38</v>
       </c>
+      <c r="V600" s="11"/>
+      <c r="W600" s="11"/>
+      <c r="X600" s="11"/>
       <c r="Y600" t="s">
         <v>39</v>
       </c>
       <c r="AA600" t="s">
         <v>40</v>
       </c>
-      <c r="AB600" t="s">
+      <c r="AB600" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC600" t="s">
+      <c r="AC600" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="601" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B601" t="s">
         <v>29</v>
       </c>
-      <c r="C601">
+      <c r="C601" s="11">
         <v>6</v>
       </c>
-      <c r="D601" t="s">
+      <c r="D601" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E601">
@@ -51763,7 +51963,7 @@
       <c r="G601">
         <v>3</v>
       </c>
-      <c r="H601" t="s">
+      <c r="H601" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I601" t="s">
@@ -51775,13 +51975,13 @@
       <c r="K601" t="s">
         <v>33</v>
       </c>
-      <c r="L601" t="s">
+      <c r="L601" s="11" t="s">
         <v>839</v>
       </c>
       <c r="M601">
         <v>7</v>
       </c>
-      <c r="N601">
+      <c r="N601" s="11">
         <v>1</v>
       </c>
       <c r="O601" t="s">
@@ -51790,7 +51990,7 @@
       <c r="P601">
         <v>3</v>
       </c>
-      <c r="Q601" t="s">
+      <c r="Q601" s="11" t="s">
         <v>143</v>
       </c>
       <c r="R601" t="s">
@@ -51805,16 +52005,19 @@
       <c r="U601" t="s">
         <v>38</v>
       </c>
+      <c r="V601" s="11"/>
+      <c r="W601" s="11"/>
+      <c r="X601" s="11"/>
       <c r="Y601" t="s">
         <v>39</v>
       </c>
       <c r="AA601" t="s">
         <v>40</v>
       </c>
-      <c r="AB601" t="s">
+      <c r="AB601" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AC601" t="s">
+      <c r="AC601" s="11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -52150,17 +52353,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="606" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+    <row r="606" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A606" s="30" t="s">
         <v>724</v>
       </c>
       <c r="B606" t="s">
         <v>29</v>
       </c>
-      <c r="C606">
-        <v>3</v>
-      </c>
-      <c r="D606" t="s">
+      <c r="C606" s="31">
+        <v>3</v>
+      </c>
+      <c r="D606" s="31" t="s">
         <v>120</v>
       </c>
       <c r="E606">
@@ -52172,7 +52375,7 @@
       <c r="G606">
         <v>2</v>
       </c>
-      <c r="H606" t="s">
+      <c r="H606" s="31" t="s">
         <v>121</v>
       </c>
       <c r="I606" t="s">
@@ -52184,13 +52387,13 @@
       <c r="K606" t="s">
         <v>33</v>
       </c>
-      <c r="L606" t="s">
+      <c r="L606" s="31" t="s">
         <v>736</v>
       </c>
       <c r="M606">
         <v>7</v>
       </c>
-      <c r="N606">
+      <c r="N606" s="31">
         <v>3</v>
       </c>
       <c r="O606" t="s">
@@ -52199,7 +52402,7 @@
       <c r="P606">
         <v>4</v>
       </c>
-      <c r="Q606" t="s">
+      <c r="Q606" s="31" t="s">
         <v>175</v>
       </c>
       <c r="S606" t="s">
@@ -52211,13 +52414,13 @@
       <c r="U606" t="s">
         <v>38</v>
       </c>
-      <c r="V606" t="s">
+      <c r="V606" s="31" t="s">
         <v>827</v>
       </c>
-      <c r="W606" t="s">
+      <c r="W606" s="31" t="s">
         <v>828</v>
       </c>
-      <c r="X606" t="s">
+      <c r="X606" s="31" t="s">
         <v>829</v>
       </c>
       <c r="Y606" t="s">
@@ -52226,10 +52429,10 @@
       <c r="AA606" t="s">
         <v>40</v>
       </c>
-      <c r="AB606" t="s">
+      <c r="AB606" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AC606" t="s">
+      <c r="AC606" s="31" t="s">
         <v>890</v>
       </c>
     </row>
@@ -52482,17 +52685,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="610" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+    <row r="610" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A610" s="30" t="s">
         <v>726</v>
       </c>
       <c r="B610" t="s">
         <v>29</v>
       </c>
-      <c r="C610">
-        <v>3</v>
-      </c>
-      <c r="D610" t="s">
+      <c r="C610" s="31">
+        <v>3</v>
+      </c>
+      <c r="D610" s="31" t="s">
         <v>120</v>
       </c>
       <c r="E610">
@@ -52504,7 +52707,7 @@
       <c r="G610">
         <v>2</v>
       </c>
-      <c r="H610" t="s">
+      <c r="H610" s="31" t="s">
         <v>121</v>
       </c>
       <c r="I610" t="s">
@@ -52516,13 +52719,13 @@
       <c r="K610" t="s">
         <v>33</v>
       </c>
-      <c r="L610" t="s">
+      <c r="L610" s="31" t="s">
         <v>736</v>
       </c>
       <c r="M610">
         <v>4</v>
       </c>
-      <c r="N610">
+      <c r="N610" s="31">
         <v>3</v>
       </c>
       <c r="O610" t="s">
@@ -52531,7 +52734,7 @@
       <c r="P610">
         <v>4</v>
       </c>
-      <c r="Q610" t="s">
+      <c r="Q610" s="31" t="s">
         <v>179</v>
       </c>
       <c r="S610" t="s">
@@ -52543,16 +52746,19 @@
       <c r="U610" t="s">
         <v>38</v>
       </c>
+      <c r="V610" s="31"/>
+      <c r="W610" s="31"/>
+      <c r="X610" s="31"/>
       <c r="Y610" t="s">
         <v>39</v>
       </c>
       <c r="AA610" t="s">
         <v>40</v>
       </c>
-      <c r="AB610" t="s">
+      <c r="AB610" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AC610" t="s">
+      <c r="AC610" s="31" t="s">
         <v>890</v>
       </c>
     </row>
@@ -52879,17 +53085,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="615" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
+    <row r="615" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A615" s="30" t="s">
         <v>727</v>
       </c>
       <c r="B615" t="s">
         <v>29</v>
       </c>
-      <c r="C615">
-        <v>3</v>
-      </c>
-      <c r="D615" t="s">
+      <c r="C615" s="31">
+        <v>3</v>
+      </c>
+      <c r="D615" s="31" t="s">
         <v>120</v>
       </c>
       <c r="E615">
@@ -52901,7 +53107,7 @@
       <c r="G615">
         <v>2</v>
       </c>
-      <c r="H615" t="s">
+      <c r="H615" s="31" t="s">
         <v>121</v>
       </c>
       <c r="I615" t="s">
@@ -52913,13 +53119,13 @@
       <c r="K615" t="s">
         <v>33</v>
       </c>
-      <c r="L615" t="s">
+      <c r="L615" s="31" t="s">
         <v>736</v>
       </c>
       <c r="M615">
         <v>7</v>
       </c>
-      <c r="N615">
+      <c r="N615" s="31">
         <v>3</v>
       </c>
       <c r="O615" t="s">
@@ -52928,7 +53134,7 @@
       <c r="P615">
         <v>3</v>
       </c>
-      <c r="Q615" t="s">
+      <c r="Q615" s="31" t="s">
         <v>184</v>
       </c>
       <c r="S615" t="s">
@@ -52940,16 +53146,19 @@
       <c r="U615" t="s">
         <v>38</v>
       </c>
+      <c r="V615" s="31"/>
+      <c r="W615" s="31"/>
+      <c r="X615" s="31"/>
       <c r="Y615" t="s">
         <v>39</v>
       </c>
       <c r="AA615" t="s">
         <v>40</v>
       </c>
-      <c r="AB615" t="s">
+      <c r="AB615" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AC615" t="s">
+      <c r="AC615" s="31" t="s">
         <v>890</v>
       </c>
     </row>
@@ -53276,17 +53485,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="620" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
+    <row r="620" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A620" s="30" t="s">
         <v>728</v>
       </c>
       <c r="B620" t="s">
         <v>29</v>
       </c>
-      <c r="C620">
-        <v>3</v>
-      </c>
-      <c r="D620" t="s">
+      <c r="C620" s="31">
+        <v>3</v>
+      </c>
+      <c r="D620" s="31" t="s">
         <v>120</v>
       </c>
       <c r="E620">
@@ -53298,7 +53507,7 @@
       <c r="G620">
         <v>2</v>
       </c>
-      <c r="H620" t="s">
+      <c r="H620" s="31" t="s">
         <v>121</v>
       </c>
       <c r="I620" t="s">
@@ -53310,13 +53519,13 @@
       <c r="K620" t="s">
         <v>33</v>
       </c>
-      <c r="L620" t="s">
+      <c r="L620" s="31" t="s">
         <v>736</v>
       </c>
       <c r="M620">
         <v>7</v>
       </c>
-      <c r="N620">
+      <c r="N620" s="31">
         <v>3</v>
       </c>
       <c r="O620" t="s">
@@ -53325,7 +53534,7 @@
       <c r="P620">
         <v>3</v>
       </c>
-      <c r="Q620" t="s">
+      <c r="Q620" s="31" t="s">
         <v>188</v>
       </c>
       <c r="S620" t="s">
@@ -53337,16 +53546,19 @@
       <c r="U620" t="s">
         <v>38</v>
       </c>
+      <c r="V620" s="31"/>
+      <c r="W620" s="31"/>
+      <c r="X620" s="31"/>
       <c r="Y620" t="s">
         <v>39</v>
       </c>
       <c r="AA620" t="s">
         <v>40</v>
       </c>
-      <c r="AB620" t="s">
+      <c r="AB620" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AC620" t="s">
+      <c r="AC620" s="31" t="s">
         <v>890</v>
       </c>
     </row>
@@ -53673,17 +53885,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="625" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
+    <row r="625" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A625" s="30" t="s">
         <v>729</v>
       </c>
       <c r="B625" t="s">
         <v>29</v>
       </c>
-      <c r="C625">
-        <v>3</v>
-      </c>
-      <c r="D625" t="s">
+      <c r="C625" s="31">
+        <v>3</v>
+      </c>
+      <c r="D625" s="31" t="s">
         <v>120</v>
       </c>
       <c r="E625">
@@ -53695,7 +53907,7 @@
       <c r="G625">
         <v>2</v>
       </c>
-      <c r="H625" t="s">
+      <c r="H625" s="31" t="s">
         <v>121</v>
       </c>
       <c r="I625" t="s">
@@ -53707,13 +53919,13 @@
       <c r="K625" t="s">
         <v>33</v>
       </c>
-      <c r="L625" t="s">
+      <c r="L625" s="31" t="s">
         <v>736</v>
       </c>
       <c r="M625">
         <v>6</v>
       </c>
-      <c r="N625">
+      <c r="N625" s="31">
         <v>3</v>
       </c>
       <c r="O625" t="s">
@@ -53722,7 +53934,7 @@
       <c r="P625">
         <v>3</v>
       </c>
-      <c r="Q625" t="s">
+      <c r="Q625" s="31" t="s">
         <v>193</v>
       </c>
       <c r="S625" t="s">
@@ -53734,16 +53946,19 @@
       <c r="U625" t="s">
         <v>38</v>
       </c>
+      <c r="V625" s="31"/>
+      <c r="W625" s="31"/>
+      <c r="X625" s="31"/>
       <c r="Y625" t="s">
         <v>39</v>
       </c>
       <c r="AA625" t="s">
         <v>40</v>
       </c>
-      <c r="AB625" t="s">
+      <c r="AB625" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AC625" t="s">
+      <c r="AC625" s="31" t="s">
         <v>890</v>
       </c>
     </row>
@@ -53996,17 +54211,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="629" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
+    <row r="629" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A629" s="30" t="s">
         <v>730</v>
       </c>
       <c r="B629" t="s">
         <v>29</v>
       </c>
-      <c r="C629">
-        <v>3</v>
-      </c>
-      <c r="D629" t="s">
+      <c r="C629" s="31">
+        <v>3</v>
+      </c>
+      <c r="D629" s="31" t="s">
         <v>120</v>
       </c>
       <c r="E629">
@@ -54018,7 +54233,7 @@
       <c r="G629">
         <v>2</v>
       </c>
-      <c r="H629" t="s">
+      <c r="H629" s="31" t="s">
         <v>121</v>
       </c>
       <c r="I629" t="s">
@@ -54030,13 +54245,13 @@
       <c r="K629" t="s">
         <v>33</v>
       </c>
-      <c r="L629" t="s">
+      <c r="L629" s="31" t="s">
         <v>736</v>
       </c>
       <c r="M629">
         <v>7</v>
       </c>
-      <c r="N629">
+      <c r="N629" s="31">
         <v>3</v>
       </c>
       <c r="O629" t="s">
@@ -54045,7 +54260,7 @@
       <c r="P629">
         <v>3</v>
       </c>
-      <c r="Q629" t="s">
+      <c r="Q629" s="31" t="s">
         <v>198</v>
       </c>
       <c r="S629" t="s">
@@ -54057,16 +54272,19 @@
       <c r="U629" t="s">
         <v>38</v>
       </c>
+      <c r="V629" s="31"/>
+      <c r="W629" s="31"/>
+      <c r="X629" s="31"/>
       <c r="Y629" t="s">
         <v>39</v>
       </c>
       <c r="AA629" t="s">
         <v>40</v>
       </c>
-      <c r="AB629" t="s">
+      <c r="AB629" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AC629" t="s">
+      <c r="AC629" s="31" t="s">
         <v>890</v>
       </c>
     </row>
@@ -54236,17 +54454,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="632" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
+    <row r="632" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A632" s="30" t="s">
         <v>731</v>
       </c>
       <c r="B632" t="s">
         <v>29</v>
       </c>
-      <c r="C632">
-        <v>3</v>
-      </c>
-      <c r="D632" t="s">
+      <c r="C632" s="31">
+        <v>3</v>
+      </c>
+      <c r="D632" s="31" t="s">
         <v>120</v>
       </c>
       <c r="E632">
@@ -54258,7 +54476,7 @@
       <c r="G632">
         <v>2</v>
       </c>
-      <c r="H632" t="s">
+      <c r="H632" s="31" t="s">
         <v>121</v>
       </c>
       <c r="I632" t="s">
@@ -54270,13 +54488,13 @@
       <c r="K632" t="s">
         <v>33</v>
       </c>
-      <c r="L632" t="s">
+      <c r="L632" s="31" t="s">
         <v>736</v>
       </c>
       <c r="M632">
         <v>7</v>
       </c>
-      <c r="N632">
+      <c r="N632" s="31">
         <v>3</v>
       </c>
       <c r="O632" t="s">
@@ -54285,7 +54503,7 @@
       <c r="P632">
         <v>3</v>
       </c>
-      <c r="Q632" t="s">
+      <c r="Q632" s="31" t="s">
         <v>202</v>
       </c>
       <c r="S632" t="s">
@@ -54297,16 +54515,19 @@
       <c r="U632" t="s">
         <v>38</v>
       </c>
+      <c r="V632" s="31"/>
+      <c r="W632" s="31"/>
+      <c r="X632" s="31"/>
       <c r="Y632" t="s">
         <v>39</v>
       </c>
       <c r="AA632" t="s">
         <v>40</v>
       </c>
-      <c r="AB632" t="s">
+      <c r="AB632" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AC632" t="s">
+      <c r="AC632" s="31" t="s">
         <v>890</v>
       </c>
     </row>
@@ -59373,16 +59594,16 @@
       </c>
     </row>
     <row r="695" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="1" t="s">
+      <c r="A695" s="20" t="s">
         <v>356</v>
       </c>
       <c r="B695" t="s">
         <v>29</v>
       </c>
-      <c r="C695">
+      <c r="C695" s="21">
         <v>13</v>
       </c>
-      <c r="D695" t="s">
+      <c r="D695" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E695">
@@ -59394,7 +59615,7 @@
       <c r="G695">
         <v>1</v>
       </c>
-      <c r="H695" t="s">
+      <c r="H695" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I695" t="s">
@@ -59406,13 +59627,13 @@
       <c r="K695" t="s">
         <v>33</v>
       </c>
-      <c r="L695" t="s">
+      <c r="L695" s="21" t="s">
         <v>839</v>
       </c>
       <c r="M695">
         <v>11</v>
       </c>
-      <c r="N695">
+      <c r="N695" s="21">
         <v>1</v>
       </c>
       <c r="O695" t="s">
@@ -59421,7 +59642,7 @@
       <c r="P695">
         <v>3</v>
       </c>
-      <c r="Q695" t="s">
+      <c r="Q695" s="21" t="s">
         <v>123</v>
       </c>
       <c r="S695" t="s">
@@ -59433,30 +59654,33 @@
       <c r="U695" t="s">
         <v>38</v>
       </c>
+      <c r="V695" s="21"/>
+      <c r="W695" s="21"/>
+      <c r="X695" s="21"/>
       <c r="Y695" t="s">
         <v>39</v>
       </c>
       <c r="AA695" t="s">
         <v>40</v>
       </c>
-      <c r="AB695" t="s">
+      <c r="AB695" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AC695" t="s">
+      <c r="AC695" s="21" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="696" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="1" t="s">
+      <c r="A696" s="20" t="s">
         <v>436</v>
       </c>
       <c r="B696" t="s">
         <v>29</v>
       </c>
-      <c r="C696">
+      <c r="C696" s="21">
         <v>13</v>
       </c>
-      <c r="D696" t="s">
+      <c r="D696" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E696">
@@ -59468,7 +59692,7 @@
       <c r="G696">
         <v>1</v>
       </c>
-      <c r="H696" t="s">
+      <c r="H696" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I696" t="s">
@@ -59480,13 +59704,13 @@
       <c r="K696" t="s">
         <v>33</v>
       </c>
-      <c r="L696" t="s">
+      <c r="L696" s="21" t="s">
         <v>839</v>
       </c>
       <c r="M696">
         <v>11</v>
       </c>
-      <c r="N696">
+      <c r="N696" s="21">
         <v>1</v>
       </c>
       <c r="O696" t="s">
@@ -59495,7 +59719,7 @@
       <c r="P696">
         <v>3</v>
       </c>
-      <c r="Q696" t="s">
+      <c r="Q696" s="21" t="s">
         <v>126</v>
       </c>
       <c r="S696" t="s">
@@ -59507,30 +59731,33 @@
       <c r="U696" t="s">
         <v>38</v>
       </c>
+      <c r="V696" s="21"/>
+      <c r="W696" s="21"/>
+      <c r="X696" s="21"/>
       <c r="Y696" t="s">
         <v>39</v>
       </c>
       <c r="AA696" t="s">
         <v>40</v>
       </c>
-      <c r="AB696" t="s">
+      <c r="AB696" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AC696" t="s">
+      <c r="AC696" s="21" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="697" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="1" t="s">
+      <c r="A697" s="20" t="s">
         <v>437</v>
       </c>
       <c r="B697" t="s">
         <v>29</v>
       </c>
-      <c r="C697">
+      <c r="C697" s="21">
         <v>13</v>
       </c>
-      <c r="D697" t="s">
+      <c r="D697" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E697">
@@ -59542,7 +59769,7 @@
       <c r="G697">
         <v>1</v>
       </c>
-      <c r="H697" t="s">
+      <c r="H697" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I697" t="s">
@@ -59554,13 +59781,13 @@
       <c r="K697" t="s">
         <v>33</v>
       </c>
-      <c r="L697" t="s">
+      <c r="L697" s="21" t="s">
         <v>839</v>
       </c>
       <c r="M697">
         <v>11</v>
       </c>
-      <c r="N697">
+      <c r="N697" s="21">
         <v>1</v>
       </c>
       <c r="O697" t="s">
@@ -59569,7 +59796,7 @@
       <c r="P697">
         <v>3</v>
       </c>
-      <c r="Q697" t="s">
+      <c r="Q697" s="21" t="s">
         <v>128</v>
       </c>
       <c r="S697" t="s">
@@ -59581,16 +59808,19 @@
       <c r="U697" t="s">
         <v>38</v>
       </c>
+      <c r="V697" s="21"/>
+      <c r="W697" s="21"/>
+      <c r="X697" s="21"/>
       <c r="Y697" t="s">
         <v>39</v>
       </c>
       <c r="AA697" t="s">
         <v>40</v>
       </c>
-      <c r="AB697" t="s">
+      <c r="AB697" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AC697" t="s">
+      <c r="AC697" s="21" t="s">
         <v>641</v>
       </c>
     </row>
@@ -59743,16 +59973,16 @@
       </c>
     </row>
     <row r="700" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="1" t="s">
+      <c r="A700" s="20" t="s">
         <v>440</v>
       </c>
       <c r="B700" t="s">
         <v>29</v>
       </c>
-      <c r="C700">
+      <c r="C700" s="21">
         <v>13</v>
       </c>
-      <c r="D700" t="s">
+      <c r="D700" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E700">
@@ -59764,7 +59994,7 @@
       <c r="G700">
         <v>1</v>
       </c>
-      <c r="H700" t="s">
+      <c r="H700" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I700" t="s">
@@ -59776,13 +60006,13 @@
       <c r="K700" t="s">
         <v>33</v>
       </c>
-      <c r="L700" t="s">
+      <c r="L700" s="21" t="s">
         <v>839</v>
       </c>
       <c r="M700">
         <v>11</v>
       </c>
-      <c r="N700">
+      <c r="N700" s="21">
         <v>1</v>
       </c>
       <c r="O700" t="s">
@@ -59791,7 +60021,7 @@
       <c r="P700">
         <v>3</v>
       </c>
-      <c r="Q700" t="s">
+      <c r="Q700" s="21" t="s">
         <v>130</v>
       </c>
       <c r="S700" t="s">
@@ -59803,16 +60033,19 @@
       <c r="U700" t="s">
         <v>38</v>
       </c>
+      <c r="V700" s="21"/>
+      <c r="W700" s="21"/>
+      <c r="X700" s="21"/>
       <c r="Y700" t="s">
         <v>39</v>
       </c>
       <c r="AA700" t="s">
         <v>40</v>
       </c>
-      <c r="AB700" t="s">
+      <c r="AB700" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AC700" t="s">
+      <c r="AC700" s="21" t="s">
         <v>641</v>
       </c>
     </row>
@@ -59891,16 +60124,16 @@
       </c>
     </row>
     <row r="702" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="1" t="s">
+      <c r="A702" s="20" t="s">
         <v>441</v>
       </c>
       <c r="B702" t="s">
         <v>29</v>
       </c>
-      <c r="C702">
+      <c r="C702" s="21">
         <v>13</v>
       </c>
-      <c r="D702" t="s">
+      <c r="D702" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E702">
@@ -59912,7 +60145,7 @@
       <c r="G702">
         <v>1</v>
       </c>
-      <c r="H702" t="s">
+      <c r="H702" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I702" t="s">
@@ -59924,13 +60157,13 @@
       <c r="K702" t="s">
         <v>33</v>
       </c>
-      <c r="L702" t="s">
+      <c r="L702" s="21" t="s">
         <v>839</v>
       </c>
       <c r="M702">
         <v>11</v>
       </c>
-      <c r="N702">
+      <c r="N702" s="21">
         <v>1</v>
       </c>
       <c r="O702" t="s">
@@ -59939,7 +60172,7 @@
       <c r="P702">
         <v>3</v>
       </c>
-      <c r="Q702" t="s">
+      <c r="Q702" s="21" t="s">
         <v>135</v>
       </c>
       <c r="S702" t="s">
@@ -59951,30 +60184,33 @@
       <c r="U702" t="s">
         <v>38</v>
       </c>
+      <c r="V702" s="21"/>
+      <c r="W702" s="21"/>
+      <c r="X702" s="21"/>
       <c r="Y702" t="s">
         <v>39</v>
       </c>
       <c r="AA702" t="s">
         <v>40</v>
       </c>
-      <c r="AB702" t="s">
+      <c r="AB702" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AC702" t="s">
+      <c r="AC702" s="21" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="703" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="1" t="s">
+      <c r="A703" s="20" t="s">
         <v>442</v>
       </c>
       <c r="B703" t="s">
         <v>29</v>
       </c>
-      <c r="C703">
+      <c r="C703" s="21">
         <v>13</v>
       </c>
-      <c r="D703" t="s">
+      <c r="D703" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E703">
@@ -59986,7 +60222,7 @@
       <c r="G703">
         <v>1</v>
       </c>
-      <c r="H703" t="s">
+      <c r="H703" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I703" t="s">
@@ -59998,13 +60234,13 @@
       <c r="K703" t="s">
         <v>33</v>
       </c>
-      <c r="L703" t="s">
+      <c r="L703" s="21" t="s">
         <v>839</v>
       </c>
       <c r="M703">
         <v>11</v>
       </c>
-      <c r="N703">
+      <c r="N703" s="21">
         <v>1</v>
       </c>
       <c r="O703" t="s">
@@ -60013,7 +60249,7 @@
       <c r="P703">
         <v>3</v>
       </c>
-      <c r="Q703" t="s">
+      <c r="Q703" s="21" t="s">
         <v>137</v>
       </c>
       <c r="S703" t="s">
@@ -60025,16 +60261,19 @@
       <c r="U703" t="s">
         <v>38</v>
       </c>
+      <c r="V703" s="21"/>
+      <c r="W703" s="21"/>
+      <c r="X703" s="21"/>
       <c r="Y703" t="s">
         <v>39</v>
       </c>
       <c r="AA703" t="s">
         <v>40</v>
       </c>
-      <c r="AB703" t="s">
+      <c r="AB703" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AC703" t="s">
+      <c r="AC703" s="21" t="s">
         <v>641</v>
       </c>
     </row>
@@ -60205,16 +60444,16 @@
       </c>
     </row>
     <row r="706" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="1" t="s">
+      <c r="A706" s="20" t="s">
         <v>444</v>
       </c>
       <c r="B706" t="s">
         <v>29</v>
       </c>
-      <c r="C706">
+      <c r="C706" s="21">
         <v>13</v>
       </c>
-      <c r="D706" t="s">
+      <c r="D706" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E706">
@@ -60226,7 +60465,7 @@
       <c r="G706">
         <v>1</v>
       </c>
-      <c r="H706" t="s">
+      <c r="H706" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I706" t="s">
@@ -60238,13 +60477,13 @@
       <c r="K706" t="s">
         <v>33</v>
       </c>
-      <c r="L706" t="s">
+      <c r="L706" s="21" t="s">
         <v>839</v>
       </c>
       <c r="M706">
         <v>11</v>
       </c>
-      <c r="N706">
+      <c r="N706" s="21">
         <v>1</v>
       </c>
       <c r="O706" t="s">
@@ -60253,7 +60492,7 @@
       <c r="P706">
         <v>3</v>
       </c>
-      <c r="Q706" t="s">
+      <c r="Q706" s="21" t="s">
         <v>141</v>
       </c>
       <c r="S706" t="s">
@@ -60265,30 +60504,33 @@
       <c r="U706" t="s">
         <v>38</v>
       </c>
+      <c r="V706" s="21"/>
+      <c r="W706" s="21"/>
+      <c r="X706" s="21"/>
       <c r="Y706" t="s">
         <v>39</v>
       </c>
       <c r="AA706" t="s">
         <v>40</v>
       </c>
-      <c r="AB706" t="s">
+      <c r="AB706" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AC706" t="s">
+      <c r="AC706" s="21" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="707" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="1" t="s">
+      <c r="A707" s="20" t="s">
         <v>448</v>
       </c>
       <c r="B707" t="s">
         <v>29</v>
       </c>
-      <c r="C707">
+      <c r="C707" s="21">
         <v>13</v>
       </c>
-      <c r="D707" t="s">
+      <c r="D707" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E707">
@@ -60300,7 +60542,7 @@
       <c r="G707">
         <v>1</v>
       </c>
-      <c r="H707" t="s">
+      <c r="H707" s="21" t="s">
         <v>121</v>
       </c>
       <c r="I707" t="s">
@@ -60312,13 +60554,13 @@
       <c r="K707" t="s">
         <v>33</v>
       </c>
-      <c r="L707" t="s">
+      <c r="L707" s="21" t="s">
         <v>839</v>
       </c>
       <c r="M707">
         <v>11</v>
       </c>
-      <c r="N707">
+      <c r="N707" s="21">
         <v>1</v>
       </c>
       <c r="O707" t="s">
@@ -60327,7 +60569,7 @@
       <c r="P707">
         <v>3</v>
       </c>
-      <c r="Q707" t="s">
+      <c r="Q707" s="21" t="s">
         <v>143</v>
       </c>
       <c r="R707" t="s">
@@ -60342,30 +60584,33 @@
       <c r="U707" t="s">
         <v>38</v>
       </c>
+      <c r="V707" s="21"/>
+      <c r="W707" s="21"/>
+      <c r="X707" s="21"/>
       <c r="Y707" t="s">
         <v>39</v>
       </c>
       <c r="AA707" t="s">
         <v>40</v>
       </c>
-      <c r="AB707" t="s">
+      <c r="AB707" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AC707" t="s">
+      <c r="AC707" s="21" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="708" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="1" t="s">
+      <c r="A708" s="22" t="s">
         <v>679</v>
       </c>
       <c r="B708" t="s">
         <v>29</v>
       </c>
-      <c r="C708">
+      <c r="C708" s="23">
         <v>6</v>
       </c>
-      <c r="D708" t="s">
+      <c r="D708" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E708">
@@ -60377,7 +60622,7 @@
       <c r="G708">
         <v>2</v>
       </c>
-      <c r="H708" t="s">
+      <c r="H708" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I708" t="s">
@@ -60389,13 +60634,13 @@
       <c r="K708" t="s">
         <v>33</v>
       </c>
-      <c r="L708" t="s">
+      <c r="L708" s="23" t="s">
         <v>839</v>
       </c>
       <c r="M708">
         <v>8</v>
       </c>
-      <c r="N708">
+      <c r="N708" s="23">
         <v>1</v>
       </c>
       <c r="O708" t="s">
@@ -60404,7 +60649,7 @@
       <c r="P708">
         <v>3</v>
       </c>
-      <c r="Q708" t="s">
+      <c r="Q708" s="23" t="s">
         <v>123</v>
       </c>
       <c r="S708" t="s">
@@ -60416,13 +60661,13 @@
       <c r="U708" t="s">
         <v>38</v>
       </c>
-      <c r="V708" t="s">
+      <c r="V708" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="W708" t="s">
+      <c r="W708" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="X708" t="s">
+      <c r="X708" s="23" t="s">
         <v>465</v>
       </c>
       <c r="Y708" t="s">
@@ -60431,10 +60676,10 @@
       <c r="AA708" t="s">
         <v>40</v>
       </c>
-      <c r="AB708" t="s">
+      <c r="AB708" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC708" t="s">
+      <c r="AC708" s="23" t="s">
         <v>890</v>
       </c>
     </row>
@@ -60596,16 +60841,16 @@
       </c>
     </row>
     <row r="711" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="1" t="s">
+      <c r="A711" s="22" t="s">
         <v>712</v>
       </c>
       <c r="B711" t="s">
         <v>29</v>
       </c>
-      <c r="C711">
+      <c r="C711" s="23">
         <v>6</v>
       </c>
-      <c r="D711" t="s">
+      <c r="D711" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E711">
@@ -60617,7 +60862,7 @@
       <c r="G711">
         <v>2</v>
       </c>
-      <c r="H711" t="s">
+      <c r="H711" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I711" t="s">
@@ -60629,13 +60874,13 @@
       <c r="K711" t="s">
         <v>33</v>
       </c>
-      <c r="L711" t="s">
+      <c r="L711" s="23" t="s">
         <v>839</v>
       </c>
       <c r="M711">
         <v>8</v>
       </c>
-      <c r="N711">
+      <c r="N711" s="23">
         <v>1</v>
       </c>
       <c r="O711" t="s">
@@ -60644,7 +60889,7 @@
       <c r="P711">
         <v>3</v>
       </c>
-      <c r="Q711" t="s">
+      <c r="Q711" s="23" t="s">
         <v>126</v>
       </c>
       <c r="S711" t="s">
@@ -60656,30 +60901,33 @@
       <c r="U711" t="s">
         <v>38</v>
       </c>
+      <c r="V711" s="23"/>
+      <c r="W711" s="23"/>
+      <c r="X711" s="23"/>
       <c r="Y711" t="s">
         <v>39</v>
       </c>
       <c r="AA711" t="s">
         <v>40</v>
       </c>
-      <c r="AB711" t="s">
+      <c r="AB711" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC711" t="s">
+      <c r="AC711" s="23" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="712" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="1" t="s">
+      <c r="A712" s="22" t="s">
         <v>713</v>
       </c>
       <c r="B712" t="s">
         <v>29</v>
       </c>
-      <c r="C712">
+      <c r="C712" s="23">
         <v>6</v>
       </c>
-      <c r="D712" t="s">
+      <c r="D712" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E712">
@@ -60691,7 +60939,7 @@
       <c r="G712">
         <v>2</v>
       </c>
-      <c r="H712" t="s">
+      <c r="H712" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I712" t="s">
@@ -60703,13 +60951,13 @@
       <c r="K712" t="s">
         <v>33</v>
       </c>
-      <c r="L712" t="s">
+      <c r="L712" s="23" t="s">
         <v>839</v>
       </c>
       <c r="M712">
         <v>8</v>
       </c>
-      <c r="N712">
+      <c r="N712" s="23">
         <v>1</v>
       </c>
       <c r="O712" t="s">
@@ -60718,7 +60966,7 @@
       <c r="P712">
         <v>3</v>
       </c>
-      <c r="Q712" t="s">
+      <c r="Q712" s="23" t="s">
         <v>128</v>
       </c>
       <c r="S712" t="s">
@@ -60730,30 +60978,33 @@
       <c r="U712" t="s">
         <v>38</v>
       </c>
+      <c r="V712" s="23"/>
+      <c r="W712" s="23"/>
+      <c r="X712" s="23"/>
       <c r="Y712" t="s">
         <v>39</v>
       </c>
       <c r="AA712" t="s">
         <v>40</v>
       </c>
-      <c r="AB712" t="s">
+      <c r="AB712" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC712" t="s">
+      <c r="AC712" s="23" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="713" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="1" t="s">
+      <c r="A713" s="22" t="s">
         <v>714</v>
       </c>
       <c r="B713" t="s">
         <v>29</v>
       </c>
-      <c r="C713">
+      <c r="C713" s="23">
         <v>6</v>
       </c>
-      <c r="D713" t="s">
+      <c r="D713" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E713">
@@ -60765,7 +61016,7 @@
       <c r="G713">
         <v>2</v>
       </c>
-      <c r="H713" t="s">
+      <c r="H713" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I713" t="s">
@@ -60777,13 +61028,13 @@
       <c r="K713" t="s">
         <v>33</v>
       </c>
-      <c r="L713" t="s">
+      <c r="L713" s="23" t="s">
         <v>839</v>
       </c>
       <c r="M713">
         <v>8</v>
       </c>
-      <c r="N713">
+      <c r="N713" s="23">
         <v>1</v>
       </c>
       <c r="O713" t="s">
@@ -60792,7 +61043,7 @@
       <c r="P713">
         <v>3</v>
       </c>
-      <c r="Q713" t="s">
+      <c r="Q713" s="23" t="s">
         <v>130</v>
       </c>
       <c r="S713" t="s">
@@ -60804,13 +61055,13 @@
       <c r="U713" t="s">
         <v>38</v>
       </c>
-      <c r="V713" t="s">
+      <c r="V713" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="W713" t="s">
+      <c r="W713" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="X713" t="s">
+      <c r="X713" s="23" t="s">
         <v>844</v>
       </c>
       <c r="Y713" t="s">
@@ -60819,10 +61070,10 @@
       <c r="AA713" t="s">
         <v>40</v>
       </c>
-      <c r="AB713" t="s">
+      <c r="AB713" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC713" t="s">
+      <c r="AC713" s="23" t="s">
         <v>890</v>
       </c>
     </row>
@@ -60993,16 +61244,16 @@
       </c>
     </row>
     <row r="716" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="1" t="s">
+      <c r="A716" s="22" t="s">
         <v>715</v>
       </c>
       <c r="B716" t="s">
         <v>29</v>
       </c>
-      <c r="C716">
+      <c r="C716" s="23">
         <v>7</v>
       </c>
-      <c r="D716" t="s">
+      <c r="D716" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E716">
@@ -61014,7 +61265,7 @@
       <c r="G716">
         <v>2</v>
       </c>
-      <c r="H716" t="s">
+      <c r="H716" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I716" t="s">
@@ -61026,13 +61277,13 @@
       <c r="K716" t="s">
         <v>33</v>
       </c>
-      <c r="L716" t="s">
+      <c r="L716" s="23" t="s">
         <v>839</v>
       </c>
       <c r="M716">
         <v>8</v>
       </c>
-      <c r="N716">
+      <c r="N716" s="23">
         <v>1</v>
       </c>
       <c r="O716" t="s">
@@ -61041,7 +61292,7 @@
       <c r="P716">
         <v>3</v>
       </c>
-      <c r="Q716" t="s">
+      <c r="Q716" s="23" t="s">
         <v>135</v>
       </c>
       <c r="S716" t="s">
@@ -61053,13 +61304,13 @@
       <c r="U716" t="s">
         <v>38</v>
       </c>
-      <c r="V716" t="s">
+      <c r="V716" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="W716" t="s">
+      <c r="W716" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="X716" t="s">
+      <c r="X716" s="23" t="s">
         <v>846</v>
       </c>
       <c r="Y716" t="s">
@@ -61068,24 +61319,24 @@
       <c r="AA716" t="s">
         <v>40</v>
       </c>
-      <c r="AB716" t="s">
+      <c r="AB716" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC716" t="s">
+      <c r="AC716" s="23" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="717" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="1" t="s">
+      <c r="A717" s="22" t="s">
         <v>716</v>
       </c>
       <c r="B717" t="s">
         <v>29</v>
       </c>
-      <c r="C717">
+      <c r="C717" s="23">
         <v>8</v>
       </c>
-      <c r="D717" t="s">
+      <c r="D717" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E717">
@@ -61097,7 +61348,7 @@
       <c r="G717">
         <v>2</v>
       </c>
-      <c r="H717" t="s">
+      <c r="H717" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I717" t="s">
@@ -61109,13 +61360,13 @@
       <c r="K717" t="s">
         <v>33</v>
       </c>
-      <c r="L717" t="s">
+      <c r="L717" s="23" t="s">
         <v>839</v>
       </c>
       <c r="M717">
         <v>8</v>
       </c>
-      <c r="N717">
+      <c r="N717" s="23">
         <v>1</v>
       </c>
       <c r="O717" t="s">
@@ -61124,7 +61375,7 @@
       <c r="P717">
         <v>3</v>
       </c>
-      <c r="Q717" t="s">
+      <c r="Q717" s="23" t="s">
         <v>137</v>
       </c>
       <c r="S717" t="s">
@@ -61136,13 +61387,13 @@
       <c r="U717" t="s">
         <v>38</v>
       </c>
-      <c r="V717" t="s">
+      <c r="V717" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="W717" t="s">
+      <c r="W717" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="X717" t="s">
+      <c r="X717" s="23" t="s">
         <v>477</v>
       </c>
       <c r="Y717" t="s">
@@ -61151,24 +61402,24 @@
       <c r="AA717" t="s">
         <v>40</v>
       </c>
-      <c r="AB717" t="s">
+      <c r="AB717" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC717" t="s">
+      <c r="AC717" s="23" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="718" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="1" t="s">
+      <c r="A718" s="22" t="s">
         <v>717</v>
       </c>
       <c r="B718" t="s">
         <v>29</v>
       </c>
-      <c r="C718">
+      <c r="C718" s="23">
         <v>8</v>
       </c>
-      <c r="D718" t="s">
+      <c r="D718" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E718">
@@ -61180,7 +61431,7 @@
       <c r="G718">
         <v>2</v>
       </c>
-      <c r="H718" t="s">
+      <c r="H718" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I718" t="s">
@@ -61192,13 +61443,13 @@
       <c r="K718" t="s">
         <v>33</v>
       </c>
-      <c r="L718" t="s">
+      <c r="L718" s="23" t="s">
         <v>839</v>
       </c>
       <c r="M718">
         <v>8</v>
       </c>
-      <c r="N718">
+      <c r="N718" s="23">
         <v>1</v>
       </c>
       <c r="O718" t="s">
@@ -61207,7 +61458,7 @@
       <c r="P718">
         <v>3</v>
       </c>
-      <c r="Q718" t="s">
+      <c r="Q718" s="23" t="s">
         <v>141</v>
       </c>
       <c r="S718" t="s">
@@ -61219,16 +61470,19 @@
       <c r="U718" t="s">
         <v>38</v>
       </c>
+      <c r="V718" s="23"/>
+      <c r="W718" s="23"/>
+      <c r="X718" s="23"/>
       <c r="Y718" t="s">
         <v>39</v>
       </c>
       <c r="AA718" t="s">
         <v>40</v>
       </c>
-      <c r="AB718" t="s">
+      <c r="AB718" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC718" t="s">
+      <c r="AC718" s="23" t="s">
         <v>890</v>
       </c>
     </row>
@@ -61399,16 +61653,16 @@
       </c>
     </row>
     <row r="721" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="1" t="s">
+      <c r="A721" s="22" t="s">
         <v>718</v>
       </c>
       <c r="B721" t="s">
         <v>29</v>
       </c>
-      <c r="C721">
+      <c r="C721" s="23">
         <v>6</v>
       </c>
-      <c r="D721" t="s">
+      <c r="D721" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E721">
@@ -61420,7 +61674,7 @@
       <c r="G721">
         <v>2</v>
       </c>
-      <c r="H721" t="s">
+      <c r="H721" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I721" t="s">
@@ -61432,13 +61686,13 @@
       <c r="K721" t="s">
         <v>33</v>
       </c>
-      <c r="L721" t="s">
+      <c r="L721" s="23" t="s">
         <v>839</v>
       </c>
       <c r="M721">
         <v>8</v>
       </c>
-      <c r="N721">
+      <c r="N721" s="23">
         <v>1</v>
       </c>
       <c r="O721" t="s">
@@ -61447,7 +61701,7 @@
       <c r="P721">
         <v>3</v>
       </c>
-      <c r="Q721" t="s">
+      <c r="Q721" s="23" t="s">
         <v>143</v>
       </c>
       <c r="R721" t="s">
@@ -61462,30 +61716,33 @@
       <c r="U721" t="s">
         <v>38</v>
       </c>
+      <c r="V721" s="23"/>
+      <c r="W721" s="23"/>
+      <c r="X721" s="23"/>
       <c r="Y721" t="s">
         <v>39</v>
       </c>
       <c r="AA721" t="s">
         <v>40</v>
       </c>
-      <c r="AB721" t="s">
+      <c r="AB721" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="AC721" t="s">
+      <c r="AC721" s="23" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="722" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A722" s="1" t="s">
+      <c r="A722" s="24" t="s">
         <v>774</v>
       </c>
       <c r="B722" t="s">
         <v>29</v>
       </c>
-      <c r="C722">
+      <c r="C722" s="25">
         <v>6</v>
       </c>
-      <c r="D722" t="s">
+      <c r="D722" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E722">
@@ -61497,7 +61754,7 @@
       <c r="G722">
         <v>4</v>
       </c>
-      <c r="H722" t="s">
+      <c r="H722" s="25" t="s">
         <v>775</v>
       </c>
       <c r="I722" t="s">
@@ -61509,13 +61766,13 @@
       <c r="K722" t="s">
         <v>33</v>
       </c>
-      <c r="L722" t="s">
+      <c r="L722" s="25" t="s">
         <v>839</v>
       </c>
       <c r="M722">
         <v>8</v>
       </c>
-      <c r="N722">
+      <c r="N722" s="25">
         <v>1</v>
       </c>
       <c r="O722" t="s">
@@ -61524,7 +61781,7 @@
       <c r="P722">
         <v>3</v>
       </c>
-      <c r="Q722" t="s">
+      <c r="Q722" s="25" t="s">
         <v>123</v>
       </c>
       <c r="S722" t="s">
@@ -61536,13 +61793,13 @@
       <c r="U722" t="s">
         <v>38</v>
       </c>
-      <c r="V722" t="s">
+      <c r="V722" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="W722" t="s">
+      <c r="W722" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="X722" t="s">
+      <c r="X722" s="25" t="s">
         <v>465</v>
       </c>
       <c r="Y722" t="s">
@@ -61551,24 +61808,24 @@
       <c r="AA722" t="s">
         <v>40</v>
       </c>
-      <c r="AB722" t="s">
+      <c r="AB722" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AC722" t="s">
+      <c r="AC722" s="25" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="723" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="1" t="s">
+      <c r="A723" s="24" t="s">
         <v>778</v>
       </c>
       <c r="B723" t="s">
         <v>29</v>
       </c>
-      <c r="C723">
+      <c r="C723" s="25">
         <v>7</v>
       </c>
-      <c r="D723" t="s">
+      <c r="D723" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E723">
@@ -61580,7 +61837,7 @@
       <c r="G723">
         <v>4</v>
       </c>
-      <c r="H723" t="s">
+      <c r="H723" s="25" t="s">
         <v>775</v>
       </c>
       <c r="I723" t="s">
@@ -61592,13 +61849,13 @@
       <c r="K723" t="s">
         <v>33</v>
       </c>
-      <c r="L723" t="s">
+      <c r="L723" s="25" t="s">
         <v>839</v>
       </c>
       <c r="M723">
         <v>8</v>
       </c>
-      <c r="N723">
+      <c r="N723" s="25">
         <v>1</v>
       </c>
       <c r="O723" t="s">
@@ -61607,7 +61864,7 @@
       <c r="P723">
         <v>3</v>
       </c>
-      <c r="Q723" t="s">
+      <c r="Q723" s="25" t="s">
         <v>126</v>
       </c>
       <c r="S723" t="s">
@@ -61619,16 +61876,19 @@
       <c r="U723" t="s">
         <v>38</v>
       </c>
+      <c r="V723" s="25"/>
+      <c r="W723" s="25"/>
+      <c r="X723" s="25"/>
       <c r="Y723" t="s">
         <v>39</v>
       </c>
       <c r="AA723" t="s">
         <v>47</v>
       </c>
-      <c r="AB723" t="s">
+      <c r="AB723" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AC723" t="s">
+      <c r="AC723" s="25" t="s">
         <v>826</v>
       </c>
     </row>
@@ -61799,16 +62059,16 @@
       </c>
     </row>
     <row r="726" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
+      <c r="A726" s="24" t="s">
         <v>779</v>
       </c>
       <c r="B726" t="s">
         <v>29</v>
       </c>
-      <c r="C726">
+      <c r="C726" s="25">
         <v>6</v>
       </c>
-      <c r="D726" t="s">
+      <c r="D726" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E726">
@@ -61820,7 +62080,7 @@
       <c r="G726">
         <v>4</v>
       </c>
-      <c r="H726" t="s">
+      <c r="H726" s="25" t="s">
         <v>775</v>
       </c>
       <c r="I726" t="s">
@@ -61832,13 +62092,13 @@
       <c r="K726" t="s">
         <v>33</v>
       </c>
-      <c r="L726" t="s">
+      <c r="L726" s="25" t="s">
         <v>839</v>
       </c>
       <c r="M726">
         <v>8</v>
       </c>
-      <c r="N726">
+      <c r="N726" s="25">
         <v>1</v>
       </c>
       <c r="O726" t="s">
@@ -61847,7 +62107,7 @@
       <c r="P726">
         <v>3</v>
       </c>
-      <c r="Q726" t="s">
+      <c r="Q726" s="25" t="s">
         <v>128</v>
       </c>
       <c r="S726" t="s">
@@ -61859,16 +62119,19 @@
       <c r="U726" t="s">
         <v>38</v>
       </c>
+      <c r="V726" s="25"/>
+      <c r="W726" s="25"/>
+      <c r="X726" s="25"/>
       <c r="Y726" t="s">
         <v>39</v>
       </c>
       <c r="AA726" t="s">
         <v>40</v>
       </c>
-      <c r="AB726" t="s">
+      <c r="AB726" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AC726" t="s">
+      <c r="AC726" s="25" t="s">
         <v>826</v>
       </c>
     </row>
@@ -61956,16 +62219,16 @@
       </c>
     </row>
     <row r="728" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="1" t="s">
+      <c r="A728" s="24" t="s">
         <v>780</v>
       </c>
       <c r="B728" t="s">
         <v>29</v>
       </c>
-      <c r="C728">
+      <c r="C728" s="25">
         <v>6</v>
       </c>
-      <c r="D728" t="s">
+      <c r="D728" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E728">
@@ -61977,7 +62240,7 @@
       <c r="G728">
         <v>4</v>
       </c>
-      <c r="H728" t="s">
+      <c r="H728" s="25" t="s">
         <v>775</v>
       </c>
       <c r="I728" t="s">
@@ -61989,13 +62252,13 @@
       <c r="K728" t="s">
         <v>33</v>
       </c>
-      <c r="L728" t="s">
+      <c r="L728" s="25" t="s">
         <v>839</v>
       </c>
       <c r="M728">
         <v>8</v>
       </c>
-      <c r="N728">
+      <c r="N728" s="25">
         <v>1</v>
       </c>
       <c r="O728" t="s">
@@ -62004,7 +62267,7 @@
       <c r="P728">
         <v>3</v>
       </c>
-      <c r="Q728" t="s">
+      <c r="Q728" s="25" t="s">
         <v>130</v>
       </c>
       <c r="S728" t="s">
@@ -62016,13 +62279,13 @@
       <c r="U728" t="s">
         <v>38</v>
       </c>
-      <c r="V728" t="s">
+      <c r="V728" s="25" t="s">
         <v>842</v>
       </c>
-      <c r="W728" t="s">
+      <c r="W728" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="X728" t="s">
+      <c r="X728" s="25" t="s">
         <v>844</v>
       </c>
       <c r="Y728" t="s">
@@ -62031,24 +62294,24 @@
       <c r="AA728" t="s">
         <v>40</v>
       </c>
-      <c r="AB728" t="s">
+      <c r="AB728" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AC728" t="s">
+      <c r="AC728" s="25" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="729" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="1" t="s">
+      <c r="A729" s="24" t="s">
         <v>781</v>
       </c>
       <c r="B729" t="s">
         <v>29</v>
       </c>
-      <c r="C729">
+      <c r="C729" s="25">
         <v>6</v>
       </c>
-      <c r="D729" t="s">
+      <c r="D729" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E729">
@@ -62060,7 +62323,7 @@
       <c r="G729">
         <v>4</v>
       </c>
-      <c r="H729" t="s">
+      <c r="H729" s="25" t="s">
         <v>775</v>
       </c>
       <c r="I729" t="s">
@@ -62072,13 +62335,13 @@
       <c r="K729" t="s">
         <v>33</v>
       </c>
-      <c r="L729" t="s">
+      <c r="L729" s="25" t="s">
         <v>839</v>
       </c>
       <c r="M729">
         <v>8</v>
       </c>
-      <c r="N729">
+      <c r="N729" s="25">
         <v>1</v>
       </c>
       <c r="O729" t="s">
@@ -62087,7 +62350,7 @@
       <c r="P729">
         <v>3</v>
       </c>
-      <c r="Q729" t="s">
+      <c r="Q729" s="25" t="s">
         <v>135</v>
       </c>
       <c r="S729" t="s">
@@ -62099,16 +62362,19 @@
       <c r="U729" t="s">
         <v>38</v>
       </c>
+      <c r="V729" s="25"/>
+      <c r="W729" s="25"/>
+      <c r="X729" s="25"/>
       <c r="Y729" t="s">
         <v>39</v>
       </c>
       <c r="AA729" t="s">
         <v>40</v>
       </c>
-      <c r="AB729" t="s">
+      <c r="AB729" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AC729" t="s">
+      <c r="AC729" s="25" t="s">
         <v>826</v>
       </c>
     </row>
@@ -62279,16 +62545,16 @@
       </c>
     </row>
     <row r="732" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="1" t="s">
+      <c r="A732" s="24" t="s">
         <v>782</v>
       </c>
       <c r="B732" t="s">
         <v>29</v>
       </c>
-      <c r="C732">
+      <c r="C732" s="25">
         <v>6</v>
       </c>
-      <c r="D732" t="s">
+      <c r="D732" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E732">
@@ -62300,7 +62566,7 @@
       <c r="G732">
         <v>4</v>
       </c>
-      <c r="H732" t="s">
+      <c r="H732" s="25" t="s">
         <v>775</v>
       </c>
       <c r="I732" t="s">
@@ -62312,13 +62578,13 @@
       <c r="K732" t="s">
         <v>33</v>
       </c>
-      <c r="L732" t="s">
+      <c r="L732" s="25" t="s">
         <v>839</v>
       </c>
       <c r="M732">
         <v>8</v>
       </c>
-      <c r="N732">
+      <c r="N732" s="25">
         <v>1</v>
       </c>
       <c r="O732" t="s">
@@ -62327,7 +62593,7 @@
       <c r="P732">
         <v>3</v>
       </c>
-      <c r="Q732" t="s">
+      <c r="Q732" s="25" t="s">
         <v>137</v>
       </c>
       <c r="S732" t="s">
@@ -62339,13 +62605,13 @@
       <c r="U732" t="s">
         <v>38</v>
       </c>
-      <c r="V732" t="s">
+      <c r="V732" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="W732" t="s">
+      <c r="W732" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="X732" t="s">
+      <c r="X732" s="25" t="s">
         <v>477</v>
       </c>
       <c r="Y732" t="s">
@@ -62354,24 +62620,24 @@
       <c r="AA732" t="s">
         <v>40</v>
       </c>
-      <c r="AB732" t="s">
+      <c r="AB732" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AC732" t="s">
+      <c r="AC732" s="25" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="733" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="1" t="s">
+      <c r="A733" s="24" t="s">
         <v>783</v>
       </c>
       <c r="B733" t="s">
         <v>29</v>
       </c>
-      <c r="C733">
+      <c r="C733" s="25">
         <v>7</v>
       </c>
-      <c r="D733" t="s">
+      <c r="D733" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E733">
@@ -62383,7 +62649,7 @@
       <c r="G733">
         <v>4</v>
       </c>
-      <c r="H733" t="s">
+      <c r="H733" s="25" t="s">
         <v>775</v>
       </c>
       <c r="I733" t="s">
@@ -62395,13 +62661,13 @@
       <c r="K733" t="s">
         <v>33</v>
       </c>
-      <c r="L733" t="s">
+      <c r="L733" s="25" t="s">
         <v>839</v>
       </c>
       <c r="M733">
         <v>8</v>
       </c>
-      <c r="N733">
+      <c r="N733" s="25">
         <v>1</v>
       </c>
       <c r="O733" t="s">
@@ -62410,7 +62676,7 @@
       <c r="P733">
         <v>3</v>
       </c>
-      <c r="Q733" t="s">
+      <c r="Q733" s="25" t="s">
         <v>141</v>
       </c>
       <c r="S733" t="s">
@@ -62422,30 +62688,33 @@
       <c r="U733" t="s">
         <v>38</v>
       </c>
+      <c r="V733" s="25"/>
+      <c r="W733" s="25"/>
+      <c r="X733" s="25"/>
       <c r="Y733" t="s">
         <v>39</v>
       </c>
       <c r="AA733" t="s">
         <v>40</v>
       </c>
-      <c r="AB733" t="s">
+      <c r="AB733" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AC733" t="s">
+      <c r="AC733" s="25" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="734" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="1" t="s">
+      <c r="A734" s="24" t="s">
         <v>784</v>
       </c>
       <c r="B734" t="s">
         <v>29</v>
       </c>
-      <c r="C734">
+      <c r="C734" s="25">
         <v>6</v>
       </c>
-      <c r="D734" t="s">
+      <c r="D734" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E734">
@@ -62457,7 +62726,7 @@
       <c r="G734">
         <v>4</v>
       </c>
-      <c r="H734" t="s">
+      <c r="H734" s="25" t="s">
         <v>775</v>
       </c>
       <c r="I734" t="s">
@@ -62469,19 +62738,19 @@
       <c r="K734" t="s">
         <v>33</v>
       </c>
-      <c r="L734" t="s">
+      <c r="L734" s="25" t="s">
         <v>839</v>
       </c>
       <c r="M734">
         <v>8</v>
       </c>
-      <c r="N734">
+      <c r="N734" s="25">
         <v>1</v>
       </c>
       <c r="P734">
         <v>3</v>
       </c>
-      <c r="Q734" t="s">
+      <c r="Q734" s="25" t="s">
         <v>785</v>
       </c>
       <c r="R734" t="s">
@@ -62496,16 +62765,19 @@
       <c r="U734" t="s">
         <v>38</v>
       </c>
+      <c r="V734" s="25"/>
+      <c r="W734" s="25"/>
+      <c r="X734" s="25"/>
       <c r="Y734" t="s">
         <v>39</v>
       </c>
       <c r="AA734" t="s">
         <v>40</v>
       </c>
-      <c r="AB734" t="s">
+      <c r="AB734" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AC734" t="s">
+      <c r="AC734" s="25" t="s">
         <v>826</v>
       </c>
     </row>
@@ -62758,17 +63030,17 @@
         <v>826</v>
       </c>
     </row>
-    <row r="738" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="1" t="s">
+    <row r="738" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A738" s="32" t="s">
         <v>791</v>
       </c>
       <c r="B738" t="s">
         <v>29</v>
       </c>
-      <c r="C738">
-        <v>3</v>
-      </c>
-      <c r="D738" t="s">
+      <c r="C738" s="33">
+        <v>3</v>
+      </c>
+      <c r="D738" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E738">
@@ -62780,7 +63052,7 @@
       <c r="G738">
         <v>4</v>
       </c>
-      <c r="H738" t="s">
+      <c r="H738" s="33" t="s">
         <v>775</v>
       </c>
       <c r="I738" t="s">
@@ -62792,13 +63064,13 @@
       <c r="K738" t="s">
         <v>33</v>
       </c>
-      <c r="L738" t="s">
+      <c r="L738" s="33" t="s">
         <v>548</v>
       </c>
       <c r="M738">
         <v>5</v>
       </c>
-      <c r="N738">
+      <c r="N738" s="33">
         <v>3</v>
       </c>
       <c r="O738" t="s">
@@ -62807,7 +63079,7 @@
       <c r="P738">
         <v>4</v>
       </c>
-      <c r="Q738" t="s">
+      <c r="Q738" s="33" t="s">
         <v>793</v>
       </c>
       <c r="S738" t="s">
@@ -62819,13 +63091,13 @@
       <c r="U738" t="s">
         <v>38</v>
       </c>
-      <c r="V738" t="s">
+      <c r="V738" s="33" t="s">
         <v>827</v>
       </c>
-      <c r="W738" t="s">
+      <c r="W738" s="33" t="s">
         <v>828</v>
       </c>
-      <c r="X738" t="s">
+      <c r="X738" s="33" t="s">
         <v>829</v>
       </c>
       <c r="Y738" t="s">
@@ -62834,10 +63106,10 @@
       <c r="AA738" t="s">
         <v>40</v>
       </c>
-      <c r="AB738" t="s">
+      <c r="AB738" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AC738" t="s">
+      <c r="AC738" s="33" t="s">
         <v>826</v>
       </c>
     </row>
@@ -62998,17 +63270,17 @@
         <v>826</v>
       </c>
     </row>
-    <row r="741" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="1" t="s">
+    <row r="741" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A741" s="32" t="s">
         <v>794</v>
       </c>
       <c r="B741" t="s">
         <v>29</v>
       </c>
-      <c r="C741">
-        <v>3</v>
-      </c>
-      <c r="D741" t="s">
+      <c r="C741" s="33">
+        <v>3</v>
+      </c>
+      <c r="D741" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E741">
@@ -63020,7 +63292,7 @@
       <c r="G741">
         <v>4</v>
       </c>
-      <c r="H741" t="s">
+      <c r="H741" s="33" t="s">
         <v>775</v>
       </c>
       <c r="I741" t="s">
@@ -63032,13 +63304,13 @@
       <c r="K741" t="s">
         <v>33</v>
       </c>
-      <c r="L741" t="s">
+      <c r="L741" s="33" t="s">
         <v>548</v>
       </c>
       <c r="M741">
         <v>4</v>
       </c>
-      <c r="N741">
+      <c r="N741" s="33">
         <v>3</v>
       </c>
       <c r="O741" t="s">
@@ -63047,7 +63319,7 @@
       <c r="P741">
         <v>4</v>
       </c>
-      <c r="Q741" t="s">
+      <c r="Q741" s="33" t="s">
         <v>795</v>
       </c>
       <c r="S741" t="s">
@@ -63059,16 +63331,19 @@
       <c r="U741" t="s">
         <v>38</v>
       </c>
+      <c r="V741" s="33"/>
+      <c r="W741" s="33"/>
+      <c r="X741" s="33"/>
       <c r="Y741" t="s">
         <v>39</v>
       </c>
       <c r="AA741" t="s">
         <v>40</v>
       </c>
-      <c r="AB741" t="s">
+      <c r="AB741" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AC741" t="s">
+      <c r="AC741" s="33" t="s">
         <v>826</v>
       </c>
     </row>
@@ -63238,17 +63513,17 @@
         <v>826</v>
       </c>
     </row>
-    <row r="744" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="1" t="s">
+    <row r="744" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A744" s="32" t="s">
         <v>796</v>
       </c>
       <c r="B744" t="s">
         <v>29</v>
       </c>
-      <c r="C744">
-        <v>3</v>
-      </c>
-      <c r="D744" t="s">
+      <c r="C744" s="33">
+        <v>3</v>
+      </c>
+      <c r="D744" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E744">
@@ -63260,7 +63535,7 @@
       <c r="G744">
         <v>4</v>
       </c>
-      <c r="H744" t="s">
+      <c r="H744" s="33" t="s">
         <v>775</v>
       </c>
       <c r="I744" t="s">
@@ -63272,13 +63547,13 @@
       <c r="K744" t="s">
         <v>33</v>
       </c>
-      <c r="L744" t="s">
+      <c r="L744" s="33" t="s">
         <v>548</v>
       </c>
       <c r="M744">
         <v>5</v>
       </c>
-      <c r="N744">
+      <c r="N744" s="33">
         <v>3</v>
       </c>
       <c r="O744" t="s">
@@ -63287,7 +63562,7 @@
       <c r="P744">
         <v>3</v>
       </c>
-      <c r="Q744" t="s">
+      <c r="Q744" s="33" t="s">
         <v>797</v>
       </c>
       <c r="S744" t="s">
@@ -63299,16 +63574,19 @@
       <c r="U744" t="s">
         <v>38</v>
       </c>
+      <c r="V744" s="33"/>
+      <c r="W744" s="33"/>
+      <c r="X744" s="33"/>
       <c r="Y744" t="s">
         <v>39</v>
       </c>
       <c r="AA744" t="s">
         <v>40</v>
       </c>
-      <c r="AB744" t="s">
+      <c r="AB744" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AC744" t="s">
+      <c r="AC744" s="33" t="s">
         <v>826</v>
       </c>
     </row>
@@ -63626,17 +63904,17 @@
         <v>826</v>
       </c>
     </row>
-    <row r="749" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="1" t="s">
+    <row r="749" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A749" s="32" t="s">
         <v>798</v>
       </c>
       <c r="B749" t="s">
         <v>29</v>
       </c>
-      <c r="C749">
-        <v>3</v>
-      </c>
-      <c r="D749" t="s">
+      <c r="C749" s="33">
+        <v>3</v>
+      </c>
+      <c r="D749" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E749">
@@ -63648,7 +63926,7 @@
       <c r="G749">
         <v>4</v>
       </c>
-      <c r="H749" t="s">
+      <c r="H749" s="33" t="s">
         <v>775</v>
       </c>
       <c r="I749" t="s">
@@ -63660,13 +63938,13 @@
       <c r="K749" t="s">
         <v>33</v>
       </c>
-      <c r="L749" t="s">
+      <c r="L749" s="33" t="s">
         <v>548</v>
       </c>
       <c r="M749">
         <v>5</v>
       </c>
-      <c r="N749">
+      <c r="N749" s="33">
         <v>3</v>
       </c>
       <c r="O749" t="s">
@@ -63675,7 +63953,7 @@
       <c r="P749">
         <v>3</v>
       </c>
-      <c r="Q749" t="s">
+      <c r="Q749" s="33" t="s">
         <v>799</v>
       </c>
       <c r="S749" t="s">
@@ -63687,16 +63965,19 @@
       <c r="U749" t="s">
         <v>38</v>
       </c>
+      <c r="V749" s="33"/>
+      <c r="W749" s="33"/>
+      <c r="X749" s="33"/>
       <c r="Y749" t="s">
         <v>39</v>
       </c>
       <c r="AA749" t="s">
         <v>40</v>
       </c>
-      <c r="AB749" t="s">
+      <c r="AB749" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AC749" t="s">
+      <c r="AC749" s="33" t="s">
         <v>826</v>
       </c>
     </row>
@@ -63866,17 +64147,17 @@
         <v>826</v>
       </c>
     </row>
-    <row r="752" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="1" t="s">
+    <row r="752" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A752" s="32" t="s">
         <v>800</v>
       </c>
       <c r="B752" t="s">
         <v>29</v>
       </c>
-      <c r="C752">
-        <v>3</v>
-      </c>
-      <c r="D752" t="s">
+      <c r="C752" s="33">
+        <v>3</v>
+      </c>
+      <c r="D752" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E752">
@@ -63888,7 +64169,7 @@
       <c r="G752">
         <v>4</v>
       </c>
-      <c r="H752" t="s">
+      <c r="H752" s="33" t="s">
         <v>775</v>
       </c>
       <c r="I752" t="s">
@@ -63900,13 +64181,13 @@
       <c r="K752" t="s">
         <v>33</v>
       </c>
-      <c r="L752" t="s">
+      <c r="L752" s="33" t="s">
         <v>548</v>
       </c>
       <c r="M752">
         <v>3</v>
       </c>
-      <c r="N752">
+      <c r="N752" s="33">
         <v>3</v>
       </c>
       <c r="O752" t="s">
@@ -63915,7 +64196,7 @@
       <c r="P752">
         <v>3</v>
       </c>
-      <c r="Q752" t="s">
+      <c r="Q752" s="33" t="s">
         <v>801</v>
       </c>
       <c r="S752" t="s">
@@ -63927,16 +64208,19 @@
       <c r="U752" t="s">
         <v>38</v>
       </c>
+      <c r="V752" s="33"/>
+      <c r="W752" s="33"/>
+      <c r="X752" s="33"/>
       <c r="Y752" t="s">
         <v>39</v>
       </c>
       <c r="AA752" t="s">
         <v>40</v>
       </c>
-      <c r="AB752" t="s">
+      <c r="AB752" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AC752" t="s">
+      <c r="AC752" s="33" t="s">
         <v>826</v>
       </c>
     </row>
@@ -64106,17 +64390,17 @@
         <v>826</v>
       </c>
     </row>
-    <row r="755" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="1" t="s">
+    <row r="755" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A755" s="32" t="s">
         <v>802</v>
       </c>
       <c r="B755" t="s">
         <v>29</v>
       </c>
-      <c r="C755">
-        <v>3</v>
-      </c>
-      <c r="D755" t="s">
+      <c r="C755" s="33">
+        <v>3</v>
+      </c>
+      <c r="D755" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E755">
@@ -64128,7 +64412,7 @@
       <c r="G755">
         <v>4</v>
       </c>
-      <c r="H755" t="s">
+      <c r="H755" s="33" t="s">
         <v>775</v>
       </c>
       <c r="I755" t="s">
@@ -64140,13 +64424,13 @@
       <c r="K755" t="s">
         <v>33</v>
       </c>
-      <c r="L755" t="s">
+      <c r="L755" s="33" t="s">
         <v>548</v>
       </c>
       <c r="M755">
         <v>5</v>
       </c>
-      <c r="N755">
+      <c r="N755" s="33">
         <v>3</v>
       </c>
       <c r="O755" t="s">
@@ -64155,7 +64439,7 @@
       <c r="P755">
         <v>3</v>
       </c>
-      <c r="Q755" t="s">
+      <c r="Q755" s="33" t="s">
         <v>803</v>
       </c>
       <c r="S755" t="s">
@@ -64167,16 +64451,19 @@
       <c r="U755" t="s">
         <v>38</v>
       </c>
+      <c r="V755" s="33"/>
+      <c r="W755" s="33"/>
+      <c r="X755" s="33"/>
       <c r="Y755" t="s">
         <v>39</v>
       </c>
       <c r="AA755" t="s">
         <v>40</v>
       </c>
-      <c r="AB755" t="s">
+      <c r="AB755" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AC755" t="s">
+      <c r="AC755" s="33" t="s">
         <v>826</v>
       </c>
     </row>
@@ -64337,17 +64624,17 @@
         <v>826</v>
       </c>
     </row>
-    <row r="758" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A758" s="1" t="s">
+    <row r="758" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A758" s="32" t="s">
         <v>804</v>
       </c>
       <c r="B758" t="s">
         <v>29</v>
       </c>
-      <c r="C758">
-        <v>3</v>
-      </c>
-      <c r="D758" t="s">
+      <c r="C758" s="33">
+        <v>3</v>
+      </c>
+      <c r="D758" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E758">
@@ -64359,7 +64646,7 @@
       <c r="G758">
         <v>4</v>
       </c>
-      <c r="H758" t="s">
+      <c r="H758" s="33" t="s">
         <v>775</v>
       </c>
       <c r="I758" t="s">
@@ -64371,13 +64658,13 @@
       <c r="K758" t="s">
         <v>33</v>
       </c>
-      <c r="L758" t="s">
+      <c r="L758" s="33" t="s">
         <v>548</v>
       </c>
       <c r="M758">
         <v>5</v>
       </c>
-      <c r="N758">
+      <c r="N758" s="33">
         <v>3</v>
       </c>
       <c r="O758" t="s">
@@ -64386,7 +64673,7 @@
       <c r="P758">
         <v>3</v>
       </c>
-      <c r="Q758" t="s">
+      <c r="Q758" s="33" t="s">
         <v>805</v>
       </c>
       <c r="S758" t="s">
@@ -64398,16 +64685,19 @@
       <c r="U758" t="s">
         <v>38</v>
       </c>
+      <c r="V758" s="33"/>
+      <c r="W758" s="33"/>
+      <c r="X758" s="33"/>
       <c r="Y758" t="s">
         <v>39</v>
       </c>
       <c r="AA758" t="s">
         <v>40</v>
       </c>
-      <c r="AB758" t="s">
+      <c r="AB758" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AC758" t="s">
+      <c r="AC758" s="33" t="s">
         <v>826</v>
       </c>
     </row>
